--- a/Artefatos/sprints/Planejamento_sprints.xlsx
+++ b/Artefatos/sprints/Planejamento_sprints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e66f0b7e9f7bd981/Documentos/1 - Engenharia de Software/3 Periodo/Trabalho interdisciplinar/plf-es-2023-2-ti3-6653100-fabrica-do-saber/Artefatos/sprints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="676" documentId="8_{B97FCFAF-DD29-4C0B-BA0F-F002D0BE0E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896EAE89-F909-425F-B042-D62E29488288}"/>
+  <xr:revisionPtr revIDLastSave="684" documentId="8_{B97FCFAF-DD29-4C0B-BA0F-F002D0BE0E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4B3893D-E541-4785-86DE-EA8CC7CE7DF0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Projeto" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="96">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -649,7 +649,10 @@
     <t>O administrador cadastra receitas.</t>
   </si>
   <si>
-    <t>O usuário emite boletos.</t>
+    <t>O administrador emite boletos.</t>
+  </si>
+  <si>
+    <t>O administrador pode logar no sistema</t>
   </si>
 </sst>
 </file>
@@ -1226,16 +1229,35 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1245,47 +1267,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1301,6 +1296,14 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1310,6 +1313,11 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1319,11 +1327,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
@@ -3095,166 +3098,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="80"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="80"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="74" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="65" t="s">
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="65" t="s">
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="65" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="65" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="65" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="67"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="65" t="s">
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="18"/>
@@ -3356,16 +3359,16 @@
     <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="50"/>
-      <c r="B100" s="68"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="69" t="s">
+      <c r="B100" s="78"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="60"/>
-      <c r="F100" s="69" t="s">
+      <c r="E100" s="63"/>
+      <c r="F100" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="60"/>
+      <c r="G100" s="63"/>
       <c r="H100" s="51" t="s">
         <v>18</v>
       </c>
@@ -3387,12 +3390,12 @@
     </row>
     <row r="101" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="64" t="s">
+      <c r="B101" s="81"/>
+      <c r="C101" s="63"/>
+      <c r="D101" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="60"/>
+      <c r="E101" s="63"/>
       <c r="F101" s="53" t="s">
         <v>24</v>
       </c>
@@ -3425,12 +3428,12 @@
     </row>
     <row r="102" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="50"/>
-      <c r="B102" s="59"/>
-      <c r="C102" s="60"/>
-      <c r="D102" s="64" t="s">
+      <c r="B102" s="81"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="60"/>
+      <c r="E102" s="63"/>
       <c r="F102" s="53" t="s">
         <v>29</v>
       </c>
@@ -3464,12 +3467,12 @@
     </row>
     <row r="103" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="50"/>
-      <c r="B103" s="59"/>
-      <c r="C103" s="60"/>
-      <c r="D103" s="64" t="s">
+      <c r="B103" s="81"/>
+      <c r="C103" s="63"/>
+      <c r="D103" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="60"/>
+      <c r="E103" s="63"/>
       <c r="F103" s="53"/>
       <c r="G103" s="54" t="s">
         <v>34</v>
@@ -3501,12 +3504,12 @@
     </row>
     <row r="104" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="50"/>
-      <c r="B104" s="59"/>
-      <c r="C104" s="60"/>
-      <c r="D104" s="64" t="s">
+      <c r="B104" s="81"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="60"/>
+      <c r="E104" s="63"/>
       <c r="F104" s="53"/>
       <c r="G104" s="54" t="s">
         <v>36</v>
@@ -3536,12 +3539,12 @@
     </row>
     <row r="105" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="50"/>
-      <c r="B105" s="59"/>
-      <c r="C105" s="60"/>
-      <c r="D105" s="64" t="s">
+      <c r="B105" s="81"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="60"/>
+      <c r="E105" s="63"/>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="s">
         <v>39</v>
@@ -3566,8 +3569,8 @@
     </row>
     <row r="106" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="50"/>
-      <c r="B106" s="59"/>
-      <c r="C106" s="60"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="63"/>
       <c r="F106" s="53"/>
       <c r="G106" s="54"/>
       <c r="H106" s="53"/>
@@ -3578,8 +3581,8 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="50"/>
-      <c r="B107" s="59"/>
-      <c r="C107" s="60"/>
+      <c r="B107" s="81"/>
+      <c r="C107" s="63"/>
       <c r="D107" s="55"/>
       <c r="E107" s="53"/>
       <c r="F107" s="53"/>
@@ -4547,24 +4550,12 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D105:E105"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="D100:E100"/>
@@ -4576,12 +4567,24 @@
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="F10:F15" xr:uid="{49EDF03A-7EFB-435C-A992-40D98DE85B41}">
@@ -4606,8 +4609,8 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4624,59 +4627,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="80"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="80"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -4692,12 +4695,12 @@
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -4712,12 +4715,12 @@
       <c r="B9" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
@@ -4732,8 +4735,8 @@
       <c r="E10" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
@@ -4748,9 +4751,9 @@
       <c r="D11" s="14">
         <v>45190</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4764,9 +4767,9 @@
         <f t="shared" ref="D12" si="0">C12+13</f>
         <v>45204</v>
       </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4780,9 +4783,9 @@
       <c r="D13" s="14">
         <v>45225</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4795,9 +4798,9 @@
       <c r="D14" s="14">
         <v>45246</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4836,13 +4839,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
       <c r="H18" s="22" t="s">
         <v>47</v>
       </c>
@@ -4851,11 +4854,11 @@
       <c r="B19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
@@ -4865,11 +4868,11 @@
       <c r="B20" s="27">
         <v>0</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="28"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -4886,13 +4889,13 @@
       <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="12" t="s">
         <v>52</v>
       </c>
@@ -4902,13 +4905,13 @@
       <c r="B22" s="27">
         <v>2</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="12" t="s">
         <v>49</v>
       </c>
@@ -4917,13 +4920,13 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="12" t="s">
         <v>49</v>
       </c>
@@ -4932,13 +4935,13 @@
       <c r="B24" s="27">
         <v>4</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="12" t="s">
         <v>49</v>
       </c>
@@ -4947,13 +4950,13 @@
       <c r="B25" s="9">
         <v>5</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="71"/>
       <c r="H25" s="12" t="s">
         <v>49</v>
       </c>
@@ -4962,13 +4965,13 @@
       <c r="B26" s="27">
         <v>6</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="12" t="s">
         <v>49</v>
       </c>
@@ -4977,13 +4980,13 @@
       <c r="B27" s="9">
         <v>7</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="12" t="s">
         <v>49</v>
       </c>
@@ -4992,13 +4995,13 @@
       <c r="B28" s="27">
         <v>8</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="12" t="s">
         <v>49</v>
       </c>
@@ -5007,13 +5010,13 @@
       <c r="B29" s="9">
         <v>9</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="12" t="s">
         <v>49</v>
       </c>
@@ -5022,13 +5025,13 @@
       <c r="B30" s="27">
         <v>10</v>
       </c>
-      <c r="C30" s="98" t="s">
+      <c r="C30" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="100"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="97"/>
       <c r="H30" s="12" t="s">
         <v>49</v>
       </c>
@@ -5037,13 +5040,13 @@
       <c r="B31" s="9">
         <v>11</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="12" t="s">
         <v>49</v>
       </c>
@@ -5052,13 +5055,13 @@
       <c r="B32" s="27">
         <v>12</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="C32" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="86"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="90"/>
       <c r="H32" s="12" t="s">
         <v>52</v>
       </c>
@@ -5067,24 +5070,26 @@
       <c r="B33" s="9">
         <v>13</v>
       </c>
-      <c r="C33" s="83"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="63"/>
+      <c r="C33" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="90"/>
       <c r="H33" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="27">
         <v>14</v>
       </c>
-      <c r="C34" s="83"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="71"/>
       <c r="H34" s="12" t="s">
         <v>49</v>
       </c>
@@ -5093,11 +5098,11 @@
       <c r="B35" s="9">
         <v>15</v>
       </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
       <c r="H35" s="12" t="s">
         <v>49</v>
       </c>
@@ -5106,11 +5111,11 @@
       <c r="B36" s="27">
         <v>16</v>
       </c>
-      <c r="C36" s="83"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="71"/>
       <c r="H36" s="12" t="s">
         <v>49</v>
       </c>
@@ -5119,11 +5124,11 @@
       <c r="B37" s="9">
         <v>17</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="63"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="71"/>
       <c r="H37" s="12" t="s">
         <v>49</v>
       </c>
@@ -5132,11 +5137,11 @@
       <c r="B38" s="27">
         <v>18</v>
       </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="63"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="71"/>
       <c r="H38" s="12" t="s">
         <v>49</v>
       </c>
@@ -5145,11 +5150,11 @@
       <c r="B39" s="9">
         <v>19</v>
       </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="63"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="71"/>
       <c r="H39" s="12" t="s">
         <v>49</v>
       </c>
@@ -5158,11 +5163,11 @@
       <c r="B40" s="27">
         <v>20</v>
       </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="63"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="71"/>
       <c r="H40" s="12" t="s">
         <v>49</v>
       </c>
@@ -5171,11 +5176,11 @@
       <c r="B41" s="9">
         <v>21</v>
       </c>
-      <c r="C41" s="83"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="63"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="12" t="s">
         <v>49</v>
       </c>
@@ -5184,11 +5189,11 @@
       <c r="B42" s="27">
         <v>22</v>
       </c>
-      <c r="C42" s="83"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="63"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="71"/>
       <c r="H42" s="12" t="s">
         <v>49</v>
       </c>
@@ -5197,11 +5202,11 @@
       <c r="B43" s="9">
         <v>23</v>
       </c>
-      <c r="C43" s="83"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="63"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="71"/>
       <c r="H43" s="12" t="s">
         <v>49</v>
       </c>
@@ -5210,11 +5215,11 @@
       <c r="B44" s="27">
         <v>24</v>
       </c>
-      <c r="C44" s="83"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="63"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="71"/>
       <c r="H44" s="12" t="s">
         <v>49</v>
       </c>
@@ -5223,11 +5228,11 @@
       <c r="B45" s="9">
         <v>25</v>
       </c>
-      <c r="C45" s="83"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="63"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="71"/>
       <c r="H45" s="12" t="s">
         <v>49</v>
       </c>
@@ -5236,11 +5241,11 @@
       <c r="B46" s="27">
         <v>26</v>
       </c>
-      <c r="C46" s="83"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="63"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="71"/>
       <c r="H46" s="12" t="s">
         <v>49</v>
       </c>
@@ -5249,11 +5254,11 @@
       <c r="B47" s="9">
         <v>27</v>
       </c>
-      <c r="C47" s="83"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="63"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="71"/>
       <c r="H47" s="12" t="s">
         <v>49</v>
       </c>
@@ -5262,11 +5267,11 @@
       <c r="B48" s="27">
         <v>28</v>
       </c>
-      <c r="C48" s="83"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="63"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="71"/>
       <c r="H48" s="12" t="s">
         <v>49</v>
       </c>
@@ -5275,11 +5280,11 @@
       <c r="B49" s="9">
         <v>29</v>
       </c>
-      <c r="C49" s="83"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="63"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="71"/>
       <c r="H49" s="12" t="s">
         <v>49</v>
       </c>
@@ -5288,11 +5293,11 @@
       <c r="B50" s="27">
         <v>30</v>
       </c>
-      <c r="C50" s="83"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="63"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="71"/>
       <c r="H50" s="12" t="s">
         <v>49</v>
       </c>
@@ -5301,11 +5306,11 @@
       <c r="B51" s="9">
         <v>31</v>
       </c>
-      <c r="C51" s="83"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="63"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="71"/>
       <c r="H51" s="12" t="s">
         <v>49</v>
       </c>
@@ -5314,11 +5319,11 @@
       <c r="B52" s="27">
         <v>32</v>
       </c>
-      <c r="C52" s="83"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="63"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="71"/>
       <c r="H52" s="12" t="s">
         <v>49</v>
       </c>
@@ -5327,11 +5332,11 @@
       <c r="B53" s="9">
         <v>33</v>
       </c>
-      <c r="C53" s="83"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="63"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="71"/>
       <c r="H53" s="12" t="s">
         <v>49</v>
       </c>
@@ -5340,11 +5345,11 @@
       <c r="B54" s="27">
         <v>34</v>
       </c>
-      <c r="C54" s="83"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="63"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="71"/>
       <c r="H54" s="12" t="s">
         <v>49</v>
       </c>
@@ -5353,11 +5358,11 @@
       <c r="B55" s="9">
         <v>35</v>
       </c>
-      <c r="C55" s="83"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="63"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="71"/>
       <c r="H55" s="12" t="s">
         <v>49</v>
       </c>
@@ -5366,11 +5371,11 @@
       <c r="B56" s="27">
         <v>36</v>
       </c>
-      <c r="C56" s="83"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="63"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="71"/>
       <c r="H56" s="12" t="s">
         <v>49</v>
       </c>
@@ -5379,11 +5384,11 @@
       <c r="B57" s="9">
         <v>37</v>
       </c>
-      <c r="C57" s="83"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="63"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="71"/>
       <c r="H57" s="12" t="s">
         <v>49</v>
       </c>
@@ -5392,11 +5397,11 @@
       <c r="B58" s="27">
         <v>38</v>
       </c>
-      <c r="C58" s="83"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="63"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="71"/>
       <c r="H58" s="12" t="s">
         <v>49</v>
       </c>
@@ -5405,11 +5410,11 @@
       <c r="B59" s="9">
         <v>39</v>
       </c>
-      <c r="C59" s="83"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="63"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="71"/>
       <c r="H59" s="12" t="s">
         <v>49</v>
       </c>
@@ -5418,11 +5423,11 @@
       <c r="B60" s="27">
         <v>40</v>
       </c>
-      <c r="C60" s="83"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="63"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="71"/>
       <c r="H60" s="12" t="s">
         <v>49</v>
       </c>
@@ -5431,11 +5436,11 @@
       <c r="B61" s="9">
         <v>41</v>
       </c>
-      <c r="C61" s="83"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="63"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="71"/>
       <c r="H61" s="12" t="s">
         <v>49</v>
       </c>
@@ -5444,11 +5449,11 @@
       <c r="B62" s="27">
         <v>42</v>
       </c>
-      <c r="C62" s="83"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="63"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="71"/>
       <c r="H62" s="12" t="s">
         <v>49</v>
       </c>
@@ -5457,11 +5462,11 @@
       <c r="B63" s="9">
         <v>43</v>
       </c>
-      <c r="C63" s="83"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="63"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="71"/>
       <c r="H63" s="12" t="s">
         <v>49</v>
       </c>
@@ -5470,11 +5475,11 @@
       <c r="B64" s="27">
         <v>44</v>
       </c>
-      <c r="C64" s="83"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="71"/>
       <c r="H64" s="12" t="s">
         <v>49</v>
       </c>
@@ -5483,11 +5488,11 @@
       <c r="B65" s="9">
         <v>45</v>
       </c>
-      <c r="C65" s="83"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="63"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="71"/>
       <c r="H65" s="12" t="s">
         <v>49</v>
       </c>
@@ -5496,11 +5501,11 @@
       <c r="B66" s="27">
         <v>46</v>
       </c>
-      <c r="C66" s="83"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="71"/>
       <c r="H66" s="12" t="s">
         <v>49</v>
       </c>
@@ -5509,11 +5514,11 @@
       <c r="B67" s="9">
         <v>47</v>
       </c>
-      <c r="C67" s="83"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="63"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="71"/>
       <c r="H67" s="12" t="s">
         <v>49</v>
       </c>
@@ -5522,11 +5527,11 @@
       <c r="B68" s="27">
         <v>48</v>
       </c>
-      <c r="C68" s="83"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="71"/>
       <c r="H68" s="12" t="s">
         <v>49</v>
       </c>
@@ -5535,11 +5540,11 @@
       <c r="B69" s="9">
         <v>49</v>
       </c>
-      <c r="C69" s="83"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="63"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="71"/>
       <c r="H69" s="12" t="s">
         <v>49</v>
       </c>
@@ -5548,11 +5553,11 @@
       <c r="B70" s="27">
         <v>50</v>
       </c>
-      <c r="C70" s="83"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="63"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="71"/>
       <c r="H70" s="12" t="s">
         <v>49</v>
       </c>
@@ -5561,11 +5566,11 @@
       <c r="B71" s="9">
         <v>51</v>
       </c>
-      <c r="C71" s="83"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="63"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="71"/>
       <c r="H71" s="12" t="s">
         <v>49</v>
       </c>
@@ -5574,11 +5579,11 @@
       <c r="B72" s="27">
         <v>52</v>
       </c>
-      <c r="C72" s="83"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="63"/>
+      <c r="C72" s="91"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="71"/>
       <c r="H72" s="12" t="s">
         <v>49</v>
       </c>
@@ -5587,11 +5592,11 @@
       <c r="B73" s="9">
         <v>53</v>
       </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="63"/>
+      <c r="C73" s="91"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="71"/>
       <c r="H73" s="12" t="s">
         <v>49</v>
       </c>
@@ -5600,11 +5605,11 @@
       <c r="B74" s="27">
         <v>54</v>
       </c>
-      <c r="C74" s="83"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
+      <c r="C74" s="91"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="71"/>
       <c r="H74" s="12" t="s">
         <v>49</v>
       </c>
@@ -5613,11 +5618,11 @@
       <c r="B75" s="9">
         <v>55</v>
       </c>
-      <c r="C75" s="83"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="63"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="71"/>
       <c r="H75" s="12" t="s">
         <v>49</v>
       </c>
@@ -5626,11 +5631,11 @@
       <c r="B76" s="27">
         <v>56</v>
       </c>
-      <c r="C76" s="83"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="71"/>
       <c r="H76" s="12" t="s">
         <v>49</v>
       </c>
@@ -5639,11 +5644,11 @@
       <c r="B77" s="9">
         <v>57</v>
       </c>
-      <c r="C77" s="83"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="63"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="71"/>
       <c r="H77" s="12" t="s">
         <v>49</v>
       </c>
@@ -5652,11 +5657,11 @@
       <c r="B78" s="27">
         <v>58</v>
       </c>
-      <c r="C78" s="83"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="71"/>
       <c r="H78" s="12" t="s">
         <v>49</v>
       </c>
@@ -5665,11 +5670,11 @@
       <c r="B79" s="9">
         <v>59</v>
       </c>
-      <c r="C79" s="83"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="63"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="71"/>
       <c r="H79" s="12" t="s">
         <v>49</v>
       </c>
@@ -5678,11 +5683,11 @@
       <c r="B80" s="27">
         <v>60</v>
       </c>
-      <c r="C80" s="83"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
+      <c r="C80" s="91"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="71"/>
       <c r="H80" s="12" t="s">
         <v>49</v>
       </c>
@@ -5691,11 +5696,11 @@
       <c r="B81" s="9">
         <v>61</v>
       </c>
-      <c r="C81" s="83"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="63"/>
+      <c r="C81" s="91"/>
+      <c r="D81" s="70"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="71"/>
       <c r="H81" s="12" t="s">
         <v>49</v>
       </c>
@@ -5704,11 +5709,11 @@
       <c r="B82" s="27">
         <v>62</v>
       </c>
-      <c r="C82" s="83"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="63"/>
+      <c r="C82" s="91"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="70"/>
+      <c r="G82" s="71"/>
       <c r="H82" s="12" t="s">
         <v>49</v>
       </c>
@@ -5717,11 +5722,11 @@
       <c r="B83" s="9">
         <v>63</v>
       </c>
-      <c r="C83" s="83"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="63"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="71"/>
       <c r="H83" s="12" t="s">
         <v>49</v>
       </c>
@@ -5730,11 +5735,11 @@
       <c r="B84" s="27">
         <v>64</v>
       </c>
-      <c r="C84" s="83"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="63"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="70"/>
+      <c r="G84" s="71"/>
       <c r="H84" s="12" t="s">
         <v>49</v>
       </c>
@@ -5743,11 +5748,11 @@
       <c r="B85" s="9">
         <v>65</v>
       </c>
-      <c r="C85" s="83"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="63"/>
+      <c r="C85" s="91"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="71"/>
       <c r="H85" s="12" t="s">
         <v>49</v>
       </c>
@@ -5756,11 +5761,11 @@
       <c r="B86" s="27">
         <v>66</v>
       </c>
-      <c r="C86" s="83"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
+      <c r="C86" s="91"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="70"/>
+      <c r="G86" s="71"/>
       <c r="H86" s="12" t="s">
         <v>49</v>
       </c>
@@ -5769,11 +5774,11 @@
       <c r="B87" s="9">
         <v>67</v>
       </c>
-      <c r="C87" s="83"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="63"/>
+      <c r="C87" s="91"/>
+      <c r="D87" s="70"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="71"/>
       <c r="H87" s="12" t="s">
         <v>49</v>
       </c>
@@ -5782,11 +5787,11 @@
       <c r="B88" s="27">
         <v>68</v>
       </c>
-      <c r="C88" s="83"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="63"/>
+      <c r="C88" s="91"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="70"/>
+      <c r="G88" s="71"/>
       <c r="H88" s="12" t="s">
         <v>49</v>
       </c>
@@ -5795,11 +5800,11 @@
       <c r="B89" s="9">
         <v>69</v>
       </c>
-      <c r="C89" s="83"/>
-      <c r="D89" s="62"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="62"/>
-      <c r="G89" s="63"/>
+      <c r="C89" s="91"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="71"/>
       <c r="H89" s="12" t="s">
         <v>49</v>
       </c>
@@ -5808,11 +5813,11 @@
       <c r="B90" s="27">
         <v>70</v>
       </c>
-      <c r="C90" s="83"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="62"/>
-      <c r="F90" s="62"/>
-      <c r="G90" s="63"/>
+      <c r="C90" s="91"/>
+      <c r="D90" s="70"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="70"/>
+      <c r="G90" s="71"/>
       <c r="H90" s="12" t="s">
         <v>49</v>
       </c>
@@ -5821,11 +5826,11 @@
       <c r="B91" s="9">
         <v>71</v>
       </c>
-      <c r="C91" s="83"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="62"/>
-      <c r="G91" s="63"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="71"/>
       <c r="H91" s="12" t="s">
         <v>49</v>
       </c>
@@ -5834,11 +5839,11 @@
       <c r="B92" s="27">
         <v>72</v>
       </c>
-      <c r="C92" s="83"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="63"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="70"/>
+      <c r="G92" s="71"/>
       <c r="H92" s="12" t="s">
         <v>49</v>
       </c>
@@ -5847,11 +5852,11 @@
       <c r="B93" s="9">
         <v>73</v>
       </c>
-      <c r="C93" s="83"/>
-      <c r="D93" s="62"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="62"/>
-      <c r="G93" s="63"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="70"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="71"/>
       <c r="H93" s="12" t="s">
         <v>49</v>
       </c>
@@ -5860,11 +5865,11 @@
       <c r="B94" s="27">
         <v>74</v>
       </c>
-      <c r="C94" s="83"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="62"/>
-      <c r="F94" s="62"/>
-      <c r="G94" s="63"/>
+      <c r="C94" s="91"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="70"/>
+      <c r="G94" s="71"/>
       <c r="H94" s="12" t="s">
         <v>49</v>
       </c>
@@ -5873,11 +5878,11 @@
       <c r="B95" s="9">
         <v>75</v>
       </c>
-      <c r="C95" s="83"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="62"/>
-      <c r="G95" s="63"/>
+      <c r="C95" s="91"/>
+      <c r="D95" s="70"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="71"/>
       <c r="H95" s="12" t="s">
         <v>49</v>
       </c>
@@ -5886,11 +5891,11 @@
       <c r="B96" s="27">
         <v>76</v>
       </c>
-      <c r="C96" s="83"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="63"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="70"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="70"/>
+      <c r="G96" s="71"/>
       <c r="H96" s="12" t="s">
         <v>49</v>
       </c>
@@ -5899,11 +5904,11 @@
       <c r="B97" s="9">
         <v>77</v>
       </c>
-      <c r="C97" s="83"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="62"/>
-      <c r="G97" s="63"/>
+      <c r="C97" s="91"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="71"/>
       <c r="H97" s="12" t="s">
         <v>49</v>
       </c>
@@ -5912,11 +5917,11 @@
       <c r="B98" s="27">
         <v>78</v>
       </c>
-      <c r="C98" s="83"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="63"/>
+      <c r="C98" s="91"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="70"/>
+      <c r="F98" s="70"/>
+      <c r="G98" s="71"/>
       <c r="H98" s="12" t="s">
         <v>49</v>
       </c>
@@ -5925,11 +5930,11 @@
       <c r="B99" s="9">
         <v>79</v>
       </c>
-      <c r="C99" s="83"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="63"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="71"/>
       <c r="H99" s="12" t="s">
         <v>49</v>
       </c>
@@ -5938,11 +5943,11 @@
       <c r="B100" s="27">
         <v>80</v>
       </c>
-      <c r="C100" s="83"/>
-      <c r="D100" s="62"/>
-      <c r="E100" s="62"/>
-      <c r="F100" s="62"/>
-      <c r="G100" s="63"/>
+      <c r="C100" s="91"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="70"/>
+      <c r="G100" s="71"/>
       <c r="H100" s="12" t="s">
         <v>49</v>
       </c>
@@ -5951,11 +5956,11 @@
       <c r="B101" s="9">
         <v>81</v>
       </c>
-      <c r="C101" s="83"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="62"/>
-      <c r="G101" s="63"/>
+      <c r="C101" s="91"/>
+      <c r="D101" s="70"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="71"/>
       <c r="H101" s="12" t="s">
         <v>49</v>
       </c>
@@ -5964,11 +5969,11 @@
       <c r="B102" s="27">
         <v>82</v>
       </c>
-      <c r="C102" s="83"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="62"/>
-      <c r="F102" s="62"/>
-      <c r="G102" s="63"/>
+      <c r="C102" s="91"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
+      <c r="G102" s="71"/>
       <c r="H102" s="12" t="s">
         <v>49</v>
       </c>
@@ -5977,11 +5982,11 @@
       <c r="B103" s="9">
         <v>83</v>
       </c>
-      <c r="C103" s="83"/>
-      <c r="D103" s="62"/>
-      <c r="E103" s="62"/>
-      <c r="F103" s="62"/>
-      <c r="G103" s="63"/>
+      <c r="C103" s="91"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="71"/>
       <c r="H103" s="12" t="s">
         <v>49</v>
       </c>
@@ -5990,11 +5995,11 @@
       <c r="B104" s="27">
         <v>84</v>
       </c>
-      <c r="C104" s="83"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="62"/>
-      <c r="F104" s="62"/>
-      <c r="G104" s="63"/>
+      <c r="C104" s="91"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="71"/>
       <c r="H104" s="12" t="s">
         <v>49</v>
       </c>
@@ -6003,11 +6008,11 @@
       <c r="B105" s="9">
         <v>85</v>
       </c>
-      <c r="C105" s="83"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="62"/>
-      <c r="F105" s="62"/>
-      <c r="G105" s="63"/>
+      <c r="C105" s="91"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="71"/>
       <c r="H105" s="12" t="s">
         <v>49</v>
       </c>
@@ -6016,11 +6021,11 @@
       <c r="B106" s="27">
         <v>86</v>
       </c>
-      <c r="C106" s="83"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="62"/>
-      <c r="F106" s="62"/>
-      <c r="G106" s="63"/>
+      <c r="C106" s="91"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="70"/>
+      <c r="F106" s="70"/>
+      <c r="G106" s="71"/>
       <c r="H106" s="12" t="s">
         <v>49</v>
       </c>
@@ -6029,11 +6034,11 @@
       <c r="B107" s="9">
         <v>87</v>
       </c>
-      <c r="C107" s="83"/>
-      <c r="D107" s="62"/>
-      <c r="E107" s="62"/>
-      <c r="F107" s="62"/>
-      <c r="G107" s="63"/>
+      <c r="C107" s="91"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="70"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="71"/>
       <c r="H107" s="12" t="s">
         <v>49</v>
       </c>
@@ -6042,11 +6047,11 @@
       <c r="B108" s="27">
         <v>88</v>
       </c>
-      <c r="C108" s="83"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="62"/>
-      <c r="F108" s="62"/>
-      <c r="G108" s="63"/>
+      <c r="C108" s="91"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
+      <c r="G108" s="71"/>
       <c r="H108" s="12" t="s">
         <v>49</v>
       </c>
@@ -6055,11 +6060,11 @@
       <c r="B109" s="9">
         <v>89</v>
       </c>
-      <c r="C109" s="83"/>
-      <c r="D109" s="62"/>
-      <c r="E109" s="62"/>
-      <c r="F109" s="62"/>
-      <c r="G109" s="63"/>
+      <c r="C109" s="91"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="71"/>
       <c r="H109" s="12" t="s">
         <v>49</v>
       </c>
@@ -6068,11 +6073,11 @@
       <c r="B110" s="27">
         <v>90</v>
       </c>
-      <c r="C110" s="83"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="62"/>
-      <c r="G110" s="63"/>
+      <c r="C110" s="91"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="70"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="71"/>
       <c r="H110" s="12" t="s">
         <v>49</v>
       </c>
@@ -6081,11 +6086,11 @@
       <c r="B111" s="9">
         <v>91</v>
       </c>
-      <c r="C111" s="83"/>
-      <c r="D111" s="62"/>
-      <c r="E111" s="62"/>
-      <c r="F111" s="62"/>
-      <c r="G111" s="63"/>
+      <c r="C111" s="91"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="70"/>
+      <c r="F111" s="70"/>
+      <c r="G111" s="71"/>
       <c r="H111" s="12" t="s">
         <v>49</v>
       </c>
@@ -6094,11 +6099,11 @@
       <c r="B112" s="27">
         <v>92</v>
       </c>
-      <c r="C112" s="83"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="62"/>
-      <c r="F112" s="62"/>
-      <c r="G112" s="63"/>
+      <c r="C112" s="91"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="70"/>
+      <c r="F112" s="70"/>
+      <c r="G112" s="71"/>
       <c r="H112" s="12" t="s">
         <v>49</v>
       </c>
@@ -6107,11 +6112,11 @@
       <c r="B113" s="9">
         <v>93</v>
       </c>
-      <c r="C113" s="83"/>
-      <c r="D113" s="62"/>
-      <c r="E113" s="62"/>
-      <c r="F113" s="62"/>
-      <c r="G113" s="63"/>
+      <c r="C113" s="91"/>
+      <c r="D113" s="70"/>
+      <c r="E113" s="70"/>
+      <c r="F113" s="70"/>
+      <c r="G113" s="71"/>
       <c r="H113" s="12" t="s">
         <v>49</v>
       </c>
@@ -6120,11 +6125,11 @@
       <c r="B114" s="27">
         <v>94</v>
       </c>
-      <c r="C114" s="83"/>
-      <c r="D114" s="62"/>
-      <c r="E114" s="62"/>
-      <c r="F114" s="62"/>
-      <c r="G114" s="63"/>
+      <c r="C114" s="91"/>
+      <c r="D114" s="70"/>
+      <c r="E114" s="70"/>
+      <c r="F114" s="70"/>
+      <c r="G114" s="71"/>
       <c r="H114" s="12" t="s">
         <v>49</v>
       </c>
@@ -6133,11 +6138,11 @@
       <c r="B115" s="9">
         <v>95</v>
       </c>
-      <c r="C115" s="83"/>
-      <c r="D115" s="62"/>
-      <c r="E115" s="62"/>
-      <c r="F115" s="62"/>
-      <c r="G115" s="63"/>
+      <c r="C115" s="91"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="71"/>
       <c r="H115" s="12" t="s">
         <v>49</v>
       </c>
@@ -6146,11 +6151,11 @@
       <c r="B116" s="27">
         <v>96</v>
       </c>
-      <c r="C116" s="83"/>
-      <c r="D116" s="62"/>
-      <c r="E116" s="62"/>
-      <c r="F116" s="62"/>
-      <c r="G116" s="63"/>
+      <c r="C116" s="91"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="70"/>
+      <c r="F116" s="70"/>
+      <c r="G116" s="71"/>
       <c r="H116" s="12" t="s">
         <v>49</v>
       </c>
@@ -6159,11 +6164,11 @@
       <c r="B117" s="9">
         <v>97</v>
       </c>
-      <c r="C117" s="83"/>
-      <c r="D117" s="62"/>
-      <c r="E117" s="62"/>
-      <c r="F117" s="62"/>
-      <c r="G117" s="63"/>
+      <c r="C117" s="91"/>
+      <c r="D117" s="70"/>
+      <c r="E117" s="70"/>
+      <c r="F117" s="70"/>
+      <c r="G117" s="71"/>
       <c r="H117" s="12" t="s">
         <v>49</v>
       </c>
@@ -6172,11 +6177,11 @@
       <c r="B118" s="27">
         <v>98</v>
       </c>
-      <c r="C118" s="83"/>
-      <c r="D118" s="62"/>
-      <c r="E118" s="62"/>
-      <c r="F118" s="62"/>
-      <c r="G118" s="63"/>
+      <c r="C118" s="91"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="70"/>
+      <c r="F118" s="70"/>
+      <c r="G118" s="71"/>
       <c r="H118" s="12" t="s">
         <v>49</v>
       </c>
@@ -6185,11 +6190,11 @@
       <c r="B119" s="9">
         <v>99</v>
       </c>
-      <c r="C119" s="83"/>
-      <c r="D119" s="62"/>
-      <c r="E119" s="62"/>
-      <c r="F119" s="62"/>
-      <c r="G119" s="63"/>
+      <c r="C119" s="91"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="70"/>
+      <c r="F119" s="70"/>
+      <c r="G119" s="71"/>
       <c r="H119" s="12" t="s">
         <v>49</v>
       </c>
@@ -6198,11 +6203,11 @@
       <c r="B120" s="27">
         <v>100</v>
       </c>
-      <c r="C120" s="83"/>
-      <c r="D120" s="62"/>
-      <c r="E120" s="62"/>
-      <c r="F120" s="62"/>
-      <c r="G120" s="63"/>
+      <c r="C120" s="91"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="70"/>
+      <c r="F120" s="70"/>
+      <c r="G120" s="71"/>
       <c r="H120" s="12" t="s">
         <v>49</v>
       </c>
@@ -7881,50 +7886,53 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
@@ -7949,53 +7957,50 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21:H120" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -8022,9 +8027,9 @@
   </sheetPr>
   <dimension ref="A1:U1001"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11:D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8044,85 +8049,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="2">
         <f>Requisitos!C11</f>
         <v>45170</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45171</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45172</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45173</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45174</v>
@@ -8136,18 +8141,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="69" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45176</v>
@@ -8161,16 +8166,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -8329,7 +8334,7 @@
         <v>67</v>
       </c>
       <c r="E14" s="11">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>11</v>
@@ -8425,7 +8430,7 @@
         <v>70</v>
       </c>
       <c r="E17" s="11">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>14</v>
@@ -8594,7 +8599,7 @@
         <v>75</v>
       </c>
       <c r="E22" s="11">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>8</v>
@@ -8623,7 +8628,7 @@
         <v>76</v>
       </c>
       <c r="E23" s="11">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>10</v>
@@ -9303,26 +9308,26 @@
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="96" t="s">
+      <c r="B63" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="63"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="71"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="97" t="s">
+      <c r="B64" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="71"/>
       <c r="H64" s="7" t="s">
         <v>80</v>
       </c>
@@ -9331,15 +9336,15 @@
       </c>
     </row>
     <row r="65" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="95" t="str">
+      <c r="B65" s="98" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="62"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="63"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="71"/>
       <c r="H65" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B10,H$11:H$60)</f>
         <v>8</v>
@@ -9350,15 +9355,15 @@
       </c>
     </row>
     <row r="66" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="95" t="str">
+      <c r="B66" s="98" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="71"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>10</v>
@@ -9369,15 +9374,15 @@
       </c>
     </row>
     <row r="67" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="95" t="str">
+      <c r="B67" s="98" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="63"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="71"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>8</v>
@@ -9388,15 +9393,15 @@
       </c>
     </row>
     <row r="68" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="95" t="str">
+      <c r="B68" s="98" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Maria Eduarda Amaral</v>
       </c>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="71"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>9</v>
@@ -9407,15 +9412,15 @@
       </c>
     </row>
     <row r="69" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="95" t="str">
+      <c r="B69" s="98" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="63"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="71"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>8</v>
@@ -9426,15 +9431,15 @@
       </c>
     </row>
     <row r="70" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="95" t="str">
+      <c r="B70" s="98" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C70" s="62"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="63"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="71"/>
       <c r="H70" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>10</v>
@@ -10579,85 +10584,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="2">
         <f>Requisitos!C12</f>
         <v>45191</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45192</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45193</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45194</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45195</v>
@@ -10671,18 +10676,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="69" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45197</v>
@@ -10696,16 +10701,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -11821,26 +11826,26 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="96" t="s">
+      <c r="B72" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="63"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="71"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="97" t="s">
+      <c r="B73" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="63"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="71"/>
       <c r="H73" s="7" t="s">
         <v>80</v>
       </c>
@@ -11849,15 +11854,15 @@
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="95" t="str">
+      <c r="B74" s="98" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="71"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -11868,15 +11873,15 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="95" t="str">
+      <c r="B75" s="98" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="63"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="71"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -11887,15 +11892,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="95" t="str">
+      <c r="B76" s="98" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="71"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -11906,15 +11911,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="95" t="str">
+      <c r="B77" s="98" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="63"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="71"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -11925,15 +11930,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="95" t="str">
+      <c r="B78" s="98" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="71"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -13159,85 +13164,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="2">
         <f>Requisitos!C13</f>
         <v>45205</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45206</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45208</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45209</v>
@@ -13251,18 +13256,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="69" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45211</v>
@@ -13276,16 +13281,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -14422,26 +14427,26 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="96" t="s">
+      <c r="B72" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="63"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="71"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="97" t="s">
+      <c r="B73" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="63"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="71"/>
       <c r="H73" s="7" t="s">
         <v>80</v>
       </c>
@@ -14450,15 +14455,15 @@
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="95" t="str">
+      <c r="B74" s="98" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="71"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -14469,15 +14474,15 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="95" t="str">
+      <c r="B75" s="98" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="63"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="71"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -14488,15 +14493,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="95" t="str">
+      <c r="B76" s="98" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="71"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -14507,15 +14512,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="95" t="str">
+      <c r="B77" s="98" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="63"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="71"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -14526,15 +14531,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="95" t="str">
+      <c r="B78" s="98" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="71"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -15558,6 +15563,12 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -15566,12 +15577,6 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="89" priority="1">
@@ -15758,85 +15763,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="2">
         <f>Requisitos!C14</f>
         <v>45226</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45227</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45229</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45230</v>
@@ -15850,18 +15855,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="69" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -15875,16 +15880,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -17021,26 +17026,26 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="96" t="s">
+      <c r="B72" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="63"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="71"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="97" t="s">
+      <c r="B73" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="63"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="71"/>
       <c r="H73" s="7" t="s">
         <v>80</v>
       </c>
@@ -17049,15 +17054,15 @@
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="95" t="str">
+      <c r="B74" s="98" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="71"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -17068,15 +17073,15 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="95" t="str">
+      <c r="B75" s="98" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="63"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="71"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -17087,15 +17092,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="95" t="str">
+      <c r="B76" s="98" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="71"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -17106,15 +17111,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="95" t="str">
+      <c r="B77" s="98" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="63"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="71"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -17125,15 +17130,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="95" t="str">
+      <c r="B78" s="98" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="71"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -18157,6 +18162,12 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -18165,12 +18176,6 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="63" priority="1">
@@ -18356,85 +18361,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="2">
         <f>Requisitos!C15</f>
         <v>45247</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45248</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45249</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45250</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45251</v>
@@ -18447,18 +18452,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="69" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45253</v>
@@ -18471,16 +18476,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
       <c r="J9" s="58" t="s">
         <v>55</v>
       </c>
@@ -19441,26 +19446,26 @@
       </c>
     </row>
     <row r="63" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="96" t="s">
+      <c r="B63" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="63"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="71"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="97" t="s">
+      <c r="B64" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="71"/>
       <c r="H64" s="7" t="s">
         <v>80</v>
       </c>
@@ -19469,15 +19474,15 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="95" t="str">
+      <c r="B65" s="98" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="62"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="63"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="71"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -19488,15 +19493,15 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="95" t="str">
+      <c r="B66" s="98" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="71"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -19507,15 +19512,15 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="95" t="str">
+      <c r="B67" s="98" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="63"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="71"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -19526,15 +19531,15 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="95" t="str">
+      <c r="B68" s="98" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="71"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -19545,15 +19550,15 @@
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="95" t="str">
+      <c r="B69" s="98" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="63"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="71"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -20516,6 +20521,12 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="B9:I9"/>
@@ -20524,12 +20535,6 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F13 F17">
     <cfRule type="containsBlanks" dxfId="37" priority="1">

--- a/Artefatos/sprints/Planejamento_sprints.xlsx
+++ b/Artefatos/sprints/Planejamento_sprints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e66f0b7e9f7bd981/Documentos/1 - Engenharia de Software/3 Periodo/Trabalho interdisciplinar/plf-es-2023-2-ti3-6653100-fabrica-do-saber/Artefatos/sprints/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorios_github\plf-es-2023-2-ti3-6653100-fabrica-do-saber\Artefatos\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="684" documentId="8_{B97FCFAF-DD29-4C0B-BA0F-F002D0BE0E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4B3893D-E541-4785-86DE-EA8CC7CE7DF0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18EA9CD-66B7-449A-81A3-035B29DA785F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Projeto" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="107">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -653,6 +653,39 @@
   </si>
   <si>
     <t>O administrador pode logar no sistema</t>
+  </si>
+  <si>
+    <t>Criar model funcionário</t>
+  </si>
+  <si>
+    <t>Criar service funcionário</t>
+  </si>
+  <si>
+    <t>Criar controller funcionário</t>
+  </si>
+  <si>
+    <t>Página de cadastro funcionário</t>
+  </si>
+  <si>
+    <t>Página de visualização de funcionários cadastrados</t>
+  </si>
+  <si>
+    <t>Criar model turma</t>
+  </si>
+  <si>
+    <t>Criar service turma</t>
+  </si>
+  <si>
+    <t>Criar controller turma</t>
+  </si>
+  <si>
+    <t>Página de cadastro turma</t>
+  </si>
+  <si>
+    <t>Página de visualização de turma cadastrados</t>
+  </si>
+  <si>
+    <t>2 e 3</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1128,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1229,35 +1262,16 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1267,20 +1281,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1296,14 +1342,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,11 +1351,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1326,6 +1359,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1347,7 +1388,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="124">
+  <dxfs count="129">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2161,6 +2202,51 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFE69138"/>
           <bgColor rgb="FFE69138"/>
         </patternFill>
@@ -2569,7 +2655,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3086,7 +3172,7 @@
   </sheetPr>
   <dimension ref="A1:O1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -3098,166 +3184,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="71"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="74" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="74" t="s">
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="74" t="s">
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="76"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="74" t="s">
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="74" t="s">
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="74" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="18"/>
@@ -3359,16 +3445,16 @@
     <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="50"/>
-      <c r="B100" s="78"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="79" t="s">
+      <c r="B100" s="68"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="63"/>
-      <c r="F100" s="79" t="s">
+      <c r="E100" s="60"/>
+      <c r="F100" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="63"/>
+      <c r="G100" s="60"/>
       <c r="H100" s="51" t="s">
         <v>18</v>
       </c>
@@ -3390,12 +3476,12 @@
     </row>
     <row r="101" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
-      <c r="B101" s="81"/>
-      <c r="C101" s="63"/>
-      <c r="D101" s="80" t="s">
+      <c r="B101" s="59"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="63"/>
+      <c r="E101" s="60"/>
       <c r="F101" s="53" t="s">
         <v>24</v>
       </c>
@@ -3428,12 +3514,12 @@
     </row>
     <row r="102" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="50"/>
-      <c r="B102" s="81"/>
-      <c r="C102" s="63"/>
-      <c r="D102" s="80" t="s">
+      <c r="B102" s="59"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="63"/>
+      <c r="E102" s="60"/>
       <c r="F102" s="53" t="s">
         <v>29</v>
       </c>
@@ -3442,7 +3528,7 @@
       </c>
       <c r="H102" s="56">
         <f>'Sprint #2'!H$70</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I102" s="56">
         <f>'Sprint #2'!I$70</f>
@@ -3467,12 +3553,12 @@
     </row>
     <row r="103" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="50"/>
-      <c r="B103" s="81"/>
-      <c r="C103" s="63"/>
-      <c r="D103" s="80" t="s">
+      <c r="B103" s="59"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="63"/>
+      <c r="E103" s="60"/>
       <c r="F103" s="53"/>
       <c r="G103" s="54" t="s">
         <v>34</v>
@@ -3504,12 +3590,12 @@
     </row>
     <row r="104" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="50"/>
-      <c r="B104" s="81"/>
-      <c r="C104" s="63"/>
-      <c r="D104" s="80" t="s">
+      <c r="B104" s="59"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="63"/>
+      <c r="E104" s="60"/>
       <c r="F104" s="53"/>
       <c r="G104" s="54" t="s">
         <v>36</v>
@@ -3539,12 +3625,12 @@
     </row>
     <row r="105" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="50"/>
-      <c r="B105" s="81"/>
-      <c r="C105" s="63"/>
-      <c r="D105" s="80" t="s">
+      <c r="B105" s="59"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="63"/>
+      <c r="E105" s="60"/>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="s">
         <v>39</v>
@@ -3569,8 +3655,8 @@
     </row>
     <row r="106" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="50"/>
-      <c r="B106" s="81"/>
-      <c r="C106" s="63"/>
+      <c r="B106" s="59"/>
+      <c r="C106" s="60"/>
       <c r="F106" s="53"/>
       <c r="G106" s="54"/>
       <c r="H106" s="53"/>
@@ -3581,8 +3667,8 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="50"/>
-      <c r="B107" s="81"/>
-      <c r="C107" s="63"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="60"/>
       <c r="D107" s="55"/>
       <c r="E107" s="53"/>
       <c r="F107" s="53"/>
@@ -4550,12 +4636,24 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="D100:E100"/>
@@ -4567,24 +4665,12 @@
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D105:E105"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="F10:F15" xr:uid="{49EDF03A-7EFB-435C-A992-40D98DE85B41}">
@@ -4610,7 +4696,7 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:G28"/>
+      <selection activeCell="H24" sqref="C22:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4627,59 +4713,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -4691,16 +4777,16 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="92" t="str">
+      <c r="B7" s="95" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="71"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -4712,15 +4798,15 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
@@ -4732,11 +4818,11 @@
       <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
       <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
@@ -4751,9 +4837,9 @@
       <c r="D11" s="14">
         <v>45190</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4767,9 +4853,9 @@
         <f t="shared" ref="D12" si="0">C12+13</f>
         <v>45204</v>
       </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4783,9 +4869,9 @@
       <c r="D13" s="14">
         <v>45225</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4798,9 +4884,9 @@
       <c r="D14" s="14">
         <v>45246</v>
       </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4839,13 +4925,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="22" t="s">
         <v>47</v>
       </c>
@@ -4854,11 +4940,11 @@
       <c r="B19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
@@ -4868,11 +4954,11 @@
       <c r="B20" s="27">
         <v>0</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="28"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -4889,13 +4975,13 @@
       <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="90"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="12" t="s">
         <v>52</v>
       </c>
@@ -4905,13 +4991,13 @@
       <c r="B22" s="27">
         <v>2</v>
       </c>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="71"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="12" t="s">
         <v>49</v>
       </c>
@@ -4920,13 +5006,13 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="86"/>
       <c r="H23" s="12" t="s">
         <v>49</v>
       </c>
@@ -4935,13 +5021,13 @@
       <c r="B24" s="27">
         <v>4</v>
       </c>
-      <c r="C24" s="91" t="s">
+      <c r="C24" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="12" t="s">
         <v>49</v>
       </c>
@@ -4950,13 +5036,13 @@
       <c r="B25" s="9">
         <v>5</v>
       </c>
-      <c r="C25" s="91" t="s">
+      <c r="C25" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="12" t="s">
         <v>49</v>
       </c>
@@ -4965,13 +5051,13 @@
       <c r="B26" s="27">
         <v>6</v>
       </c>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="12" t="s">
         <v>49</v>
       </c>
@@ -4980,13 +5066,13 @@
       <c r="B27" s="9">
         <v>7</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="71"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="12" t="s">
         <v>49</v>
       </c>
@@ -4995,13 +5081,13 @@
       <c r="B28" s="27">
         <v>8</v>
       </c>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="71"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="12" t="s">
         <v>49</v>
       </c>
@@ -5010,13 +5096,13 @@
       <c r="B29" s="9">
         <v>9</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="12" t="s">
         <v>49</v>
       </c>
@@ -5025,13 +5111,13 @@
       <c r="B30" s="27">
         <v>10</v>
       </c>
-      <c r="C30" s="95" t="s">
+      <c r="C30" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="97"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="12" t="s">
         <v>49</v>
       </c>
@@ -5040,13 +5126,13 @@
       <c r="B31" s="9">
         <v>11</v>
       </c>
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="71"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="12" t="s">
         <v>49</v>
       </c>
@@ -5055,13 +5141,13 @@
       <c r="B32" s="27">
         <v>12</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="90"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="103"/>
       <c r="H32" s="12" t="s">
         <v>52</v>
       </c>
@@ -5070,13 +5156,13 @@
       <c r="B33" s="9">
         <v>13</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="90"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="86"/>
       <c r="H33" s="12" t="s">
         <v>52</v>
       </c>
@@ -5085,11 +5171,11 @@
       <c r="B34" s="27">
         <v>14</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="71"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="12" t="s">
         <v>49</v>
       </c>
@@ -5098,11 +5184,11 @@
       <c r="B35" s="9">
         <v>15</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="12" t="s">
         <v>49</v>
       </c>
@@ -5111,11 +5197,11 @@
       <c r="B36" s="27">
         <v>16</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="71"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="12" t="s">
         <v>49</v>
       </c>
@@ -5124,11 +5210,11 @@
       <c r="B37" s="9">
         <v>17</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="71"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="12" t="s">
         <v>49</v>
       </c>
@@ -5137,11 +5223,11 @@
       <c r="B38" s="27">
         <v>18</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="71"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="63"/>
       <c r="H38" s="12" t="s">
         <v>49</v>
       </c>
@@ -5150,11 +5236,11 @@
       <c r="B39" s="9">
         <v>19</v>
       </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="71"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="63"/>
       <c r="H39" s="12" t="s">
         <v>49</v>
       </c>
@@ -5163,11 +5249,11 @@
       <c r="B40" s="27">
         <v>20</v>
       </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="71"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="63"/>
       <c r="H40" s="12" t="s">
         <v>49</v>
       </c>
@@ -5176,11 +5262,11 @@
       <c r="B41" s="9">
         <v>21</v>
       </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="71"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="63"/>
       <c r="H41" s="12" t="s">
         <v>49</v>
       </c>
@@ -5189,11 +5275,11 @@
       <c r="B42" s="27">
         <v>22</v>
       </c>
-      <c r="C42" s="91"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="71"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63"/>
       <c r="H42" s="12" t="s">
         <v>49</v>
       </c>
@@ -5202,11 +5288,11 @@
       <c r="B43" s="9">
         <v>23</v>
       </c>
-      <c r="C43" s="91"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="71"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="63"/>
       <c r="H43" s="12" t="s">
         <v>49</v>
       </c>
@@ -5215,11 +5301,11 @@
       <c r="B44" s="27">
         <v>24</v>
       </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="71"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="63"/>
       <c r="H44" s="12" t="s">
         <v>49</v>
       </c>
@@ -5228,11 +5314,11 @@
       <c r="B45" s="9">
         <v>25</v>
       </c>
-      <c r="C45" s="91"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="71"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="63"/>
       <c r="H45" s="12" t="s">
         <v>49</v>
       </c>
@@ -5241,11 +5327,11 @@
       <c r="B46" s="27">
         <v>26</v>
       </c>
-      <c r="C46" s="91"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="71"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="63"/>
       <c r="H46" s="12" t="s">
         <v>49</v>
       </c>
@@ -5254,11 +5340,11 @@
       <c r="B47" s="9">
         <v>27</v>
       </c>
-      <c r="C47" s="91"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="71"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="63"/>
       <c r="H47" s="12" t="s">
         <v>49</v>
       </c>
@@ -5267,11 +5353,11 @@
       <c r="B48" s="27">
         <v>28</v>
       </c>
-      <c r="C48" s="91"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="71"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="63"/>
       <c r="H48" s="12" t="s">
         <v>49</v>
       </c>
@@ -5280,11 +5366,11 @@
       <c r="B49" s="9">
         <v>29</v>
       </c>
-      <c r="C49" s="91"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="71"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="63"/>
       <c r="H49" s="12" t="s">
         <v>49</v>
       </c>
@@ -5293,11 +5379,11 @@
       <c r="B50" s="27">
         <v>30</v>
       </c>
-      <c r="C50" s="91"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="71"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="63"/>
       <c r="H50" s="12" t="s">
         <v>49</v>
       </c>
@@ -5306,11 +5392,11 @@
       <c r="B51" s="9">
         <v>31</v>
       </c>
-      <c r="C51" s="91"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="71"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="63"/>
       <c r="H51" s="12" t="s">
         <v>49</v>
       </c>
@@ -5319,11 +5405,11 @@
       <c r="B52" s="27">
         <v>32</v>
       </c>
-      <c r="C52" s="91"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="71"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="63"/>
       <c r="H52" s="12" t="s">
         <v>49</v>
       </c>
@@ -5332,11 +5418,11 @@
       <c r="B53" s="9">
         <v>33</v>
       </c>
-      <c r="C53" s="91"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="71"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="63"/>
       <c r="H53" s="12" t="s">
         <v>49</v>
       </c>
@@ -5345,11 +5431,11 @@
       <c r="B54" s="27">
         <v>34</v>
       </c>
-      <c r="C54" s="91"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="71"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="63"/>
       <c r="H54" s="12" t="s">
         <v>49</v>
       </c>
@@ -5358,11 +5444,11 @@
       <c r="B55" s="9">
         <v>35</v>
       </c>
-      <c r="C55" s="91"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="71"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="63"/>
       <c r="H55" s="12" t="s">
         <v>49</v>
       </c>
@@ -5371,11 +5457,11 @@
       <c r="B56" s="27">
         <v>36</v>
       </c>
-      <c r="C56" s="91"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="71"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
       <c r="H56" s="12" t="s">
         <v>49</v>
       </c>
@@ -5384,11 +5470,11 @@
       <c r="B57" s="9">
         <v>37</v>
       </c>
-      <c r="C57" s="91"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="71"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="63"/>
       <c r="H57" s="12" t="s">
         <v>49</v>
       </c>
@@ -5397,11 +5483,11 @@
       <c r="B58" s="27">
         <v>38</v>
       </c>
-      <c r="C58" s="91"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="71"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="63"/>
       <c r="H58" s="12" t="s">
         <v>49</v>
       </c>
@@ -5410,11 +5496,11 @@
       <c r="B59" s="9">
         <v>39</v>
       </c>
-      <c r="C59" s="91"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="71"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="63"/>
       <c r="H59" s="12" t="s">
         <v>49</v>
       </c>
@@ -5423,11 +5509,11 @@
       <c r="B60" s="27">
         <v>40</v>
       </c>
-      <c r="C60" s="91"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="71"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="63"/>
       <c r="H60" s="12" t="s">
         <v>49</v>
       </c>
@@ -5436,11 +5522,11 @@
       <c r="B61" s="9">
         <v>41</v>
       </c>
-      <c r="C61" s="91"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="71"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="63"/>
       <c r="H61" s="12" t="s">
         <v>49</v>
       </c>
@@ -5449,11 +5535,11 @@
       <c r="B62" s="27">
         <v>42</v>
       </c>
-      <c r="C62" s="91"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="71"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
       <c r="H62" s="12" t="s">
         <v>49</v>
       </c>
@@ -5462,11 +5548,11 @@
       <c r="B63" s="9">
         <v>43</v>
       </c>
-      <c r="C63" s="91"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="71"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="63"/>
       <c r="H63" s="12" t="s">
         <v>49</v>
       </c>
@@ -5475,11 +5561,11 @@
       <c r="B64" s="27">
         <v>44</v>
       </c>
-      <c r="C64" s="91"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="71"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
       <c r="H64" s="12" t="s">
         <v>49</v>
       </c>
@@ -5488,11 +5574,11 @@
       <c r="B65" s="9">
         <v>45</v>
       </c>
-      <c r="C65" s="91"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="71"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="63"/>
       <c r="H65" s="12" t="s">
         <v>49</v>
       </c>
@@ -5501,11 +5587,11 @@
       <c r="B66" s="27">
         <v>46</v>
       </c>
-      <c r="C66" s="91"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="71"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
       <c r="H66" s="12" t="s">
         <v>49</v>
       </c>
@@ -5514,11 +5600,11 @@
       <c r="B67" s="9">
         <v>47</v>
       </c>
-      <c r="C67" s="91"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="71"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="63"/>
       <c r="H67" s="12" t="s">
         <v>49</v>
       </c>
@@ -5527,11 +5613,11 @@
       <c r="B68" s="27">
         <v>48</v>
       </c>
-      <c r="C68" s="91"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="71"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
       <c r="H68" s="12" t="s">
         <v>49</v>
       </c>
@@ -5540,11 +5626,11 @@
       <c r="B69" s="9">
         <v>49</v>
       </c>
-      <c r="C69" s="91"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="71"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="63"/>
       <c r="H69" s="12" t="s">
         <v>49</v>
       </c>
@@ -5553,11 +5639,11 @@
       <c r="B70" s="27">
         <v>50</v>
       </c>
-      <c r="C70" s="91"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="71"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
       <c r="H70" s="12" t="s">
         <v>49</v>
       </c>
@@ -5566,11 +5652,11 @@
       <c r="B71" s="9">
         <v>51</v>
       </c>
-      <c r="C71" s="91"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="71"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="63"/>
       <c r="H71" s="12" t="s">
         <v>49</v>
       </c>
@@ -5579,11 +5665,11 @@
       <c r="B72" s="27">
         <v>52</v>
       </c>
-      <c r="C72" s="91"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="71"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
       <c r="H72" s="12" t="s">
         <v>49</v>
       </c>
@@ -5592,11 +5678,11 @@
       <c r="B73" s="9">
         <v>53</v>
       </c>
-      <c r="C73" s="91"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="71"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="63"/>
       <c r="H73" s="12" t="s">
         <v>49</v>
       </c>
@@ -5605,11 +5691,11 @@
       <c r="B74" s="27">
         <v>54</v>
       </c>
-      <c r="C74" s="91"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="71"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
       <c r="H74" s="12" t="s">
         <v>49</v>
       </c>
@@ -5618,11 +5704,11 @@
       <c r="B75" s="9">
         <v>55</v>
       </c>
-      <c r="C75" s="91"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="71"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="63"/>
       <c r="H75" s="12" t="s">
         <v>49</v>
       </c>
@@ -5631,11 +5717,11 @@
       <c r="B76" s="27">
         <v>56</v>
       </c>
-      <c r="C76" s="91"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="71"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
       <c r="H76" s="12" t="s">
         <v>49</v>
       </c>
@@ -5644,11 +5730,11 @@
       <c r="B77" s="9">
         <v>57</v>
       </c>
-      <c r="C77" s="91"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="71"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="63"/>
       <c r="H77" s="12" t="s">
         <v>49</v>
       </c>
@@ -5657,11 +5743,11 @@
       <c r="B78" s="27">
         <v>58</v>
       </c>
-      <c r="C78" s="91"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="71"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
       <c r="H78" s="12" t="s">
         <v>49</v>
       </c>
@@ -5670,11 +5756,11 @@
       <c r="B79" s="9">
         <v>59</v>
       </c>
-      <c r="C79" s="91"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="71"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="63"/>
       <c r="H79" s="12" t="s">
         <v>49</v>
       </c>
@@ -5683,11 +5769,11 @@
       <c r="B80" s="27">
         <v>60</v>
       </c>
-      <c r="C80" s="91"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="71"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
       <c r="H80" s="12" t="s">
         <v>49</v>
       </c>
@@ -5696,11 +5782,11 @@
       <c r="B81" s="9">
         <v>61</v>
       </c>
-      <c r="C81" s="91"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="71"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="63"/>
       <c r="H81" s="12" t="s">
         <v>49</v>
       </c>
@@ -5709,11 +5795,11 @@
       <c r="B82" s="27">
         <v>62</v>
       </c>
-      <c r="C82" s="91"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="71"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
       <c r="H82" s="12" t="s">
         <v>49</v>
       </c>
@@ -5722,11 +5808,11 @@
       <c r="B83" s="9">
         <v>63</v>
       </c>
-      <c r="C83" s="91"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="71"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="63"/>
       <c r="H83" s="12" t="s">
         <v>49</v>
       </c>
@@ -5735,11 +5821,11 @@
       <c r="B84" s="27">
         <v>64</v>
       </c>
-      <c r="C84" s="91"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="70"/>
-      <c r="F84" s="70"/>
-      <c r="G84" s="71"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="63"/>
       <c r="H84" s="12" t="s">
         <v>49</v>
       </c>
@@ -5748,11 +5834,11 @@
       <c r="B85" s="9">
         <v>65</v>
       </c>
-      <c r="C85" s="91"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="71"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="62"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="63"/>
       <c r="H85" s="12" t="s">
         <v>49</v>
       </c>
@@ -5761,11 +5847,11 @@
       <c r="B86" s="27">
         <v>66</v>
       </c>
-      <c r="C86" s="91"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="70"/>
-      <c r="G86" s="71"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
       <c r="H86" s="12" t="s">
         <v>49</v>
       </c>
@@ -5774,11 +5860,11 @@
       <c r="B87" s="9">
         <v>67</v>
       </c>
-      <c r="C87" s="91"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="71"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="63"/>
       <c r="H87" s="12" t="s">
         <v>49</v>
       </c>
@@ -5787,11 +5873,11 @@
       <c r="B88" s="27">
         <v>68</v>
       </c>
-      <c r="C88" s="91"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="71"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
       <c r="H88" s="12" t="s">
         <v>49</v>
       </c>
@@ -5800,11 +5886,11 @@
       <c r="B89" s="9">
         <v>69</v>
       </c>
-      <c r="C89" s="91"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
-      <c r="G89" s="71"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="62"/>
+      <c r="G89" s="63"/>
       <c r="H89" s="12" t="s">
         <v>49</v>
       </c>
@@ -5813,11 +5899,11 @@
       <c r="B90" s="27">
         <v>70</v>
       </c>
-      <c r="C90" s="91"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="70"/>
-      <c r="G90" s="71"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="62"/>
+      <c r="G90" s="63"/>
       <c r="H90" s="12" t="s">
         <v>49</v>
       </c>
@@ -5826,11 +5912,11 @@
       <c r="B91" s="9">
         <v>71</v>
       </c>
-      <c r="C91" s="91"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="71"/>
+      <c r="C91" s="83"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="62"/>
+      <c r="G91" s="63"/>
       <c r="H91" s="12" t="s">
         <v>49</v>
       </c>
@@ -5839,11 +5925,11 @@
       <c r="B92" s="27">
         <v>72</v>
       </c>
-      <c r="C92" s="91"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="70"/>
-      <c r="F92" s="70"/>
-      <c r="G92" s="71"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="63"/>
       <c r="H92" s="12" t="s">
         <v>49</v>
       </c>
@@ -5852,11 +5938,11 @@
       <c r="B93" s="9">
         <v>73</v>
       </c>
-      <c r="C93" s="91"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="70"/>
-      <c r="G93" s="71"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="62"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="62"/>
+      <c r="G93" s="63"/>
       <c r="H93" s="12" t="s">
         <v>49</v>
       </c>
@@ -5865,11 +5951,11 @@
       <c r="B94" s="27">
         <v>74</v>
       </c>
-      <c r="C94" s="91"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
-      <c r="G94" s="71"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="62"/>
+      <c r="G94" s="63"/>
       <c r="H94" s="12" t="s">
         <v>49</v>
       </c>
@@ -5878,11 +5964,11 @@
       <c r="B95" s="9">
         <v>75</v>
       </c>
-      <c r="C95" s="91"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="71"/>
+      <c r="C95" s="83"/>
+      <c r="D95" s="62"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="63"/>
       <c r="H95" s="12" t="s">
         <v>49</v>
       </c>
@@ -5891,11 +5977,11 @@
       <c r="B96" s="27">
         <v>76</v>
       </c>
-      <c r="C96" s="91"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="71"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="62"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="63"/>
       <c r="H96" s="12" t="s">
         <v>49</v>
       </c>
@@ -5904,11 +5990,11 @@
       <c r="B97" s="9">
         <v>77</v>
       </c>
-      <c r="C97" s="91"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="71"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="63"/>
       <c r="H97" s="12" t="s">
         <v>49</v>
       </c>
@@ -5917,11 +6003,11 @@
       <c r="B98" s="27">
         <v>78</v>
       </c>
-      <c r="C98" s="91"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="70"/>
-      <c r="F98" s="70"/>
-      <c r="G98" s="71"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="62"/>
+      <c r="F98" s="62"/>
+      <c r="G98" s="63"/>
       <c r="H98" s="12" t="s">
         <v>49</v>
       </c>
@@ -5930,11 +6016,11 @@
       <c r="B99" s="9">
         <v>79</v>
       </c>
-      <c r="C99" s="91"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="71"/>
+      <c r="C99" s="83"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="62"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="63"/>
       <c r="H99" s="12" t="s">
         <v>49</v>
       </c>
@@ -5943,11 +6029,11 @@
       <c r="B100" s="27">
         <v>80</v>
       </c>
-      <c r="C100" s="91"/>
-      <c r="D100" s="70"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="70"/>
-      <c r="G100" s="71"/>
+      <c r="C100" s="83"/>
+      <c r="D100" s="62"/>
+      <c r="E100" s="62"/>
+      <c r="F100" s="62"/>
+      <c r="G100" s="63"/>
       <c r="H100" s="12" t="s">
         <v>49</v>
       </c>
@@ -5956,11 +6042,11 @@
       <c r="B101" s="9">
         <v>81</v>
       </c>
-      <c r="C101" s="91"/>
-      <c r="D101" s="70"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="71"/>
+      <c r="C101" s="83"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="63"/>
       <c r="H101" s="12" t="s">
         <v>49</v>
       </c>
@@ -5969,11 +6055,11 @@
       <c r="B102" s="27">
         <v>82</v>
       </c>
-      <c r="C102" s="91"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
-      <c r="G102" s="71"/>
+      <c r="C102" s="83"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="63"/>
       <c r="H102" s="12" t="s">
         <v>49</v>
       </c>
@@ -5982,11 +6068,11 @@
       <c r="B103" s="9">
         <v>83</v>
       </c>
-      <c r="C103" s="91"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="71"/>
+      <c r="C103" s="83"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="62"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="63"/>
       <c r="H103" s="12" t="s">
         <v>49</v>
       </c>
@@ -5995,11 +6081,11 @@
       <c r="B104" s="27">
         <v>84</v>
       </c>
-      <c r="C104" s="91"/>
-      <c r="D104" s="70"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="71"/>
+      <c r="C104" s="83"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="62"/>
+      <c r="F104" s="62"/>
+      <c r="G104" s="63"/>
       <c r="H104" s="12" t="s">
         <v>49</v>
       </c>
@@ -6008,11 +6094,11 @@
       <c r="B105" s="9">
         <v>85</v>
       </c>
-      <c r="C105" s="91"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="70"/>
-      <c r="F105" s="70"/>
-      <c r="G105" s="71"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="62"/>
+      <c r="E105" s="62"/>
+      <c r="F105" s="62"/>
+      <c r="G105" s="63"/>
       <c r="H105" s="12" t="s">
         <v>49</v>
       </c>
@@ -6021,11 +6107,11 @@
       <c r="B106" s="27">
         <v>86</v>
       </c>
-      <c r="C106" s="91"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="70"/>
-      <c r="F106" s="70"/>
-      <c r="G106" s="71"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="62"/>
+      <c r="G106" s="63"/>
       <c r="H106" s="12" t="s">
         <v>49</v>
       </c>
@@ -6034,11 +6120,11 @@
       <c r="B107" s="9">
         <v>87</v>
       </c>
-      <c r="C107" s="91"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="70"/>
-      <c r="F107" s="70"/>
-      <c r="G107" s="71"/>
+      <c r="C107" s="83"/>
+      <c r="D107" s="62"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="63"/>
       <c r="H107" s="12" t="s">
         <v>49</v>
       </c>
@@ -6047,11 +6133,11 @@
       <c r="B108" s="27">
         <v>88</v>
       </c>
-      <c r="C108" s="91"/>
-      <c r="D108" s="70"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="70"/>
-      <c r="G108" s="71"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="62"/>
+      <c r="F108" s="62"/>
+      <c r="G108" s="63"/>
       <c r="H108" s="12" t="s">
         <v>49</v>
       </c>
@@ -6060,11 +6146,11 @@
       <c r="B109" s="9">
         <v>89</v>
       </c>
-      <c r="C109" s="91"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="71"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="62"/>
+      <c r="E109" s="62"/>
+      <c r="F109" s="62"/>
+      <c r="G109" s="63"/>
       <c r="H109" s="12" t="s">
         <v>49</v>
       </c>
@@ -6073,11 +6159,11 @@
       <c r="B110" s="27">
         <v>90</v>
       </c>
-      <c r="C110" s="91"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="70"/>
-      <c r="G110" s="71"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="62"/>
+      <c r="F110" s="62"/>
+      <c r="G110" s="63"/>
       <c r="H110" s="12" t="s">
         <v>49</v>
       </c>
@@ -6086,11 +6172,11 @@
       <c r="B111" s="9">
         <v>91</v>
       </c>
-      <c r="C111" s="91"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="70"/>
-      <c r="F111" s="70"/>
-      <c r="G111" s="71"/>
+      <c r="C111" s="83"/>
+      <c r="D111" s="62"/>
+      <c r="E111" s="62"/>
+      <c r="F111" s="62"/>
+      <c r="G111" s="63"/>
       <c r="H111" s="12" t="s">
         <v>49</v>
       </c>
@@ -6099,11 +6185,11 @@
       <c r="B112" s="27">
         <v>92</v>
       </c>
-      <c r="C112" s="91"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="70"/>
-      <c r="F112" s="70"/>
-      <c r="G112" s="71"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="62"/>
+      <c r="E112" s="62"/>
+      <c r="F112" s="62"/>
+      <c r="G112" s="63"/>
       <c r="H112" s="12" t="s">
         <v>49</v>
       </c>
@@ -6112,11 +6198,11 @@
       <c r="B113" s="9">
         <v>93</v>
       </c>
-      <c r="C113" s="91"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="70"/>
-      <c r="F113" s="70"/>
-      <c r="G113" s="71"/>
+      <c r="C113" s="83"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="62"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="63"/>
       <c r="H113" s="12" t="s">
         <v>49</v>
       </c>
@@ -6125,11 +6211,11 @@
       <c r="B114" s="27">
         <v>94</v>
       </c>
-      <c r="C114" s="91"/>
-      <c r="D114" s="70"/>
-      <c r="E114" s="70"/>
-      <c r="F114" s="70"/>
-      <c r="G114" s="71"/>
+      <c r="C114" s="83"/>
+      <c r="D114" s="62"/>
+      <c r="E114" s="62"/>
+      <c r="F114" s="62"/>
+      <c r="G114" s="63"/>
       <c r="H114" s="12" t="s">
         <v>49</v>
       </c>
@@ -6138,11 +6224,11 @@
       <c r="B115" s="9">
         <v>95</v>
       </c>
-      <c r="C115" s="91"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="70"/>
-      <c r="G115" s="71"/>
+      <c r="C115" s="83"/>
+      <c r="D115" s="62"/>
+      <c r="E115" s="62"/>
+      <c r="F115" s="62"/>
+      <c r="G115" s="63"/>
       <c r="H115" s="12" t="s">
         <v>49</v>
       </c>
@@ -6151,11 +6237,11 @@
       <c r="B116" s="27">
         <v>96</v>
       </c>
-      <c r="C116" s="91"/>
-      <c r="D116" s="70"/>
-      <c r="E116" s="70"/>
-      <c r="F116" s="70"/>
-      <c r="G116" s="71"/>
+      <c r="C116" s="83"/>
+      <c r="D116" s="62"/>
+      <c r="E116" s="62"/>
+      <c r="F116" s="62"/>
+      <c r="G116" s="63"/>
       <c r="H116" s="12" t="s">
         <v>49</v>
       </c>
@@ -6164,11 +6250,11 @@
       <c r="B117" s="9">
         <v>97</v>
       </c>
-      <c r="C117" s="91"/>
-      <c r="D117" s="70"/>
-      <c r="E117" s="70"/>
-      <c r="F117" s="70"/>
-      <c r="G117" s="71"/>
+      <c r="C117" s="83"/>
+      <c r="D117" s="62"/>
+      <c r="E117" s="62"/>
+      <c r="F117" s="62"/>
+      <c r="G117" s="63"/>
       <c r="H117" s="12" t="s">
         <v>49</v>
       </c>
@@ -6177,11 +6263,11 @@
       <c r="B118" s="27">
         <v>98</v>
       </c>
-      <c r="C118" s="91"/>
-      <c r="D118" s="70"/>
-      <c r="E118" s="70"/>
-      <c r="F118" s="70"/>
-      <c r="G118" s="71"/>
+      <c r="C118" s="83"/>
+      <c r="D118" s="62"/>
+      <c r="E118" s="62"/>
+      <c r="F118" s="62"/>
+      <c r="G118" s="63"/>
       <c r="H118" s="12" t="s">
         <v>49</v>
       </c>
@@ -6190,11 +6276,11 @@
       <c r="B119" s="9">
         <v>99</v>
       </c>
-      <c r="C119" s="91"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="70"/>
-      <c r="F119" s="70"/>
-      <c r="G119" s="71"/>
+      <c r="C119" s="83"/>
+      <c r="D119" s="62"/>
+      <c r="E119" s="62"/>
+      <c r="F119" s="62"/>
+      <c r="G119" s="63"/>
       <c r="H119" s="12" t="s">
         <v>49</v>
       </c>
@@ -6203,11 +6289,11 @@
       <c r="B120" s="27">
         <v>100</v>
       </c>
-      <c r="C120" s="91"/>
-      <c r="D120" s="70"/>
-      <c r="E120" s="70"/>
-      <c r="F120" s="70"/>
-      <c r="G120" s="71"/>
+      <c r="C120" s="83"/>
+      <c r="D120" s="62"/>
+      <c r="E120" s="62"/>
+      <c r="F120" s="62"/>
+      <c r="G120" s="63"/>
       <c r="H120" s="12" t="s">
         <v>49</v>
       </c>
@@ -7886,53 +7972,50 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
@@ -7957,50 +8040,53 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C95:G95"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21:H120" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -8027,9 +8113,9 @@
   </sheetPr>
   <dimension ref="A1:U1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11:C17"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8049,85 +8135,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
       <c r="K1" s="2">
         <f>Requisitos!C11</f>
         <v>45170</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="80"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45171</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45172</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45173</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45174</v>
@@ -8141,18 +8227,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="73" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45176</v>
@@ -8169,13 +8255,13 @@
       <c r="B9" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -9311,23 +9397,23 @@
       <c r="B63" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="71"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="63"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="71"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
       <c r="H64" s="7" t="s">
         <v>80</v>
       </c>
@@ -9340,11 +9426,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="71"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="63"/>
       <c r="H65" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B10,H$11:H$60)</f>
         <v>8</v>
@@ -9359,11 +9445,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="71"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>10</v>
@@ -9378,11 +9464,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="71"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="63"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>8</v>
@@ -9397,11 +9483,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>Maria Eduarda Amaral</v>
       </c>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="71"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>9</v>
@@ -9416,11 +9502,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="71"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="63"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>8</v>
@@ -9435,11 +9521,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="71"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
       <c r="H70" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>10</v>
@@ -10488,42 +10574,42 @@
     <mergeCell ref="B68:G68"/>
   </mergeCells>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="123" priority="3">
+    <cfRule type="expression" dxfId="128" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="122" priority="4">
+    <cfRule type="expression" dxfId="127" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="121" priority="5">
+    <cfRule type="expression" dxfId="126" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="120" priority="6">
+    <cfRule type="expression" dxfId="125" priority="6">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="119" priority="7">
+    <cfRule type="expression" dxfId="124" priority="7">
       <formula>NOT(ISERROR(SEARCH(($B$70),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="containsBlanks" dxfId="118" priority="8">
+    <cfRule type="containsBlanks" dxfId="123" priority="8">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" dxfId="117" priority="1">
+    <cfRule type="expression" dxfId="122" priority="1">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" dxfId="116" priority="2">
+    <cfRule type="expression" dxfId="121" priority="2">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10562,9 +10648,9 @@
   </sheetPr>
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10584,85 +10670,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
       <c r="K1" s="2">
         <f>Requisitos!C12</f>
         <v>45191</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="80"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45192</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45193</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45194</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45195</v>
@@ -10676,18 +10762,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="73" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45197</v>
@@ -10704,13 +10790,13 @@
       <c r="B9" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -10757,13 +10843,23 @@
       <c r="B11" s="9">
         <v>1</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="41"/>
+      <c r="C11" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -10788,13 +10884,23 @@
       <c r="B12" s="9">
         <v>2</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="41"/>
+      <c r="C12" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I12" s="13">
         <v>0</v>
@@ -10809,13 +10915,23 @@
       <c r="B13" s="9">
         <v>3</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="41"/>
+      <c r="C13" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H13" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -10830,13 +10946,23 @@
       <c r="B14" s="9">
         <v>4</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="13">
         <v>0</v>
@@ -10851,13 +10977,23 @@
       <c r="B15" s="9">
         <v>5</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="41"/>
+      <c r="C15" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -10869,13 +11005,23 @@
       <c r="B16" s="9">
         <v>6</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="11">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H16" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
@@ -10887,13 +11033,23 @@
       <c r="B17" s="9">
         <v>7</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="41"/>
+      <c r="C17" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="11">
+        <v>3</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H17" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -10905,13 +11061,23 @@
       <c r="B18" s="9">
         <v>8</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="41"/>
+      <c r="C18" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="11">
+        <v>3</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18" s="13">
         <v>0</v>
@@ -10923,13 +11089,23 @@
       <c r="B19" s="9">
         <v>9</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="41"/>
+      <c r="C19" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="11">
+        <v>3</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H19" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
@@ -10941,13 +11117,23 @@
       <c r="B20" s="9">
         <v>10</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="41"/>
+      <c r="C20" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="11">
+        <v>3</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H20" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20" s="13">
         <v>0</v>
@@ -10959,13 +11145,23 @@
       <c r="B21" s="9">
         <v>11</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="41"/>
+      <c r="C21" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="11">
+        <v>3</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
@@ -10978,12 +11174,12 @@
         <v>12</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="12"/>
       <c r="G22" s="41"/>
       <c r="H22" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I22" s="13">
         <v>0</v>
@@ -10996,12 +11192,12 @@
         <v>13</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="12"/>
       <c r="G23" s="41"/>
       <c r="H23" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23" s="13">
         <v>0</v>
@@ -11802,7 +11998,7 @@
       </c>
       <c r="H70" s="32">
         <f t="shared" ref="H70:I70" si="1">SUM(H11:H60)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I70" s="32">
         <f t="shared" si="1"/>
@@ -11815,7 +12011,7 @@
       <c r="C71" s="30"/>
       <c r="D71" s="30">
         <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E71" s="30"/>
       <c r="F71" s="30"/>
@@ -11829,23 +12025,23 @@
       <c r="B72" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="71"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="63"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="71"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="63"/>
       <c r="H73" s="7" t="s">
         <v>80</v>
       </c>
@@ -11858,14 +12054,14 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="71"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,I$11:I$60)</f>
@@ -11877,14 +12073,14 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="71"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="63"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I75" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B11,I$11:I$60)</f>
@@ -11896,14 +12092,14 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="71"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I76" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B12,I$11:I$60)</f>
@@ -11915,14 +12111,14 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="71"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="63"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I77" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B14,I$11:I$60)</f>
@@ -11934,14 +12130,14 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="71"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I78" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B15,I$11:I$60)</f>
@@ -12977,142 +13173,167 @@
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
   </mergeCells>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="115" priority="1">
-      <formula>NOT(ISERROR(SEARCH(($B$74),(F20))))</formula>
+  <conditionalFormatting sqref="F24:F25">
+    <cfRule type="expression" dxfId="120" priority="7">
+      <formula>NOT(ISERROR(SEARCH(($B$74),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="114" priority="2">
-      <formula>NOT(ISERROR(SEARCH(($B$75),(F20))))</formula>
+  <conditionalFormatting sqref="F24:F25">
+    <cfRule type="expression" dxfId="119" priority="8">
+      <formula>NOT(ISERROR(SEARCH(($B$75),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="113" priority="3">
-      <formula>NOT(ISERROR(SEARCH(($B$76),(F20))))</formula>
+  <conditionalFormatting sqref="F24:F25">
+    <cfRule type="expression" dxfId="118" priority="9">
+      <formula>NOT(ISERROR(SEARCH(($B$76),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="112" priority="4">
-      <formula>NOT(ISERROR(SEARCH(($B$77),(F20))))</formula>
+  <conditionalFormatting sqref="F24:F25">
+    <cfRule type="expression" dxfId="117" priority="10">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="111" priority="5">
-      <formula>NOT(ISERROR(SEARCH(($B$78),(F20))))</formula>
+  <conditionalFormatting sqref="F24:F25">
+    <cfRule type="expression" dxfId="116" priority="11">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="containsBlanks" dxfId="110" priority="6">
-      <formula>LEN(TRIM(F20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="109" priority="7">
-      <formula>NOT(ISERROR(SEARCH(($B$74),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="108" priority="8">
-      <formula>NOT(ISERROR(SEARCH(($B$75),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="107" priority="9">
-      <formula>NOT(ISERROR(SEARCH(($B$76),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="106" priority="10">
-      <formula>NOT(ISERROR(SEARCH(($B$77),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="105" priority="11">
-      <formula>NOT(ISERROR(SEARCH(($B$78),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="containsBlanks" dxfId="104" priority="12">
+  <conditionalFormatting sqref="F11:F25">
+    <cfRule type="containsBlanks" dxfId="115" priority="12">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F69">
+    <cfRule type="expression" dxfId="114" priority="13">
+      <formula>NOT(ISERROR(SEARCH(($B$74),(F24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F69">
+    <cfRule type="expression" dxfId="113" priority="14">
+      <formula>NOT(ISERROR(SEARCH(($B$75),(F24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F69">
+    <cfRule type="expression" dxfId="112" priority="15">
+      <formula>NOT(ISERROR(SEARCH(($B$76),(F24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F69">
+    <cfRule type="expression" dxfId="111" priority="16">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(F24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F69">
+    <cfRule type="expression" dxfId="110" priority="17">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(F24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F69">
+    <cfRule type="containsBlanks" dxfId="109" priority="18">
+      <formula>LEN(TRIM(F24))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C11:C69">
-    <cfRule type="expression" dxfId="103" priority="13">
+    <cfRule type="expression" dxfId="108" priority="19">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="102" priority="14">
-      <formula>NOT(ISERROR(SEARCH(($B$74),(F20))))</formula>
+  <conditionalFormatting sqref="F24:F25">
+    <cfRule type="expression" dxfId="107" priority="20">
+      <formula>NOT(ISERROR(SEARCH(($B$74),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="101" priority="15">
-      <formula>NOT(ISERROR(SEARCH(($B$75),(F20))))</formula>
+  <conditionalFormatting sqref="F24:F25">
+    <cfRule type="expression" dxfId="106" priority="21">
+      <formula>NOT(ISERROR(SEARCH(($B$75),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="100" priority="16">
-      <formula>NOT(ISERROR(SEARCH(($B$76),(F20))))</formula>
+  <conditionalFormatting sqref="F24:F25">
+    <cfRule type="expression" dxfId="105" priority="22">
+      <formula>NOT(ISERROR(SEARCH(($B$76),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="99" priority="17">
-      <formula>NOT(ISERROR(SEARCH(($B$77),(F20))))</formula>
+  <conditionalFormatting sqref="F24:F25">
+    <cfRule type="expression" dxfId="104" priority="23">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="98" priority="18">
-      <formula>NOT(ISERROR(SEARCH(($B$78),(F20))))</formula>
+  <conditionalFormatting sqref="F24:F25">
+    <cfRule type="expression" dxfId="103" priority="24">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="containsBlanks" dxfId="97" priority="19">
-      <formula>LEN(TRIM(F20))=0</formula>
+  <conditionalFormatting sqref="F24:F25">
+    <cfRule type="containsBlanks" dxfId="102" priority="25">
+      <formula>LEN(TRIM(F24))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="96" priority="20">
-      <formula>NOT(ISERROR(SEARCH(($B$74),(F11))))</formula>
+  <conditionalFormatting sqref="F24:F69">
+    <cfRule type="expression" dxfId="101" priority="26">
+      <formula>NOT(ISERROR(SEARCH(($B$74),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="95" priority="21">
-      <formula>NOT(ISERROR(SEARCH(($B$75),(F11))))</formula>
+  <conditionalFormatting sqref="F24:F69">
+    <cfRule type="expression" dxfId="100" priority="27">
+      <formula>NOT(ISERROR(SEARCH(($B$75),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="94" priority="22">
-      <formula>NOT(ISERROR(SEARCH(($B$76),(F11))))</formula>
+  <conditionalFormatting sqref="F24:F69">
+    <cfRule type="expression" dxfId="99" priority="28">
+      <formula>NOT(ISERROR(SEARCH(($B$76),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="93" priority="23">
-      <formula>NOT(ISERROR(SEARCH(($B$77),(F11))))</formula>
+  <conditionalFormatting sqref="F24:F69">
+    <cfRule type="expression" dxfId="98" priority="29">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="92" priority="24">
-      <formula>NOT(ISERROR(SEARCH(($B$78),(F11))))</formula>
+  <conditionalFormatting sqref="F24:F69">
+    <cfRule type="expression" dxfId="97" priority="30">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="containsBlanks" dxfId="91" priority="25">
-      <formula>LEN(TRIM(F11))=0</formula>
+  <conditionalFormatting sqref="F24:F69">
+    <cfRule type="containsBlanks" dxfId="96" priority="31">
+      <formula>LEN(TRIM(F24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C69">
-    <cfRule type="expression" dxfId="90" priority="26">
+    <cfRule type="expression" dxfId="95" priority="32">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F23">
+    <cfRule type="expression" dxfId="94" priority="1">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F23">
+    <cfRule type="expression" dxfId="93" priority="2">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F23">
+    <cfRule type="expression" dxfId="92" priority="3">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F23">
+    <cfRule type="expression" dxfId="91" priority="4">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F23">
+    <cfRule type="expression" dxfId="90" priority="5">
+      <formula>NOT(ISERROR(SEARCH(($B$70),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C12:C69" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11:C69" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$K$1:$K$28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0300-000001000000}">
-      <formula1>$K$1:$K$14</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F23" xr:uid="{FB3758DF-CF4E-465D-A84B-35502667E927}">
+      <formula1>"Guilherme Lage, João Gabriel Perez, Lucas Soares, Marlene Moraes, Vitor Stahlberg, Maria Eduarda Amaral"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -13164,85 +13385,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
       <c r="K1" s="2">
         <f>Requisitos!C13</f>
         <v>45205</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="80"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45206</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45208</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45209</v>
@@ -13256,18 +13477,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="73" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45211</v>
@@ -13284,13 +13505,13 @@
       <c r="B9" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -14430,23 +14651,23 @@
       <c r="B72" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="71"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="63"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="71"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="63"/>
       <c r="H73" s="7" t="s">
         <v>80</v>
       </c>
@@ -14459,11 +14680,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="71"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -14478,11 +14699,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="71"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="63"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -14497,11 +14718,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="71"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -14516,11 +14737,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="71"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="63"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -14535,11 +14756,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="71"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -15563,12 +15784,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -15577,6 +15792,12 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="89" priority="1">
@@ -15763,85 +15984,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
       <c r="K1" s="2">
         <f>Requisitos!C14</f>
         <v>45226</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="80"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45227</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45229</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45230</v>
@@ -15855,18 +16076,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="73" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -15883,13 +16104,13 @@
       <c r="B9" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -17029,23 +17250,23 @@
       <c r="B72" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="71"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="63"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="71"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="63"/>
       <c r="H73" s="7" t="s">
         <v>80</v>
       </c>
@@ -17058,11 +17279,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="71"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -17077,11 +17298,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="71"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="63"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -17096,11 +17317,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="71"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -17115,11 +17336,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="71"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="63"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -17134,11 +17355,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="71"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -18162,12 +18383,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -18176,6 +18391,12 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="63" priority="1">
@@ -18361,85 +18582,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
       <c r="K1" s="2">
         <f>Requisitos!C15</f>
         <v>45247</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="80"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45248</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45249</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45250</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45251</v>
@@ -18452,18 +18673,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="73" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45253</v>
@@ -18479,13 +18700,13 @@
       <c r="B9" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="58" t="s">
         <v>55</v>
       </c>
@@ -19449,23 +19670,23 @@
       <c r="B63" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="71"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="63"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="71"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
       <c r="H64" s="7" t="s">
         <v>80</v>
       </c>
@@ -19478,11 +19699,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="71"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="63"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -19497,11 +19718,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="71"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -19516,11 +19737,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="71"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="63"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -19535,11 +19756,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="71"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -19554,11 +19775,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="71"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="63"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -20521,12 +20742,6 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="B9:I9"/>
@@ -20535,6 +20750,12 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F13 F17">
     <cfRule type="containsBlanks" dxfId="37" priority="1">

--- a/Artefatos/sprints/Planejamento_sprints.xlsx
+++ b/Artefatos/sprints/Planejamento_sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorios_github\plf-es-2023-2-ti3-6653100-fabrica-do-saber\Artefatos\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18EA9CD-66B7-449A-81A3-035B29DA785F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B98ED3-0995-4C63-9F84-71D9C79BCEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="121">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -559,45 +559,6 @@
     <t>Observações sobre a tarefa</t>
   </si>
   <si>
-    <t>Criar model usuário</t>
-  </si>
-  <si>
-    <t>Criar service usuário</t>
-  </si>
-  <si>
-    <t>Criar controller usuário</t>
-  </si>
-  <si>
-    <t>Autenticação JWT</t>
-  </si>
-  <si>
-    <t>Tratamento de excecoes</t>
-  </si>
-  <si>
-    <t>Wireframe das páginas</t>
-  </si>
-  <si>
-    <t>Página de login</t>
-  </si>
-  <si>
-    <t>Página de cadastro aluno</t>
-  </si>
-  <si>
-    <t>Página home</t>
-  </si>
-  <si>
-    <t>Página de visualização de alunos cadastrados</t>
-  </si>
-  <si>
-    <t>Integracao front+back</t>
-  </si>
-  <si>
-    <t>Estudo API boleto</t>
-  </si>
-  <si>
-    <t>Estudar forma para criar BD de boletos emitidos</t>
-  </si>
-  <si>
     <t>Total:</t>
   </si>
   <si>
@@ -655,37 +616,118 @@
     <t>O administrador pode logar no sistema</t>
   </si>
   <si>
-    <t>Criar model funcionário</t>
+    <t>2 e 3</t>
   </si>
   <si>
-    <t>Criar service funcionário</t>
+    <t>Documento de interface de usuário</t>
   </si>
   <si>
-    <t>Criar controller funcionário</t>
+    <t>Diagramas de casos de uso</t>
   </si>
   <si>
-    <t>Página de cadastro funcionário</t>
+    <t>Wireframes</t>
   </si>
   <si>
-    <t>Página de visualização de funcionários cadastrados</t>
+    <t>Usuario model</t>
   </si>
   <si>
-    <t>Criar model turma</t>
+    <t>Usuario service</t>
   </si>
   <si>
-    <t>Criar service turma</t>
+    <t>Usuario controller</t>
   </si>
   <si>
-    <t>Criar controller turma</t>
+    <t>Responsavel service</t>
   </si>
   <si>
-    <t>Página de cadastro turma</t>
+    <t>Aluno service</t>
   </si>
   <si>
-    <t>Página de visualização de turma cadastrados</t>
+    <t>Responsavel model</t>
   </si>
   <si>
-    <t>2 e 3</t>
+    <t>Responsavel controller</t>
+  </si>
+  <si>
+    <t>Aluno model</t>
+  </si>
+  <si>
+    <t>Aluno controller</t>
+  </si>
+  <si>
+    <t>Pagina de login</t>
+  </si>
+  <si>
+    <t>Pagina de visualizacao de alunos cadastrados</t>
+  </si>
+  <si>
+    <t>Pagina de edicao de aluno</t>
+  </si>
+  <si>
+    <t>Autenticacao JWT</t>
+  </si>
+  <si>
+    <t>Pagina de cadastro de aluno</t>
+  </si>
+  <si>
+    <t>Pagina de cadastro de usuario</t>
+  </si>
+  <si>
+    <t>Pagina inicial(home)</t>
+  </si>
+  <si>
+    <t>Integracao back-end + front-end</t>
+  </si>
+  <si>
+    <t>1 e 13</t>
+  </si>
+  <si>
+    <t>Integracao back-end + front-end (Sprint 1)</t>
+  </si>
+  <si>
+    <t>Integracao back-end + front-end (Sprint 2)</t>
+  </si>
+  <si>
+    <t>Funcionado model</t>
+  </si>
+  <si>
+    <t>Funcionario service</t>
+  </si>
+  <si>
+    <t>Funcionario controller</t>
+  </si>
+  <si>
+    <t>Turma model</t>
+  </si>
+  <si>
+    <t>Turma service</t>
+  </si>
+  <si>
+    <t>Turma controller</t>
+  </si>
+  <si>
+    <t>Pagina de cadastro de turma</t>
+  </si>
+  <si>
+    <t>Pagina de edicao de turma</t>
+  </si>
+  <si>
+    <t>Pagina de cadastro de funcionario</t>
+  </si>
+  <si>
+    <t>Pagina de ediacao de funcionario</t>
+  </si>
+  <si>
+    <t>Pagina de visualizacao de funcionarios cadastrados</t>
+  </si>
+  <si>
+    <t>Pagina de visualizacao de turmas cadastradas</t>
+  </si>
+  <si>
+    <t>Tarefa nao concluida, movida para Sprint 2</t>
+  </si>
+  <si>
+    <t>Tarefa remanescente da sprint 1</t>
   </si>
 </sst>
 </file>
@@ -862,7 +904,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,26 +967,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor rgb="FFF3F3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
-        <bgColor rgb="FFF3F3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1128,7 +1152,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1262,16 +1286,35 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1281,52 +1324,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1351,6 +1362,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1360,13 +1374,26 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -2655,7 +2682,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3172,7 +3199,7 @@
   </sheetPr>
   <dimension ref="A1:O1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -3184,166 +3211,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="80"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="80"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="74" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="65" t="s">
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="65" t="s">
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="65" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="65" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="65" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="67"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="65" t="s">
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="18"/>
@@ -3445,16 +3472,16 @@
     <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="50"/>
-      <c r="B100" s="68"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="69" t="s">
+      <c r="B100" s="78"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="60"/>
-      <c r="F100" s="69" t="s">
+      <c r="E100" s="63"/>
+      <c r="F100" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="60"/>
+      <c r="G100" s="63"/>
       <c r="H100" s="51" t="s">
         <v>18</v>
       </c>
@@ -3476,12 +3503,12 @@
     </row>
     <row r="101" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="64" t="s">
+      <c r="B101" s="81"/>
+      <c r="C101" s="63"/>
+      <c r="D101" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="60"/>
+      <c r="E101" s="63"/>
       <c r="F101" s="53" t="s">
         <v>24</v>
       </c>
@@ -3514,12 +3541,12 @@
     </row>
     <row r="102" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="50"/>
-      <c r="B102" s="59"/>
-      <c r="C102" s="60"/>
-      <c r="D102" s="64" t="s">
+      <c r="B102" s="81"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="60"/>
+      <c r="E102" s="63"/>
       <c r="F102" s="53" t="s">
         <v>29</v>
       </c>
@@ -3528,7 +3555,7 @@
       </c>
       <c r="H102" s="56">
         <f>'Sprint #2'!H$70</f>
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I102" s="56">
         <f>'Sprint #2'!I$70</f>
@@ -3553,12 +3580,12 @@
     </row>
     <row r="103" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="50"/>
-      <c r="B103" s="59"/>
-      <c r="C103" s="60"/>
-      <c r="D103" s="64" t="s">
+      <c r="B103" s="81"/>
+      <c r="C103" s="63"/>
+      <c r="D103" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="60"/>
+      <c r="E103" s="63"/>
       <c r="F103" s="53"/>
       <c r="G103" s="54" t="s">
         <v>34</v>
@@ -3590,12 +3617,12 @@
     </row>
     <row r="104" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="50"/>
-      <c r="B104" s="59"/>
-      <c r="C104" s="60"/>
-      <c r="D104" s="64" t="s">
+      <c r="B104" s="81"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="60"/>
+      <c r="E104" s="63"/>
       <c r="F104" s="53"/>
       <c r="G104" s="54" t="s">
         <v>36</v>
@@ -3625,12 +3652,12 @@
     </row>
     <row r="105" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="50"/>
-      <c r="B105" s="59"/>
-      <c r="C105" s="60"/>
-      <c r="D105" s="64" t="s">
+      <c r="B105" s="81"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="60"/>
+      <c r="E105" s="63"/>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="s">
         <v>39</v>
@@ -3655,8 +3682,8 @@
     </row>
     <row r="106" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="50"/>
-      <c r="B106" s="59"/>
-      <c r="C106" s="60"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="63"/>
       <c r="F106" s="53"/>
       <c r="G106" s="54"/>
       <c r="H106" s="53"/>
@@ -3667,8 +3694,8 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="50"/>
-      <c r="B107" s="59"/>
-      <c r="C107" s="60"/>
+      <c r="B107" s="81"/>
+      <c r="C107" s="63"/>
       <c r="D107" s="55"/>
       <c r="E107" s="53"/>
       <c r="F107" s="53"/>
@@ -4636,24 +4663,12 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D105:E105"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="D100:E100"/>
@@ -4665,12 +4680,24 @@
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="F10:F15" xr:uid="{49EDF03A-7EFB-435C-A992-40D98DE85B41}">
@@ -4695,8 +4722,8 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H24" sqref="C22:H24"/>
+    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4713,59 +4740,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="80"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="80"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -4777,16 +4804,16 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="95" t="str">
+      <c r="B7" s="88" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -4798,15 +4825,15 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
@@ -4818,11 +4845,11 @@
       <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
@@ -4837,9 +4864,9 @@
       <c r="D11" s="14">
         <v>45190</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4853,9 +4880,9 @@
         <f t="shared" ref="D12" si="0">C12+13</f>
         <v>45204</v>
       </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4869,9 +4896,9 @@
       <c r="D13" s="14">
         <v>45225</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4884,9 +4911,9 @@
       <c r="D14" s="14">
         <v>45246</v>
       </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4925,13 +4952,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
       <c r="H18" s="22" t="s">
         <v>47</v>
       </c>
@@ -4940,11 +4967,11 @@
       <c r="B19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
@@ -4954,11 +4981,11 @@
       <c r="B20" s="27">
         <v>0</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="28"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -4975,13 +5002,13 @@
       <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
+      <c r="C21" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="101"/>
       <c r="H21" s="12" t="s">
         <v>52</v>
       </c>
@@ -4991,13 +5018,13 @@
       <c r="B22" s="27">
         <v>2</v>
       </c>
-      <c r="C22" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="86"/>
+      <c r="C22" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="101"/>
       <c r="H22" s="12" t="s">
         <v>49</v>
       </c>
@@ -5006,13 +5033,13 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
+      <c r="C23" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="101"/>
       <c r="H23" s="12" t="s">
         <v>49</v>
       </c>
@@ -5021,13 +5048,13 @@
       <c r="B24" s="27">
         <v>4</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="98"/>
       <c r="H24" s="12" t="s">
         <v>49</v>
       </c>
@@ -5036,13 +5063,13 @@
       <c r="B25" s="9">
         <v>5</v>
       </c>
-      <c r="C25" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
+      <c r="C25" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="98"/>
       <c r="H25" s="12" t="s">
         <v>49</v>
       </c>
@@ -5051,13 +5078,13 @@
       <c r="B26" s="27">
         <v>6</v>
       </c>
-      <c r="C26" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
+      <c r="C26" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="98"/>
       <c r="H26" s="12" t="s">
         <v>49</v>
       </c>
@@ -5066,13 +5093,13 @@
       <c r="B27" s="9">
         <v>7</v>
       </c>
-      <c r="C27" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
+      <c r="C27" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="12" t="s">
         <v>49</v>
       </c>
@@ -5081,13 +5108,13 @@
       <c r="B28" s="27">
         <v>8</v>
       </c>
-      <c r="C28" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
+      <c r="C28" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="98"/>
       <c r="H28" s="12" t="s">
         <v>49</v>
       </c>
@@ -5096,13 +5123,13 @@
       <c r="B29" s="9">
         <v>9</v>
       </c>
-      <c r="C29" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
+      <c r="C29" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="98"/>
       <c r="H29" s="12" t="s">
         <v>49</v>
       </c>
@@ -5111,13 +5138,13 @@
       <c r="B30" s="27">
         <v>10</v>
       </c>
-      <c r="C30" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="89"/>
+      <c r="C30" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="98"/>
       <c r="H30" s="12" t="s">
         <v>49</v>
       </c>
@@ -5126,13 +5153,13 @@
       <c r="B31" s="9">
         <v>11</v>
       </c>
-      <c r="C31" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
+      <c r="C31" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="98"/>
       <c r="H31" s="12" t="s">
         <v>49</v>
       </c>
@@ -5141,13 +5168,13 @@
       <c r="B32" s="27">
         <v>12</v>
       </c>
-      <c r="C32" s="101" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
+      <c r="C32" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="98"/>
       <c r="H32" s="12" t="s">
         <v>52</v>
       </c>
@@ -5156,13 +5183,13 @@
       <c r="B33" s="9">
         <v>13</v>
       </c>
-      <c r="C33" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="86"/>
+      <c r="C33" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="101"/>
       <c r="H33" s="12" t="s">
         <v>52</v>
       </c>
@@ -5171,11 +5198,11 @@
       <c r="B34" s="27">
         <v>14</v>
       </c>
-      <c r="C34" s="83"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
       <c r="H34" s="12" t="s">
         <v>49</v>
       </c>
@@ -5184,11 +5211,11 @@
       <c r="B35" s="9">
         <v>15</v>
       </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="98"/>
       <c r="H35" s="12" t="s">
         <v>49</v>
       </c>
@@ -5197,11 +5224,11 @@
       <c r="B36" s="27">
         <v>16</v>
       </c>
-      <c r="C36" s="83"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="71"/>
       <c r="H36" s="12" t="s">
         <v>49</v>
       </c>
@@ -5210,11 +5237,11 @@
       <c r="B37" s="9">
         <v>17</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="63"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="71"/>
       <c r="H37" s="12" t="s">
         <v>49</v>
       </c>
@@ -5223,11 +5250,11 @@
       <c r="B38" s="27">
         <v>18</v>
       </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="63"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="71"/>
       <c r="H38" s="12" t="s">
         <v>49</v>
       </c>
@@ -5236,11 +5263,11 @@
       <c r="B39" s="9">
         <v>19</v>
       </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="63"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="71"/>
       <c r="H39" s="12" t="s">
         <v>49</v>
       </c>
@@ -5249,11 +5276,11 @@
       <c r="B40" s="27">
         <v>20</v>
       </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="63"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="71"/>
       <c r="H40" s="12" t="s">
         <v>49</v>
       </c>
@@ -5262,11 +5289,11 @@
       <c r="B41" s="9">
         <v>21</v>
       </c>
-      <c r="C41" s="83"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="63"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="12" t="s">
         <v>49</v>
       </c>
@@ -5275,11 +5302,11 @@
       <c r="B42" s="27">
         <v>22</v>
       </c>
-      <c r="C42" s="83"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="63"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="71"/>
       <c r="H42" s="12" t="s">
         <v>49</v>
       </c>
@@ -5288,11 +5315,11 @@
       <c r="B43" s="9">
         <v>23</v>
       </c>
-      <c r="C43" s="83"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="63"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="71"/>
       <c r="H43" s="12" t="s">
         <v>49</v>
       </c>
@@ -5301,11 +5328,11 @@
       <c r="B44" s="27">
         <v>24</v>
       </c>
-      <c r="C44" s="83"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="63"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="71"/>
       <c r="H44" s="12" t="s">
         <v>49</v>
       </c>
@@ -5314,11 +5341,11 @@
       <c r="B45" s="9">
         <v>25</v>
       </c>
-      <c r="C45" s="83"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="63"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="71"/>
       <c r="H45" s="12" t="s">
         <v>49</v>
       </c>
@@ -5327,11 +5354,11 @@
       <c r="B46" s="27">
         <v>26</v>
       </c>
-      <c r="C46" s="83"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="63"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="71"/>
       <c r="H46" s="12" t="s">
         <v>49</v>
       </c>
@@ -5340,11 +5367,11 @@
       <c r="B47" s="9">
         <v>27</v>
       </c>
-      <c r="C47" s="83"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="63"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="71"/>
       <c r="H47" s="12" t="s">
         <v>49</v>
       </c>
@@ -5353,11 +5380,11 @@
       <c r="B48" s="27">
         <v>28</v>
       </c>
-      <c r="C48" s="83"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="63"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="71"/>
       <c r="H48" s="12" t="s">
         <v>49</v>
       </c>
@@ -5366,11 +5393,11 @@
       <c r="B49" s="9">
         <v>29</v>
       </c>
-      <c r="C49" s="83"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="63"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="71"/>
       <c r="H49" s="12" t="s">
         <v>49</v>
       </c>
@@ -5379,11 +5406,11 @@
       <c r="B50" s="27">
         <v>30</v>
       </c>
-      <c r="C50" s="83"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="63"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="71"/>
       <c r="H50" s="12" t="s">
         <v>49</v>
       </c>
@@ -5392,11 +5419,11 @@
       <c r="B51" s="9">
         <v>31</v>
       </c>
-      <c r="C51" s="83"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="63"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="71"/>
       <c r="H51" s="12" t="s">
         <v>49</v>
       </c>
@@ -5405,11 +5432,11 @@
       <c r="B52" s="27">
         <v>32</v>
       </c>
-      <c r="C52" s="83"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="63"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="71"/>
       <c r="H52" s="12" t="s">
         <v>49</v>
       </c>
@@ -5418,11 +5445,11 @@
       <c r="B53" s="9">
         <v>33</v>
       </c>
-      <c r="C53" s="83"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="63"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="71"/>
       <c r="H53" s="12" t="s">
         <v>49</v>
       </c>
@@ -5431,11 +5458,11 @@
       <c r="B54" s="27">
         <v>34</v>
       </c>
-      <c r="C54" s="83"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="63"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="71"/>
       <c r="H54" s="12" t="s">
         <v>49</v>
       </c>
@@ -5444,11 +5471,11 @@
       <c r="B55" s="9">
         <v>35</v>
       </c>
-      <c r="C55" s="83"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="63"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="71"/>
       <c r="H55" s="12" t="s">
         <v>49</v>
       </c>
@@ -5457,11 +5484,11 @@
       <c r="B56" s="27">
         <v>36</v>
       </c>
-      <c r="C56" s="83"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="63"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="71"/>
       <c r="H56" s="12" t="s">
         <v>49</v>
       </c>
@@ -5470,11 +5497,11 @@
       <c r="B57" s="9">
         <v>37</v>
       </c>
-      <c r="C57" s="83"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="63"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="71"/>
       <c r="H57" s="12" t="s">
         <v>49</v>
       </c>
@@ -5483,11 +5510,11 @@
       <c r="B58" s="27">
         <v>38</v>
       </c>
-      <c r="C58" s="83"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="63"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="71"/>
       <c r="H58" s="12" t="s">
         <v>49</v>
       </c>
@@ -5496,11 +5523,11 @@
       <c r="B59" s="9">
         <v>39</v>
       </c>
-      <c r="C59" s="83"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="63"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="71"/>
       <c r="H59" s="12" t="s">
         <v>49</v>
       </c>
@@ -5509,11 +5536,11 @@
       <c r="B60" s="27">
         <v>40</v>
       </c>
-      <c r="C60" s="83"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="63"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="71"/>
       <c r="H60" s="12" t="s">
         <v>49</v>
       </c>
@@ -5522,11 +5549,11 @@
       <c r="B61" s="9">
         <v>41</v>
       </c>
-      <c r="C61" s="83"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="63"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="71"/>
       <c r="H61" s="12" t="s">
         <v>49</v>
       </c>
@@ -5535,11 +5562,11 @@
       <c r="B62" s="27">
         <v>42</v>
       </c>
-      <c r="C62" s="83"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="63"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="71"/>
       <c r="H62" s="12" t="s">
         <v>49</v>
       </c>
@@ -5548,11 +5575,11 @@
       <c r="B63" s="9">
         <v>43</v>
       </c>
-      <c r="C63" s="83"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="63"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="71"/>
       <c r="H63" s="12" t="s">
         <v>49</v>
       </c>
@@ -5561,11 +5588,11 @@
       <c r="B64" s="27">
         <v>44</v>
       </c>
-      <c r="C64" s="83"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="71"/>
       <c r="H64" s="12" t="s">
         <v>49</v>
       </c>
@@ -5574,11 +5601,11 @@
       <c r="B65" s="9">
         <v>45</v>
       </c>
-      <c r="C65" s="83"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="63"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="71"/>
       <c r="H65" s="12" t="s">
         <v>49</v>
       </c>
@@ -5587,11 +5614,11 @@
       <c r="B66" s="27">
         <v>46</v>
       </c>
-      <c r="C66" s="83"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="71"/>
       <c r="H66" s="12" t="s">
         <v>49</v>
       </c>
@@ -5600,11 +5627,11 @@
       <c r="B67" s="9">
         <v>47</v>
       </c>
-      <c r="C67" s="83"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="63"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="71"/>
       <c r="H67" s="12" t="s">
         <v>49</v>
       </c>
@@ -5613,11 +5640,11 @@
       <c r="B68" s="27">
         <v>48</v>
       </c>
-      <c r="C68" s="83"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="71"/>
       <c r="H68" s="12" t="s">
         <v>49</v>
       </c>
@@ -5626,11 +5653,11 @@
       <c r="B69" s="9">
         <v>49</v>
       </c>
-      <c r="C69" s="83"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="63"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="71"/>
       <c r="H69" s="12" t="s">
         <v>49</v>
       </c>
@@ -5639,11 +5666,11 @@
       <c r="B70" s="27">
         <v>50</v>
       </c>
-      <c r="C70" s="83"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="63"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="71"/>
       <c r="H70" s="12" t="s">
         <v>49</v>
       </c>
@@ -5652,11 +5679,11 @@
       <c r="B71" s="9">
         <v>51</v>
       </c>
-      <c r="C71" s="83"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="63"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="71"/>
       <c r="H71" s="12" t="s">
         <v>49</v>
       </c>
@@ -5665,11 +5692,11 @@
       <c r="B72" s="27">
         <v>52</v>
       </c>
-      <c r="C72" s="83"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="63"/>
+      <c r="C72" s="91"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="71"/>
       <c r="H72" s="12" t="s">
         <v>49</v>
       </c>
@@ -5678,11 +5705,11 @@
       <c r="B73" s="9">
         <v>53</v>
       </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="63"/>
+      <c r="C73" s="91"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="71"/>
       <c r="H73" s="12" t="s">
         <v>49</v>
       </c>
@@ -5691,11 +5718,11 @@
       <c r="B74" s="27">
         <v>54</v>
       </c>
-      <c r="C74" s="83"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
+      <c r="C74" s="91"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="71"/>
       <c r="H74" s="12" t="s">
         <v>49</v>
       </c>
@@ -5704,11 +5731,11 @@
       <c r="B75" s="9">
         <v>55</v>
       </c>
-      <c r="C75" s="83"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="63"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="71"/>
       <c r="H75" s="12" t="s">
         <v>49</v>
       </c>
@@ -5717,11 +5744,11 @@
       <c r="B76" s="27">
         <v>56</v>
       </c>
-      <c r="C76" s="83"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="71"/>
       <c r="H76" s="12" t="s">
         <v>49</v>
       </c>
@@ -5730,11 +5757,11 @@
       <c r="B77" s="9">
         <v>57</v>
       </c>
-      <c r="C77" s="83"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="63"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="71"/>
       <c r="H77" s="12" t="s">
         <v>49</v>
       </c>
@@ -5743,11 +5770,11 @@
       <c r="B78" s="27">
         <v>58</v>
       </c>
-      <c r="C78" s="83"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="71"/>
       <c r="H78" s="12" t="s">
         <v>49</v>
       </c>
@@ -5756,11 +5783,11 @@
       <c r="B79" s="9">
         <v>59</v>
       </c>
-      <c r="C79" s="83"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="63"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="71"/>
       <c r="H79" s="12" t="s">
         <v>49</v>
       </c>
@@ -5769,11 +5796,11 @@
       <c r="B80" s="27">
         <v>60</v>
       </c>
-      <c r="C80" s="83"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
+      <c r="C80" s="91"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="71"/>
       <c r="H80" s="12" t="s">
         <v>49</v>
       </c>
@@ -5782,11 +5809,11 @@
       <c r="B81" s="9">
         <v>61</v>
       </c>
-      <c r="C81" s="83"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="63"/>
+      <c r="C81" s="91"/>
+      <c r="D81" s="70"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="71"/>
       <c r="H81" s="12" t="s">
         <v>49</v>
       </c>
@@ -5795,11 +5822,11 @@
       <c r="B82" s="27">
         <v>62</v>
       </c>
-      <c r="C82" s="83"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="63"/>
+      <c r="C82" s="91"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="70"/>
+      <c r="G82" s="71"/>
       <c r="H82" s="12" t="s">
         <v>49</v>
       </c>
@@ -5808,11 +5835,11 @@
       <c r="B83" s="9">
         <v>63</v>
       </c>
-      <c r="C83" s="83"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="63"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="71"/>
       <c r="H83" s="12" t="s">
         <v>49</v>
       </c>
@@ -5821,11 +5848,11 @@
       <c r="B84" s="27">
         <v>64</v>
       </c>
-      <c r="C84" s="83"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="63"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="70"/>
+      <c r="G84" s="71"/>
       <c r="H84" s="12" t="s">
         <v>49</v>
       </c>
@@ -5834,11 +5861,11 @@
       <c r="B85" s="9">
         <v>65</v>
       </c>
-      <c r="C85" s="83"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="63"/>
+      <c r="C85" s="91"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="71"/>
       <c r="H85" s="12" t="s">
         <v>49</v>
       </c>
@@ -5847,11 +5874,11 @@
       <c r="B86" s="27">
         <v>66</v>
       </c>
-      <c r="C86" s="83"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
+      <c r="C86" s="91"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="70"/>
+      <c r="G86" s="71"/>
       <c r="H86" s="12" t="s">
         <v>49</v>
       </c>
@@ -5860,11 +5887,11 @@
       <c r="B87" s="9">
         <v>67</v>
       </c>
-      <c r="C87" s="83"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="63"/>
+      <c r="C87" s="91"/>
+      <c r="D87" s="70"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="71"/>
       <c r="H87" s="12" t="s">
         <v>49</v>
       </c>
@@ -5873,11 +5900,11 @@
       <c r="B88" s="27">
         <v>68</v>
       </c>
-      <c r="C88" s="83"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="63"/>
+      <c r="C88" s="91"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="70"/>
+      <c r="G88" s="71"/>
       <c r="H88" s="12" t="s">
         <v>49</v>
       </c>
@@ -5886,11 +5913,11 @@
       <c r="B89" s="9">
         <v>69</v>
       </c>
-      <c r="C89" s="83"/>
-      <c r="D89" s="62"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="62"/>
-      <c r="G89" s="63"/>
+      <c r="C89" s="91"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="71"/>
       <c r="H89" s="12" t="s">
         <v>49</v>
       </c>
@@ -5899,11 +5926,11 @@
       <c r="B90" s="27">
         <v>70</v>
       </c>
-      <c r="C90" s="83"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="62"/>
-      <c r="F90" s="62"/>
-      <c r="G90" s="63"/>
+      <c r="C90" s="91"/>
+      <c r="D90" s="70"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="70"/>
+      <c r="G90" s="71"/>
       <c r="H90" s="12" t="s">
         <v>49</v>
       </c>
@@ -5912,11 +5939,11 @@
       <c r="B91" s="9">
         <v>71</v>
       </c>
-      <c r="C91" s="83"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="62"/>
-      <c r="G91" s="63"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="71"/>
       <c r="H91" s="12" t="s">
         <v>49</v>
       </c>
@@ -5925,11 +5952,11 @@
       <c r="B92" s="27">
         <v>72</v>
       </c>
-      <c r="C92" s="83"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="63"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="70"/>
+      <c r="G92" s="71"/>
       <c r="H92" s="12" t="s">
         <v>49</v>
       </c>
@@ -5938,11 +5965,11 @@
       <c r="B93" s="9">
         <v>73</v>
       </c>
-      <c r="C93" s="83"/>
-      <c r="D93" s="62"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="62"/>
-      <c r="G93" s="63"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="70"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="71"/>
       <c r="H93" s="12" t="s">
         <v>49</v>
       </c>
@@ -5951,11 +5978,11 @@
       <c r="B94" s="27">
         <v>74</v>
       </c>
-      <c r="C94" s="83"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="62"/>
-      <c r="F94" s="62"/>
-      <c r="G94" s="63"/>
+      <c r="C94" s="91"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="70"/>
+      <c r="G94" s="71"/>
       <c r="H94" s="12" t="s">
         <v>49</v>
       </c>
@@ -5964,11 +5991,11 @@
       <c r="B95" s="9">
         <v>75</v>
       </c>
-      <c r="C95" s="83"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="62"/>
-      <c r="G95" s="63"/>
+      <c r="C95" s="91"/>
+      <c r="D95" s="70"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="71"/>
       <c r="H95" s="12" t="s">
         <v>49</v>
       </c>
@@ -5977,11 +6004,11 @@
       <c r="B96" s="27">
         <v>76</v>
       </c>
-      <c r="C96" s="83"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="63"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="70"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="70"/>
+      <c r="G96" s="71"/>
       <c r="H96" s="12" t="s">
         <v>49</v>
       </c>
@@ -5990,11 +6017,11 @@
       <c r="B97" s="9">
         <v>77</v>
       </c>
-      <c r="C97" s="83"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="62"/>
-      <c r="G97" s="63"/>
+      <c r="C97" s="91"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="71"/>
       <c r="H97" s="12" t="s">
         <v>49</v>
       </c>
@@ -6003,11 +6030,11 @@
       <c r="B98" s="27">
         <v>78</v>
       </c>
-      <c r="C98" s="83"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="63"/>
+      <c r="C98" s="91"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="70"/>
+      <c r="F98" s="70"/>
+      <c r="G98" s="71"/>
       <c r="H98" s="12" t="s">
         <v>49</v>
       </c>
@@ -6016,11 +6043,11 @@
       <c r="B99" s="9">
         <v>79</v>
       </c>
-      <c r="C99" s="83"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="63"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="71"/>
       <c r="H99" s="12" t="s">
         <v>49</v>
       </c>
@@ -6029,11 +6056,11 @@
       <c r="B100" s="27">
         <v>80</v>
       </c>
-      <c r="C100" s="83"/>
-      <c r="D100" s="62"/>
-      <c r="E100" s="62"/>
-      <c r="F100" s="62"/>
-      <c r="G100" s="63"/>
+      <c r="C100" s="91"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="70"/>
+      <c r="G100" s="71"/>
       <c r="H100" s="12" t="s">
         <v>49</v>
       </c>
@@ -6042,11 +6069,11 @@
       <c r="B101" s="9">
         <v>81</v>
       </c>
-      <c r="C101" s="83"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="62"/>
-      <c r="G101" s="63"/>
+      <c r="C101" s="91"/>
+      <c r="D101" s="70"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="71"/>
       <c r="H101" s="12" t="s">
         <v>49</v>
       </c>
@@ -6055,11 +6082,11 @@
       <c r="B102" s="27">
         <v>82</v>
       </c>
-      <c r="C102" s="83"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="62"/>
-      <c r="F102" s="62"/>
-      <c r="G102" s="63"/>
+      <c r="C102" s="91"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
+      <c r="G102" s="71"/>
       <c r="H102" s="12" t="s">
         <v>49</v>
       </c>
@@ -6068,11 +6095,11 @@
       <c r="B103" s="9">
         <v>83</v>
       </c>
-      <c r="C103" s="83"/>
-      <c r="D103" s="62"/>
-      <c r="E103" s="62"/>
-      <c r="F103" s="62"/>
-      <c r="G103" s="63"/>
+      <c r="C103" s="91"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="71"/>
       <c r="H103" s="12" t="s">
         <v>49</v>
       </c>
@@ -6081,11 +6108,11 @@
       <c r="B104" s="27">
         <v>84</v>
       </c>
-      <c r="C104" s="83"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="62"/>
-      <c r="F104" s="62"/>
-      <c r="G104" s="63"/>
+      <c r="C104" s="91"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="71"/>
       <c r="H104" s="12" t="s">
         <v>49</v>
       </c>
@@ -6094,11 +6121,11 @@
       <c r="B105" s="9">
         <v>85</v>
       </c>
-      <c r="C105" s="83"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="62"/>
-      <c r="F105" s="62"/>
-      <c r="G105" s="63"/>
+      <c r="C105" s="91"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="71"/>
       <c r="H105" s="12" t="s">
         <v>49</v>
       </c>
@@ -6107,11 +6134,11 @@
       <c r="B106" s="27">
         <v>86</v>
       </c>
-      <c r="C106" s="83"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="62"/>
-      <c r="F106" s="62"/>
-      <c r="G106" s="63"/>
+      <c r="C106" s="91"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="70"/>
+      <c r="F106" s="70"/>
+      <c r="G106" s="71"/>
       <c r="H106" s="12" t="s">
         <v>49</v>
       </c>
@@ -6120,11 +6147,11 @@
       <c r="B107" s="9">
         <v>87</v>
       </c>
-      <c r="C107" s="83"/>
-      <c r="D107" s="62"/>
-      <c r="E107" s="62"/>
-      <c r="F107" s="62"/>
-      <c r="G107" s="63"/>
+      <c r="C107" s="91"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="70"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="71"/>
       <c r="H107" s="12" t="s">
         <v>49</v>
       </c>
@@ -6133,11 +6160,11 @@
       <c r="B108" s="27">
         <v>88</v>
       </c>
-      <c r="C108" s="83"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="62"/>
-      <c r="F108" s="62"/>
-      <c r="G108" s="63"/>
+      <c r="C108" s="91"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
+      <c r="G108" s="71"/>
       <c r="H108" s="12" t="s">
         <v>49</v>
       </c>
@@ -6146,11 +6173,11 @@
       <c r="B109" s="9">
         <v>89</v>
       </c>
-      <c r="C109" s="83"/>
-      <c r="D109" s="62"/>
-      <c r="E109" s="62"/>
-      <c r="F109" s="62"/>
-      <c r="G109" s="63"/>
+      <c r="C109" s="91"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="71"/>
       <c r="H109" s="12" t="s">
         <v>49</v>
       </c>
@@ -6159,11 +6186,11 @@
       <c r="B110" s="27">
         <v>90</v>
       </c>
-      <c r="C110" s="83"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="62"/>
-      <c r="G110" s="63"/>
+      <c r="C110" s="91"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="70"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="71"/>
       <c r="H110" s="12" t="s">
         <v>49</v>
       </c>
@@ -6172,11 +6199,11 @@
       <c r="B111" s="9">
         <v>91</v>
       </c>
-      <c r="C111" s="83"/>
-      <c r="D111" s="62"/>
-      <c r="E111" s="62"/>
-      <c r="F111" s="62"/>
-      <c r="G111" s="63"/>
+      <c r="C111" s="91"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="70"/>
+      <c r="F111" s="70"/>
+      <c r="G111" s="71"/>
       <c r="H111" s="12" t="s">
         <v>49</v>
       </c>
@@ -6185,11 +6212,11 @@
       <c r="B112" s="27">
         <v>92</v>
       </c>
-      <c r="C112" s="83"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="62"/>
-      <c r="F112" s="62"/>
-      <c r="G112" s="63"/>
+      <c r="C112" s="91"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="70"/>
+      <c r="F112" s="70"/>
+      <c r="G112" s="71"/>
       <c r="H112" s="12" t="s">
         <v>49</v>
       </c>
@@ -6198,11 +6225,11 @@
       <c r="B113" s="9">
         <v>93</v>
       </c>
-      <c r="C113" s="83"/>
-      <c r="D113" s="62"/>
-      <c r="E113" s="62"/>
-      <c r="F113" s="62"/>
-      <c r="G113" s="63"/>
+      <c r="C113" s="91"/>
+      <c r="D113" s="70"/>
+      <c r="E113" s="70"/>
+      <c r="F113" s="70"/>
+      <c r="G113" s="71"/>
       <c r="H113" s="12" t="s">
         <v>49</v>
       </c>
@@ -6211,11 +6238,11 @@
       <c r="B114" s="27">
         <v>94</v>
       </c>
-      <c r="C114" s="83"/>
-      <c r="D114" s="62"/>
-      <c r="E114" s="62"/>
-      <c r="F114" s="62"/>
-      <c r="G114" s="63"/>
+      <c r="C114" s="91"/>
+      <c r="D114" s="70"/>
+      <c r="E114" s="70"/>
+      <c r="F114" s="70"/>
+      <c r="G114" s="71"/>
       <c r="H114" s="12" t="s">
         <v>49</v>
       </c>
@@ -6224,11 +6251,11 @@
       <c r="B115" s="9">
         <v>95</v>
       </c>
-      <c r="C115" s="83"/>
-      <c r="D115" s="62"/>
-      <c r="E115" s="62"/>
-      <c r="F115" s="62"/>
-      <c r="G115" s="63"/>
+      <c r="C115" s="91"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="71"/>
       <c r="H115" s="12" t="s">
         <v>49</v>
       </c>
@@ -6237,11 +6264,11 @@
       <c r="B116" s="27">
         <v>96</v>
       </c>
-      <c r="C116" s="83"/>
-      <c r="D116" s="62"/>
-      <c r="E116" s="62"/>
-      <c r="F116" s="62"/>
-      <c r="G116" s="63"/>
+      <c r="C116" s="91"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="70"/>
+      <c r="F116" s="70"/>
+      <c r="G116" s="71"/>
       <c r="H116" s="12" t="s">
         <v>49</v>
       </c>
@@ -6250,11 +6277,11 @@
       <c r="B117" s="9">
         <v>97</v>
       </c>
-      <c r="C117" s="83"/>
-      <c r="D117" s="62"/>
-      <c r="E117" s="62"/>
-      <c r="F117" s="62"/>
-      <c r="G117" s="63"/>
+      <c r="C117" s="91"/>
+      <c r="D117" s="70"/>
+      <c r="E117" s="70"/>
+      <c r="F117" s="70"/>
+      <c r="G117" s="71"/>
       <c r="H117" s="12" t="s">
         <v>49</v>
       </c>
@@ -6263,11 +6290,11 @@
       <c r="B118" s="27">
         <v>98</v>
       </c>
-      <c r="C118" s="83"/>
-      <c r="D118" s="62"/>
-      <c r="E118" s="62"/>
-      <c r="F118" s="62"/>
-      <c r="G118" s="63"/>
+      <c r="C118" s="91"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="70"/>
+      <c r="F118" s="70"/>
+      <c r="G118" s="71"/>
       <c r="H118" s="12" t="s">
         <v>49</v>
       </c>
@@ -6276,11 +6303,11 @@
       <c r="B119" s="9">
         <v>99</v>
       </c>
-      <c r="C119" s="83"/>
-      <c r="D119" s="62"/>
-      <c r="E119" s="62"/>
-      <c r="F119" s="62"/>
-      <c r="G119" s="63"/>
+      <c r="C119" s="91"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="70"/>
+      <c r="F119" s="70"/>
+      <c r="G119" s="71"/>
       <c r="H119" s="12" t="s">
         <v>49</v>
       </c>
@@ -6289,11 +6316,11 @@
       <c r="B120" s="27">
         <v>100</v>
       </c>
-      <c r="C120" s="83"/>
-      <c r="D120" s="62"/>
-      <c r="E120" s="62"/>
-      <c r="F120" s="62"/>
-      <c r="G120" s="63"/>
+      <c r="C120" s="91"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="70"/>
+      <c r="F120" s="70"/>
+      <c r="G120" s="71"/>
       <c r="H120" s="12" t="s">
         <v>49</v>
       </c>
@@ -7972,50 +7999,53 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
@@ -8040,55 +8070,52 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21:H120" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$B$212:$B$214</formula1>
     </dataValidation>
@@ -8113,9 +8140,9 @@
   </sheetPr>
   <dimension ref="A1:U1001"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8123,7 +8150,8 @@
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="5" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="16" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="39" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
@@ -8135,85 +8163,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="2">
         <f>Requisitos!C11</f>
         <v>45170</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K21" si="0">K1+1</f>
+        <f t="shared" ref="K2:K65" si="0">K1+1</f>
         <v>45171</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45172</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45173</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45174</v>
@@ -8227,18 +8255,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="69" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45176</v>
@@ -8252,16 +8280,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -8309,22 +8337,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="10">
-        <v>45179</v>
+        <v>45190</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H11" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -8350,22 +8378,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="10">
-        <v>45179</v>
+        <v>45190</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H12" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I12" s="13">
         <v>0</v>
@@ -8383,22 +8411,22 @@
         <v>3</v>
       </c>
       <c r="C13" s="10">
-        <v>45179</v>
+        <v>45190</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H13" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -8414,22 +8442,22 @@
         <v>4</v>
       </c>
       <c r="C14" s="10">
-        <v>45186</v>
+        <v>45190</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E14" s="11">
         <v>13</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H14" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I14" s="13">
         <v>0</v>
@@ -8446,22 +8474,22 @@
         <v>5</v>
       </c>
       <c r="C15" s="10">
-        <v>45186</v>
+        <v>45190</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E15" s="11">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H15" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -8478,22 +8506,22 @@
         <v>6</v>
       </c>
       <c r="C16" s="10">
-        <v>45179</v>
+        <v>45190</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E16" s="11">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H16" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
@@ -8510,22 +8538,22 @@
         <v>7</v>
       </c>
       <c r="C17" s="10">
-        <v>45179</v>
+        <v>45190</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E17" s="11">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H17" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -8545,22 +8573,22 @@
         <v>8</v>
       </c>
       <c r="C18" s="10">
-        <v>45179</v>
+        <v>45190</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="E18" s="11">
         <v>1</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H18" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18" s="13">
         <v>0</v>
@@ -8579,22 +8607,22 @@
         <v>9</v>
       </c>
       <c r="C19" s="10">
-        <v>45179</v>
+        <v>45190</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H19" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
@@ -8613,28 +8641,28 @@
         <v>10</v>
       </c>
       <c r="C20" s="10">
-        <v>45186</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>73</v>
+        <v>45190</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="E20" s="11">
         <v>1</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H20" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20" s="13">
         <v>0</v>
       </c>
       <c r="J20" s="11"/>
-      <c r="K20">
+      <c r="K20" s="2">
         <f t="shared" si="0"/>
         <v>45189</v>
       </c>
@@ -8646,28 +8674,28 @@
         <v>11</v>
       </c>
       <c r="C21" s="10">
-        <v>45186</v>
+        <v>45190</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E21" s="11">
         <v>1</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H21" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
       </c>
       <c r="J21" s="11"/>
-      <c r="K21">
+      <c r="K21" s="2">
         <f t="shared" si="0"/>
         <v>45190</v>
       </c>
@@ -8679,27 +8707,31 @@
         <v>12</v>
       </c>
       <c r="C22" s="10">
-        <v>45186</v>
+        <v>45190</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>8</v>
-      </c>
       <c r="G22" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H22" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22" s="13">
         <v>0</v>
       </c>
       <c r="J22" s="11"/>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>45191</v>
+      </c>
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
     </row>
@@ -8708,27 +8740,31 @@
         <v>13</v>
       </c>
       <c r="C23" s="10">
-        <v>45186</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>76</v>
+        <v>45190</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="E23" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H23" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23" s="13">
         <v>0</v>
       </c>
       <c r="J23" s="11"/>
+      <c r="K23" s="2">
+        <f t="shared" si="0"/>
+        <v>45192</v>
+      </c>
       <c r="L23" s="47"/>
       <c r="M23" s="47"/>
     </row>
@@ -8736,11 +8772,21 @@
       <c r="B24" s="9">
         <v>14</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="41"/>
+      <c r="C24" s="10">
+        <v>45190</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>37</v>
+      </c>
       <c r="H24" s="13">
         <v>0</v>
       </c>
@@ -8748,6 +8794,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="11"/>
+      <c r="K24" s="2">
+        <f t="shared" si="0"/>
+        <v>45193</v>
+      </c>
       <c r="L24" s="47"/>
       <c r="M24" s="47"/>
     </row>
@@ -8755,11 +8805,21 @@
       <c r="B25" s="9">
         <v>15</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="41"/>
+      <c r="C25" s="10">
+        <v>45190</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>37</v>
+      </c>
       <c r="H25" s="13">
         <v>0</v>
       </c>
@@ -8767,34 +8827,64 @@
         <v>0</v>
       </c>
       <c r="J25" s="11"/>
+      <c r="K25" s="2">
+        <f t="shared" si="0"/>
+        <v>45194</v>
+      </c>
       <c r="L25" s="47"/>
     </row>
     <row r="26" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9">
         <v>16</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="41"/>
+      <c r="C26" s="10">
+        <v>45190</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="11">
+        <v>13</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="H26" s="13">
         <v>0</v>
       </c>
       <c r="I26" s="13">
         <v>0</v>
       </c>
-      <c r="J26" s="11"/>
+      <c r="J26" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="0"/>
+        <v>45195</v>
+      </c>
     </row>
     <row r="27" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <v>17</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="41"/>
+      <c r="C27" s="10">
+        <v>45190</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>37</v>
+      </c>
       <c r="H27" s="13">
         <v>0</v>
       </c>
@@ -8802,16 +8892,30 @@
         <v>0</v>
       </c>
       <c r="J27" s="11"/>
+      <c r="K27" s="2">
+        <f t="shared" si="0"/>
+        <v>45196</v>
+      </c>
     </row>
     <row r="28" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9">
         <v>18</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="41"/>
+      <c r="C28" s="10">
+        <v>45190</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>37</v>
+      </c>
       <c r="H28" s="13">
         <v>0</v>
       </c>
@@ -8819,16 +8923,30 @@
         <v>0</v>
       </c>
       <c r="J28" s="11"/>
+      <c r="K28" s="2">
+        <f t="shared" si="0"/>
+        <v>45197</v>
+      </c>
     </row>
     <row r="29" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9">
         <v>19</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="41"/>
+      <c r="C29" s="10">
+        <v>45190</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>37</v>
+      </c>
       <c r="H29" s="13">
         <v>0</v>
       </c>
@@ -8836,23 +8954,43 @@
         <v>0</v>
       </c>
       <c r="J29" s="11"/>
+      <c r="K29" s="2">
+        <f t="shared" si="0"/>
+        <v>45198</v>
+      </c>
     </row>
     <row r="30" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="9">
         <v>20</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="41"/>
+      <c r="C30" s="10">
+        <v>45190</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="H30" s="13">
         <v>0</v>
       </c>
       <c r="I30" s="13">
         <v>0</v>
       </c>
-      <c r="J30" s="11"/>
+      <c r="J30" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="0"/>
+        <v>45199</v>
+      </c>
     </row>
     <row r="31" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9">
@@ -8860,7 +8998,7 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="12"/>
       <c r="G31" s="41"/>
       <c r="H31" s="13">
@@ -8870,6 +9008,10 @@
         <v>0</v>
       </c>
       <c r="J31" s="11"/>
+      <c r="K31" s="2">
+        <f t="shared" si="0"/>
+        <v>45200</v>
+      </c>
     </row>
     <row r="32" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="9">
@@ -8877,7 +9019,7 @@
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="12"/>
       <c r="G32" s="41"/>
       <c r="H32" s="13">
@@ -8887,14 +9029,18 @@
         <v>0</v>
       </c>
       <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="2">
+        <f t="shared" si="0"/>
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
         <v>23</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="12"/>
       <c r="G33" s="41"/>
       <c r="H33" s="13">
@@ -8904,14 +9050,18 @@
         <v>0</v>
       </c>
       <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="2">
+        <f t="shared" si="0"/>
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9">
         <v>24</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="12"/>
       <c r="G34" s="41"/>
       <c r="H34" s="13">
@@ -8921,14 +9071,18 @@
         <v>0</v>
       </c>
       <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="2">
+        <f t="shared" si="0"/>
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9">
         <v>25</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="12"/>
       <c r="G35" s="41"/>
       <c r="H35" s="13">
@@ -8938,14 +9092,18 @@
         <v>0</v>
       </c>
       <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="2">
+        <f t="shared" si="0"/>
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="9">
         <v>26</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="12"/>
       <c r="G36" s="41"/>
       <c r="H36" s="13">
@@ -8955,14 +9113,18 @@
         <v>0</v>
       </c>
       <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="2">
+        <f t="shared" si="0"/>
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="9">
         <v>27</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="12"/>
       <c r="G37" s="41"/>
       <c r="H37" s="13">
@@ -8972,14 +9134,18 @@
         <v>0</v>
       </c>
       <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K37" s="2">
+        <f t="shared" si="0"/>
+        <v>45206</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="9">
         <v>28</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="12"/>
       <c r="G38" s="41"/>
       <c r="H38" s="13">
@@ -8989,14 +9155,18 @@
         <v>0</v>
       </c>
       <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K38" s="2">
+        <f t="shared" si="0"/>
+        <v>45207</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="9">
         <v>29</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="12"/>
       <c r="G39" s="41"/>
       <c r="H39" s="13">
@@ -9006,14 +9176,18 @@
         <v>0</v>
       </c>
       <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K39" s="2">
+        <f t="shared" si="0"/>
+        <v>45208</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9">
         <v>30</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="12"/>
       <c r="G40" s="41"/>
       <c r="H40" s="13">
@@ -9023,14 +9197,18 @@
         <v>0</v>
       </c>
       <c r="J40" s="11"/>
-    </row>
-    <row r="41" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K40" s="2">
+        <f t="shared" si="0"/>
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9">
         <v>31</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="12"/>
       <c r="G41" s="41"/>
       <c r="H41" s="13">
@@ -9040,14 +9218,18 @@
         <v>0</v>
       </c>
       <c r="J41" s="11"/>
-    </row>
-    <row r="42" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K41" s="2">
+        <f t="shared" si="0"/>
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="9">
         <v>32</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="12"/>
       <c r="G42" s="41"/>
       <c r="H42" s="13">
@@ -9057,14 +9239,18 @@
         <v>0</v>
       </c>
       <c r="J42" s="11"/>
-    </row>
-    <row r="43" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K42" s="2">
+        <f t="shared" si="0"/>
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="9">
         <v>33</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="12"/>
       <c r="G43" s="41"/>
       <c r="H43" s="13">
@@ -9074,14 +9260,18 @@
         <v>0</v>
       </c>
       <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K43" s="2">
+        <f t="shared" si="0"/>
+        <v>45212</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="9">
         <v>34</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="12"/>
       <c r="G44" s="41"/>
       <c r="H44" s="13">
@@ -9091,14 +9281,18 @@
         <v>0</v>
       </c>
       <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K44" s="2">
+        <f t="shared" si="0"/>
+        <v>45213</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9">
         <v>35</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="12"/>
       <c r="G45" s="41"/>
       <c r="H45" s="13">
@@ -9108,14 +9302,18 @@
         <v>0</v>
       </c>
       <c r="J45" s="11"/>
-    </row>
-    <row r="46" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K45" s="2">
+        <f t="shared" si="0"/>
+        <v>45214</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="9">
         <v>36</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="12"/>
       <c r="G46" s="41"/>
       <c r="H46" s="13">
@@ -9125,14 +9323,18 @@
         <v>0</v>
       </c>
       <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K46" s="2">
+        <f t="shared" si="0"/>
+        <v>45215</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="9">
         <v>37</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="12"/>
       <c r="G47" s="41"/>
       <c r="H47" s="13">
@@ -9142,14 +9344,18 @@
         <v>0</v>
       </c>
       <c r="J47" s="11"/>
-    </row>
-    <row r="48" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K47" s="2">
+        <f t="shared" si="0"/>
+        <v>45216</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="9">
         <v>38</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="12"/>
       <c r="G48" s="41"/>
       <c r="H48" s="13">
@@ -9159,14 +9365,18 @@
         <v>0</v>
       </c>
       <c r="J48" s="11"/>
-    </row>
-    <row r="49" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K48" s="2">
+        <f t="shared" si="0"/>
+        <v>45217</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="9">
         <v>39</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="12"/>
       <c r="G49" s="41"/>
       <c r="H49" s="13">
@@ -9176,14 +9386,18 @@
         <v>0</v>
       </c>
       <c r="J49" s="11"/>
-    </row>
-    <row r="50" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K49" s="2">
+        <f t="shared" si="0"/>
+        <v>45218</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="9">
         <v>40</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="12"/>
       <c r="G50" s="41"/>
       <c r="H50" s="13">
@@ -9193,14 +9407,18 @@
         <v>0</v>
       </c>
       <c r="J50" s="11"/>
-    </row>
-    <row r="51" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K50" s="2">
+        <f t="shared" si="0"/>
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="9">
         <v>41</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="12"/>
       <c r="G51" s="41"/>
       <c r="H51" s="13">
@@ -9210,14 +9428,18 @@
         <v>0</v>
       </c>
       <c r="J51" s="11"/>
-    </row>
-    <row r="52" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K51" s="2">
+        <f t="shared" si="0"/>
+        <v>45220</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="9">
         <v>42</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="12"/>
       <c r="G52" s="41"/>
       <c r="H52" s="13">
@@ -9227,14 +9449,18 @@
         <v>0</v>
       </c>
       <c r="J52" s="11"/>
-    </row>
-    <row r="53" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K52" s="2">
+        <f t="shared" si="0"/>
+        <v>45221</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="9">
         <v>43</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
+      <c r="E53" s="11"/>
       <c r="F53" s="12"/>
       <c r="G53" s="41"/>
       <c r="H53" s="13">
@@ -9244,14 +9470,18 @@
         <v>0</v>
       </c>
       <c r="J53" s="11"/>
-    </row>
-    <row r="54" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K53" s="2">
+        <f t="shared" si="0"/>
+        <v>45222</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="9">
         <v>44</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="12"/>
       <c r="G54" s="41"/>
       <c r="H54" s="13">
@@ -9261,14 +9491,18 @@
         <v>0</v>
       </c>
       <c r="J54" s="11"/>
-    </row>
-    <row r="55" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K54" s="2">
+        <f t="shared" si="0"/>
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="9">
         <v>45</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
+      <c r="E55" s="11"/>
       <c r="F55" s="12"/>
       <c r="G55" s="41"/>
       <c r="H55" s="13">
@@ -9278,14 +9512,18 @@
         <v>0</v>
       </c>
       <c r="J55" s="11"/>
-    </row>
-    <row r="56" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K55" s="2">
+        <f t="shared" si="0"/>
+        <v>45224</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="9">
         <v>46</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="12"/>
       <c r="G56" s="41"/>
       <c r="H56" s="13">
@@ -9295,14 +9533,18 @@
         <v>0</v>
       </c>
       <c r="J56" s="11"/>
-    </row>
-    <row r="57" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K56" s="2">
+        <f t="shared" si="0"/>
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="9">
         <v>47</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="12"/>
       <c r="G57" s="41"/>
       <c r="H57" s="13">
@@ -9312,14 +9554,18 @@
         <v>0</v>
       </c>
       <c r="J57" s="11"/>
-    </row>
-    <row r="58" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K57" s="2">
+        <f t="shared" si="0"/>
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="9">
         <v>48</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="12"/>
       <c r="G58" s="41"/>
       <c r="H58" s="13">
@@ -9329,14 +9575,18 @@
         <v>0</v>
       </c>
       <c r="J58" s="11"/>
-    </row>
-    <row r="59" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K58" s="2">
+        <f t="shared" si="0"/>
+        <v>45227</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="9">
         <v>49</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="12"/>
       <c r="G59" s="41"/>
       <c r="H59" s="13">
@@ -9346,14 +9596,18 @@
         <v>0</v>
       </c>
       <c r="J59" s="11"/>
-    </row>
-    <row r="60" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K59" s="2">
+        <f t="shared" si="0"/>
+        <v>45228</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="9">
         <v>50</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
+      <c r="E60" s="11"/>
       <c r="F60" s="12"/>
       <c r="G60" s="41"/>
       <c r="H60" s="13">
@@ -9363,206 +9617,250 @@
         <v>0</v>
       </c>
       <c r="J60" s="11"/>
-    </row>
-    <row r="61" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K60" s="2">
+        <f t="shared" si="0"/>
+        <v>45229</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G61" s="42" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I61" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K61" s="2">
+        <f t="shared" si="0"/>
+        <v>45230</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="30">
         <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>13</v>
-      </c>
-      <c r="E62" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="E62" s="95"/>
       <c r="F62" s="30"/>
       <c r="G62" s="43">
         <f>COUNTIFS(G11:G60, "Concluído",D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="63"/>
-    </row>
-    <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
+      <c r="K62" s="2">
+        <f t="shared" si="0"/>
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="71"/>
+      <c r="K63" s="2">
+        <f t="shared" si="0"/>
+        <v>45232</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="71"/>
       <c r="H64" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="98" t="str">
+      <c r="K64" s="2">
+        <f t="shared" si="0"/>
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="92" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="62"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="63"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="71"/>
       <c r="H65" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B10,H$11:H$60)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,I$11:I$60)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="98" t="str">
+      <c r="K65" s="2">
+        <f t="shared" si="0"/>
+        <v>45234</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="92" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="71"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I66" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B11,I$11:I$60)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="98" t="str">
+      <c r="K66" s="2">
+        <f t="shared" ref="K66:K70" si="2">K65+1</f>
+        <v>45235</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="92" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="63"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="71"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I67" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B12,I$11:I$60)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="98" t="str">
+      <c r="K67" s="2">
+        <f t="shared" si="2"/>
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="92" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Maria Eduarda Amaral</v>
       </c>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="71"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I68" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B13,I$11:I$60)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="98" t="str">
+      <c r="K68" s="2">
+        <f t="shared" si="2"/>
+        <v>45237</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="92" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="63"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="71"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I69" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B14,I$11:I$60)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="98" t="str">
+      <c r="K69" s="2">
+        <f t="shared" si="2"/>
+        <v>45238</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="92" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C70" s="62"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="63"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="71"/>
       <c r="H70" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I70" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B15,I$11:I$60)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K70" s="2">
+        <f t="shared" si="2"/>
+        <v>45239</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9630,31 +9928,31 @@
     </row>
     <row r="102" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
+      <c r="E102" s="96"/>
       <c r="G102" s="44"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
+      <c r="E103" s="96"/>
       <c r="G103" s="44"/>
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
+      <c r="E104" s="96"/>
       <c r="G104" s="44"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
+      <c r="E105" s="96"/>
       <c r="G105" s="44"/>
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
+      <c r="E106" s="96"/>
       <c r="J106" s="5"/>
     </row>
     <row r="107" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10649,8 +10947,8 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10670,85 +10968,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="2">
         <f>Requisitos!C12</f>
         <v>45191</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45192</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45193</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45194</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45195</v>
@@ -10762,18 +11060,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="69" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45197</v>
@@ -10787,16 +11085,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="99" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="B9" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -10846,25 +11144,27 @@
       <c r="C11" s="10">
         <v>45204</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="11">
-        <v>2</v>
+      <c r="D11" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G11" s="41" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
         <v>45201</v>
@@ -10887,20 +11187,20 @@
       <c r="C12" s="10">
         <v>45204</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="12">
-        <v>2</v>
+      <c r="D12" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G12" s="41" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I12" s="13">
         <v>0</v>
@@ -10918,20 +11218,20 @@
       <c r="C13" s="10">
         <v>45204</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>98</v>
+      <c r="D13" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="E13" s="11">
         <v>2</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -10950,19 +11250,19 @@
         <v>45204</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="104" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="E14" s="11">
+        <v>2</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="41" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="13">
         <v>0</v>
@@ -10980,20 +11280,20 @@
       <c r="C15" s="10">
         <v>45204</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>99</v>
+      <c r="D15" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="E15" s="11">
         <v>2</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G15" s="41" t="s">
         <v>26</v>
       </c>
       <c r="H15" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -11009,19 +11309,19 @@
         <v>45204</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E16" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G16" s="41" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
@@ -11037,19 +11337,19 @@
         <v>45204</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E17" s="11">
         <v>3</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G17" s="41" t="s">
         <v>26</v>
       </c>
       <c r="H17" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -11065,7 +11365,7 @@
         <v>45204</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E18" s="11">
         <v>3</v>
@@ -11077,7 +11377,7 @@
         <v>26</v>
       </c>
       <c r="H18" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18" s="13">
         <v>0</v>
@@ -11093,19 +11393,19 @@
         <v>45204</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E19" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G19" s="41" t="s">
         <v>26</v>
       </c>
       <c r="H19" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
@@ -11121,19 +11421,19 @@
         <v>45204</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E20" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" s="41" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20" s="13">
         <v>0</v>
@@ -11149,7 +11449,7 @@
         <v>45204</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E21" s="11">
         <v>3</v>
@@ -11161,7 +11461,7 @@
         <v>26</v>
       </c>
       <c r="H21" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
@@ -11173,13 +11473,23 @@
       <c r="B22" s="9">
         <v>12</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="41"/>
+      <c r="C22" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="11">
+        <v>3</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H22" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22" s="13">
         <v>0</v>
@@ -11191,13 +11501,23 @@
       <c r="B23" s="9">
         <v>13</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="41"/>
+      <c r="C23" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H23" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23" s="13">
         <v>0</v>
@@ -11209,11 +11529,21 @@
       <c r="B24" s="9">
         <v>14</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="41"/>
+      <c r="C24" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="12">
+        <v>3</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H24" s="13">
         <v>0</v>
       </c>
@@ -11227,11 +11557,21 @@
       <c r="B25" s="9">
         <v>15</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="41"/>
+      <c r="C25" s="10">
+        <v>45196</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H25" s="13">
         <v>0</v>
       </c>
@@ -11245,11 +11585,21 @@
       <c r="B26" s="9">
         <v>16</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="41"/>
+      <c r="C26" s="10">
+        <v>45196</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H26" s="13">
         <v>0</v>
       </c>
@@ -11263,11 +11613,21 @@
       <c r="B27" s="9">
         <v>17</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="41"/>
+      <c r="C27" s="10">
+        <v>45196</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H27" s="13">
         <v>0</v>
       </c>
@@ -11281,18 +11641,30 @@
       <c r="B28" s="9">
         <v>18</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="41"/>
+      <c r="C28" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="12">
+        <v>13</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H28" s="13">
         <v>0</v>
       </c>
       <c r="I28" s="13">
         <v>0</v>
       </c>
-      <c r="J28" s="11"/>
+      <c r="J28" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11994,11 +12366,11 @@
     </row>
     <row r="70" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G70" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="H70" s="32">
         <f t="shared" ref="H70:I70" si="1">SUM(H11:H60)</f>
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I70" s="32">
         <f t="shared" si="1"/>
@@ -12011,7 +12383,7 @@
       <c r="C71" s="30"/>
       <c r="D71" s="30">
         <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E71" s="30"/>
       <c r="F71" s="30"/>
@@ -12022,46 +12394,46 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="63"/>
+      <c r="B72" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="71"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="63"/>
+      <c r="B73" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="71"/>
       <c r="H73" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="98" t="str">
+      <c r="B74" s="92" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="71"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,I$11:I$60)</f>
@@ -12069,18 +12441,18 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="98" t="str">
+      <c r="B75" s="92" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="63"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="71"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I75" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B11,I$11:I$60)</f>
@@ -12088,18 +12460,18 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="98" t="str">
+      <c r="B76" s="92" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="71"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I76" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B12,I$11:I$60)</f>
@@ -12107,18 +12479,18 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="98" t="str">
+      <c r="B77" s="92" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="63"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="71"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I77" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B14,I$11:I$60)</f>
@@ -12126,18 +12498,18 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="98" t="str">
+      <c r="B78" s="92" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="71"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I78" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B15,I$11:I$60)</f>
@@ -13198,7 +13570,7 @@
       <formula>NOT(ISERROR(SEARCH(($B$78),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F25">
+  <conditionalFormatting sqref="F11:F69">
     <cfRule type="containsBlanks" dxfId="115" priority="12">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
@@ -13303,27 +13675,27 @@
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F23">
+  <conditionalFormatting sqref="F11:F69">
     <cfRule type="expression" dxfId="94" priority="1">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F23">
+  <conditionalFormatting sqref="F11:F69">
     <cfRule type="expression" dxfId="93" priority="2">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F23">
+  <conditionalFormatting sqref="F11:F69">
     <cfRule type="expression" dxfId="92" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F23">
+  <conditionalFormatting sqref="F11:F69">
     <cfRule type="expression" dxfId="91" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F23">
+  <conditionalFormatting sqref="F11:F69">
     <cfRule type="expression" dxfId="90" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$70),(F11))))</formula>
     </cfRule>
@@ -13332,7 +13704,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11:C69" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$K$1:$K$28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F23" xr:uid="{FB3758DF-CF4E-465D-A84B-35502667E927}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F69" xr:uid="{FB3758DF-CF4E-465D-A84B-35502667E927}">
       <formula1>"Guilherme Lage, João Gabriel Perez, Lucas Soares, Marlene Moraes, Vitor Stahlberg, Maria Eduarda Amaral"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13385,85 +13757,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="2">
         <f>Requisitos!C13</f>
         <v>45205</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45206</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45208</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45209</v>
@@ -13477,18 +13849,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="69" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45211</v>
@@ -13502,16 +13874,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="99" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="B9" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -14620,7 +14992,7 @@
     </row>
     <row r="70" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G70" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="H70" s="32">
         <f t="shared" ref="H70:I70" si="1">SUM(H11:H60)</f>
@@ -14648,43 +15020,43 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="63"/>
+      <c r="B72" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="71"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="63"/>
+      <c r="B73" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="71"/>
       <c r="H73" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="98" t="str">
+      <c r="B74" s="92" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="71"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -14695,15 +15067,15 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="98" t="str">
+      <c r="B75" s="92" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="63"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="71"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -14714,15 +15086,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="98" t="str">
+      <c r="B76" s="92" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="71"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -14733,15 +15105,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="98" t="str">
+      <c r="B77" s="92" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="63"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="71"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -14752,15 +15124,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="98" t="str">
+      <c r="B78" s="92" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="71"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -15784,6 +16156,12 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -15792,12 +16170,6 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="89" priority="1">
@@ -15984,85 +16356,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="2">
         <f>Requisitos!C14</f>
         <v>45226</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45227</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45229</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45230</v>
@@ -16076,18 +16448,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="69" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -16101,16 +16473,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="99" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="B9" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -17219,7 +17591,7 @@
     </row>
     <row r="70" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G70" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="H70" s="32">
         <f t="shared" ref="H70:I70" si="1">SUM(H11:H60)</f>
@@ -17247,43 +17619,43 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="63"/>
+      <c r="B72" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="71"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="63"/>
+      <c r="B73" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="71"/>
       <c r="H73" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="98" t="str">
+      <c r="B74" s="92" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="71"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -17294,15 +17666,15 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="98" t="str">
+      <c r="B75" s="92" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="63"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="71"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -17313,15 +17685,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="98" t="str">
+      <c r="B76" s="92" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="71"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -17332,15 +17704,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="98" t="str">
+      <c r="B77" s="92" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="63"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="71"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -17351,15 +17723,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="98" t="str">
+      <c r="B78" s="92" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="71"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -18383,6 +18755,12 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -18391,12 +18769,6 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="63" priority="1">
@@ -18582,85 +18954,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="2">
         <f>Requisitos!C15</f>
         <v>45247</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45248</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45249</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45250</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45251</v>
@@ -18673,18 +19045,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="69" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45253</v>
@@ -18697,16 +19069,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="B9" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
       <c r="J9" s="58" t="s">
         <v>55</v>
       </c>
@@ -19641,7 +20013,7 @@
     </row>
     <row r="61" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G61" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
@@ -19667,43 +20039,43 @@
       </c>
     </row>
     <row r="63" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="63"/>
+      <c r="B63" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="71"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
+      <c r="B64" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="71"/>
       <c r="H64" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="98" t="str">
+      <c r="B65" s="92" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="62"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="63"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="71"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -19714,15 +20086,15 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="98" t="str">
+      <c r="B66" s="92" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="71"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -19733,15 +20105,15 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="98" t="str">
+      <c r="B67" s="92" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="63"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="71"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -19752,15 +20124,15 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="98" t="str">
+      <c r="B68" s="92" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="71"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -19771,15 +20143,15 @@
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="98" t="str">
+      <c r="B69" s="92" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="63"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="71"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -20742,6 +21114,12 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="B9:I9"/>
@@ -20750,12 +21128,6 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F13 F17">
     <cfRule type="containsBlanks" dxfId="37" priority="1">

--- a/Artefatos/sprints/Planejamento_sprints.xlsx
+++ b/Artefatos/sprints/Planejamento_sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorios_github\plf-es-2023-2-ti3-6653100-fabrica-do-saber\Artefatos\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B98ED3-0995-4C63-9F84-71D9C79BCEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B208DB-1497-4E14-A87F-415EA0FF23BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1286,35 +1286,22 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1324,19 +1311,56 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1362,9 +1386,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1373,27 +1394,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -3211,166 +3211,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="68"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="71"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="74" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="74" t="s">
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="74" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="76"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="74" t="s">
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="74" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="74" t="s">
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="18"/>
@@ -3472,16 +3472,16 @@
     <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="50"/>
-      <c r="B100" s="78"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="79" t="s">
+      <c r="B100" s="70"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="63"/>
-      <c r="F100" s="79" t="s">
+      <c r="E100" s="62"/>
+      <c r="F100" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="63"/>
+      <c r="G100" s="62"/>
       <c r="H100" s="51" t="s">
         <v>18</v>
       </c>
@@ -3503,12 +3503,12 @@
     </row>
     <row r="101" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
-      <c r="B101" s="81"/>
-      <c r="C101" s="63"/>
-      <c r="D101" s="80" t="s">
+      <c r="B101" s="61"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="63"/>
+      <c r="E101" s="62"/>
       <c r="F101" s="53" t="s">
         <v>24</v>
       </c>
@@ -3541,12 +3541,12 @@
     </row>
     <row r="102" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="50"/>
-      <c r="B102" s="81"/>
-      <c r="C102" s="63"/>
-      <c r="D102" s="80" t="s">
+      <c r="B102" s="61"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="63"/>
+      <c r="E102" s="62"/>
       <c r="F102" s="53" t="s">
         <v>29</v>
       </c>
@@ -3580,12 +3580,12 @@
     </row>
     <row r="103" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="50"/>
-      <c r="B103" s="81"/>
-      <c r="C103" s="63"/>
-      <c r="D103" s="80" t="s">
+      <c r="B103" s="61"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="63"/>
+      <c r="E103" s="62"/>
       <c r="F103" s="53"/>
       <c r="G103" s="54" t="s">
         <v>34</v>
@@ -3617,12 +3617,12 @@
     </row>
     <row r="104" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="50"/>
-      <c r="B104" s="81"/>
-      <c r="C104" s="63"/>
-      <c r="D104" s="80" t="s">
+      <c r="B104" s="61"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="63"/>
+      <c r="E104" s="62"/>
       <c r="F104" s="53"/>
       <c r="G104" s="54" t="s">
         <v>36</v>
@@ -3652,12 +3652,12 @@
     </row>
     <row r="105" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="50"/>
-      <c r="B105" s="81"/>
-      <c r="C105" s="63"/>
-      <c r="D105" s="80" t="s">
+      <c r="B105" s="61"/>
+      <c r="C105" s="62"/>
+      <c r="D105" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="63"/>
+      <c r="E105" s="62"/>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="s">
         <v>39</v>
@@ -3682,8 +3682,8 @@
     </row>
     <row r="106" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="50"/>
-      <c r="B106" s="81"/>
-      <c r="C106" s="63"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="62"/>
       <c r="F106" s="53"/>
       <c r="G106" s="54"/>
       <c r="H106" s="53"/>
@@ -3694,8 +3694,8 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="50"/>
-      <c r="B107" s="81"/>
-      <c r="C107" s="63"/>
+      <c r="B107" s="61"/>
+      <c r="C107" s="62"/>
       <c r="D107" s="55"/>
       <c r="E107" s="53"/>
       <c r="F107" s="53"/>
@@ -4663,12 +4663,24 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="D100:E100"/>
@@ -4680,24 +4692,12 @@
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D105:E105"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="F10:F15" xr:uid="{49EDF03A-7EFB-435C-A992-40D98DE85B41}">
@@ -4740,59 +4740,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="68"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -4804,16 +4804,16 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="88" t="str">
+      <c r="B7" s="96" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="71"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -4825,15 +4825,15 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
@@ -4845,11 +4845,11 @@
       <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
@@ -4864,9 +4864,9 @@
       <c r="D11" s="14">
         <v>45190</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4880,9 +4880,9 @@
         <f t="shared" ref="D12" si="0">C12+13</f>
         <v>45204</v>
       </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4896,9 +4896,9 @@
       <c r="D13" s="14">
         <v>45225</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4911,9 +4911,9 @@
       <c r="D14" s="14">
         <v>45246</v>
       </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4952,13 +4952,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="22" t="s">
         <v>47</v>
       </c>
@@ -4967,11 +4967,11 @@
       <c r="B19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
@@ -4981,11 +4981,11 @@
       <c r="B20" s="27">
         <v>0</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="28"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -5002,13 +5002,13 @@
       <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="101"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="12" t="s">
         <v>52</v>
       </c>
@@ -5018,13 +5018,13 @@
       <c r="B22" s="27">
         <v>2</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="101"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="90"/>
       <c r="H22" s="12" t="s">
         <v>49</v>
       </c>
@@ -5033,13 +5033,13 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="101"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="90"/>
       <c r="H23" s="12" t="s">
         <v>49</v>
       </c>
@@ -5048,13 +5048,13 @@
       <c r="B24" s="27">
         <v>4</v>
       </c>
-      <c r="C24" s="91" t="s">
+      <c r="C24" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="98"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="87"/>
       <c r="H24" s="12" t="s">
         <v>49</v>
       </c>
@@ -5063,13 +5063,13 @@
       <c r="B25" s="9">
         <v>5</v>
       </c>
-      <c r="C25" s="91" t="s">
+      <c r="C25" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="98"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="87"/>
       <c r="H25" s="12" t="s">
         <v>49</v>
       </c>
@@ -5078,13 +5078,13 @@
       <c r="B26" s="27">
         <v>6</v>
       </c>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="98"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="87"/>
       <c r="H26" s="12" t="s">
         <v>49</v>
       </c>
@@ -5093,13 +5093,13 @@
       <c r="B27" s="9">
         <v>7</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="98"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="87"/>
       <c r="H27" s="12" t="s">
         <v>49</v>
       </c>
@@ -5108,13 +5108,13 @@
       <c r="B28" s="27">
         <v>8</v>
       </c>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="98"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="87"/>
       <c r="H28" s="12" t="s">
         <v>49</v>
       </c>
@@ -5123,13 +5123,13 @@
       <c r="B29" s="9">
         <v>9</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="98"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="87"/>
       <c r="H29" s="12" t="s">
         <v>49</v>
       </c>
@@ -5138,13 +5138,13 @@
       <c r="B30" s="27">
         <v>10</v>
       </c>
-      <c r="C30" s="91" t="s">
+      <c r="C30" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="98"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="87"/>
       <c r="H30" s="12" t="s">
         <v>49</v>
       </c>
@@ -5153,13 +5153,13 @@
       <c r="B31" s="9">
         <v>11</v>
       </c>
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="98"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="87"/>
       <c r="H31" s="12" t="s">
         <v>49</v>
       </c>
@@ -5168,13 +5168,13 @@
       <c r="B32" s="27">
         <v>12</v>
       </c>
-      <c r="C32" s="91" t="s">
+      <c r="C32" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="98"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="87"/>
       <c r="H32" s="12" t="s">
         <v>52</v>
       </c>
@@ -5183,13 +5183,13 @@
       <c r="B33" s="9">
         <v>13</v>
       </c>
-      <c r="C33" s="99" t="s">
+      <c r="C33" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="101"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="90"/>
       <c r="H33" s="12" t="s">
         <v>52</v>
       </c>
@@ -5198,11 +5198,11 @@
       <c r="B34" s="27">
         <v>14</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="87"/>
       <c r="H34" s="12" t="s">
         <v>49</v>
       </c>
@@ -5211,11 +5211,11 @@
       <c r="B35" s="9">
         <v>15</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="98"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="87"/>
       <c r="H35" s="12" t="s">
         <v>49</v>
       </c>
@@ -5224,11 +5224,11 @@
       <c r="B36" s="27">
         <v>16</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="71"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="65"/>
       <c r="H36" s="12" t="s">
         <v>49</v>
       </c>
@@ -5237,11 +5237,11 @@
       <c r="B37" s="9">
         <v>17</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="71"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="12" t="s">
         <v>49</v>
       </c>
@@ -5250,11 +5250,11 @@
       <c r="B38" s="27">
         <v>18</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="71"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="12" t="s">
         <v>49</v>
       </c>
@@ -5263,11 +5263,11 @@
       <c r="B39" s="9">
         <v>19</v>
       </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="71"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="65"/>
       <c r="H39" s="12" t="s">
         <v>49</v>
       </c>
@@ -5276,11 +5276,11 @@
       <c r="B40" s="27">
         <v>20</v>
       </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="71"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="65"/>
       <c r="H40" s="12" t="s">
         <v>49</v>
       </c>
@@ -5289,11 +5289,11 @@
       <c r="B41" s="9">
         <v>21</v>
       </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="71"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="65"/>
       <c r="H41" s="12" t="s">
         <v>49</v>
       </c>
@@ -5302,11 +5302,11 @@
       <c r="B42" s="27">
         <v>22</v>
       </c>
-      <c r="C42" s="91"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="71"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="65"/>
       <c r="H42" s="12" t="s">
         <v>49</v>
       </c>
@@ -5315,11 +5315,11 @@
       <c r="B43" s="9">
         <v>23</v>
       </c>
-      <c r="C43" s="91"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="71"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="65"/>
       <c r="H43" s="12" t="s">
         <v>49</v>
       </c>
@@ -5328,11 +5328,11 @@
       <c r="B44" s="27">
         <v>24</v>
       </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="71"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="65"/>
       <c r="H44" s="12" t="s">
         <v>49</v>
       </c>
@@ -5341,11 +5341,11 @@
       <c r="B45" s="9">
         <v>25</v>
       </c>
-      <c r="C45" s="91"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="71"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="65"/>
       <c r="H45" s="12" t="s">
         <v>49</v>
       </c>
@@ -5354,11 +5354,11 @@
       <c r="B46" s="27">
         <v>26</v>
       </c>
-      <c r="C46" s="91"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="71"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="65"/>
       <c r="H46" s="12" t="s">
         <v>49</v>
       </c>
@@ -5367,11 +5367,11 @@
       <c r="B47" s="9">
         <v>27</v>
       </c>
-      <c r="C47" s="91"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="71"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="65"/>
       <c r="H47" s="12" t="s">
         <v>49</v>
       </c>
@@ -5380,11 +5380,11 @@
       <c r="B48" s="27">
         <v>28</v>
       </c>
-      <c r="C48" s="91"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="71"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="65"/>
       <c r="H48" s="12" t="s">
         <v>49</v>
       </c>
@@ -5393,11 +5393,11 @@
       <c r="B49" s="9">
         <v>29</v>
       </c>
-      <c r="C49" s="91"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="71"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="65"/>
       <c r="H49" s="12" t="s">
         <v>49</v>
       </c>
@@ -5406,11 +5406,11 @@
       <c r="B50" s="27">
         <v>30</v>
       </c>
-      <c r="C50" s="91"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="71"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="65"/>
       <c r="H50" s="12" t="s">
         <v>49</v>
       </c>
@@ -5419,11 +5419,11 @@
       <c r="B51" s="9">
         <v>31</v>
       </c>
-      <c r="C51" s="91"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="71"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="65"/>
       <c r="H51" s="12" t="s">
         <v>49</v>
       </c>
@@ -5432,11 +5432,11 @@
       <c r="B52" s="27">
         <v>32</v>
       </c>
-      <c r="C52" s="91"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="71"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="65"/>
       <c r="H52" s="12" t="s">
         <v>49</v>
       </c>
@@ -5445,11 +5445,11 @@
       <c r="B53" s="9">
         <v>33</v>
       </c>
-      <c r="C53" s="91"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="71"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="65"/>
       <c r="H53" s="12" t="s">
         <v>49</v>
       </c>
@@ -5458,11 +5458,11 @@
       <c r="B54" s="27">
         <v>34</v>
       </c>
-      <c r="C54" s="91"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="71"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="65"/>
       <c r="H54" s="12" t="s">
         <v>49</v>
       </c>
@@ -5471,11 +5471,11 @@
       <c r="B55" s="9">
         <v>35</v>
       </c>
-      <c r="C55" s="91"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="71"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="65"/>
       <c r="H55" s="12" t="s">
         <v>49</v>
       </c>
@@ -5484,11 +5484,11 @@
       <c r="B56" s="27">
         <v>36</v>
       </c>
-      <c r="C56" s="91"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="71"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="65"/>
       <c r="H56" s="12" t="s">
         <v>49</v>
       </c>
@@ -5497,11 +5497,11 @@
       <c r="B57" s="9">
         <v>37</v>
       </c>
-      <c r="C57" s="91"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="71"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="65"/>
       <c r="H57" s="12" t="s">
         <v>49</v>
       </c>
@@ -5510,11 +5510,11 @@
       <c r="B58" s="27">
         <v>38</v>
       </c>
-      <c r="C58" s="91"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="71"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="65"/>
       <c r="H58" s="12" t="s">
         <v>49</v>
       </c>
@@ -5523,11 +5523,11 @@
       <c r="B59" s="9">
         <v>39</v>
       </c>
-      <c r="C59" s="91"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="71"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="65"/>
       <c r="H59" s="12" t="s">
         <v>49</v>
       </c>
@@ -5536,11 +5536,11 @@
       <c r="B60" s="27">
         <v>40</v>
       </c>
-      <c r="C60" s="91"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="71"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="65"/>
       <c r="H60" s="12" t="s">
         <v>49</v>
       </c>
@@ -5549,11 +5549,11 @@
       <c r="B61" s="9">
         <v>41</v>
       </c>
-      <c r="C61" s="91"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="71"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="65"/>
       <c r="H61" s="12" t="s">
         <v>49</v>
       </c>
@@ -5562,11 +5562,11 @@
       <c r="B62" s="27">
         <v>42</v>
       </c>
-      <c r="C62" s="91"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="71"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="65"/>
       <c r="H62" s="12" t="s">
         <v>49</v>
       </c>
@@ -5575,11 +5575,11 @@
       <c r="B63" s="9">
         <v>43</v>
       </c>
-      <c r="C63" s="91"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="71"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="65"/>
       <c r="H63" s="12" t="s">
         <v>49</v>
       </c>
@@ -5588,11 +5588,11 @@
       <c r="B64" s="27">
         <v>44</v>
       </c>
-      <c r="C64" s="91"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="71"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="65"/>
       <c r="H64" s="12" t="s">
         <v>49</v>
       </c>
@@ -5601,11 +5601,11 @@
       <c r="B65" s="9">
         <v>45</v>
       </c>
-      <c r="C65" s="91"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="71"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="65"/>
       <c r="H65" s="12" t="s">
         <v>49</v>
       </c>
@@ -5614,11 +5614,11 @@
       <c r="B66" s="27">
         <v>46</v>
       </c>
-      <c r="C66" s="91"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="71"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="65"/>
       <c r="H66" s="12" t="s">
         <v>49</v>
       </c>
@@ -5627,11 +5627,11 @@
       <c r="B67" s="9">
         <v>47</v>
       </c>
-      <c r="C67" s="91"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="71"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="65"/>
       <c r="H67" s="12" t="s">
         <v>49</v>
       </c>
@@ -5640,11 +5640,11 @@
       <c r="B68" s="27">
         <v>48</v>
       </c>
-      <c r="C68" s="91"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="71"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="65"/>
       <c r="H68" s="12" t="s">
         <v>49</v>
       </c>
@@ -5653,11 +5653,11 @@
       <c r="B69" s="9">
         <v>49</v>
       </c>
-      <c r="C69" s="91"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="71"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="65"/>
       <c r="H69" s="12" t="s">
         <v>49</v>
       </c>
@@ -5666,11 +5666,11 @@
       <c r="B70" s="27">
         <v>50</v>
       </c>
-      <c r="C70" s="91"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="71"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="65"/>
       <c r="H70" s="12" t="s">
         <v>49</v>
       </c>
@@ -5679,11 +5679,11 @@
       <c r="B71" s="9">
         <v>51</v>
       </c>
-      <c r="C71" s="91"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="71"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="65"/>
       <c r="H71" s="12" t="s">
         <v>49</v>
       </c>
@@ -5692,11 +5692,11 @@
       <c r="B72" s="27">
         <v>52</v>
       </c>
-      <c r="C72" s="91"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="71"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="65"/>
       <c r="H72" s="12" t="s">
         <v>49</v>
       </c>
@@ -5705,11 +5705,11 @@
       <c r="B73" s="9">
         <v>53</v>
       </c>
-      <c r="C73" s="91"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="71"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="65"/>
       <c r="H73" s="12" t="s">
         <v>49</v>
       </c>
@@ -5718,11 +5718,11 @@
       <c r="B74" s="27">
         <v>54</v>
       </c>
-      <c r="C74" s="91"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="71"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="65"/>
       <c r="H74" s="12" t="s">
         <v>49</v>
       </c>
@@ -5731,11 +5731,11 @@
       <c r="B75" s="9">
         <v>55</v>
       </c>
-      <c r="C75" s="91"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="71"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="65"/>
       <c r="H75" s="12" t="s">
         <v>49</v>
       </c>
@@ -5744,11 +5744,11 @@
       <c r="B76" s="27">
         <v>56</v>
       </c>
-      <c r="C76" s="91"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="71"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="65"/>
       <c r="H76" s="12" t="s">
         <v>49</v>
       </c>
@@ -5757,11 +5757,11 @@
       <c r="B77" s="9">
         <v>57</v>
       </c>
-      <c r="C77" s="91"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="71"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="65"/>
       <c r="H77" s="12" t="s">
         <v>49</v>
       </c>
@@ -5770,11 +5770,11 @@
       <c r="B78" s="27">
         <v>58</v>
       </c>
-      <c r="C78" s="91"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="71"/>
+      <c r="C78" s="85"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="65"/>
       <c r="H78" s="12" t="s">
         <v>49</v>
       </c>
@@ -5783,11 +5783,11 @@
       <c r="B79" s="9">
         <v>59</v>
       </c>
-      <c r="C79" s="91"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="71"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="65"/>
       <c r="H79" s="12" t="s">
         <v>49</v>
       </c>
@@ -5796,11 +5796,11 @@
       <c r="B80" s="27">
         <v>60</v>
       </c>
-      <c r="C80" s="91"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="71"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="65"/>
       <c r="H80" s="12" t="s">
         <v>49</v>
       </c>
@@ -5809,11 +5809,11 @@
       <c r="B81" s="9">
         <v>61</v>
       </c>
-      <c r="C81" s="91"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="71"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="65"/>
       <c r="H81" s="12" t="s">
         <v>49</v>
       </c>
@@ -5822,11 +5822,11 @@
       <c r="B82" s="27">
         <v>62</v>
       </c>
-      <c r="C82" s="91"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="71"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="65"/>
       <c r="H82" s="12" t="s">
         <v>49</v>
       </c>
@@ -5835,11 +5835,11 @@
       <c r="B83" s="9">
         <v>63</v>
       </c>
-      <c r="C83" s="91"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="71"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="65"/>
       <c r="H83" s="12" t="s">
         <v>49</v>
       </c>
@@ -5848,11 +5848,11 @@
       <c r="B84" s="27">
         <v>64</v>
       </c>
-      <c r="C84" s="91"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="70"/>
-      <c r="F84" s="70"/>
-      <c r="G84" s="71"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="65"/>
       <c r="H84" s="12" t="s">
         <v>49</v>
       </c>
@@ -5861,11 +5861,11 @@
       <c r="B85" s="9">
         <v>65</v>
       </c>
-      <c r="C85" s="91"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="71"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="65"/>
       <c r="H85" s="12" t="s">
         <v>49</v>
       </c>
@@ -5874,11 +5874,11 @@
       <c r="B86" s="27">
         <v>66</v>
       </c>
-      <c r="C86" s="91"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="70"/>
-      <c r="G86" s="71"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="65"/>
       <c r="H86" s="12" t="s">
         <v>49</v>
       </c>
@@ -5887,11 +5887,11 @@
       <c r="B87" s="9">
         <v>67</v>
       </c>
-      <c r="C87" s="91"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="71"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="65"/>
       <c r="H87" s="12" t="s">
         <v>49</v>
       </c>
@@ -5900,11 +5900,11 @@
       <c r="B88" s="27">
         <v>68</v>
       </c>
-      <c r="C88" s="91"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="71"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="65"/>
       <c r="H88" s="12" t="s">
         <v>49</v>
       </c>
@@ -5913,11 +5913,11 @@
       <c r="B89" s="9">
         <v>69</v>
       </c>
-      <c r="C89" s="91"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
-      <c r="G89" s="71"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="65"/>
       <c r="H89" s="12" t="s">
         <v>49</v>
       </c>
@@ -5926,11 +5926,11 @@
       <c r="B90" s="27">
         <v>70</v>
       </c>
-      <c r="C90" s="91"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="70"/>
-      <c r="G90" s="71"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="65"/>
       <c r="H90" s="12" t="s">
         <v>49</v>
       </c>
@@ -5939,11 +5939,11 @@
       <c r="B91" s="9">
         <v>71</v>
       </c>
-      <c r="C91" s="91"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="71"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="65"/>
       <c r="H91" s="12" t="s">
         <v>49</v>
       </c>
@@ -5952,11 +5952,11 @@
       <c r="B92" s="27">
         <v>72</v>
       </c>
-      <c r="C92" s="91"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="70"/>
-      <c r="F92" s="70"/>
-      <c r="G92" s="71"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="65"/>
       <c r="H92" s="12" t="s">
         <v>49</v>
       </c>
@@ -5965,11 +5965,11 @@
       <c r="B93" s="9">
         <v>73</v>
       </c>
-      <c r="C93" s="91"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="70"/>
-      <c r="G93" s="71"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="64"/>
+      <c r="E93" s="64"/>
+      <c r="F93" s="64"/>
+      <c r="G93" s="65"/>
       <c r="H93" s="12" t="s">
         <v>49</v>
       </c>
@@ -5978,11 +5978,11 @@
       <c r="B94" s="27">
         <v>74</v>
       </c>
-      <c r="C94" s="91"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
-      <c r="G94" s="71"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="65"/>
       <c r="H94" s="12" t="s">
         <v>49</v>
       </c>
@@ -5991,11 +5991,11 @@
       <c r="B95" s="9">
         <v>75</v>
       </c>
-      <c r="C95" s="91"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="71"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="65"/>
       <c r="H95" s="12" t="s">
         <v>49</v>
       </c>
@@ -6004,11 +6004,11 @@
       <c r="B96" s="27">
         <v>76</v>
       </c>
-      <c r="C96" s="91"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="71"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="65"/>
       <c r="H96" s="12" t="s">
         <v>49</v>
       </c>
@@ -6017,11 +6017,11 @@
       <c r="B97" s="9">
         <v>77</v>
       </c>
-      <c r="C97" s="91"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="71"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="65"/>
       <c r="H97" s="12" t="s">
         <v>49</v>
       </c>
@@ -6030,11 +6030,11 @@
       <c r="B98" s="27">
         <v>78</v>
       </c>
-      <c r="C98" s="91"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="70"/>
-      <c r="F98" s="70"/>
-      <c r="G98" s="71"/>
+      <c r="C98" s="85"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="64"/>
+      <c r="G98" s="65"/>
       <c r="H98" s="12" t="s">
         <v>49</v>
       </c>
@@ -6043,11 +6043,11 @@
       <c r="B99" s="9">
         <v>79</v>
       </c>
-      <c r="C99" s="91"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="71"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="64"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="65"/>
       <c r="H99" s="12" t="s">
         <v>49</v>
       </c>
@@ -6056,11 +6056,11 @@
       <c r="B100" s="27">
         <v>80</v>
       </c>
-      <c r="C100" s="91"/>
-      <c r="D100" s="70"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="70"/>
-      <c r="G100" s="71"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="65"/>
       <c r="H100" s="12" t="s">
         <v>49</v>
       </c>
@@ -6069,11 +6069,11 @@
       <c r="B101" s="9">
         <v>81</v>
       </c>
-      <c r="C101" s="91"/>
-      <c r="D101" s="70"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="71"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="64"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="65"/>
       <c r="H101" s="12" t="s">
         <v>49</v>
       </c>
@@ -6082,11 +6082,11 @@
       <c r="B102" s="27">
         <v>82</v>
       </c>
-      <c r="C102" s="91"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
-      <c r="G102" s="71"/>
+      <c r="C102" s="85"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="65"/>
       <c r="H102" s="12" t="s">
         <v>49</v>
       </c>
@@ -6095,11 +6095,11 @@
       <c r="B103" s="9">
         <v>83</v>
       </c>
-      <c r="C103" s="91"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="71"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="65"/>
       <c r="H103" s="12" t="s">
         <v>49</v>
       </c>
@@ -6108,11 +6108,11 @@
       <c r="B104" s="27">
         <v>84</v>
       </c>
-      <c r="C104" s="91"/>
-      <c r="D104" s="70"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="71"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="64"/>
+      <c r="G104" s="65"/>
       <c r="H104" s="12" t="s">
         <v>49</v>
       </c>
@@ -6121,11 +6121,11 @@
       <c r="B105" s="9">
         <v>85</v>
       </c>
-      <c r="C105" s="91"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="70"/>
-      <c r="F105" s="70"/>
-      <c r="G105" s="71"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="65"/>
       <c r="H105" s="12" t="s">
         <v>49</v>
       </c>
@@ -6134,11 +6134,11 @@
       <c r="B106" s="27">
         <v>86</v>
       </c>
-      <c r="C106" s="91"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="70"/>
-      <c r="F106" s="70"/>
-      <c r="G106" s="71"/>
+      <c r="C106" s="85"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="65"/>
       <c r="H106" s="12" t="s">
         <v>49</v>
       </c>
@@ -6147,11 +6147,11 @@
       <c r="B107" s="9">
         <v>87</v>
       </c>
-      <c r="C107" s="91"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="70"/>
-      <c r="F107" s="70"/>
-      <c r="G107" s="71"/>
+      <c r="C107" s="85"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="64"/>
+      <c r="F107" s="64"/>
+      <c r="G107" s="65"/>
       <c r="H107" s="12" t="s">
         <v>49</v>
       </c>
@@ -6160,11 +6160,11 @@
       <c r="B108" s="27">
         <v>88</v>
       </c>
-      <c r="C108" s="91"/>
-      <c r="D108" s="70"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="70"/>
-      <c r="G108" s="71"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="65"/>
       <c r="H108" s="12" t="s">
         <v>49</v>
       </c>
@@ -6173,11 +6173,11 @@
       <c r="B109" s="9">
         <v>89</v>
       </c>
-      <c r="C109" s="91"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="71"/>
+      <c r="C109" s="85"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="64"/>
+      <c r="F109" s="64"/>
+      <c r="G109" s="65"/>
       <c r="H109" s="12" t="s">
         <v>49</v>
       </c>
@@ -6186,11 +6186,11 @@
       <c r="B110" s="27">
         <v>90</v>
       </c>
-      <c r="C110" s="91"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="70"/>
-      <c r="G110" s="71"/>
+      <c r="C110" s="85"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="64"/>
+      <c r="G110" s="65"/>
       <c r="H110" s="12" t="s">
         <v>49</v>
       </c>
@@ -6199,11 +6199,11 @@
       <c r="B111" s="9">
         <v>91</v>
       </c>
-      <c r="C111" s="91"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="70"/>
-      <c r="F111" s="70"/>
-      <c r="G111" s="71"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="64"/>
+      <c r="F111" s="64"/>
+      <c r="G111" s="65"/>
       <c r="H111" s="12" t="s">
         <v>49</v>
       </c>
@@ -6212,11 +6212,11 @@
       <c r="B112" s="27">
         <v>92</v>
       </c>
-      <c r="C112" s="91"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="70"/>
-      <c r="F112" s="70"/>
-      <c r="G112" s="71"/>
+      <c r="C112" s="85"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="64"/>
+      <c r="G112" s="65"/>
       <c r="H112" s="12" t="s">
         <v>49</v>
       </c>
@@ -6225,11 +6225,11 @@
       <c r="B113" s="9">
         <v>93</v>
       </c>
-      <c r="C113" s="91"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="70"/>
-      <c r="F113" s="70"/>
-      <c r="G113" s="71"/>
+      <c r="C113" s="85"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="64"/>
+      <c r="F113" s="64"/>
+      <c r="G113" s="65"/>
       <c r="H113" s="12" t="s">
         <v>49</v>
       </c>
@@ -6238,11 +6238,11 @@
       <c r="B114" s="27">
         <v>94</v>
       </c>
-      <c r="C114" s="91"/>
-      <c r="D114" s="70"/>
-      <c r="E114" s="70"/>
-      <c r="F114" s="70"/>
-      <c r="G114" s="71"/>
+      <c r="C114" s="85"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="64"/>
+      <c r="G114" s="65"/>
       <c r="H114" s="12" t="s">
         <v>49</v>
       </c>
@@ -6251,11 +6251,11 @@
       <c r="B115" s="9">
         <v>95</v>
       </c>
-      <c r="C115" s="91"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="70"/>
-      <c r="G115" s="71"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="64"/>
+      <c r="F115" s="64"/>
+      <c r="G115" s="65"/>
       <c r="H115" s="12" t="s">
         <v>49</v>
       </c>
@@ -6264,11 +6264,11 @@
       <c r="B116" s="27">
         <v>96</v>
       </c>
-      <c r="C116" s="91"/>
-      <c r="D116" s="70"/>
-      <c r="E116" s="70"/>
-      <c r="F116" s="70"/>
-      <c r="G116" s="71"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="64"/>
+      <c r="F116" s="64"/>
+      <c r="G116" s="65"/>
       <c r="H116" s="12" t="s">
         <v>49</v>
       </c>
@@ -6277,11 +6277,11 @@
       <c r="B117" s="9">
         <v>97</v>
       </c>
-      <c r="C117" s="91"/>
-      <c r="D117" s="70"/>
-      <c r="E117" s="70"/>
-      <c r="F117" s="70"/>
-      <c r="G117" s="71"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="64"/>
+      <c r="F117" s="64"/>
+      <c r="G117" s="65"/>
       <c r="H117" s="12" t="s">
         <v>49</v>
       </c>
@@ -6290,11 +6290,11 @@
       <c r="B118" s="27">
         <v>98</v>
       </c>
-      <c r="C118" s="91"/>
-      <c r="D118" s="70"/>
-      <c r="E118" s="70"/>
-      <c r="F118" s="70"/>
-      <c r="G118" s="71"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="65"/>
       <c r="H118" s="12" t="s">
         <v>49</v>
       </c>
@@ -6303,11 +6303,11 @@
       <c r="B119" s="9">
         <v>99</v>
       </c>
-      <c r="C119" s="91"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="70"/>
-      <c r="F119" s="70"/>
-      <c r="G119" s="71"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="64"/>
+      <c r="F119" s="64"/>
+      <c r="G119" s="65"/>
       <c r="H119" s="12" t="s">
         <v>49</v>
       </c>
@@ -6316,11 +6316,11 @@
       <c r="B120" s="27">
         <v>100</v>
       </c>
-      <c r="C120" s="91"/>
-      <c r="D120" s="70"/>
-      <c r="E120" s="70"/>
-      <c r="F120" s="70"/>
-      <c r="G120" s="71"/>
+      <c r="C120" s="85"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="64"/>
+      <c r="G120" s="65"/>
       <c r="H120" s="12" t="s">
         <v>49</v>
       </c>
@@ -7999,53 +7999,50 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
@@ -8070,50 +8067,53 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C95:G95"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21:H120" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -8163,85 +8163,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="2">
         <f>Requisitos!C11</f>
         <v>45170</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K65" si="0">K1+1</f>
         <v>45171</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45172</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45173</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45174</v>
@@ -8255,18 +8255,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="75" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45176</v>
@@ -8280,16 +8280,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -9647,7 +9647,7 @@
         <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
         <v>20</v>
       </c>
-      <c r="E62" s="95"/>
+      <c r="E62" s="59"/>
       <c r="F62" s="30"/>
       <c r="G62" s="43">
         <f>COUNTIFS(G11:G60, "Concluído",D11:D60, "&lt;&gt;"&amp;"")</f>
@@ -9660,30 +9660,30 @@
       </c>
     </row>
     <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="93" t="s">
+      <c r="B63" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="71"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="65"/>
       <c r="K63" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
       </c>
     </row>
     <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="94" t="s">
+      <c r="B64" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="71"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="65"/>
       <c r="H64" s="7" t="s">
         <v>67</v>
       </c>
@@ -9696,15 +9696,15 @@
       </c>
     </row>
     <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="92" t="str">
+      <c r="B65" s="99" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="71"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="65"/>
       <c r="H65" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B10,H$11:H$60)</f>
         <v>0</v>
@@ -9719,15 +9719,15 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="92" t="str">
+      <c r="B66" s="99" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="71"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="65"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -9742,15 +9742,15 @@
       </c>
     </row>
     <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="92" t="str">
+      <c r="B67" s="99" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="71"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="65"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -9765,15 +9765,15 @@
       </c>
     </row>
     <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="92" t="str">
+      <c r="B68" s="99" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Maria Eduarda Amaral</v>
       </c>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="71"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="65"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -9788,15 +9788,15 @@
       </c>
     </row>
     <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="92" t="str">
+      <c r="B69" s="99" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="71"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="65"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -9811,15 +9811,15 @@
       </c>
     </row>
     <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="92" t="str">
+      <c r="B70" s="99" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="71"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="65"/>
       <c r="H70" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -9928,31 +9928,31 @@
     </row>
     <row r="102" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D102" s="19"/>
-      <c r="E102" s="96"/>
+      <c r="E102" s="60"/>
       <c r="G102" s="44"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D103" s="19"/>
-      <c r="E103" s="96"/>
+      <c r="E103" s="60"/>
       <c r="G103" s="44"/>
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D104" s="19"/>
-      <c r="E104" s="96"/>
+      <c r="E104" s="60"/>
       <c r="G104" s="44"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D105" s="19"/>
-      <c r="E105" s="96"/>
+      <c r="E105" s="60"/>
       <c r="G105" s="44"/>
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D106" s="19"/>
-      <c r="E106" s="96"/>
+      <c r="E106" s="60"/>
       <c r="J106" s="5"/>
     </row>
     <row r="107" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10947,8 +10947,8 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10968,85 +10968,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="2">
         <f>Requisitos!C12</f>
         <v>45191</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45192</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45193</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45194</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45195</v>
@@ -11060,18 +11060,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="75" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45197</v>
@@ -11085,16 +11085,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -12394,26 +12394,26 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="93" t="s">
+      <c r="B72" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="71"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="65"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="94" t="s">
+      <c r="B73" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="71"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="65"/>
       <c r="H73" s="7" t="s">
         <v>67</v>
       </c>
@@ -12422,15 +12422,15 @@
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="92" t="str">
+      <c r="B74" s="99" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="71"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="65"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -12441,15 +12441,15 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="92" t="str">
+      <c r="B75" s="99" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="71"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="65"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -12460,15 +12460,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="92" t="str">
+      <c r="B76" s="99" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="71"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="65"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -12479,15 +12479,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="92" t="str">
+      <c r="B77" s="99" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="71"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="65"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -12498,15 +12498,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="92" t="str">
+      <c r="B78" s="99" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="71"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="65"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -13757,85 +13757,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="2">
         <f>Requisitos!C13</f>
         <v>45205</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45206</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45208</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45209</v>
@@ -13849,18 +13849,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="75" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45211</v>
@@ -13874,16 +13874,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -15020,26 +15020,26 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="93" t="s">
+      <c r="B72" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="71"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="65"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="94" t="s">
+      <c r="B73" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="71"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="65"/>
       <c r="H73" s="7" t="s">
         <v>67</v>
       </c>
@@ -15048,15 +15048,15 @@
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="92" t="str">
+      <c r="B74" s="99" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="71"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="65"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -15067,15 +15067,15 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="92" t="str">
+      <c r="B75" s="99" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="71"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="65"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -15086,15 +15086,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="92" t="str">
+      <c r="B76" s="99" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="71"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="65"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -15105,15 +15105,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="92" t="str">
+      <c r="B77" s="99" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="71"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="65"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -15124,15 +15124,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="92" t="str">
+      <c r="B78" s="99" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="71"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="65"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -16156,12 +16156,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -16170,6 +16164,12 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="89" priority="1">
@@ -16356,85 +16356,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="2">
         <f>Requisitos!C14</f>
         <v>45226</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45227</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45229</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45230</v>
@@ -16448,18 +16448,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="75" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -16473,16 +16473,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -17619,26 +17619,26 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="93" t="s">
+      <c r="B72" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="71"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="65"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="94" t="s">
+      <c r="B73" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="71"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="65"/>
       <c r="H73" s="7" t="s">
         <v>67</v>
       </c>
@@ -17647,15 +17647,15 @@
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="92" t="str">
+      <c r="B74" s="99" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="71"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="65"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -17666,15 +17666,15 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="92" t="str">
+      <c r="B75" s="99" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="71"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="65"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -17685,15 +17685,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="92" t="str">
+      <c r="B76" s="99" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="71"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="65"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -17704,15 +17704,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="92" t="str">
+      <c r="B77" s="99" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="71"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="65"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -17723,15 +17723,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="92" t="str">
+      <c r="B78" s="99" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="71"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="65"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -18755,12 +18755,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -18769,6 +18763,12 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="63" priority="1">
@@ -18954,85 +18954,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="2">
         <f>Requisitos!C15</f>
         <v>45247</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45248</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45249</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45250</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45251</v>
@@ -19045,18 +19045,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="75" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45253</v>
@@ -19069,16 +19069,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
       <c r="J9" s="58" t="s">
         <v>55</v>
       </c>
@@ -20039,26 +20039,26 @@
       </c>
     </row>
     <row r="63" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="93" t="s">
+      <c r="B63" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="71"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="65"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="94" t="s">
+      <c r="B64" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="71"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="65"/>
       <c r="H64" s="7" t="s">
         <v>67</v>
       </c>
@@ -20067,15 +20067,15 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="92" t="str">
+      <c r="B65" s="99" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="71"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="65"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -20086,15 +20086,15 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="92" t="str">
+      <c r="B66" s="99" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="71"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="65"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -20105,15 +20105,15 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="92" t="str">
+      <c r="B67" s="99" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="71"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="65"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -20124,15 +20124,15 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="92" t="str">
+      <c r="B68" s="99" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="71"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="65"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -20143,15 +20143,15 @@
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="92" t="str">
+      <c r="B69" s="99" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="71"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="65"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -21114,12 +21114,6 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="B9:I9"/>
@@ -21128,6 +21122,12 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F13 F17">
     <cfRule type="containsBlanks" dxfId="37" priority="1">

--- a/Artefatos/sprints/Planejamento_sprints.xlsx
+++ b/Artefatos/sprints/Planejamento_sprints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorios_github\plf-es-2023-2-ti3-6653100-fabrica-do-saber\Artefatos\sprints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\repositories\plf-es-2023-2-ti3-6653100-fabrica-do-saber\Artefatos\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B208DB-1497-4E14-A87F-415EA0FF23BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96081C18-A71B-4F02-899A-03A9B9AD35A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Projeto" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -332,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="131">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -688,15 +686,6 @@
     <t>Integracao back-end + front-end (Sprint 2)</t>
   </si>
   <si>
-    <t>Funcionado model</t>
-  </si>
-  <si>
-    <t>Funcionario service</t>
-  </si>
-  <si>
-    <t>Funcionario controller</t>
-  </si>
-  <si>
     <t>Turma model</t>
   </si>
   <si>
@@ -712,22 +701,61 @@
     <t>Pagina de edicao de turma</t>
   </si>
   <si>
-    <t>Pagina de cadastro de funcionario</t>
-  </si>
-  <si>
-    <t>Pagina de ediacao de funcionario</t>
-  </si>
-  <si>
-    <t>Pagina de visualizacao de funcionarios cadastrados</t>
-  </si>
-  <si>
-    <t>Pagina de visualizacao de turmas cadastradas</t>
-  </si>
-  <si>
     <t>Tarefa nao concluida, movida para Sprint 2</t>
   </si>
   <si>
     <t>Tarefa remanescente da sprint 1</t>
+  </si>
+  <si>
+    <t>Professor model</t>
+  </si>
+  <si>
+    <t>Professor service</t>
+  </si>
+  <si>
+    <t>Professor controller</t>
+  </si>
+  <si>
+    <t>Pagina de cadastro de Professor</t>
+  </si>
+  <si>
+    <t>Pagina de edição de Professor</t>
+  </si>
+  <si>
+    <t>Pagina de visualização de turmas cadastradas</t>
+  </si>
+  <si>
+    <t>Pagina de visualização de professores cadastrados</t>
+  </si>
+  <si>
+    <t>Professor repository</t>
+  </si>
+  <si>
+    <t>Pessoa model</t>
+  </si>
+  <si>
+    <t>Serie enumeration</t>
+  </si>
+  <si>
+    <t>Estado enumeration</t>
+  </si>
+  <si>
+    <t>Raca enumeration</t>
+  </si>
+  <si>
+    <t>Religiao enumeration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">João Gabriel Perez </t>
+  </si>
+  <si>
+    <t>Ajudante: Vitor Lagares</t>
+  </si>
+  <si>
+    <t>Ajudante: Lucas Soares</t>
+  </si>
+  <si>
+    <t>Ajudante: Guilherme Lagares</t>
   </si>
 </sst>
 </file>
@@ -1292,16 +1320,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1311,56 +1358,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1377,6 +1387,15 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1385,6 +1404,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1397,22 +1425,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="129">
@@ -2593,7 +2621,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="1"/>
   <c:style val="18"/>
   <c:chart>
@@ -3211,166 +3239,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="76" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="67" t="s">
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="67" t="s">
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="67" t="s">
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="67" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="67" t="s">
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="67" t="s">
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="78"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="18"/>
@@ -3472,16 +3500,16 @@
     <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="50"/>
-      <c r="B100" s="70"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="71" t="s">
+      <c r="B100" s="80"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="62"/>
-      <c r="F100" s="71" t="s">
+      <c r="E100" s="65"/>
+      <c r="F100" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="62"/>
+      <c r="G100" s="65"/>
       <c r="H100" s="51" t="s">
         <v>18</v>
       </c>
@@ -3503,12 +3531,12 @@
     </row>
     <row r="101" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
-      <c r="B101" s="61"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="66" t="s">
+      <c r="B101" s="83"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="62"/>
+      <c r="E101" s="65"/>
       <c r="F101" s="53" t="s">
         <v>24</v>
       </c>
@@ -3541,12 +3569,12 @@
     </row>
     <row r="102" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="50"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="66" t="s">
+      <c r="B102" s="83"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="62"/>
+      <c r="E102" s="65"/>
       <c r="F102" s="53" t="s">
         <v>29</v>
       </c>
@@ -3580,12 +3608,12 @@
     </row>
     <row r="103" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="50"/>
-      <c r="B103" s="61"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="66" t="s">
+      <c r="B103" s="83"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="62"/>
+      <c r="E103" s="65"/>
       <c r="F103" s="53"/>
       <c r="G103" s="54" t="s">
         <v>34</v>
@@ -3617,12 +3645,12 @@
     </row>
     <row r="104" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="50"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="66" t="s">
+      <c r="B104" s="83"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="62"/>
+      <c r="E104" s="65"/>
       <c r="F104" s="53"/>
       <c r="G104" s="54" t="s">
         <v>36</v>
@@ -3652,12 +3680,12 @@
     </row>
     <row r="105" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="50"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="62"/>
-      <c r="D105" s="66" t="s">
+      <c r="B105" s="83"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="62"/>
+      <c r="E105" s="65"/>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="s">
         <v>39</v>
@@ -3682,8 +3710,8 @@
     </row>
     <row r="106" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="50"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="62"/>
+      <c r="B106" s="83"/>
+      <c r="C106" s="65"/>
       <c r="F106" s="53"/>
       <c r="G106" s="54"/>
       <c r="H106" s="53"/>
@@ -3694,8 +3722,8 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="50"/>
-      <c r="B107" s="61"/>
-      <c r="C107" s="62"/>
+      <c r="B107" s="83"/>
+      <c r="C107" s="65"/>
       <c r="D107" s="55"/>
       <c r="E107" s="53"/>
       <c r="F107" s="53"/>
@@ -4663,24 +4691,12 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D105:E105"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="D100:E100"/>
@@ -4692,12 +4708,24 @@
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="F10:F15" xr:uid="{49EDF03A-7EFB-435C-A992-40D98DE85B41}">
@@ -4740,59 +4768,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
     </row>
     <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -4804,16 +4832,16 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="96" t="str">
+      <c r="B7" s="93" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -4825,15 +4853,15 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
@@ -4845,11 +4873,11 @@
       <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
@@ -4864,9 +4892,9 @@
       <c r="D11" s="14">
         <v>45190</v>
       </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4880,9 +4908,9 @@
         <f t="shared" ref="D12" si="0">C12+13</f>
         <v>45204</v>
       </c>
-      <c r="E12" s="91"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4896,9 +4924,9 @@
       <c r="D13" s="14">
         <v>45225</v>
       </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4911,9 +4939,9 @@
       <c r="D14" s="14">
         <v>45246</v>
       </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4952,13 +4980,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="22" t="s">
         <v>47</v>
       </c>
@@ -4967,11 +4995,11 @@
       <c r="B19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
       <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
@@ -4981,11 +5009,11 @@
       <c r="B20" s="27">
         <v>0</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="65"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="28"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -5002,13 +5030,13 @@
       <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="92"/>
       <c r="H21" s="12" t="s">
         <v>52</v>
       </c>
@@ -5018,13 +5046,13 @@
       <c r="B22" s="27">
         <v>2</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="12" t="s">
         <v>49</v>
       </c>
@@ -5033,13 +5061,13 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="92"/>
       <c r="H23" s="12" t="s">
         <v>49</v>
       </c>
@@ -5048,13 +5076,13 @@
       <c r="B24" s="27">
         <v>4</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="87"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="98"/>
       <c r="H24" s="12" t="s">
         <v>49</v>
       </c>
@@ -5063,13 +5091,13 @@
       <c r="B25" s="9">
         <v>5</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="87"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="98"/>
       <c r="H25" s="12" t="s">
         <v>49</v>
       </c>
@@ -5078,13 +5106,13 @@
       <c r="B26" s="27">
         <v>6</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="87"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="98"/>
       <c r="H26" s="12" t="s">
         <v>49</v>
       </c>
@@ -5093,13 +5121,13 @@
       <c r="B27" s="9">
         <v>7</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="87"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="12" t="s">
         <v>49</v>
       </c>
@@ -5108,13 +5136,13 @@
       <c r="B28" s="27">
         <v>8</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="87"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="98"/>
       <c r="H28" s="12" t="s">
         <v>49</v>
       </c>
@@ -5123,13 +5151,13 @@
       <c r="B29" s="9">
         <v>9</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="87"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="98"/>
       <c r="H29" s="12" t="s">
         <v>49</v>
       </c>
@@ -5138,13 +5166,13 @@
       <c r="B30" s="27">
         <v>10</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="87"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="98"/>
       <c r="H30" s="12" t="s">
         <v>49</v>
       </c>
@@ -5153,13 +5181,13 @@
       <c r="B31" s="9">
         <v>11</v>
       </c>
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="87"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="98"/>
       <c r="H31" s="12" t="s">
         <v>49</v>
       </c>
@@ -5168,13 +5196,13 @@
       <c r="B32" s="27">
         <v>12</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="87"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="98"/>
       <c r="H32" s="12" t="s">
         <v>52</v>
       </c>
@@ -5183,13 +5211,13 @@
       <c r="B33" s="9">
         <v>13</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="90"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="92"/>
       <c r="H33" s="12" t="s">
         <v>52</v>
       </c>
@@ -5198,11 +5226,11 @@
       <c r="B34" s="27">
         <v>14</v>
       </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="87"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
       <c r="H34" s="12" t="s">
         <v>49</v>
       </c>
@@ -5211,11 +5239,11 @@
       <c r="B35" s="9">
         <v>15</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="87"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="98"/>
       <c r="H35" s="12" t="s">
         <v>49</v>
       </c>
@@ -5224,11 +5252,11 @@
       <c r="B36" s="27">
         <v>16</v>
       </c>
-      <c r="C36" s="85"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="65"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="73"/>
       <c r="H36" s="12" t="s">
         <v>49</v>
       </c>
@@ -5237,11 +5265,11 @@
       <c r="B37" s="9">
         <v>17</v>
       </c>
-      <c r="C37" s="85"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="65"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="73"/>
       <c r="H37" s="12" t="s">
         <v>49</v>
       </c>
@@ -5250,11 +5278,11 @@
       <c r="B38" s="27">
         <v>18</v>
       </c>
-      <c r="C38" s="85"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="65"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="73"/>
       <c r="H38" s="12" t="s">
         <v>49</v>
       </c>
@@ -5263,11 +5291,11 @@
       <c r="B39" s="9">
         <v>19</v>
       </c>
-      <c r="C39" s="85"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="65"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
       <c r="H39" s="12" t="s">
         <v>49</v>
       </c>
@@ -5276,11 +5304,11 @@
       <c r="B40" s="27">
         <v>20</v>
       </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="65"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="73"/>
       <c r="H40" s="12" t="s">
         <v>49</v>
       </c>
@@ -5289,11 +5317,11 @@
       <c r="B41" s="9">
         <v>21</v>
       </c>
-      <c r="C41" s="85"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="65"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="73"/>
       <c r="H41" s="12" t="s">
         <v>49</v>
       </c>
@@ -5302,11 +5330,11 @@
       <c r="B42" s="27">
         <v>22</v>
       </c>
-      <c r="C42" s="85"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="65"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="73"/>
       <c r="H42" s="12" t="s">
         <v>49</v>
       </c>
@@ -5315,11 +5343,11 @@
       <c r="B43" s="9">
         <v>23</v>
       </c>
-      <c r="C43" s="85"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="65"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="73"/>
       <c r="H43" s="12" t="s">
         <v>49</v>
       </c>
@@ -5328,11 +5356,11 @@
       <c r="B44" s="27">
         <v>24</v>
       </c>
-      <c r="C44" s="85"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="65"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="73"/>
       <c r="H44" s="12" t="s">
         <v>49</v>
       </c>
@@ -5341,11 +5369,11 @@
       <c r="B45" s="9">
         <v>25</v>
       </c>
-      <c r="C45" s="85"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="65"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="73"/>
       <c r="H45" s="12" t="s">
         <v>49</v>
       </c>
@@ -5354,11 +5382,11 @@
       <c r="B46" s="27">
         <v>26</v>
       </c>
-      <c r="C46" s="85"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="65"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="73"/>
       <c r="H46" s="12" t="s">
         <v>49</v>
       </c>
@@ -5367,11 +5395,11 @@
       <c r="B47" s="9">
         <v>27</v>
       </c>
-      <c r="C47" s="85"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="65"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="73"/>
       <c r="H47" s="12" t="s">
         <v>49</v>
       </c>
@@ -5380,11 +5408,11 @@
       <c r="B48" s="27">
         <v>28</v>
       </c>
-      <c r="C48" s="85"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="65"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="73"/>
       <c r="H48" s="12" t="s">
         <v>49</v>
       </c>
@@ -5393,11 +5421,11 @@
       <c r="B49" s="9">
         <v>29</v>
       </c>
-      <c r="C49" s="85"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="65"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="73"/>
       <c r="H49" s="12" t="s">
         <v>49</v>
       </c>
@@ -5406,11 +5434,11 @@
       <c r="B50" s="27">
         <v>30</v>
       </c>
-      <c r="C50" s="85"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="65"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="73"/>
       <c r="H50" s="12" t="s">
         <v>49</v>
       </c>
@@ -5419,11 +5447,11 @@
       <c r="B51" s="9">
         <v>31</v>
       </c>
-      <c r="C51" s="85"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="65"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="73"/>
       <c r="H51" s="12" t="s">
         <v>49</v>
       </c>
@@ -5432,11 +5460,11 @@
       <c r="B52" s="27">
         <v>32</v>
       </c>
-      <c r="C52" s="85"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="65"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="73"/>
       <c r="H52" s="12" t="s">
         <v>49</v>
       </c>
@@ -5445,11 +5473,11 @@
       <c r="B53" s="9">
         <v>33</v>
       </c>
-      <c r="C53" s="85"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="65"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="73"/>
       <c r="H53" s="12" t="s">
         <v>49</v>
       </c>
@@ -5458,11 +5486,11 @@
       <c r="B54" s="27">
         <v>34</v>
       </c>
-      <c r="C54" s="85"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="65"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="73"/>
       <c r="H54" s="12" t="s">
         <v>49</v>
       </c>
@@ -5471,11 +5499,11 @@
       <c r="B55" s="9">
         <v>35</v>
       </c>
-      <c r="C55" s="85"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="65"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="73"/>
       <c r="H55" s="12" t="s">
         <v>49</v>
       </c>
@@ -5484,11 +5512,11 @@
       <c r="B56" s="27">
         <v>36</v>
       </c>
-      <c r="C56" s="85"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="65"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="73"/>
       <c r="H56" s="12" t="s">
         <v>49</v>
       </c>
@@ -5497,11 +5525,11 @@
       <c r="B57" s="9">
         <v>37</v>
       </c>
-      <c r="C57" s="85"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="65"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="73"/>
       <c r="H57" s="12" t="s">
         <v>49</v>
       </c>
@@ -5510,11 +5538,11 @@
       <c r="B58" s="27">
         <v>38</v>
       </c>
-      <c r="C58" s="85"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="65"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="73"/>
       <c r="H58" s="12" t="s">
         <v>49</v>
       </c>
@@ -5523,11 +5551,11 @@
       <c r="B59" s="9">
         <v>39</v>
       </c>
-      <c r="C59" s="85"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="65"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="73"/>
       <c r="H59" s="12" t="s">
         <v>49</v>
       </c>
@@ -5536,11 +5564,11 @@
       <c r="B60" s="27">
         <v>40</v>
       </c>
-      <c r="C60" s="85"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="65"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="73"/>
       <c r="H60" s="12" t="s">
         <v>49</v>
       </c>
@@ -5549,11 +5577,11 @@
       <c r="B61" s="9">
         <v>41</v>
       </c>
-      <c r="C61" s="85"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="65"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="73"/>
       <c r="H61" s="12" t="s">
         <v>49</v>
       </c>
@@ -5562,11 +5590,11 @@
       <c r="B62" s="27">
         <v>42</v>
       </c>
-      <c r="C62" s="85"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="65"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="73"/>
       <c r="H62" s="12" t="s">
         <v>49</v>
       </c>
@@ -5575,11 +5603,11 @@
       <c r="B63" s="9">
         <v>43</v>
       </c>
-      <c r="C63" s="85"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="65"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="73"/>
       <c r="H63" s="12" t="s">
         <v>49</v>
       </c>
@@ -5588,11 +5616,11 @@
       <c r="B64" s="27">
         <v>44</v>
       </c>
-      <c r="C64" s="85"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="12" t="s">
         <v>49</v>
       </c>
@@ -5601,11 +5629,11 @@
       <c r="B65" s="9">
         <v>45</v>
       </c>
-      <c r="C65" s="85"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="12" t="s">
         <v>49</v>
       </c>
@@ -5614,11 +5642,11 @@
       <c r="B66" s="27">
         <v>46</v>
       </c>
-      <c r="C66" s="85"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="12" t="s">
         <v>49</v>
       </c>
@@ -5627,11 +5655,11 @@
       <c r="B67" s="9">
         <v>47</v>
       </c>
-      <c r="C67" s="85"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="65"/>
+      <c r="C67" s="96"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="12" t="s">
         <v>49</v>
       </c>
@@ -5640,11 +5668,11 @@
       <c r="B68" s="27">
         <v>48</v>
       </c>
-      <c r="C68" s="85"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="12" t="s">
         <v>49</v>
       </c>
@@ -5653,11 +5681,11 @@
       <c r="B69" s="9">
         <v>49</v>
       </c>
-      <c r="C69" s="85"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="12" t="s">
         <v>49</v>
       </c>
@@ -5666,11 +5694,11 @@
       <c r="B70" s="27">
         <v>50</v>
       </c>
-      <c r="C70" s="85"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="65"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="73"/>
       <c r="H70" s="12" t="s">
         <v>49</v>
       </c>
@@ -5679,11 +5707,11 @@
       <c r="B71" s="9">
         <v>51</v>
       </c>
-      <c r="C71" s="85"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="65"/>
+      <c r="C71" s="96"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="73"/>
       <c r="H71" s="12" t="s">
         <v>49</v>
       </c>
@@ -5692,11 +5720,11 @@
       <c r="B72" s="27">
         <v>52</v>
       </c>
-      <c r="C72" s="85"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="65"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="73"/>
       <c r="H72" s="12" t="s">
         <v>49</v>
       </c>
@@ -5705,11 +5733,11 @@
       <c r="B73" s="9">
         <v>53</v>
       </c>
-      <c r="C73" s="85"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="65"/>
+      <c r="C73" s="96"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="73"/>
       <c r="H73" s="12" t="s">
         <v>49</v>
       </c>
@@ -5718,11 +5746,11 @@
       <c r="B74" s="27">
         <v>54</v>
       </c>
-      <c r="C74" s="85"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="65"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="12" t="s">
         <v>49</v>
       </c>
@@ -5731,11 +5759,11 @@
       <c r="B75" s="9">
         <v>55</v>
       </c>
-      <c r="C75" s="85"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="73"/>
       <c r="H75" s="12" t="s">
         <v>49</v>
       </c>
@@ -5744,11 +5772,11 @@
       <c r="B76" s="27">
         <v>56</v>
       </c>
-      <c r="C76" s="85"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="12" t="s">
         <v>49</v>
       </c>
@@ -5757,11 +5785,11 @@
       <c r="B77" s="9">
         <v>57</v>
       </c>
-      <c r="C77" s="85"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="65"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
       <c r="H77" s="12" t="s">
         <v>49</v>
       </c>
@@ -5770,11 +5798,11 @@
       <c r="B78" s="27">
         <v>58</v>
       </c>
-      <c r="C78" s="85"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="65"/>
+      <c r="C78" s="96"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="12" t="s">
         <v>49</v>
       </c>
@@ -5783,11 +5811,11 @@
       <c r="B79" s="9">
         <v>59</v>
       </c>
-      <c r="C79" s="85"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="65"/>
+      <c r="C79" s="96"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="73"/>
       <c r="H79" s="12" t="s">
         <v>49</v>
       </c>
@@ -5796,11 +5824,11 @@
       <c r="B80" s="27">
         <v>60</v>
       </c>
-      <c r="C80" s="85"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="65"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="73"/>
       <c r="H80" s="12" t="s">
         <v>49</v>
       </c>
@@ -5809,11 +5837,11 @@
       <c r="B81" s="9">
         <v>61</v>
       </c>
-      <c r="C81" s="85"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="65"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="73"/>
       <c r="H81" s="12" t="s">
         <v>49</v>
       </c>
@@ -5822,11 +5850,11 @@
       <c r="B82" s="27">
         <v>62</v>
       </c>
-      <c r="C82" s="85"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="65"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="73"/>
       <c r="H82" s="12" t="s">
         <v>49</v>
       </c>
@@ -5835,11 +5863,11 @@
       <c r="B83" s="9">
         <v>63</v>
       </c>
-      <c r="C83" s="85"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="65"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="73"/>
       <c r="H83" s="12" t="s">
         <v>49</v>
       </c>
@@ -5848,11 +5876,11 @@
       <c r="B84" s="27">
         <v>64</v>
       </c>
-      <c r="C84" s="85"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="65"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="73"/>
       <c r="H84" s="12" t="s">
         <v>49</v>
       </c>
@@ -5861,11 +5889,11 @@
       <c r="B85" s="9">
         <v>65</v>
       </c>
-      <c r="C85" s="85"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="65"/>
+      <c r="C85" s="96"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="73"/>
       <c r="H85" s="12" t="s">
         <v>49</v>
       </c>
@@ -5874,11 +5902,11 @@
       <c r="B86" s="27">
         <v>66</v>
       </c>
-      <c r="C86" s="85"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="65"/>
+      <c r="C86" s="96"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="73"/>
       <c r="H86" s="12" t="s">
         <v>49</v>
       </c>
@@ -5887,11 +5915,11 @@
       <c r="B87" s="9">
         <v>67</v>
       </c>
-      <c r="C87" s="85"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="65"/>
+      <c r="C87" s="96"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="73"/>
       <c r="H87" s="12" t="s">
         <v>49</v>
       </c>
@@ -5900,11 +5928,11 @@
       <c r="B88" s="27">
         <v>68</v>
       </c>
-      <c r="C88" s="85"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="65"/>
+      <c r="C88" s="96"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="73"/>
       <c r="H88" s="12" t="s">
         <v>49</v>
       </c>
@@ -5913,11 +5941,11 @@
       <c r="B89" s="9">
         <v>69</v>
       </c>
-      <c r="C89" s="85"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="65"/>
+      <c r="C89" s="96"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="73"/>
       <c r="H89" s="12" t="s">
         <v>49</v>
       </c>
@@ -5926,11 +5954,11 @@
       <c r="B90" s="27">
         <v>70</v>
       </c>
-      <c r="C90" s="85"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="65"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="73"/>
       <c r="H90" s="12" t="s">
         <v>49</v>
       </c>
@@ -5939,11 +5967,11 @@
       <c r="B91" s="9">
         <v>71</v>
       </c>
-      <c r="C91" s="85"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="65"/>
+      <c r="C91" s="96"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="73"/>
       <c r="H91" s="12" t="s">
         <v>49</v>
       </c>
@@ -5952,11 +5980,11 @@
       <c r="B92" s="27">
         <v>72</v>
       </c>
-      <c r="C92" s="85"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="65"/>
+      <c r="C92" s="96"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="73"/>
       <c r="H92" s="12" t="s">
         <v>49</v>
       </c>
@@ -5965,11 +5993,11 @@
       <c r="B93" s="9">
         <v>73</v>
       </c>
-      <c r="C93" s="85"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="64"/>
-      <c r="F93" s="64"/>
-      <c r="G93" s="65"/>
+      <c r="C93" s="96"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="73"/>
       <c r="H93" s="12" t="s">
         <v>49</v>
       </c>
@@ -5978,11 +6006,11 @@
       <c r="B94" s="27">
         <v>74</v>
       </c>
-      <c r="C94" s="85"/>
-      <c r="D94" s="64"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="65"/>
+      <c r="C94" s="96"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="73"/>
       <c r="H94" s="12" t="s">
         <v>49</v>
       </c>
@@ -5991,11 +6019,11 @@
       <c r="B95" s="9">
         <v>75</v>
       </c>
-      <c r="C95" s="85"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="65"/>
+      <c r="C95" s="96"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="73"/>
       <c r="H95" s="12" t="s">
         <v>49</v>
       </c>
@@ -6004,11 +6032,11 @@
       <c r="B96" s="27">
         <v>76</v>
       </c>
-      <c r="C96" s="85"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="65"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="72"/>
+      <c r="G96" s="73"/>
       <c r="H96" s="12" t="s">
         <v>49</v>
       </c>
@@ -6017,11 +6045,11 @@
       <c r="B97" s="9">
         <v>77</v>
       </c>
-      <c r="C97" s="85"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="65"/>
+      <c r="C97" s="96"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="73"/>
       <c r="H97" s="12" t="s">
         <v>49</v>
       </c>
@@ -6030,11 +6058,11 @@
       <c r="B98" s="27">
         <v>78</v>
       </c>
-      <c r="C98" s="85"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="65"/>
+      <c r="C98" s="96"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="73"/>
       <c r="H98" s="12" t="s">
         <v>49</v>
       </c>
@@ -6043,11 +6071,11 @@
       <c r="B99" s="9">
         <v>79</v>
       </c>
-      <c r="C99" s="85"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="64"/>
-      <c r="G99" s="65"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="73"/>
       <c r="H99" s="12" t="s">
         <v>49</v>
       </c>
@@ -6056,11 +6084,11 @@
       <c r="B100" s="27">
         <v>80</v>
       </c>
-      <c r="C100" s="85"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="65"/>
+      <c r="C100" s="96"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="73"/>
       <c r="H100" s="12" t="s">
         <v>49</v>
       </c>
@@ -6069,11 +6097,11 @@
       <c r="B101" s="9">
         <v>81</v>
       </c>
-      <c r="C101" s="85"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="64"/>
-      <c r="F101" s="64"/>
-      <c r="G101" s="65"/>
+      <c r="C101" s="96"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="73"/>
       <c r="H101" s="12" t="s">
         <v>49</v>
       </c>
@@ -6082,11 +6110,11 @@
       <c r="B102" s="27">
         <v>82</v>
       </c>
-      <c r="C102" s="85"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="65"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="73"/>
       <c r="H102" s="12" t="s">
         <v>49</v>
       </c>
@@ -6095,11 +6123,11 @@
       <c r="B103" s="9">
         <v>83</v>
       </c>
-      <c r="C103" s="85"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="64"/>
-      <c r="F103" s="64"/>
-      <c r="G103" s="65"/>
+      <c r="C103" s="96"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="73"/>
       <c r="H103" s="12" t="s">
         <v>49</v>
       </c>
@@ -6108,11 +6136,11 @@
       <c r="B104" s="27">
         <v>84</v>
       </c>
-      <c r="C104" s="85"/>
-      <c r="D104" s="64"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="64"/>
-      <c r="G104" s="65"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="73"/>
       <c r="H104" s="12" t="s">
         <v>49</v>
       </c>
@@ -6121,11 +6149,11 @@
       <c r="B105" s="9">
         <v>85</v>
       </c>
-      <c r="C105" s="85"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="65"/>
+      <c r="C105" s="96"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="73"/>
       <c r="H105" s="12" t="s">
         <v>49</v>
       </c>
@@ -6134,11 +6162,11 @@
       <c r="B106" s="27">
         <v>86</v>
       </c>
-      <c r="C106" s="85"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="65"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="73"/>
       <c r="H106" s="12" t="s">
         <v>49</v>
       </c>
@@ -6147,11 +6175,11 @@
       <c r="B107" s="9">
         <v>87</v>
       </c>
-      <c r="C107" s="85"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="65"/>
+      <c r="C107" s="96"/>
+      <c r="D107" s="72"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="73"/>
       <c r="H107" s="12" t="s">
         <v>49</v>
       </c>
@@ -6160,11 +6188,11 @@
       <c r="B108" s="27">
         <v>88</v>
       </c>
-      <c r="C108" s="85"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="64"/>
-      <c r="G108" s="65"/>
+      <c r="C108" s="96"/>
+      <c r="D108" s="72"/>
+      <c r="E108" s="72"/>
+      <c r="F108" s="72"/>
+      <c r="G108" s="73"/>
       <c r="H108" s="12" t="s">
         <v>49</v>
       </c>
@@ -6173,11 +6201,11 @@
       <c r="B109" s="9">
         <v>89</v>
       </c>
-      <c r="C109" s="85"/>
-      <c r="D109" s="64"/>
-      <c r="E109" s="64"/>
-      <c r="F109" s="64"/>
-      <c r="G109" s="65"/>
+      <c r="C109" s="96"/>
+      <c r="D109" s="72"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="72"/>
+      <c r="G109" s="73"/>
       <c r="H109" s="12" t="s">
         <v>49</v>
       </c>
@@ -6186,11 +6214,11 @@
       <c r="B110" s="27">
         <v>90</v>
       </c>
-      <c r="C110" s="85"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="64"/>
-      <c r="G110" s="65"/>
+      <c r="C110" s="96"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="73"/>
       <c r="H110" s="12" t="s">
         <v>49</v>
       </c>
@@ -6199,11 +6227,11 @@
       <c r="B111" s="9">
         <v>91</v>
       </c>
-      <c r="C111" s="85"/>
-      <c r="D111" s="64"/>
-      <c r="E111" s="64"/>
-      <c r="F111" s="64"/>
-      <c r="G111" s="65"/>
+      <c r="C111" s="96"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="73"/>
       <c r="H111" s="12" t="s">
         <v>49</v>
       </c>
@@ -6212,11 +6240,11 @@
       <c r="B112" s="27">
         <v>92</v>
       </c>
-      <c r="C112" s="85"/>
-      <c r="D112" s="64"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="65"/>
+      <c r="C112" s="96"/>
+      <c r="D112" s="72"/>
+      <c r="E112" s="72"/>
+      <c r="F112" s="72"/>
+      <c r="G112" s="73"/>
       <c r="H112" s="12" t="s">
         <v>49</v>
       </c>
@@ -6225,11 +6253,11 @@
       <c r="B113" s="9">
         <v>93</v>
       </c>
-      <c r="C113" s="85"/>
-      <c r="D113" s="64"/>
-      <c r="E113" s="64"/>
-      <c r="F113" s="64"/>
-      <c r="G113" s="65"/>
+      <c r="C113" s="96"/>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="73"/>
       <c r="H113" s="12" t="s">
         <v>49</v>
       </c>
@@ -6238,11 +6266,11 @@
       <c r="B114" s="27">
         <v>94</v>
       </c>
-      <c r="C114" s="85"/>
-      <c r="D114" s="64"/>
-      <c r="E114" s="64"/>
-      <c r="F114" s="64"/>
-      <c r="G114" s="65"/>
+      <c r="C114" s="96"/>
+      <c r="D114" s="72"/>
+      <c r="E114" s="72"/>
+      <c r="F114" s="72"/>
+      <c r="G114" s="73"/>
       <c r="H114" s="12" t="s">
         <v>49</v>
       </c>
@@ -6251,11 +6279,11 @@
       <c r="B115" s="9">
         <v>95</v>
       </c>
-      <c r="C115" s="85"/>
-      <c r="D115" s="64"/>
-      <c r="E115" s="64"/>
-      <c r="F115" s="64"/>
-      <c r="G115" s="65"/>
+      <c r="C115" s="96"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="72"/>
+      <c r="G115" s="73"/>
       <c r="H115" s="12" t="s">
         <v>49</v>
       </c>
@@ -6264,11 +6292,11 @@
       <c r="B116" s="27">
         <v>96</v>
       </c>
-      <c r="C116" s="85"/>
-      <c r="D116" s="64"/>
-      <c r="E116" s="64"/>
-      <c r="F116" s="64"/>
-      <c r="G116" s="65"/>
+      <c r="C116" s="96"/>
+      <c r="D116" s="72"/>
+      <c r="E116" s="72"/>
+      <c r="F116" s="72"/>
+      <c r="G116" s="73"/>
       <c r="H116" s="12" t="s">
         <v>49</v>
       </c>
@@ -6277,11 +6305,11 @@
       <c r="B117" s="9">
         <v>97</v>
       </c>
-      <c r="C117" s="85"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="64"/>
-      <c r="F117" s="64"/>
-      <c r="G117" s="65"/>
+      <c r="C117" s="96"/>
+      <c r="D117" s="72"/>
+      <c r="E117" s="72"/>
+      <c r="F117" s="72"/>
+      <c r="G117" s="73"/>
       <c r="H117" s="12" t="s">
         <v>49</v>
       </c>
@@ -6290,11 +6318,11 @@
       <c r="B118" s="27">
         <v>98</v>
       </c>
-      <c r="C118" s="85"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="64"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="65"/>
+      <c r="C118" s="96"/>
+      <c r="D118" s="72"/>
+      <c r="E118" s="72"/>
+      <c r="F118" s="72"/>
+      <c r="G118" s="73"/>
       <c r="H118" s="12" t="s">
         <v>49</v>
       </c>
@@ -6303,11 +6331,11 @@
       <c r="B119" s="9">
         <v>99</v>
       </c>
-      <c r="C119" s="85"/>
-      <c r="D119" s="64"/>
-      <c r="E119" s="64"/>
-      <c r="F119" s="64"/>
-      <c r="G119" s="65"/>
+      <c r="C119" s="96"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="72"/>
+      <c r="G119" s="73"/>
       <c r="H119" s="12" t="s">
         <v>49</v>
       </c>
@@ -6316,11 +6344,11 @@
       <c r="B120" s="27">
         <v>100</v>
       </c>
-      <c r="C120" s="85"/>
-      <c r="D120" s="64"/>
-      <c r="E120" s="64"/>
-      <c r="F120" s="64"/>
-      <c r="G120" s="65"/>
+      <c r="C120" s="96"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="73"/>
       <c r="H120" s="12" t="s">
         <v>49</v>
       </c>
@@ -7999,50 +8027,53 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
@@ -8067,53 +8098,50 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21:H120" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -8140,9 +8168,9 @@
   </sheetPr>
   <dimension ref="A1:U1001"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8163,85 +8191,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="2">
         <f>Requisitos!C11</f>
         <v>45170</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K65" si="0">K1+1</f>
         <v>45171</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45172</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45173</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45174</v>
@@ -8255,18 +8283,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45176</v>
@@ -8283,13 +8311,13 @@
       <c r="B9" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -8859,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="0"/>
@@ -8985,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="0"/>
@@ -9663,13 +9691,13 @@
       <c r="B63" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="65"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="73"/>
       <c r="K63" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -9679,11 +9707,11 @@
       <c r="B64" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="7" t="s">
         <v>67</v>
       </c>
@@ -9700,11 +9728,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B10,H$11:H$60)</f>
         <v>0</v>
@@ -9723,11 +9751,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -9746,11 +9774,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="65"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -9769,11 +9797,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>Maria Eduarda Amaral</v>
       </c>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -9792,11 +9820,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -9815,11 +9843,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="65"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="73"/>
       <c r="H70" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -10948,7 +10976,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10968,85 +10996,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="2">
         <f>Requisitos!C12</f>
         <v>45191</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45192</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45193</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45194</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45195</v>
@@ -11060,18 +11088,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45197</v>
@@ -11088,13 +11116,13 @@
       <c r="B9" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -11144,7 +11172,7 @@
       <c r="C11" s="10">
         <v>45204</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="11" t="s">
         <v>105</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -11163,7 +11191,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
@@ -11187,7 +11215,7 @@
       <c r="C12" s="10">
         <v>45204</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="11" t="s">
         <v>106</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -11219,16 +11247,16 @@
         <v>45204</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E13" s="11">
         <v>2</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H13" s="13">
         <v>0</v>
@@ -11250,7 +11278,7 @@
         <v>45204</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E14" s="11">
         <v>2</v>
@@ -11259,7 +11287,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H14" s="13">
         <v>0</v>
@@ -11281,7 +11309,7 @@
         <v>45204</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E15" s="11">
         <v>2</v>
@@ -11290,7 +11318,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H15" s="13">
         <v>0</v>
@@ -11309,7 +11337,7 @@
         <v>45204</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E16" s="11">
         <v>3</v>
@@ -11318,7 +11346,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H16" s="13">
         <v>0</v>
@@ -11337,16 +11365,16 @@
         <v>45204</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E17" s="11">
         <v>3</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H17" s="13">
         <v>0</v>
@@ -11365,16 +11393,16 @@
         <v>45204</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E18" s="11">
         <v>3</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H18" s="13">
         <v>0</v>
@@ -11393,7 +11421,7 @@
         <v>45204</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E19" s="11">
         <v>2</v>
@@ -11421,7 +11449,7 @@
         <v>45204</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E20" s="11">
         <v>2</v>
@@ -11449,7 +11477,7 @@
         <v>45204</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E21" s="11">
         <v>3</v>
@@ -11476,8 +11504,8 @@
       <c r="C22" s="10">
         <v>45204</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>116</v>
+      <c r="D22" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="E22" s="11">
         <v>3</v>
@@ -11505,7 +11533,7 @@
         <v>45204</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E23" s="11">
         <v>2</v>
@@ -11533,7 +11561,7 @@
         <v>45204</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24" s="12">
         <v>3</v>
@@ -11558,7 +11586,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="10">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>86</v>
@@ -11570,7 +11598,7 @@
         <v>13</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H25" s="13">
         <v>0</v>
@@ -11578,7 +11606,9 @@
       <c r="I25" s="13">
         <v>0</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11586,7 +11616,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="10">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>84</v>
@@ -11598,7 +11628,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H26" s="13">
         <v>0</v>
@@ -11606,7 +11636,9 @@
       <c r="I26" s="13">
         <v>0</v>
       </c>
-      <c r="J26" s="11"/>
+      <c r="J26" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11614,7 +11646,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="10">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>85</v>
@@ -11623,10 +11655,10 @@
         <v>83</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H27" s="13">
         <v>0</v>
@@ -11634,7 +11666,9 @@
       <c r="I27" s="13">
         <v>0</v>
       </c>
-      <c r="J27" s="11"/>
+      <c r="J27" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11663,7 +11697,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K28" s="2"/>
     </row>
@@ -11671,11 +11705,21 @@
       <c r="B29" s="9">
         <v>19</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="41"/>
+      <c r="C29" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="11">
+        <v>2</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>37</v>
+      </c>
       <c r="H29" s="13">
         <v>0</v>
       </c>
@@ -11688,11 +11732,21 @@
       <c r="B30" s="9">
         <v>20</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="41"/>
+      <c r="C30" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="11">
+        <v>13</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>37</v>
+      </c>
       <c r="H30" s="13">
         <v>0</v>
       </c>
@@ -11705,11 +11759,21 @@
       <c r="B31" s="9">
         <v>21</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="41"/>
+      <c r="C31" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>37</v>
+      </c>
       <c r="H31" s="13">
         <v>0</v>
       </c>
@@ -11722,11 +11786,21 @@
       <c r="B32" s="9">
         <v>22</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="41"/>
+      <c r="C32" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>37</v>
+      </c>
       <c r="H32" s="13">
         <v>0</v>
       </c>
@@ -11739,11 +11813,21 @@
       <c r="B33" s="9">
         <v>23</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="41"/>
+      <c r="C33" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>37</v>
+      </c>
       <c r="H33" s="13">
         <v>0</v>
       </c>
@@ -11756,11 +11840,21 @@
       <c r="B34" s="9">
         <v>24</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="41"/>
+      <c r="C34" s="10">
+        <v>45204</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>37</v>
+      </c>
       <c r="H34" s="13">
         <v>0</v>
       </c>
@@ -12383,13 +12477,13 @@
       <c r="C71" s="30"/>
       <c r="D71" s="30">
         <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E71" s="30"/>
       <c r="F71" s="30"/>
       <c r="G71" s="30">
         <f>COUNTIFS(G11:G60, "Concluído",D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J71" s="5"/>
     </row>
@@ -12397,23 +12491,23 @@
       <c r="B72" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="65"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="73"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="65"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="73"/>
       <c r="H73" s="7" t="s">
         <v>67</v>
       </c>
@@ -12426,11 +12520,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="65"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -12445,11 +12539,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="73"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -12464,11 +12558,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -12483,11 +12577,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="65"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -12502,11 +12596,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="65"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -13757,85 +13851,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="2">
         <f>Requisitos!C13</f>
         <v>45205</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45206</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45208</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45209</v>
@@ -13849,18 +13943,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45211</v>
@@ -13877,13 +13971,13 @@
       <c r="B9" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -15023,23 +15117,23 @@
       <c r="B72" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="65"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="73"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="65"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="73"/>
       <c r="H73" s="7" t="s">
         <v>67</v>
       </c>
@@ -15052,11 +15146,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="65"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -15071,11 +15165,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="73"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -15090,11 +15184,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -15109,11 +15203,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="65"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -15128,11 +15222,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="65"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -16156,6 +16250,12 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -16164,12 +16264,6 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="89" priority="1">
@@ -16356,85 +16450,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="2">
         <f>Requisitos!C14</f>
         <v>45226</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45227</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45229</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45230</v>
@@ -16448,18 +16542,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -16476,13 +16570,13 @@
       <c r="B9" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -17622,23 +17716,23 @@
       <c r="B72" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="65"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="73"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="65"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="73"/>
       <c r="H73" s="7" t="s">
         <v>67</v>
       </c>
@@ -17651,11 +17745,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="65"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -17670,11 +17764,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="73"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -17689,11 +17783,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -17708,11 +17802,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="65"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -17727,11 +17821,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="65"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -18755,6 +18849,12 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -18763,12 +18863,6 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="63" priority="1">
@@ -18954,85 +19048,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="2">
         <f>Requisitos!C15</f>
         <v>45247</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45248</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45249</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45250</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45251</v>
@@ -19045,18 +19139,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45253</v>
@@ -19072,13 +19166,13 @@
       <c r="B9" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="58" t="s">
         <v>55</v>
       </c>
@@ -20042,23 +20136,23 @@
       <c r="B63" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="65"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="73"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="7" t="s">
         <v>67</v>
       </c>
@@ -20071,11 +20165,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -20090,11 +20184,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -20109,11 +20203,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="65"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -20128,11 +20222,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -20147,11 +20241,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -21114,6 +21208,12 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="B9:I9"/>
@@ -21122,12 +21222,6 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F13 F17">
     <cfRule type="containsBlanks" dxfId="37" priority="1">

--- a/Artefatos/sprints/Planejamento_sprints.xlsx
+++ b/Artefatos/sprints/Planejamento_sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\repositories\plf-es-2023-2-ti3-6653100-fabrica-do-saber\Artefatos\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96081C18-A71B-4F02-899A-03A9B9AD35A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9922CF-AF07-47FB-B047-AEEEB2406E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1320,35 +1320,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1358,19 +1339,56 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1387,15 +1405,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1404,15 +1413,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3239,166 +3239,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="76" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="76" t="s">
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="78"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="76" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="76" t="s">
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="76" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="78"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="76" t="s">
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="18"/>
@@ -3500,16 +3500,16 @@
     <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="50"/>
-      <c r="B100" s="80"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="81" t="s">
+      <c r="B100" s="70"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="65"/>
-      <c r="F100" s="81" t="s">
+      <c r="E100" s="62"/>
+      <c r="F100" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="65"/>
+      <c r="G100" s="62"/>
       <c r="H100" s="51" t="s">
         <v>18</v>
       </c>
@@ -3531,12 +3531,12 @@
     </row>
     <row r="101" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
-      <c r="B101" s="83"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="82" t="s">
+      <c r="B101" s="61"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="65"/>
+      <c r="E101" s="62"/>
       <c r="F101" s="53" t="s">
         <v>24</v>
       </c>
@@ -3569,12 +3569,12 @@
     </row>
     <row r="102" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="50"/>
-      <c r="B102" s="83"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="82" t="s">
+      <c r="B102" s="61"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="65"/>
+      <c r="E102" s="62"/>
       <c r="F102" s="53" t="s">
         <v>29</v>
       </c>
@@ -3608,12 +3608,12 @@
     </row>
     <row r="103" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="50"/>
-      <c r="B103" s="83"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="82" t="s">
+      <c r="B103" s="61"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="65"/>
+      <c r="E103" s="62"/>
       <c r="F103" s="53"/>
       <c r="G103" s="54" t="s">
         <v>34</v>
@@ -3645,12 +3645,12 @@
     </row>
     <row r="104" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="50"/>
-      <c r="B104" s="83"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="82" t="s">
+      <c r="B104" s="61"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="65"/>
+      <c r="E104" s="62"/>
       <c r="F104" s="53"/>
       <c r="G104" s="54" t="s">
         <v>36</v>
@@ -3680,12 +3680,12 @@
     </row>
     <row r="105" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="50"/>
-      <c r="B105" s="83"/>
-      <c r="C105" s="65"/>
-      <c r="D105" s="82" t="s">
+      <c r="B105" s="61"/>
+      <c r="C105" s="62"/>
+      <c r="D105" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="65"/>
+      <c r="E105" s="62"/>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="s">
         <v>39</v>
@@ -3710,8 +3710,8 @@
     </row>
     <row r="106" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="50"/>
-      <c r="B106" s="83"/>
-      <c r="C106" s="65"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="62"/>
       <c r="F106" s="53"/>
       <c r="G106" s="54"/>
       <c r="H106" s="53"/>
@@ -3722,8 +3722,8 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="50"/>
-      <c r="B107" s="83"/>
-      <c r="C107" s="65"/>
+      <c r="B107" s="61"/>
+      <c r="C107" s="62"/>
       <c r="D107" s="55"/>
       <c r="E107" s="53"/>
       <c r="F107" s="53"/>
@@ -4691,12 +4691,24 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="D100:E100"/>
@@ -4708,24 +4720,12 @@
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D105:E105"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="F10:F15" xr:uid="{49EDF03A-7EFB-435C-A992-40D98DE85B41}">
@@ -4768,59 +4768,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -4832,16 +4832,16 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="93" t="str">
+      <c r="B7" s="96" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -4853,15 +4853,15 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
@@ -4873,11 +4873,11 @@
       <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
@@ -4892,9 +4892,9 @@
       <c r="D11" s="14">
         <v>45190</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="73"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4908,9 +4908,9 @@
         <f t="shared" ref="D12" si="0">C12+13</f>
         <v>45204</v>
       </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4924,9 +4924,9 @@
       <c r="D13" s="14">
         <v>45225</v>
       </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="73"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4939,9 +4939,9 @@
       <c r="D14" s="14">
         <v>45246</v>
       </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4980,13 +4980,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="22" t="s">
         <v>47</v>
       </c>
@@ -4995,11 +4995,11 @@
       <c r="B19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="88"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
@@ -5009,11 +5009,11 @@
       <c r="B20" s="27">
         <v>0</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="28"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -5030,13 +5030,13 @@
       <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="92"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="12" t="s">
         <v>52</v>
       </c>
@@ -5046,13 +5046,13 @@
       <c r="B22" s="27">
         <v>2</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="92"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="90"/>
       <c r="H22" s="12" t="s">
         <v>49</v>
       </c>
@@ -5061,13 +5061,13 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="92"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="90"/>
       <c r="H23" s="12" t="s">
         <v>49</v>
       </c>
@@ -5076,13 +5076,13 @@
       <c r="B24" s="27">
         <v>4</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="98"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="87"/>
       <c r="H24" s="12" t="s">
         <v>49</v>
       </c>
@@ -5091,13 +5091,13 @@
       <c r="B25" s="9">
         <v>5</v>
       </c>
-      <c r="C25" s="96" t="s">
+      <c r="C25" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="98"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="87"/>
       <c r="H25" s="12" t="s">
         <v>49</v>
       </c>
@@ -5106,13 +5106,13 @@
       <c r="B26" s="27">
         <v>6</v>
       </c>
-      <c r="C26" s="96" t="s">
+      <c r="C26" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="98"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="87"/>
       <c r="H26" s="12" t="s">
         <v>49</v>
       </c>
@@ -5121,13 +5121,13 @@
       <c r="B27" s="9">
         <v>7</v>
       </c>
-      <c r="C27" s="96" t="s">
+      <c r="C27" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="98"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="87"/>
       <c r="H27" s="12" t="s">
         <v>49</v>
       </c>
@@ -5136,13 +5136,13 @@
       <c r="B28" s="27">
         <v>8</v>
       </c>
-      <c r="C28" s="96" t="s">
+      <c r="C28" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="98"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="87"/>
       <c r="H28" s="12" t="s">
         <v>49</v>
       </c>
@@ -5151,13 +5151,13 @@
       <c r="B29" s="9">
         <v>9</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="98"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="87"/>
       <c r="H29" s="12" t="s">
         <v>49</v>
       </c>
@@ -5166,13 +5166,13 @@
       <c r="B30" s="27">
         <v>10</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="98"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="87"/>
       <c r="H30" s="12" t="s">
         <v>49</v>
       </c>
@@ -5181,13 +5181,13 @@
       <c r="B31" s="9">
         <v>11</v>
       </c>
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="98"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="87"/>
       <c r="H31" s="12" t="s">
         <v>49</v>
       </c>
@@ -5196,13 +5196,13 @@
       <c r="B32" s="27">
         <v>12</v>
       </c>
-      <c r="C32" s="96" t="s">
+      <c r="C32" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="98"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="87"/>
       <c r="H32" s="12" t="s">
         <v>52</v>
       </c>
@@ -5211,13 +5211,13 @@
       <c r="B33" s="9">
         <v>13</v>
       </c>
-      <c r="C33" s="90" t="s">
+      <c r="C33" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="92"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="90"/>
       <c r="H33" s="12" t="s">
         <v>52</v>
       </c>
@@ -5226,11 +5226,11 @@
       <c r="B34" s="27">
         <v>14</v>
       </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="87"/>
       <c r="H34" s="12" t="s">
         <v>49</v>
       </c>
@@ -5239,11 +5239,11 @@
       <c r="B35" s="9">
         <v>15</v>
       </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="98"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="87"/>
       <c r="H35" s="12" t="s">
         <v>49</v>
       </c>
@@ -5252,11 +5252,11 @@
       <c r="B36" s="27">
         <v>16</v>
       </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="73"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="65"/>
       <c r="H36" s="12" t="s">
         <v>49</v>
       </c>
@@ -5265,11 +5265,11 @@
       <c r="B37" s="9">
         <v>17</v>
       </c>
-      <c r="C37" s="96"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="73"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="12" t="s">
         <v>49</v>
       </c>
@@ -5278,11 +5278,11 @@
       <c r="B38" s="27">
         <v>18</v>
       </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="73"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="12" t="s">
         <v>49</v>
       </c>
@@ -5291,11 +5291,11 @@
       <c r="B39" s="9">
         <v>19</v>
       </c>
-      <c r="C39" s="96"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="73"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="65"/>
       <c r="H39" s="12" t="s">
         <v>49</v>
       </c>
@@ -5304,11 +5304,11 @@
       <c r="B40" s="27">
         <v>20</v>
       </c>
-      <c r="C40" s="96"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="73"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="65"/>
       <c r="H40" s="12" t="s">
         <v>49</v>
       </c>
@@ -5317,11 +5317,11 @@
       <c r="B41" s="9">
         <v>21</v>
       </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="73"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="65"/>
       <c r="H41" s="12" t="s">
         <v>49</v>
       </c>
@@ -5330,11 +5330,11 @@
       <c r="B42" s="27">
         <v>22</v>
       </c>
-      <c r="C42" s="96"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="73"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="65"/>
       <c r="H42" s="12" t="s">
         <v>49</v>
       </c>
@@ -5343,11 +5343,11 @@
       <c r="B43" s="9">
         <v>23</v>
       </c>
-      <c r="C43" s="96"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="73"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="65"/>
       <c r="H43" s="12" t="s">
         <v>49</v>
       </c>
@@ -5356,11 +5356,11 @@
       <c r="B44" s="27">
         <v>24</v>
       </c>
-      <c r="C44" s="96"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="73"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="65"/>
       <c r="H44" s="12" t="s">
         <v>49</v>
       </c>
@@ -5369,11 +5369,11 @@
       <c r="B45" s="9">
         <v>25</v>
       </c>
-      <c r="C45" s="96"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="73"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="65"/>
       <c r="H45" s="12" t="s">
         <v>49</v>
       </c>
@@ -5382,11 +5382,11 @@
       <c r="B46" s="27">
         <v>26</v>
       </c>
-      <c r="C46" s="96"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="73"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="65"/>
       <c r="H46" s="12" t="s">
         <v>49</v>
       </c>
@@ -5395,11 +5395,11 @@
       <c r="B47" s="9">
         <v>27</v>
       </c>
-      <c r="C47" s="96"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="73"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="65"/>
       <c r="H47" s="12" t="s">
         <v>49</v>
       </c>
@@ -5408,11 +5408,11 @@
       <c r="B48" s="27">
         <v>28</v>
       </c>
-      <c r="C48" s="96"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="73"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="65"/>
       <c r="H48" s="12" t="s">
         <v>49</v>
       </c>
@@ -5421,11 +5421,11 @@
       <c r="B49" s="9">
         <v>29</v>
       </c>
-      <c r="C49" s="96"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="73"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="65"/>
       <c r="H49" s="12" t="s">
         <v>49</v>
       </c>
@@ -5434,11 +5434,11 @@
       <c r="B50" s="27">
         <v>30</v>
       </c>
-      <c r="C50" s="96"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="73"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="65"/>
       <c r="H50" s="12" t="s">
         <v>49</v>
       </c>
@@ -5447,11 +5447,11 @@
       <c r="B51" s="9">
         <v>31</v>
       </c>
-      <c r="C51" s="96"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="73"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="65"/>
       <c r="H51" s="12" t="s">
         <v>49</v>
       </c>
@@ -5460,11 +5460,11 @@
       <c r="B52" s="27">
         <v>32</v>
       </c>
-      <c r="C52" s="96"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="73"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="65"/>
       <c r="H52" s="12" t="s">
         <v>49</v>
       </c>
@@ -5473,11 +5473,11 @@
       <c r="B53" s="9">
         <v>33</v>
       </c>
-      <c r="C53" s="96"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="73"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="65"/>
       <c r="H53" s="12" t="s">
         <v>49</v>
       </c>
@@ -5486,11 +5486,11 @@
       <c r="B54" s="27">
         <v>34</v>
       </c>
-      <c r="C54" s="96"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="73"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="65"/>
       <c r="H54" s="12" t="s">
         <v>49</v>
       </c>
@@ -5499,11 +5499,11 @@
       <c r="B55" s="9">
         <v>35</v>
       </c>
-      <c r="C55" s="96"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="73"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="65"/>
       <c r="H55" s="12" t="s">
         <v>49</v>
       </c>
@@ -5512,11 +5512,11 @@
       <c r="B56" s="27">
         <v>36</v>
       </c>
-      <c r="C56" s="96"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="73"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="65"/>
       <c r="H56" s="12" t="s">
         <v>49</v>
       </c>
@@ -5525,11 +5525,11 @@
       <c r="B57" s="9">
         <v>37</v>
       </c>
-      <c r="C57" s="96"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="73"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="65"/>
       <c r="H57" s="12" t="s">
         <v>49</v>
       </c>
@@ -5538,11 +5538,11 @@
       <c r="B58" s="27">
         <v>38</v>
       </c>
-      <c r="C58" s="96"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="73"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="65"/>
       <c r="H58" s="12" t="s">
         <v>49</v>
       </c>
@@ -5551,11 +5551,11 @@
       <c r="B59" s="9">
         <v>39</v>
       </c>
-      <c r="C59" s="96"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="73"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="65"/>
       <c r="H59" s="12" t="s">
         <v>49</v>
       </c>
@@ -5564,11 +5564,11 @@
       <c r="B60" s="27">
         <v>40</v>
       </c>
-      <c r="C60" s="96"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="73"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="65"/>
       <c r="H60" s="12" t="s">
         <v>49</v>
       </c>
@@ -5577,11 +5577,11 @@
       <c r="B61" s="9">
         <v>41</v>
       </c>
-      <c r="C61" s="96"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="73"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="65"/>
       <c r="H61" s="12" t="s">
         <v>49</v>
       </c>
@@ -5590,11 +5590,11 @@
       <c r="B62" s="27">
         <v>42</v>
       </c>
-      <c r="C62" s="96"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="73"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="65"/>
       <c r="H62" s="12" t="s">
         <v>49</v>
       </c>
@@ -5603,11 +5603,11 @@
       <c r="B63" s="9">
         <v>43</v>
       </c>
-      <c r="C63" s="96"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="73"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="65"/>
       <c r="H63" s="12" t="s">
         <v>49</v>
       </c>
@@ -5616,11 +5616,11 @@
       <c r="B64" s="27">
         <v>44</v>
       </c>
-      <c r="C64" s="96"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="73"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="65"/>
       <c r="H64" s="12" t="s">
         <v>49</v>
       </c>
@@ -5629,11 +5629,11 @@
       <c r="B65" s="9">
         <v>45</v>
       </c>
-      <c r="C65" s="96"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="73"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="65"/>
       <c r="H65" s="12" t="s">
         <v>49</v>
       </c>
@@ -5642,11 +5642,11 @@
       <c r="B66" s="27">
         <v>46</v>
       </c>
-      <c r="C66" s="96"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="73"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="65"/>
       <c r="H66" s="12" t="s">
         <v>49</v>
       </c>
@@ -5655,11 +5655,11 @@
       <c r="B67" s="9">
         <v>47</v>
       </c>
-      <c r="C67" s="96"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="73"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="65"/>
       <c r="H67" s="12" t="s">
         <v>49</v>
       </c>
@@ -5668,11 +5668,11 @@
       <c r="B68" s="27">
         <v>48</v>
       </c>
-      <c r="C68" s="96"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="73"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="65"/>
       <c r="H68" s="12" t="s">
         <v>49</v>
       </c>
@@ -5681,11 +5681,11 @@
       <c r="B69" s="9">
         <v>49</v>
       </c>
-      <c r="C69" s="96"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="73"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="65"/>
       <c r="H69" s="12" t="s">
         <v>49</v>
       </c>
@@ -5694,11 +5694,11 @@
       <c r="B70" s="27">
         <v>50</v>
       </c>
-      <c r="C70" s="96"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="73"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="65"/>
       <c r="H70" s="12" t="s">
         <v>49</v>
       </c>
@@ -5707,11 +5707,11 @@
       <c r="B71" s="9">
         <v>51</v>
       </c>
-      <c r="C71" s="96"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="73"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="65"/>
       <c r="H71" s="12" t="s">
         <v>49</v>
       </c>
@@ -5720,11 +5720,11 @@
       <c r="B72" s="27">
         <v>52</v>
       </c>
-      <c r="C72" s="96"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="73"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="65"/>
       <c r="H72" s="12" t="s">
         <v>49</v>
       </c>
@@ -5733,11 +5733,11 @@
       <c r="B73" s="9">
         <v>53</v>
       </c>
-      <c r="C73" s="96"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="73"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="65"/>
       <c r="H73" s="12" t="s">
         <v>49</v>
       </c>
@@ -5746,11 +5746,11 @@
       <c r="B74" s="27">
         <v>54</v>
       </c>
-      <c r="C74" s="96"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="73"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="65"/>
       <c r="H74" s="12" t="s">
         <v>49</v>
       </c>
@@ -5759,11 +5759,11 @@
       <c r="B75" s="9">
         <v>55</v>
       </c>
-      <c r="C75" s="96"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="73"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="65"/>
       <c r="H75" s="12" t="s">
         <v>49</v>
       </c>
@@ -5772,11 +5772,11 @@
       <c r="B76" s="27">
         <v>56</v>
       </c>
-      <c r="C76" s="96"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="73"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="65"/>
       <c r="H76" s="12" t="s">
         <v>49</v>
       </c>
@@ -5785,11 +5785,11 @@
       <c r="B77" s="9">
         <v>57</v>
       </c>
-      <c r="C77" s="96"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="73"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="65"/>
       <c r="H77" s="12" t="s">
         <v>49</v>
       </c>
@@ -5798,11 +5798,11 @@
       <c r="B78" s="27">
         <v>58</v>
       </c>
-      <c r="C78" s="96"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="73"/>
+      <c r="C78" s="85"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="65"/>
       <c r="H78" s="12" t="s">
         <v>49</v>
       </c>
@@ -5811,11 +5811,11 @@
       <c r="B79" s="9">
         <v>59</v>
       </c>
-      <c r="C79" s="96"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="73"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="65"/>
       <c r="H79" s="12" t="s">
         <v>49</v>
       </c>
@@ -5824,11 +5824,11 @@
       <c r="B80" s="27">
         <v>60</v>
       </c>
-      <c r="C80" s="96"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="73"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="65"/>
       <c r="H80" s="12" t="s">
         <v>49</v>
       </c>
@@ -5837,11 +5837,11 @@
       <c r="B81" s="9">
         <v>61</v>
       </c>
-      <c r="C81" s="96"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="73"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="65"/>
       <c r="H81" s="12" t="s">
         <v>49</v>
       </c>
@@ -5850,11 +5850,11 @@
       <c r="B82" s="27">
         <v>62</v>
       </c>
-      <c r="C82" s="96"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="73"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="65"/>
       <c r="H82" s="12" t="s">
         <v>49</v>
       </c>
@@ -5863,11 +5863,11 @@
       <c r="B83" s="9">
         <v>63</v>
       </c>
-      <c r="C83" s="96"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="73"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="65"/>
       <c r="H83" s="12" t="s">
         <v>49</v>
       </c>
@@ -5876,11 +5876,11 @@
       <c r="B84" s="27">
         <v>64</v>
       </c>
-      <c r="C84" s="96"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="73"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="65"/>
       <c r="H84" s="12" t="s">
         <v>49</v>
       </c>
@@ -5889,11 +5889,11 @@
       <c r="B85" s="9">
         <v>65</v>
       </c>
-      <c r="C85" s="96"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="72"/>
-      <c r="G85" s="73"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="65"/>
       <c r="H85" s="12" t="s">
         <v>49</v>
       </c>
@@ -5902,11 +5902,11 @@
       <c r="B86" s="27">
         <v>66</v>
       </c>
-      <c r="C86" s="96"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="72"/>
-      <c r="F86" s="72"/>
-      <c r="G86" s="73"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="65"/>
       <c r="H86" s="12" t="s">
         <v>49</v>
       </c>
@@ -5915,11 +5915,11 @@
       <c r="B87" s="9">
         <v>67</v>
       </c>
-      <c r="C87" s="96"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="73"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="65"/>
       <c r="H87" s="12" t="s">
         <v>49</v>
       </c>
@@ -5928,11 +5928,11 @@
       <c r="B88" s="27">
         <v>68</v>
       </c>
-      <c r="C88" s="96"/>
-      <c r="D88" s="72"/>
-      <c r="E88" s="72"/>
-      <c r="F88" s="72"/>
-      <c r="G88" s="73"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="65"/>
       <c r="H88" s="12" t="s">
         <v>49</v>
       </c>
@@ -5941,11 +5941,11 @@
       <c r="B89" s="9">
         <v>69</v>
       </c>
-      <c r="C89" s="96"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="73"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="65"/>
       <c r="H89" s="12" t="s">
         <v>49</v>
       </c>
@@ -5954,11 +5954,11 @@
       <c r="B90" s="27">
         <v>70</v>
       </c>
-      <c r="C90" s="96"/>
-      <c r="D90" s="72"/>
-      <c r="E90" s="72"/>
-      <c r="F90" s="72"/>
-      <c r="G90" s="73"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="65"/>
       <c r="H90" s="12" t="s">
         <v>49</v>
       </c>
@@ -5967,11 +5967,11 @@
       <c r="B91" s="9">
         <v>71</v>
       </c>
-      <c r="C91" s="96"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="73"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="65"/>
       <c r="H91" s="12" t="s">
         <v>49</v>
       </c>
@@ -5980,11 +5980,11 @@
       <c r="B92" s="27">
         <v>72</v>
       </c>
-      <c r="C92" s="96"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="73"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="65"/>
       <c r="H92" s="12" t="s">
         <v>49</v>
       </c>
@@ -5993,11 +5993,11 @@
       <c r="B93" s="9">
         <v>73</v>
       </c>
-      <c r="C93" s="96"/>
-      <c r="D93" s="72"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="73"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="64"/>
+      <c r="E93" s="64"/>
+      <c r="F93" s="64"/>
+      <c r="G93" s="65"/>
       <c r="H93" s="12" t="s">
         <v>49</v>
       </c>
@@ -6006,11 +6006,11 @@
       <c r="B94" s="27">
         <v>74</v>
       </c>
-      <c r="C94" s="96"/>
-      <c r="D94" s="72"/>
-      <c r="E94" s="72"/>
-      <c r="F94" s="72"/>
-      <c r="G94" s="73"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="65"/>
       <c r="H94" s="12" t="s">
         <v>49</v>
       </c>
@@ -6019,11 +6019,11 @@
       <c r="B95" s="9">
         <v>75</v>
       </c>
-      <c r="C95" s="96"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="73"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="65"/>
       <c r="H95" s="12" t="s">
         <v>49</v>
       </c>
@@ -6032,11 +6032,11 @@
       <c r="B96" s="27">
         <v>76</v>
       </c>
-      <c r="C96" s="96"/>
-      <c r="D96" s="72"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="73"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="65"/>
       <c r="H96" s="12" t="s">
         <v>49</v>
       </c>
@@ -6045,11 +6045,11 @@
       <c r="B97" s="9">
         <v>77</v>
       </c>
-      <c r="C97" s="96"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="73"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="65"/>
       <c r="H97" s="12" t="s">
         <v>49</v>
       </c>
@@ -6058,11 +6058,11 @@
       <c r="B98" s="27">
         <v>78</v>
       </c>
-      <c r="C98" s="96"/>
-      <c r="D98" s="72"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="73"/>
+      <c r="C98" s="85"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="64"/>
+      <c r="G98" s="65"/>
       <c r="H98" s="12" t="s">
         <v>49</v>
       </c>
@@ -6071,11 +6071,11 @@
       <c r="B99" s="9">
         <v>79</v>
       </c>
-      <c r="C99" s="96"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="72"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="73"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="64"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="65"/>
       <c r="H99" s="12" t="s">
         <v>49</v>
       </c>
@@ -6084,11 +6084,11 @@
       <c r="B100" s="27">
         <v>80</v>
       </c>
-      <c r="C100" s="96"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="72"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="73"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="65"/>
       <c r="H100" s="12" t="s">
         <v>49</v>
       </c>
@@ -6097,11 +6097,11 @@
       <c r="B101" s="9">
         <v>81</v>
       </c>
-      <c r="C101" s="96"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="73"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="64"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="65"/>
       <c r="H101" s="12" t="s">
         <v>49</v>
       </c>
@@ -6110,11 +6110,11 @@
       <c r="B102" s="27">
         <v>82</v>
       </c>
-      <c r="C102" s="96"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="73"/>
+      <c r="C102" s="85"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="65"/>
       <c r="H102" s="12" t="s">
         <v>49</v>
       </c>
@@ -6123,11 +6123,11 @@
       <c r="B103" s="9">
         <v>83</v>
       </c>
-      <c r="C103" s="96"/>
-      <c r="D103" s="72"/>
-      <c r="E103" s="72"/>
-      <c r="F103" s="72"/>
-      <c r="G103" s="73"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="65"/>
       <c r="H103" s="12" t="s">
         <v>49</v>
       </c>
@@ -6136,11 +6136,11 @@
       <c r="B104" s="27">
         <v>84</v>
       </c>
-      <c r="C104" s="96"/>
-      <c r="D104" s="72"/>
-      <c r="E104" s="72"/>
-      <c r="F104" s="72"/>
-      <c r="G104" s="73"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="64"/>
+      <c r="G104" s="65"/>
       <c r="H104" s="12" t="s">
         <v>49</v>
       </c>
@@ -6149,11 +6149,11 @@
       <c r="B105" s="9">
         <v>85</v>
       </c>
-      <c r="C105" s="96"/>
-      <c r="D105" s="72"/>
-      <c r="E105" s="72"/>
-      <c r="F105" s="72"/>
-      <c r="G105" s="73"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="65"/>
       <c r="H105" s="12" t="s">
         <v>49</v>
       </c>
@@ -6162,11 +6162,11 @@
       <c r="B106" s="27">
         <v>86</v>
       </c>
-      <c r="C106" s="96"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="73"/>
+      <c r="C106" s="85"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="65"/>
       <c r="H106" s="12" t="s">
         <v>49</v>
       </c>
@@ -6175,11 +6175,11 @@
       <c r="B107" s="9">
         <v>87</v>
       </c>
-      <c r="C107" s="96"/>
-      <c r="D107" s="72"/>
-      <c r="E107" s="72"/>
-      <c r="F107" s="72"/>
-      <c r="G107" s="73"/>
+      <c r="C107" s="85"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="64"/>
+      <c r="F107" s="64"/>
+      <c r="G107" s="65"/>
       <c r="H107" s="12" t="s">
         <v>49</v>
       </c>
@@ -6188,11 +6188,11 @@
       <c r="B108" s="27">
         <v>88</v>
       </c>
-      <c r="C108" s="96"/>
-      <c r="D108" s="72"/>
-      <c r="E108" s="72"/>
-      <c r="F108" s="72"/>
-      <c r="G108" s="73"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="65"/>
       <c r="H108" s="12" t="s">
         <v>49</v>
       </c>
@@ -6201,11 +6201,11 @@
       <c r="B109" s="9">
         <v>89</v>
       </c>
-      <c r="C109" s="96"/>
-      <c r="D109" s="72"/>
-      <c r="E109" s="72"/>
-      <c r="F109" s="72"/>
-      <c r="G109" s="73"/>
+      <c r="C109" s="85"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="64"/>
+      <c r="F109" s="64"/>
+      <c r="G109" s="65"/>
       <c r="H109" s="12" t="s">
         <v>49</v>
       </c>
@@ -6214,11 +6214,11 @@
       <c r="B110" s="27">
         <v>90</v>
       </c>
-      <c r="C110" s="96"/>
-      <c r="D110" s="72"/>
-      <c r="E110" s="72"/>
-      <c r="F110" s="72"/>
-      <c r="G110" s="73"/>
+      <c r="C110" s="85"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="64"/>
+      <c r="G110" s="65"/>
       <c r="H110" s="12" t="s">
         <v>49</v>
       </c>
@@ -6227,11 +6227,11 @@
       <c r="B111" s="9">
         <v>91</v>
       </c>
-      <c r="C111" s="96"/>
-      <c r="D111" s="72"/>
-      <c r="E111" s="72"/>
-      <c r="F111" s="72"/>
-      <c r="G111" s="73"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="64"/>
+      <c r="F111" s="64"/>
+      <c r="G111" s="65"/>
       <c r="H111" s="12" t="s">
         <v>49</v>
       </c>
@@ -6240,11 +6240,11 @@
       <c r="B112" s="27">
         <v>92</v>
       </c>
-      <c r="C112" s="96"/>
-      <c r="D112" s="72"/>
-      <c r="E112" s="72"/>
-      <c r="F112" s="72"/>
-      <c r="G112" s="73"/>
+      <c r="C112" s="85"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="64"/>
+      <c r="G112" s="65"/>
       <c r="H112" s="12" t="s">
         <v>49</v>
       </c>
@@ -6253,11 +6253,11 @@
       <c r="B113" s="9">
         <v>93</v>
       </c>
-      <c r="C113" s="96"/>
-      <c r="D113" s="72"/>
-      <c r="E113" s="72"/>
-      <c r="F113" s="72"/>
-      <c r="G113" s="73"/>
+      <c r="C113" s="85"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="64"/>
+      <c r="F113" s="64"/>
+      <c r="G113" s="65"/>
       <c r="H113" s="12" t="s">
         <v>49</v>
       </c>
@@ -6266,11 +6266,11 @@
       <c r="B114" s="27">
         <v>94</v>
       </c>
-      <c r="C114" s="96"/>
-      <c r="D114" s="72"/>
-      <c r="E114" s="72"/>
-      <c r="F114" s="72"/>
-      <c r="G114" s="73"/>
+      <c r="C114" s="85"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="64"/>
+      <c r="G114" s="65"/>
       <c r="H114" s="12" t="s">
         <v>49</v>
       </c>
@@ -6279,11 +6279,11 @@
       <c r="B115" s="9">
         <v>95</v>
       </c>
-      <c r="C115" s="96"/>
-      <c r="D115" s="72"/>
-      <c r="E115" s="72"/>
-      <c r="F115" s="72"/>
-      <c r="G115" s="73"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="64"/>
+      <c r="F115" s="64"/>
+      <c r="G115" s="65"/>
       <c r="H115" s="12" t="s">
         <v>49</v>
       </c>
@@ -6292,11 +6292,11 @@
       <c r="B116" s="27">
         <v>96</v>
       </c>
-      <c r="C116" s="96"/>
-      <c r="D116" s="72"/>
-      <c r="E116" s="72"/>
-      <c r="F116" s="72"/>
-      <c r="G116" s="73"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="64"/>
+      <c r="F116" s="64"/>
+      <c r="G116" s="65"/>
       <c r="H116" s="12" t="s">
         <v>49</v>
       </c>
@@ -6305,11 +6305,11 @@
       <c r="B117" s="9">
         <v>97</v>
       </c>
-      <c r="C117" s="96"/>
-      <c r="D117" s="72"/>
-      <c r="E117" s="72"/>
-      <c r="F117" s="72"/>
-      <c r="G117" s="73"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="64"/>
+      <c r="F117" s="64"/>
+      <c r="G117" s="65"/>
       <c r="H117" s="12" t="s">
         <v>49</v>
       </c>
@@ -6318,11 +6318,11 @@
       <c r="B118" s="27">
         <v>98</v>
       </c>
-      <c r="C118" s="96"/>
-      <c r="D118" s="72"/>
-      <c r="E118" s="72"/>
-      <c r="F118" s="72"/>
-      <c r="G118" s="73"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="65"/>
       <c r="H118" s="12" t="s">
         <v>49</v>
       </c>
@@ -6331,11 +6331,11 @@
       <c r="B119" s="9">
         <v>99</v>
       </c>
-      <c r="C119" s="96"/>
-      <c r="D119" s="72"/>
-      <c r="E119" s="72"/>
-      <c r="F119" s="72"/>
-      <c r="G119" s="73"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="64"/>
+      <c r="F119" s="64"/>
+      <c r="G119" s="65"/>
       <c r="H119" s="12" t="s">
         <v>49</v>
       </c>
@@ -6344,11 +6344,11 @@
       <c r="B120" s="27">
         <v>100</v>
       </c>
-      <c r="C120" s="96"/>
-      <c r="D120" s="72"/>
-      <c r="E120" s="72"/>
-      <c r="F120" s="72"/>
-      <c r="G120" s="73"/>
+      <c r="C120" s="85"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="64"/>
+      <c r="G120" s="65"/>
       <c r="H120" s="12" t="s">
         <v>49</v>
       </c>
@@ -8027,53 +8027,50 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
@@ -8098,50 +8095,53 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C95:G95"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21:H120" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -8191,85 +8191,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="2">
         <f>Requisitos!C11</f>
         <v>45170</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K65" si="0">K1+1</f>
         <v>45171</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45172</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45173</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45174</v>
@@ -8283,18 +8283,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="75" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45176</v>
@@ -8311,13 +8311,13 @@
       <c r="B9" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -9691,13 +9691,13 @@
       <c r="B63" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="73"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="65"/>
       <c r="K63" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -9707,11 +9707,11 @@
       <c r="B64" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="73"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="65"/>
       <c r="H64" s="7" t="s">
         <v>67</v>
       </c>
@@ -9728,11 +9728,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="73"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="65"/>
       <c r="H65" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B10,H$11:H$60)</f>
         <v>0</v>
@@ -9751,11 +9751,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="73"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="65"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -9774,11 +9774,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="73"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="65"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -9797,11 +9797,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>Maria Eduarda Amaral</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="73"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="65"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -9820,11 +9820,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="73"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="65"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -9843,11 +9843,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C70" s="72"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="73"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="65"/>
       <c r="H70" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -10975,8 +10975,8 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10996,85 +10996,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="2">
         <f>Requisitos!C12</f>
         <v>45191</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45192</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45193</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45194</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45195</v>
@@ -11088,18 +11088,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="75" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45197</v>
@@ -11116,13 +11116,13 @@
       <c r="B9" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -11539,10 +11539,10 @@
         <v>2</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H23" s="13">
         <v>0</v>
@@ -11567,10 +11567,10 @@
         <v>3</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H24" s="13">
         <v>0</v>
@@ -12483,7 +12483,7 @@
       <c r="F71" s="30"/>
       <c r="G71" s="30">
         <f>COUNTIFS(G11:G60, "Concluído",D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J71" s="5"/>
     </row>
@@ -12491,23 +12491,23 @@
       <c r="B72" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="73"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="65"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="73"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="65"/>
       <c r="H73" s="7" t="s">
         <v>67</v>
       </c>
@@ -12520,11 +12520,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="73"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="65"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -12539,11 +12539,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="73"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="65"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -12558,11 +12558,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="72"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="73"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="65"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -12577,11 +12577,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="73"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="65"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -12596,11 +12596,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="73"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="65"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -13851,85 +13851,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="2">
         <f>Requisitos!C13</f>
         <v>45205</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45206</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45208</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45209</v>
@@ -13943,18 +13943,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="75" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45211</v>
@@ -13971,13 +13971,13 @@
       <c r="B9" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -15117,23 +15117,23 @@
       <c r="B72" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="73"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="65"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="73"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="65"/>
       <c r="H73" s="7" t="s">
         <v>67</v>
       </c>
@@ -15146,11 +15146,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="73"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="65"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -15165,11 +15165,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="73"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="65"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -15184,11 +15184,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="72"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="73"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="65"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -15203,11 +15203,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="73"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="65"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -15222,11 +15222,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="73"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="65"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -16250,12 +16250,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -16264,6 +16258,12 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="89" priority="1">
@@ -16450,85 +16450,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="2">
         <f>Requisitos!C14</f>
         <v>45226</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45227</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45229</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45230</v>
@@ -16542,18 +16542,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="75" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -16570,13 +16570,13 @@
       <c r="B9" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -17716,23 +17716,23 @@
       <c r="B72" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="73"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="65"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="73"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="65"/>
       <c r="H73" s="7" t="s">
         <v>67</v>
       </c>
@@ -17745,11 +17745,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="73"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="65"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -17764,11 +17764,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="73"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="65"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -17783,11 +17783,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="72"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="73"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="65"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -17802,11 +17802,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="73"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="65"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -17821,11 +17821,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="73"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="65"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -18849,12 +18849,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -18863,6 +18857,12 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="63" priority="1">
@@ -19048,85 +19048,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="2">
         <f>Requisitos!C15</f>
         <v>45247</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45248</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45249</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45250</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45251</v>
@@ -19139,18 +19139,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="75" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45253</v>
@@ -19166,13 +19166,13 @@
       <c r="B9" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
       <c r="J9" s="58" t="s">
         <v>55</v>
       </c>
@@ -20136,23 +20136,23 @@
       <c r="B63" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="73"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="65"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="73"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="65"/>
       <c r="H64" s="7" t="s">
         <v>67</v>
       </c>
@@ -20165,11 +20165,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="73"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="65"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -20184,11 +20184,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="73"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="65"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -20203,11 +20203,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="73"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="65"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -20222,11 +20222,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="73"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="65"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -20241,11 +20241,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="73"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="65"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -21208,12 +21208,6 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="B9:I9"/>
@@ -21222,6 +21216,12 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F13 F17">
     <cfRule type="containsBlanks" dxfId="37" priority="1">

--- a/Artefatos/sprints/Planejamento_sprints.xlsx
+++ b/Artefatos/sprints/Planejamento_sprints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\repositories\plf-es-2023-2-ti3-6653100-fabrica-do-saber\Artefatos\sprints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorios_github\plf-es-2023-2-ti3-6653100-fabrica-do-saber\Artefatos\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9922CF-AF07-47FB-B047-AEEEB2406E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079D444A-E213-49D7-8B4B-1A7483AFD06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Projeto" sheetId="1" r:id="rId1"/>
@@ -1320,16 +1320,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1339,56 +1358,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1405,6 +1387,15 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1413,6 +1404,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3239,166 +3239,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="76" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="67" t="s">
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="67" t="s">
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="67" t="s">
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="67" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="67" t="s">
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="67" t="s">
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="78"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="18"/>
@@ -3500,16 +3500,16 @@
     <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="50"/>
-      <c r="B100" s="70"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="71" t="s">
+      <c r="B100" s="80"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="62"/>
-      <c r="F100" s="71" t="s">
+      <c r="E100" s="65"/>
+      <c r="F100" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="62"/>
+      <c r="G100" s="65"/>
       <c r="H100" s="51" t="s">
         <v>18</v>
       </c>
@@ -3531,12 +3531,12 @@
     </row>
     <row r="101" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
-      <c r="B101" s="61"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="66" t="s">
+      <c r="B101" s="83"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="62"/>
+      <c r="E101" s="65"/>
       <c r="F101" s="53" t="s">
         <v>24</v>
       </c>
@@ -3569,12 +3569,12 @@
     </row>
     <row r="102" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="50"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="66" t="s">
+      <c r="B102" s="83"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="62"/>
+      <c r="E102" s="65"/>
       <c r="F102" s="53" t="s">
         <v>29</v>
       </c>
@@ -3608,12 +3608,12 @@
     </row>
     <row r="103" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="50"/>
-      <c r="B103" s="61"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="66" t="s">
+      <c r="B103" s="83"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="62"/>
+      <c r="E103" s="65"/>
       <c r="F103" s="53"/>
       <c r="G103" s="54" t="s">
         <v>34</v>
@@ -3645,12 +3645,12 @@
     </row>
     <row r="104" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="50"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="66" t="s">
+      <c r="B104" s="83"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="62"/>
+      <c r="E104" s="65"/>
       <c r="F104" s="53"/>
       <c r="G104" s="54" t="s">
         <v>36</v>
@@ -3680,12 +3680,12 @@
     </row>
     <row r="105" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="50"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="62"/>
-      <c r="D105" s="66" t="s">
+      <c r="B105" s="83"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="62"/>
+      <c r="E105" s="65"/>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="s">
         <v>39</v>
@@ -3710,8 +3710,8 @@
     </row>
     <row r="106" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="50"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="62"/>
+      <c r="B106" s="83"/>
+      <c r="C106" s="65"/>
       <c r="F106" s="53"/>
       <c r="G106" s="54"/>
       <c r="H106" s="53"/>
@@ -3722,8 +3722,8 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="50"/>
-      <c r="B107" s="61"/>
-      <c r="C107" s="62"/>
+      <c r="B107" s="83"/>
+      <c r="C107" s="65"/>
       <c r="D107" s="55"/>
       <c r="E107" s="53"/>
       <c r="F107" s="53"/>
@@ -4691,24 +4691,12 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D105:E105"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="D100:E100"/>
@@ -4720,12 +4708,24 @@
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="F10:F15" xr:uid="{49EDF03A-7EFB-435C-A992-40D98DE85B41}">
@@ -4768,59 +4768,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
     </row>
     <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -4832,16 +4832,16 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="96" t="str">
+      <c r="B7" s="93" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -4853,15 +4853,15 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
@@ -4873,11 +4873,11 @@
       <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
@@ -4892,9 +4892,9 @@
       <c r="D11" s="14">
         <v>45190</v>
       </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4908,9 +4908,9 @@
         <f t="shared" ref="D12" si="0">C12+13</f>
         <v>45204</v>
       </c>
-      <c r="E12" s="91"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4924,9 +4924,9 @@
       <c r="D13" s="14">
         <v>45225</v>
       </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4939,9 +4939,9 @@
       <c r="D14" s="14">
         <v>45246</v>
       </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4980,13 +4980,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="22" t="s">
         <v>47</v>
       </c>
@@ -4995,11 +4995,11 @@
       <c r="B19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
       <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
@@ -5009,11 +5009,11 @@
       <c r="B20" s="27">
         <v>0</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="65"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="28"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -5030,13 +5030,13 @@
       <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="92"/>
       <c r="H21" s="12" t="s">
         <v>52</v>
       </c>
@@ -5046,13 +5046,13 @@
       <c r="B22" s="27">
         <v>2</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="12" t="s">
         <v>49</v>
       </c>
@@ -5061,13 +5061,13 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="92"/>
       <c r="H23" s="12" t="s">
         <v>49</v>
       </c>
@@ -5076,13 +5076,13 @@
       <c r="B24" s="27">
         <v>4</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="87"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="98"/>
       <c r="H24" s="12" t="s">
         <v>49</v>
       </c>
@@ -5091,13 +5091,13 @@
       <c r="B25" s="9">
         <v>5</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="87"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="98"/>
       <c r="H25" s="12" t="s">
         <v>49</v>
       </c>
@@ -5106,13 +5106,13 @@
       <c r="B26" s="27">
         <v>6</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="87"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="98"/>
       <c r="H26" s="12" t="s">
         <v>49</v>
       </c>
@@ -5121,13 +5121,13 @@
       <c r="B27" s="9">
         <v>7</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="87"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="12" t="s">
         <v>49</v>
       </c>
@@ -5136,13 +5136,13 @@
       <c r="B28" s="27">
         <v>8</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="87"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="98"/>
       <c r="H28" s="12" t="s">
         <v>49</v>
       </c>
@@ -5151,13 +5151,13 @@
       <c r="B29" s="9">
         <v>9</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="87"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="98"/>
       <c r="H29" s="12" t="s">
         <v>49</v>
       </c>
@@ -5166,13 +5166,13 @@
       <c r="B30" s="27">
         <v>10</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="87"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="98"/>
       <c r="H30" s="12" t="s">
         <v>49</v>
       </c>
@@ -5181,13 +5181,13 @@
       <c r="B31" s="9">
         <v>11</v>
       </c>
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="87"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="98"/>
       <c r="H31" s="12" t="s">
         <v>49</v>
       </c>
@@ -5196,13 +5196,13 @@
       <c r="B32" s="27">
         <v>12</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="87"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="98"/>
       <c r="H32" s="12" t="s">
         <v>52</v>
       </c>
@@ -5211,13 +5211,13 @@
       <c r="B33" s="9">
         <v>13</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="90"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="92"/>
       <c r="H33" s="12" t="s">
         <v>52</v>
       </c>
@@ -5226,11 +5226,11 @@
       <c r="B34" s="27">
         <v>14</v>
       </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="87"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
       <c r="H34" s="12" t="s">
         <v>49</v>
       </c>
@@ -5239,11 +5239,11 @@
       <c r="B35" s="9">
         <v>15</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="87"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="98"/>
       <c r="H35" s="12" t="s">
         <v>49</v>
       </c>
@@ -5252,11 +5252,11 @@
       <c r="B36" s="27">
         <v>16</v>
       </c>
-      <c r="C36" s="85"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="65"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="73"/>
       <c r="H36" s="12" t="s">
         <v>49</v>
       </c>
@@ -5265,11 +5265,11 @@
       <c r="B37" s="9">
         <v>17</v>
       </c>
-      <c r="C37" s="85"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="65"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="73"/>
       <c r="H37" s="12" t="s">
         <v>49</v>
       </c>
@@ -5278,11 +5278,11 @@
       <c r="B38" s="27">
         <v>18</v>
       </c>
-      <c r="C38" s="85"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="65"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="73"/>
       <c r="H38" s="12" t="s">
         <v>49</v>
       </c>
@@ -5291,11 +5291,11 @@
       <c r="B39" s="9">
         <v>19</v>
       </c>
-      <c r="C39" s="85"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="65"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
       <c r="H39" s="12" t="s">
         <v>49</v>
       </c>
@@ -5304,11 +5304,11 @@
       <c r="B40" s="27">
         <v>20</v>
       </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="65"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="73"/>
       <c r="H40" s="12" t="s">
         <v>49</v>
       </c>
@@ -5317,11 +5317,11 @@
       <c r="B41" s="9">
         <v>21</v>
       </c>
-      <c r="C41" s="85"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="65"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="73"/>
       <c r="H41" s="12" t="s">
         <v>49</v>
       </c>
@@ -5330,11 +5330,11 @@
       <c r="B42" s="27">
         <v>22</v>
       </c>
-      <c r="C42" s="85"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="65"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="73"/>
       <c r="H42" s="12" t="s">
         <v>49</v>
       </c>
@@ -5343,11 +5343,11 @@
       <c r="B43" s="9">
         <v>23</v>
       </c>
-      <c r="C43" s="85"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="65"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="73"/>
       <c r="H43" s="12" t="s">
         <v>49</v>
       </c>
@@ -5356,11 +5356,11 @@
       <c r="B44" s="27">
         <v>24</v>
       </c>
-      <c r="C44" s="85"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="65"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="73"/>
       <c r="H44" s="12" t="s">
         <v>49</v>
       </c>
@@ -5369,11 +5369,11 @@
       <c r="B45" s="9">
         <v>25</v>
       </c>
-      <c r="C45" s="85"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="65"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="73"/>
       <c r="H45" s="12" t="s">
         <v>49</v>
       </c>
@@ -5382,11 +5382,11 @@
       <c r="B46" s="27">
         <v>26</v>
       </c>
-      <c r="C46" s="85"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="65"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="73"/>
       <c r="H46" s="12" t="s">
         <v>49</v>
       </c>
@@ -5395,11 +5395,11 @@
       <c r="B47" s="9">
         <v>27</v>
       </c>
-      <c r="C47" s="85"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="65"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="73"/>
       <c r="H47" s="12" t="s">
         <v>49</v>
       </c>
@@ -5408,11 +5408,11 @@
       <c r="B48" s="27">
         <v>28</v>
       </c>
-      <c r="C48" s="85"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="65"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="73"/>
       <c r="H48" s="12" t="s">
         <v>49</v>
       </c>
@@ -5421,11 +5421,11 @@
       <c r="B49" s="9">
         <v>29</v>
       </c>
-      <c r="C49" s="85"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="65"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="73"/>
       <c r="H49" s="12" t="s">
         <v>49</v>
       </c>
@@ -5434,11 +5434,11 @@
       <c r="B50" s="27">
         <v>30</v>
       </c>
-      <c r="C50" s="85"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="65"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="73"/>
       <c r="H50" s="12" t="s">
         <v>49</v>
       </c>
@@ -5447,11 +5447,11 @@
       <c r="B51" s="9">
         <v>31</v>
       </c>
-      <c r="C51" s="85"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="65"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="73"/>
       <c r="H51" s="12" t="s">
         <v>49</v>
       </c>
@@ -5460,11 +5460,11 @@
       <c r="B52" s="27">
         <v>32</v>
       </c>
-      <c r="C52" s="85"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="65"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="73"/>
       <c r="H52" s="12" t="s">
         <v>49</v>
       </c>
@@ -5473,11 +5473,11 @@
       <c r="B53" s="9">
         <v>33</v>
       </c>
-      <c r="C53" s="85"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="65"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="73"/>
       <c r="H53" s="12" t="s">
         <v>49</v>
       </c>
@@ -5486,11 +5486,11 @@
       <c r="B54" s="27">
         <v>34</v>
       </c>
-      <c r="C54" s="85"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="65"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="73"/>
       <c r="H54" s="12" t="s">
         <v>49</v>
       </c>
@@ -5499,11 +5499,11 @@
       <c r="B55" s="9">
         <v>35</v>
       </c>
-      <c r="C55" s="85"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="65"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="73"/>
       <c r="H55" s="12" t="s">
         <v>49</v>
       </c>
@@ -5512,11 +5512,11 @@
       <c r="B56" s="27">
         <v>36</v>
       </c>
-      <c r="C56" s="85"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="65"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="73"/>
       <c r="H56" s="12" t="s">
         <v>49</v>
       </c>
@@ -5525,11 +5525,11 @@
       <c r="B57" s="9">
         <v>37</v>
       </c>
-      <c r="C57" s="85"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="65"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="73"/>
       <c r="H57" s="12" t="s">
         <v>49</v>
       </c>
@@ -5538,11 +5538,11 @@
       <c r="B58" s="27">
         <v>38</v>
       </c>
-      <c r="C58" s="85"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="65"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="73"/>
       <c r="H58" s="12" t="s">
         <v>49</v>
       </c>
@@ -5551,11 +5551,11 @@
       <c r="B59" s="9">
         <v>39</v>
       </c>
-      <c r="C59" s="85"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="65"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="73"/>
       <c r="H59" s="12" t="s">
         <v>49</v>
       </c>
@@ -5564,11 +5564,11 @@
       <c r="B60" s="27">
         <v>40</v>
       </c>
-      <c r="C60" s="85"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="65"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="73"/>
       <c r="H60" s="12" t="s">
         <v>49</v>
       </c>
@@ -5577,11 +5577,11 @@
       <c r="B61" s="9">
         <v>41</v>
       </c>
-      <c r="C61" s="85"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="65"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="73"/>
       <c r="H61" s="12" t="s">
         <v>49</v>
       </c>
@@ -5590,11 +5590,11 @@
       <c r="B62" s="27">
         <v>42</v>
       </c>
-      <c r="C62" s="85"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="65"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="73"/>
       <c r="H62" s="12" t="s">
         <v>49</v>
       </c>
@@ -5603,11 +5603,11 @@
       <c r="B63" s="9">
         <v>43</v>
       </c>
-      <c r="C63" s="85"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="65"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="73"/>
       <c r="H63" s="12" t="s">
         <v>49</v>
       </c>
@@ -5616,11 +5616,11 @@
       <c r="B64" s="27">
         <v>44</v>
       </c>
-      <c r="C64" s="85"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="12" t="s">
         <v>49</v>
       </c>
@@ -5629,11 +5629,11 @@
       <c r="B65" s="9">
         <v>45</v>
       </c>
-      <c r="C65" s="85"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="12" t="s">
         <v>49</v>
       </c>
@@ -5642,11 +5642,11 @@
       <c r="B66" s="27">
         <v>46</v>
       </c>
-      <c r="C66" s="85"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="12" t="s">
         <v>49</v>
       </c>
@@ -5655,11 +5655,11 @@
       <c r="B67" s="9">
         <v>47</v>
       </c>
-      <c r="C67" s="85"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="65"/>
+      <c r="C67" s="96"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="12" t="s">
         <v>49</v>
       </c>
@@ -5668,11 +5668,11 @@
       <c r="B68" s="27">
         <v>48</v>
       </c>
-      <c r="C68" s="85"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="12" t="s">
         <v>49</v>
       </c>
@@ -5681,11 +5681,11 @@
       <c r="B69" s="9">
         <v>49</v>
       </c>
-      <c r="C69" s="85"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="12" t="s">
         <v>49</v>
       </c>
@@ -5694,11 +5694,11 @@
       <c r="B70" s="27">
         <v>50</v>
       </c>
-      <c r="C70" s="85"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="65"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="73"/>
       <c r="H70" s="12" t="s">
         <v>49</v>
       </c>
@@ -5707,11 +5707,11 @@
       <c r="B71" s="9">
         <v>51</v>
       </c>
-      <c r="C71" s="85"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="65"/>
+      <c r="C71" s="96"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="73"/>
       <c r="H71" s="12" t="s">
         <v>49</v>
       </c>
@@ -5720,11 +5720,11 @@
       <c r="B72" s="27">
         <v>52</v>
       </c>
-      <c r="C72" s="85"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="65"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="73"/>
       <c r="H72" s="12" t="s">
         <v>49</v>
       </c>
@@ -5733,11 +5733,11 @@
       <c r="B73" s="9">
         <v>53</v>
       </c>
-      <c r="C73" s="85"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="65"/>
+      <c r="C73" s="96"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="73"/>
       <c r="H73" s="12" t="s">
         <v>49</v>
       </c>
@@ -5746,11 +5746,11 @@
       <c r="B74" s="27">
         <v>54</v>
       </c>
-      <c r="C74" s="85"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="65"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="12" t="s">
         <v>49</v>
       </c>
@@ -5759,11 +5759,11 @@
       <c r="B75" s="9">
         <v>55</v>
       </c>
-      <c r="C75" s="85"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="73"/>
       <c r="H75" s="12" t="s">
         <v>49</v>
       </c>
@@ -5772,11 +5772,11 @@
       <c r="B76" s="27">
         <v>56</v>
       </c>
-      <c r="C76" s="85"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="12" t="s">
         <v>49</v>
       </c>
@@ -5785,11 +5785,11 @@
       <c r="B77" s="9">
         <v>57</v>
       </c>
-      <c r="C77" s="85"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="65"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
       <c r="H77" s="12" t="s">
         <v>49</v>
       </c>
@@ -5798,11 +5798,11 @@
       <c r="B78" s="27">
         <v>58</v>
       </c>
-      <c r="C78" s="85"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="65"/>
+      <c r="C78" s="96"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="12" t="s">
         <v>49</v>
       </c>
@@ -5811,11 +5811,11 @@
       <c r="B79" s="9">
         <v>59</v>
       </c>
-      <c r="C79" s="85"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="65"/>
+      <c r="C79" s="96"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="73"/>
       <c r="H79" s="12" t="s">
         <v>49</v>
       </c>
@@ -5824,11 +5824,11 @@
       <c r="B80" s="27">
         <v>60</v>
       </c>
-      <c r="C80" s="85"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="65"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="73"/>
       <c r="H80" s="12" t="s">
         <v>49</v>
       </c>
@@ -5837,11 +5837,11 @@
       <c r="B81" s="9">
         <v>61</v>
       </c>
-      <c r="C81" s="85"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="65"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="73"/>
       <c r="H81" s="12" t="s">
         <v>49</v>
       </c>
@@ -5850,11 +5850,11 @@
       <c r="B82" s="27">
         <v>62</v>
       </c>
-      <c r="C82" s="85"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="65"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="73"/>
       <c r="H82" s="12" t="s">
         <v>49</v>
       </c>
@@ -5863,11 +5863,11 @@
       <c r="B83" s="9">
         <v>63</v>
       </c>
-      <c r="C83" s="85"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="65"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="73"/>
       <c r="H83" s="12" t="s">
         <v>49</v>
       </c>
@@ -5876,11 +5876,11 @@
       <c r="B84" s="27">
         <v>64</v>
       </c>
-      <c r="C84" s="85"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="65"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="73"/>
       <c r="H84" s="12" t="s">
         <v>49</v>
       </c>
@@ -5889,11 +5889,11 @@
       <c r="B85" s="9">
         <v>65</v>
       </c>
-      <c r="C85" s="85"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="65"/>
+      <c r="C85" s="96"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="73"/>
       <c r="H85" s="12" t="s">
         <v>49</v>
       </c>
@@ -5902,11 +5902,11 @@
       <c r="B86" s="27">
         <v>66</v>
       </c>
-      <c r="C86" s="85"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="65"/>
+      <c r="C86" s="96"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="73"/>
       <c r="H86" s="12" t="s">
         <v>49</v>
       </c>
@@ -5915,11 +5915,11 @@
       <c r="B87" s="9">
         <v>67</v>
       </c>
-      <c r="C87" s="85"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="65"/>
+      <c r="C87" s="96"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="73"/>
       <c r="H87" s="12" t="s">
         <v>49</v>
       </c>
@@ -5928,11 +5928,11 @@
       <c r="B88" s="27">
         <v>68</v>
       </c>
-      <c r="C88" s="85"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="65"/>
+      <c r="C88" s="96"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="73"/>
       <c r="H88" s="12" t="s">
         <v>49</v>
       </c>
@@ -5941,11 +5941,11 @@
       <c r="B89" s="9">
         <v>69</v>
       </c>
-      <c r="C89" s="85"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="65"/>
+      <c r="C89" s="96"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="73"/>
       <c r="H89" s="12" t="s">
         <v>49</v>
       </c>
@@ -5954,11 +5954,11 @@
       <c r="B90" s="27">
         <v>70</v>
       </c>
-      <c r="C90" s="85"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="65"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="73"/>
       <c r="H90" s="12" t="s">
         <v>49</v>
       </c>
@@ -5967,11 +5967,11 @@
       <c r="B91" s="9">
         <v>71</v>
       </c>
-      <c r="C91" s="85"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="65"/>
+      <c r="C91" s="96"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="73"/>
       <c r="H91" s="12" t="s">
         <v>49</v>
       </c>
@@ -5980,11 +5980,11 @@
       <c r="B92" s="27">
         <v>72</v>
       </c>
-      <c r="C92" s="85"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="65"/>
+      <c r="C92" s="96"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="73"/>
       <c r="H92" s="12" t="s">
         <v>49</v>
       </c>
@@ -5993,11 +5993,11 @@
       <c r="B93" s="9">
         <v>73</v>
       </c>
-      <c r="C93" s="85"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="64"/>
-      <c r="F93" s="64"/>
-      <c r="G93" s="65"/>
+      <c r="C93" s="96"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="73"/>
       <c r="H93" s="12" t="s">
         <v>49</v>
       </c>
@@ -6006,11 +6006,11 @@
       <c r="B94" s="27">
         <v>74</v>
       </c>
-      <c r="C94" s="85"/>
-      <c r="D94" s="64"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="65"/>
+      <c r="C94" s="96"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="73"/>
       <c r="H94" s="12" t="s">
         <v>49</v>
       </c>
@@ -6019,11 +6019,11 @@
       <c r="B95" s="9">
         <v>75</v>
       </c>
-      <c r="C95" s="85"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="65"/>
+      <c r="C95" s="96"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="73"/>
       <c r="H95" s="12" t="s">
         <v>49</v>
       </c>
@@ -6032,11 +6032,11 @@
       <c r="B96" s="27">
         <v>76</v>
       </c>
-      <c r="C96" s="85"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="65"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="72"/>
+      <c r="G96" s="73"/>
       <c r="H96" s="12" t="s">
         <v>49</v>
       </c>
@@ -6045,11 +6045,11 @@
       <c r="B97" s="9">
         <v>77</v>
       </c>
-      <c r="C97" s="85"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="65"/>
+      <c r="C97" s="96"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="73"/>
       <c r="H97" s="12" t="s">
         <v>49</v>
       </c>
@@ -6058,11 +6058,11 @@
       <c r="B98" s="27">
         <v>78</v>
       </c>
-      <c r="C98" s="85"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="65"/>
+      <c r="C98" s="96"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="73"/>
       <c r="H98" s="12" t="s">
         <v>49</v>
       </c>
@@ -6071,11 +6071,11 @@
       <c r="B99" s="9">
         <v>79</v>
       </c>
-      <c r="C99" s="85"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="64"/>
-      <c r="G99" s="65"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="73"/>
       <c r="H99" s="12" t="s">
         <v>49</v>
       </c>
@@ -6084,11 +6084,11 @@
       <c r="B100" s="27">
         <v>80</v>
       </c>
-      <c r="C100" s="85"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="65"/>
+      <c r="C100" s="96"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="73"/>
       <c r="H100" s="12" t="s">
         <v>49</v>
       </c>
@@ -6097,11 +6097,11 @@
       <c r="B101" s="9">
         <v>81</v>
       </c>
-      <c r="C101" s="85"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="64"/>
-      <c r="F101" s="64"/>
-      <c r="G101" s="65"/>
+      <c r="C101" s="96"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="73"/>
       <c r="H101" s="12" t="s">
         <v>49</v>
       </c>
@@ -6110,11 +6110,11 @@
       <c r="B102" s="27">
         <v>82</v>
       </c>
-      <c r="C102" s="85"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="65"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="73"/>
       <c r="H102" s="12" t="s">
         <v>49</v>
       </c>
@@ -6123,11 +6123,11 @@
       <c r="B103" s="9">
         <v>83</v>
       </c>
-      <c r="C103" s="85"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="64"/>
-      <c r="F103" s="64"/>
-      <c r="G103" s="65"/>
+      <c r="C103" s="96"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="73"/>
       <c r="H103" s="12" t="s">
         <v>49</v>
       </c>
@@ -6136,11 +6136,11 @@
       <c r="B104" s="27">
         <v>84</v>
       </c>
-      <c r="C104" s="85"/>
-      <c r="D104" s="64"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="64"/>
-      <c r="G104" s="65"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="73"/>
       <c r="H104" s="12" t="s">
         <v>49</v>
       </c>
@@ -6149,11 +6149,11 @@
       <c r="B105" s="9">
         <v>85</v>
       </c>
-      <c r="C105" s="85"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="65"/>
+      <c r="C105" s="96"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="73"/>
       <c r="H105" s="12" t="s">
         <v>49</v>
       </c>
@@ -6162,11 +6162,11 @@
       <c r="B106" s="27">
         <v>86</v>
       </c>
-      <c r="C106" s="85"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="65"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="73"/>
       <c r="H106" s="12" t="s">
         <v>49</v>
       </c>
@@ -6175,11 +6175,11 @@
       <c r="B107" s="9">
         <v>87</v>
       </c>
-      <c r="C107" s="85"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="65"/>
+      <c r="C107" s="96"/>
+      <c r="D107" s="72"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="73"/>
       <c r="H107" s="12" t="s">
         <v>49</v>
       </c>
@@ -6188,11 +6188,11 @@
       <c r="B108" s="27">
         <v>88</v>
       </c>
-      <c r="C108" s="85"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="64"/>
-      <c r="G108" s="65"/>
+      <c r="C108" s="96"/>
+      <c r="D108" s="72"/>
+      <c r="E108" s="72"/>
+      <c r="F108" s="72"/>
+      <c r="G108" s="73"/>
       <c r="H108" s="12" t="s">
         <v>49</v>
       </c>
@@ -6201,11 +6201,11 @@
       <c r="B109" s="9">
         <v>89</v>
       </c>
-      <c r="C109" s="85"/>
-      <c r="D109" s="64"/>
-      <c r="E109" s="64"/>
-      <c r="F109" s="64"/>
-      <c r="G109" s="65"/>
+      <c r="C109" s="96"/>
+      <c r="D109" s="72"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="72"/>
+      <c r="G109" s="73"/>
       <c r="H109" s="12" t="s">
         <v>49</v>
       </c>
@@ -6214,11 +6214,11 @@
       <c r="B110" s="27">
         <v>90</v>
       </c>
-      <c r="C110" s="85"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="64"/>
-      <c r="G110" s="65"/>
+      <c r="C110" s="96"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="73"/>
       <c r="H110" s="12" t="s">
         <v>49</v>
       </c>
@@ -6227,11 +6227,11 @@
       <c r="B111" s="9">
         <v>91</v>
       </c>
-      <c r="C111" s="85"/>
-      <c r="D111" s="64"/>
-      <c r="E111" s="64"/>
-      <c r="F111" s="64"/>
-      <c r="G111" s="65"/>
+      <c r="C111" s="96"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="73"/>
       <c r="H111" s="12" t="s">
         <v>49</v>
       </c>
@@ -6240,11 +6240,11 @@
       <c r="B112" s="27">
         <v>92</v>
       </c>
-      <c r="C112" s="85"/>
-      <c r="D112" s="64"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="65"/>
+      <c r="C112" s="96"/>
+      <c r="D112" s="72"/>
+      <c r="E112" s="72"/>
+      <c r="F112" s="72"/>
+      <c r="G112" s="73"/>
       <c r="H112" s="12" t="s">
         <v>49</v>
       </c>
@@ -6253,11 +6253,11 @@
       <c r="B113" s="9">
         <v>93</v>
       </c>
-      <c r="C113" s="85"/>
-      <c r="D113" s="64"/>
-      <c r="E113" s="64"/>
-      <c r="F113" s="64"/>
-      <c r="G113" s="65"/>
+      <c r="C113" s="96"/>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="73"/>
       <c r="H113" s="12" t="s">
         <v>49</v>
       </c>
@@ -6266,11 +6266,11 @@
       <c r="B114" s="27">
         <v>94</v>
       </c>
-      <c r="C114" s="85"/>
-      <c r="D114" s="64"/>
-      <c r="E114" s="64"/>
-      <c r="F114" s="64"/>
-      <c r="G114" s="65"/>
+      <c r="C114" s="96"/>
+      <c r="D114" s="72"/>
+      <c r="E114" s="72"/>
+      <c r="F114" s="72"/>
+      <c r="G114" s="73"/>
       <c r="H114" s="12" t="s">
         <v>49</v>
       </c>
@@ -6279,11 +6279,11 @@
       <c r="B115" s="9">
         <v>95</v>
       </c>
-      <c r="C115" s="85"/>
-      <c r="D115" s="64"/>
-      <c r="E115" s="64"/>
-      <c r="F115" s="64"/>
-      <c r="G115" s="65"/>
+      <c r="C115" s="96"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="72"/>
+      <c r="G115" s="73"/>
       <c r="H115" s="12" t="s">
         <v>49</v>
       </c>
@@ -6292,11 +6292,11 @@
       <c r="B116" s="27">
         <v>96</v>
       </c>
-      <c r="C116" s="85"/>
-      <c r="D116" s="64"/>
-      <c r="E116" s="64"/>
-      <c r="F116" s="64"/>
-      <c r="G116" s="65"/>
+      <c r="C116" s="96"/>
+      <c r="D116" s="72"/>
+      <c r="E116" s="72"/>
+      <c r="F116" s="72"/>
+      <c r="G116" s="73"/>
       <c r="H116" s="12" t="s">
         <v>49</v>
       </c>
@@ -6305,11 +6305,11 @@
       <c r="B117" s="9">
         <v>97</v>
       </c>
-      <c r="C117" s="85"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="64"/>
-      <c r="F117" s="64"/>
-      <c r="G117" s="65"/>
+      <c r="C117" s="96"/>
+      <c r="D117" s="72"/>
+      <c r="E117" s="72"/>
+      <c r="F117" s="72"/>
+      <c r="G117" s="73"/>
       <c r="H117" s="12" t="s">
         <v>49</v>
       </c>
@@ -6318,11 +6318,11 @@
       <c r="B118" s="27">
         <v>98</v>
       </c>
-      <c r="C118" s="85"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="64"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="65"/>
+      <c r="C118" s="96"/>
+      <c r="D118" s="72"/>
+      <c r="E118" s="72"/>
+      <c r="F118" s="72"/>
+      <c r="G118" s="73"/>
       <c r="H118" s="12" t="s">
         <v>49</v>
       </c>
@@ -6331,11 +6331,11 @@
       <c r="B119" s="9">
         <v>99</v>
       </c>
-      <c r="C119" s="85"/>
-      <c r="D119" s="64"/>
-      <c r="E119" s="64"/>
-      <c r="F119" s="64"/>
-      <c r="G119" s="65"/>
+      <c r="C119" s="96"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="72"/>
+      <c r="G119" s="73"/>
       <c r="H119" s="12" t="s">
         <v>49</v>
       </c>
@@ -6344,11 +6344,11 @@
       <c r="B120" s="27">
         <v>100</v>
       </c>
-      <c r="C120" s="85"/>
-      <c r="D120" s="64"/>
-      <c r="E120" s="64"/>
-      <c r="F120" s="64"/>
-      <c r="G120" s="65"/>
+      <c r="C120" s="96"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="73"/>
       <c r="H120" s="12" t="s">
         <v>49</v>
       </c>
@@ -8027,50 +8027,53 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
@@ -8095,53 +8098,50 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21:H120" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -8191,85 +8191,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="2">
         <f>Requisitos!C11</f>
         <v>45170</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K65" si="0">K1+1</f>
         <v>45171</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45172</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45173</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45174</v>
@@ -8283,18 +8283,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45176</v>
@@ -8311,13 +8311,13 @@
       <c r="B9" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -9691,13 +9691,13 @@
       <c r="B63" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="65"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="73"/>
       <c r="K63" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -9707,11 +9707,11 @@
       <c r="B64" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="7" t="s">
         <v>67</v>
       </c>
@@ -9728,11 +9728,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B10,H$11:H$60)</f>
         <v>0</v>
@@ -9751,11 +9751,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -9774,11 +9774,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="65"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -9797,11 +9797,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>Maria Eduarda Amaral</v>
       </c>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -9820,11 +9820,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -9843,11 +9843,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="65"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="73"/>
       <c r="H70" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -10975,8 +10975,8 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10996,85 +10996,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="2">
         <f>Requisitos!C12</f>
         <v>45191</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45192</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45193</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45194</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45195</v>
@@ -11088,18 +11088,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45197</v>
@@ -11116,13 +11116,13 @@
       <c r="B9" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
@@ -11225,7 +11225,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H12" s="13">
         <v>0</v>
@@ -11430,7 +11430,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H19" s="13">
         <v>0</v>
@@ -11486,7 +11486,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H21" s="13">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>14</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H22" s="13">
         <v>0</v>
@@ -12483,7 +12483,7 @@
       <c r="F71" s="30"/>
       <c r="G71" s="30">
         <f>COUNTIFS(G11:G60, "Concluído",D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J71" s="5"/>
     </row>
@@ -12491,23 +12491,23 @@
       <c r="B72" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="65"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="73"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="65"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="73"/>
       <c r="H73" s="7" t="s">
         <v>67</v>
       </c>
@@ -12520,11 +12520,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="65"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -12539,11 +12539,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="73"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -12558,11 +12558,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -12577,11 +12577,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="65"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -12596,11 +12596,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="65"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -13851,85 +13851,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="2">
         <f>Requisitos!C13</f>
         <v>45205</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45206</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45208</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45209</v>
@@ -13943,18 +13943,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45211</v>
@@ -13971,13 +13971,13 @@
       <c r="B9" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -15117,23 +15117,23 @@
       <c r="B72" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="65"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="73"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="65"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="73"/>
       <c r="H73" s="7" t="s">
         <v>67</v>
       </c>
@@ -15146,11 +15146,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="65"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -15165,11 +15165,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="73"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -15184,11 +15184,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -15203,11 +15203,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="65"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -15222,11 +15222,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="65"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -16250,6 +16250,12 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -16258,12 +16264,6 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="89" priority="1">
@@ -16450,85 +16450,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="2">
         <f>Requisitos!C14</f>
         <v>45226</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45227</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45229</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45230</v>
@@ -16542,18 +16542,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -16570,13 +16570,13 @@
       <c r="B9" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -17716,23 +17716,23 @@
       <c r="B72" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="65"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="73"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="65"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="73"/>
       <c r="H73" s="7" t="s">
         <v>67</v>
       </c>
@@ -17745,11 +17745,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="65"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -17764,11 +17764,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="73"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -17783,11 +17783,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -17802,11 +17802,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="65"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -17821,11 +17821,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="65"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -18849,6 +18849,12 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -18857,12 +18863,6 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="63" priority="1">
@@ -19048,85 +19048,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="2">
         <f>Requisitos!C15</f>
         <v>45247</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45248</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45249</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45250</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45251</v>
@@ -19139,18 +19139,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45253</v>
@@ -19166,13 +19166,13 @@
       <c r="B9" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="58" t="s">
         <v>55</v>
       </c>
@@ -20136,23 +20136,23 @@
       <c r="B63" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="65"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="73"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="7" t="s">
         <v>67</v>
       </c>
@@ -20165,11 +20165,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -20184,11 +20184,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -20203,11 +20203,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="65"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -20222,11 +20222,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -20241,11 +20241,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -21208,6 +21208,12 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="B9:I9"/>
@@ -21216,12 +21222,6 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F13 F17">
     <cfRule type="containsBlanks" dxfId="37" priority="1">

--- a/Artefatos/sprints/Planejamento_sprints.xlsx
+++ b/Artefatos/sprints/Planejamento_sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorios_github\plf-es-2023-2-ti3-6653100-fabrica-do-saber\Artefatos\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B8C263-C7A7-4FDA-A1D4-5B36A9C477DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27728253-820C-4FE1-8AB4-3E627A9BE22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="152">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -817,6 +817,9 @@
   </si>
   <si>
     <t>Integracao back-end + front-end (Sprint 3)</t>
+  </si>
+  <si>
+    <t>Tratamento de excecao</t>
   </si>
 </sst>
 </file>
@@ -1387,16 +1390,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1406,56 +1428,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1472,6 +1457,15 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1482,13 +1476,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1499,14 +1502,14 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1528,7 +1531,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="147">
+  <dxfs count="123">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2279,224 +2282,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFA1A1"/>
-          <bgColor rgb="FFFFA1A1"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFA1A1"/>
-          <bgColor rgb="FFFFA1A1"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFE69138"/>
           <bgColor rgb="FFE69138"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFA1A1"/>
-          <bgColor rgb="FFFFA1A1"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFA1A1"/>
-          <bgColor rgb="FFFFA1A1"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
       <alignment wrapText="0" shrinkToFit="0"/>
@@ -3486,166 +3273,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="76" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="67" t="s">
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="67" t="s">
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="67" t="s">
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="67" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="67" t="s">
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="67" t="s">
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="78"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="18"/>
@@ -3747,16 +3534,16 @@
     <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="50"/>
-      <c r="B100" s="70"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="71" t="s">
+      <c r="B100" s="80"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="62"/>
-      <c r="F100" s="71" t="s">
+      <c r="E100" s="65"/>
+      <c r="F100" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="62"/>
+      <c r="G100" s="65"/>
       <c r="H100" s="51" t="s">
         <v>18</v>
       </c>
@@ -3778,12 +3565,12 @@
     </row>
     <row r="101" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
-      <c r="B101" s="61"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="66" t="s">
+      <c r="B101" s="83"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="62"/>
+      <c r="E101" s="65"/>
       <c r="F101" s="53" t="s">
         <v>24</v>
       </c>
@@ -3816,12 +3603,12 @@
     </row>
     <row r="102" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="50"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="66" t="s">
+      <c r="B102" s="83"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="62"/>
+      <c r="E102" s="65"/>
       <c r="F102" s="53" t="s">
         <v>29</v>
       </c>
@@ -3855,12 +3642,12 @@
     </row>
     <row r="103" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="50"/>
-      <c r="B103" s="61"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="66" t="s">
+      <c r="B103" s="83"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="62"/>
+      <c r="E103" s="65"/>
       <c r="F103" s="53"/>
       <c r="G103" s="54" t="s">
         <v>34</v>
@@ -3892,12 +3679,12 @@
     </row>
     <row r="104" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="50"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="66" t="s">
+      <c r="B104" s="83"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="62"/>
+      <c r="E104" s="65"/>
       <c r="F104" s="53"/>
       <c r="G104" s="54" t="s">
         <v>36</v>
@@ -3927,12 +3714,12 @@
     </row>
     <row r="105" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="50"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="62"/>
-      <c r="D105" s="66" t="s">
+      <c r="B105" s="83"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="62"/>
+      <c r="E105" s="65"/>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="s">
         <v>39</v>
@@ -3957,8 +3744,8 @@
     </row>
     <row r="106" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="50"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="62"/>
+      <c r="B106" s="83"/>
+      <c r="C106" s="65"/>
       <c r="F106" s="53"/>
       <c r="G106" s="54"/>
       <c r="H106" s="53"/>
@@ -3969,8 +3756,8 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="50"/>
-      <c r="B107" s="61"/>
-      <c r="C107" s="62"/>
+      <c r="B107" s="83"/>
+      <c r="C107" s="65"/>
       <c r="D107" s="55"/>
       <c r="E107" s="53"/>
       <c r="F107" s="53"/>
@@ -4938,24 +4725,12 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D105:E105"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="D100:E100"/>
@@ -4967,12 +4742,24 @@
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="F10:F15" xr:uid="{49EDF03A-7EFB-435C-A992-40D98DE85B41}">
@@ -5015,59 +4802,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
     </row>
     <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -5079,16 +4866,16 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="96" t="str">
+      <c r="B7" s="93" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -5100,15 +4887,15 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
@@ -5120,11 +4907,11 @@
       <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
@@ -5139,9 +4926,9 @@
       <c r="D11" s="14">
         <v>45190</v>
       </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5155,9 +4942,9 @@
         <f t="shared" ref="D12" si="0">C12+13</f>
         <v>45204</v>
       </c>
-      <c r="E12" s="91"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5171,9 +4958,9 @@
       <c r="D13" s="14">
         <v>45225</v>
       </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5186,9 +4973,9 @@
       <c r="D14" s="14">
         <v>45246</v>
       </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5227,13 +5014,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="22" t="s">
         <v>47</v>
       </c>
@@ -5242,11 +5029,11 @@
       <c r="B19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
       <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
@@ -5256,11 +5043,11 @@
       <c r="B20" s="27">
         <v>0</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="65"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="28"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -5277,13 +5064,13 @@
       <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="92"/>
       <c r="H21" s="12" t="s">
         <v>52</v>
       </c>
@@ -5293,13 +5080,13 @@
       <c r="B22" s="27">
         <v>2</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="12" t="s">
         <v>49</v>
       </c>
@@ -5308,13 +5095,13 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="92"/>
       <c r="H23" s="12" t="s">
         <v>49</v>
       </c>
@@ -5323,13 +5110,13 @@
       <c r="B24" s="27">
         <v>4</v>
       </c>
-      <c r="C24" s="105" t="s">
+      <c r="C24" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="107"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="98"/>
       <c r="H24" s="12" t="s">
         <v>49</v>
       </c>
@@ -5338,13 +5125,13 @@
       <c r="B25" s="9">
         <v>5</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="87"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="101"/>
       <c r="H25" s="12" t="s">
         <v>49</v>
       </c>
@@ -5353,13 +5140,13 @@
       <c r="B26" s="27">
         <v>6</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="87"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="101"/>
       <c r="H26" s="12" t="s">
         <v>49</v>
       </c>
@@ -5383,13 +5170,13 @@
       <c r="B28" s="27">
         <v>8</v>
       </c>
-      <c r="C28" s="105" t="s">
+      <c r="C28" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="107"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="98"/>
       <c r="H28" s="12" t="s">
         <v>49</v>
       </c>
@@ -5413,13 +5200,13 @@
       <c r="B30" s="27">
         <v>10</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="87"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="101"/>
       <c r="H30" s="12" t="s">
         <v>49</v>
       </c>
@@ -5428,13 +5215,13 @@
       <c r="B31" s="9">
         <v>11</v>
       </c>
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="87"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="101"/>
       <c r="H31" s="12" t="s">
         <v>49</v>
       </c>
@@ -5443,13 +5230,13 @@
       <c r="B32" s="27">
         <v>12</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="87"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="101"/>
       <c r="H32" s="12" t="s">
         <v>52</v>
       </c>
@@ -5458,13 +5245,13 @@
       <c r="B33" s="9">
         <v>13</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="90"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="92"/>
       <c r="H33" s="12" t="s">
         <v>52</v>
       </c>
@@ -5473,11 +5260,11 @@
       <c r="B34" s="27">
         <v>14</v>
       </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="87"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="101"/>
       <c r="H34" s="12" t="s">
         <v>49</v>
       </c>
@@ -5486,11 +5273,11 @@
       <c r="B35" s="9">
         <v>15</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="87"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="101"/>
       <c r="H35" s="12" t="s">
         <v>49</v>
       </c>
@@ -5499,11 +5286,11 @@
       <c r="B36" s="27">
         <v>16</v>
       </c>
-      <c r="C36" s="85"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="65"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="73"/>
       <c r="H36" s="12" t="s">
         <v>49</v>
       </c>
@@ -5512,11 +5299,11 @@
       <c r="B37" s="9">
         <v>17</v>
       </c>
-      <c r="C37" s="85"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="65"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="73"/>
       <c r="H37" s="12" t="s">
         <v>49</v>
       </c>
@@ -5525,11 +5312,11 @@
       <c r="B38" s="27">
         <v>18</v>
       </c>
-      <c r="C38" s="85"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="65"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="73"/>
       <c r="H38" s="12" t="s">
         <v>49</v>
       </c>
@@ -5538,11 +5325,11 @@
       <c r="B39" s="9">
         <v>19</v>
       </c>
-      <c r="C39" s="85"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="65"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
       <c r="H39" s="12" t="s">
         <v>49</v>
       </c>
@@ -5551,11 +5338,11 @@
       <c r="B40" s="27">
         <v>20</v>
       </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="65"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="73"/>
       <c r="H40" s="12" t="s">
         <v>49</v>
       </c>
@@ -5564,11 +5351,11 @@
       <c r="B41" s="9">
         <v>21</v>
       </c>
-      <c r="C41" s="85"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="65"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="73"/>
       <c r="H41" s="12" t="s">
         <v>49</v>
       </c>
@@ -5577,11 +5364,11 @@
       <c r="B42" s="27">
         <v>22</v>
       </c>
-      <c r="C42" s="85"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="65"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="73"/>
       <c r="H42" s="12" t="s">
         <v>49</v>
       </c>
@@ -5590,11 +5377,11 @@
       <c r="B43" s="9">
         <v>23</v>
       </c>
-      <c r="C43" s="85"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="65"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="73"/>
       <c r="H43" s="12" t="s">
         <v>49</v>
       </c>
@@ -5603,11 +5390,11 @@
       <c r="B44" s="27">
         <v>24</v>
       </c>
-      <c r="C44" s="85"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="65"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="73"/>
       <c r="H44" s="12" t="s">
         <v>49</v>
       </c>
@@ -5616,11 +5403,11 @@
       <c r="B45" s="9">
         <v>25</v>
       </c>
-      <c r="C45" s="85"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="65"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="73"/>
       <c r="H45" s="12" t="s">
         <v>49</v>
       </c>
@@ -5629,11 +5416,11 @@
       <c r="B46" s="27">
         <v>26</v>
       </c>
-      <c r="C46" s="85"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="65"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="73"/>
       <c r="H46" s="12" t="s">
         <v>49</v>
       </c>
@@ -5642,11 +5429,11 @@
       <c r="B47" s="9">
         <v>27</v>
       </c>
-      <c r="C47" s="85"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="65"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="73"/>
       <c r="H47" s="12" t="s">
         <v>49</v>
       </c>
@@ -5655,11 +5442,11 @@
       <c r="B48" s="27">
         <v>28</v>
       </c>
-      <c r="C48" s="85"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="65"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="73"/>
       <c r="H48" s="12" t="s">
         <v>49</v>
       </c>
@@ -5668,11 +5455,11 @@
       <c r="B49" s="9">
         <v>29</v>
       </c>
-      <c r="C49" s="85"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="65"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="73"/>
       <c r="H49" s="12" t="s">
         <v>49</v>
       </c>
@@ -5681,11 +5468,11 @@
       <c r="B50" s="27">
         <v>30</v>
       </c>
-      <c r="C50" s="85"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="65"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="73"/>
       <c r="H50" s="12" t="s">
         <v>49</v>
       </c>
@@ -5694,11 +5481,11 @@
       <c r="B51" s="9">
         <v>31</v>
       </c>
-      <c r="C51" s="85"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="65"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="73"/>
       <c r="H51" s="12" t="s">
         <v>49</v>
       </c>
@@ -5707,11 +5494,11 @@
       <c r="B52" s="27">
         <v>32</v>
       </c>
-      <c r="C52" s="85"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="65"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="73"/>
       <c r="H52" s="12" t="s">
         <v>49</v>
       </c>
@@ -5720,11 +5507,11 @@
       <c r="B53" s="9">
         <v>33</v>
       </c>
-      <c r="C53" s="85"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="65"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="73"/>
       <c r="H53" s="12" t="s">
         <v>49</v>
       </c>
@@ -5733,11 +5520,11 @@
       <c r="B54" s="27">
         <v>34</v>
       </c>
-      <c r="C54" s="85"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="65"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="73"/>
       <c r="H54" s="12" t="s">
         <v>49</v>
       </c>
@@ -5746,11 +5533,11 @@
       <c r="B55" s="9">
         <v>35</v>
       </c>
-      <c r="C55" s="85"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="65"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="73"/>
       <c r="H55" s="12" t="s">
         <v>49</v>
       </c>
@@ -5759,11 +5546,11 @@
       <c r="B56" s="27">
         <v>36</v>
       </c>
-      <c r="C56" s="85"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="65"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="73"/>
       <c r="H56" s="12" t="s">
         <v>49</v>
       </c>
@@ -5772,11 +5559,11 @@
       <c r="B57" s="9">
         <v>37</v>
       </c>
-      <c r="C57" s="85"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="65"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="73"/>
       <c r="H57" s="12" t="s">
         <v>49</v>
       </c>
@@ -5785,11 +5572,11 @@
       <c r="B58" s="27">
         <v>38</v>
       </c>
-      <c r="C58" s="85"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="65"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="73"/>
       <c r="H58" s="12" t="s">
         <v>49</v>
       </c>
@@ -5798,11 +5585,11 @@
       <c r="B59" s="9">
         <v>39</v>
       </c>
-      <c r="C59" s="85"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="65"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="73"/>
       <c r="H59" s="12" t="s">
         <v>49</v>
       </c>
@@ -5811,11 +5598,11 @@
       <c r="B60" s="27">
         <v>40</v>
       </c>
-      <c r="C60" s="85"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="65"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="73"/>
       <c r="H60" s="12" t="s">
         <v>49</v>
       </c>
@@ -5824,11 +5611,11 @@
       <c r="B61" s="9">
         <v>41</v>
       </c>
-      <c r="C61" s="85"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="65"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="73"/>
       <c r="H61" s="12" t="s">
         <v>49</v>
       </c>
@@ -5837,11 +5624,11 @@
       <c r="B62" s="27">
         <v>42</v>
       </c>
-      <c r="C62" s="85"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="65"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="73"/>
       <c r="H62" s="12" t="s">
         <v>49</v>
       </c>
@@ -5850,11 +5637,11 @@
       <c r="B63" s="9">
         <v>43</v>
       </c>
-      <c r="C63" s="85"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="65"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="73"/>
       <c r="H63" s="12" t="s">
         <v>49</v>
       </c>
@@ -5863,11 +5650,11 @@
       <c r="B64" s="27">
         <v>44</v>
       </c>
-      <c r="C64" s="85"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="12" t="s">
         <v>49</v>
       </c>
@@ -5876,11 +5663,11 @@
       <c r="B65" s="9">
         <v>45</v>
       </c>
-      <c r="C65" s="85"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="12" t="s">
         <v>49</v>
       </c>
@@ -5889,11 +5676,11 @@
       <c r="B66" s="27">
         <v>46</v>
       </c>
-      <c r="C66" s="85"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="12" t="s">
         <v>49</v>
       </c>
@@ -5902,11 +5689,11 @@
       <c r="B67" s="9">
         <v>47</v>
       </c>
-      <c r="C67" s="85"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="65"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="12" t="s">
         <v>49</v>
       </c>
@@ -5915,11 +5702,11 @@
       <c r="B68" s="27">
         <v>48</v>
       </c>
-      <c r="C68" s="85"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="12" t="s">
         <v>49</v>
       </c>
@@ -5928,11 +5715,11 @@
       <c r="B69" s="9">
         <v>49</v>
       </c>
-      <c r="C69" s="85"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="12" t="s">
         <v>49</v>
       </c>
@@ -5941,11 +5728,11 @@
       <c r="B70" s="27">
         <v>50</v>
       </c>
-      <c r="C70" s="85"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="65"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="73"/>
       <c r="H70" s="12" t="s">
         <v>49</v>
       </c>
@@ -5954,11 +5741,11 @@
       <c r="B71" s="9">
         <v>51</v>
       </c>
-      <c r="C71" s="85"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="65"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="73"/>
       <c r="H71" s="12" t="s">
         <v>49</v>
       </c>
@@ -5967,11 +5754,11 @@
       <c r="B72" s="27">
         <v>52</v>
       </c>
-      <c r="C72" s="85"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="65"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="73"/>
       <c r="H72" s="12" t="s">
         <v>49</v>
       </c>
@@ -5980,11 +5767,11 @@
       <c r="B73" s="9">
         <v>53</v>
       </c>
-      <c r="C73" s="85"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="65"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="73"/>
       <c r="H73" s="12" t="s">
         <v>49</v>
       </c>
@@ -5993,11 +5780,11 @@
       <c r="B74" s="27">
         <v>54</v>
       </c>
-      <c r="C74" s="85"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="65"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="12" t="s">
         <v>49</v>
       </c>
@@ -6006,11 +5793,11 @@
       <c r="B75" s="9">
         <v>55</v>
       </c>
-      <c r="C75" s="85"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="73"/>
       <c r="H75" s="12" t="s">
         <v>49</v>
       </c>
@@ -6019,11 +5806,11 @@
       <c r="B76" s="27">
         <v>56</v>
       </c>
-      <c r="C76" s="85"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="12" t="s">
         <v>49</v>
       </c>
@@ -6032,11 +5819,11 @@
       <c r="B77" s="9">
         <v>57</v>
       </c>
-      <c r="C77" s="85"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="65"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
       <c r="H77" s="12" t="s">
         <v>49</v>
       </c>
@@ -6045,11 +5832,11 @@
       <c r="B78" s="27">
         <v>58</v>
       </c>
-      <c r="C78" s="85"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="65"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="12" t="s">
         <v>49</v>
       </c>
@@ -6058,11 +5845,11 @@
       <c r="B79" s="9">
         <v>59</v>
       </c>
-      <c r="C79" s="85"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="65"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="73"/>
       <c r="H79" s="12" t="s">
         <v>49</v>
       </c>
@@ -6071,11 +5858,11 @@
       <c r="B80" s="27">
         <v>60</v>
       </c>
-      <c r="C80" s="85"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="65"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="73"/>
       <c r="H80" s="12" t="s">
         <v>49</v>
       </c>
@@ -6084,11 +5871,11 @@
       <c r="B81" s="9">
         <v>61</v>
       </c>
-      <c r="C81" s="85"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="65"/>
+      <c r="C81" s="99"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="73"/>
       <c r="H81" s="12" t="s">
         <v>49</v>
       </c>
@@ -6097,11 +5884,11 @@
       <c r="B82" s="27">
         <v>62</v>
       </c>
-      <c r="C82" s="85"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="65"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="73"/>
       <c r="H82" s="12" t="s">
         <v>49</v>
       </c>
@@ -6110,11 +5897,11 @@
       <c r="B83" s="9">
         <v>63</v>
       </c>
-      <c r="C83" s="85"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="65"/>
+      <c r="C83" s="99"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="73"/>
       <c r="H83" s="12" t="s">
         <v>49</v>
       </c>
@@ -6123,11 +5910,11 @@
       <c r="B84" s="27">
         <v>64</v>
       </c>
-      <c r="C84" s="85"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="65"/>
+      <c r="C84" s="99"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="73"/>
       <c r="H84" s="12" t="s">
         <v>49</v>
       </c>
@@ -6136,11 +5923,11 @@
       <c r="B85" s="9">
         <v>65</v>
       </c>
-      <c r="C85" s="85"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="65"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="73"/>
       <c r="H85" s="12" t="s">
         <v>49</v>
       </c>
@@ -6149,11 +5936,11 @@
       <c r="B86" s="27">
         <v>66</v>
       </c>
-      <c r="C86" s="85"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="65"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="73"/>
       <c r="H86" s="12" t="s">
         <v>49</v>
       </c>
@@ -6162,11 +5949,11 @@
       <c r="B87" s="9">
         <v>67</v>
       </c>
-      <c r="C87" s="85"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="65"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="73"/>
       <c r="H87" s="12" t="s">
         <v>49</v>
       </c>
@@ -6175,11 +5962,11 @@
       <c r="B88" s="27">
         <v>68</v>
       </c>
-      <c r="C88" s="85"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="65"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="73"/>
       <c r="H88" s="12" t="s">
         <v>49</v>
       </c>
@@ -6188,11 +5975,11 @@
       <c r="B89" s="9">
         <v>69</v>
       </c>
-      <c r="C89" s="85"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="65"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="73"/>
       <c r="H89" s="12" t="s">
         <v>49</v>
       </c>
@@ -6201,11 +5988,11 @@
       <c r="B90" s="27">
         <v>70</v>
       </c>
-      <c r="C90" s="85"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="65"/>
+      <c r="C90" s="99"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="73"/>
       <c r="H90" s="12" t="s">
         <v>49</v>
       </c>
@@ -6214,11 +6001,11 @@
       <c r="B91" s="9">
         <v>71</v>
       </c>
-      <c r="C91" s="85"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="65"/>
+      <c r="C91" s="99"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="73"/>
       <c r="H91" s="12" t="s">
         <v>49</v>
       </c>
@@ -6227,11 +6014,11 @@
       <c r="B92" s="27">
         <v>72</v>
       </c>
-      <c r="C92" s="85"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="65"/>
+      <c r="C92" s="99"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="73"/>
       <c r="H92" s="12" t="s">
         <v>49</v>
       </c>
@@ -6240,11 +6027,11 @@
       <c r="B93" s="9">
         <v>73</v>
       </c>
-      <c r="C93" s="85"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="64"/>
-      <c r="F93" s="64"/>
-      <c r="G93" s="65"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="73"/>
       <c r="H93" s="12" t="s">
         <v>49</v>
       </c>
@@ -6253,11 +6040,11 @@
       <c r="B94" s="27">
         <v>74</v>
       </c>
-      <c r="C94" s="85"/>
-      <c r="D94" s="64"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="65"/>
+      <c r="C94" s="99"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="73"/>
       <c r="H94" s="12" t="s">
         <v>49</v>
       </c>
@@ -6266,11 +6053,11 @@
       <c r="B95" s="9">
         <v>75</v>
       </c>
-      <c r="C95" s="85"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="65"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="73"/>
       <c r="H95" s="12" t="s">
         <v>49</v>
       </c>
@@ -6279,11 +6066,11 @@
       <c r="B96" s="27">
         <v>76</v>
       </c>
-      <c r="C96" s="85"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="65"/>
+      <c r="C96" s="99"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="72"/>
+      <c r="G96" s="73"/>
       <c r="H96" s="12" t="s">
         <v>49</v>
       </c>
@@ -6292,11 +6079,11 @@
       <c r="B97" s="9">
         <v>77</v>
       </c>
-      <c r="C97" s="85"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="65"/>
+      <c r="C97" s="99"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="73"/>
       <c r="H97" s="12" t="s">
         <v>49</v>
       </c>
@@ -6305,11 +6092,11 @@
       <c r="B98" s="27">
         <v>78</v>
       </c>
-      <c r="C98" s="85"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="65"/>
+      <c r="C98" s="99"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="73"/>
       <c r="H98" s="12" t="s">
         <v>49</v>
       </c>
@@ -6318,11 +6105,11 @@
       <c r="B99" s="9">
         <v>79</v>
       </c>
-      <c r="C99" s="85"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="64"/>
-      <c r="G99" s="65"/>
+      <c r="C99" s="99"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="73"/>
       <c r="H99" s="12" t="s">
         <v>49</v>
       </c>
@@ -6331,11 +6118,11 @@
       <c r="B100" s="27">
         <v>80</v>
       </c>
-      <c r="C100" s="85"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="65"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="73"/>
       <c r="H100" s="12" t="s">
         <v>49</v>
       </c>
@@ -6344,11 +6131,11 @@
       <c r="B101" s="9">
         <v>81</v>
       </c>
-      <c r="C101" s="85"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="64"/>
-      <c r="F101" s="64"/>
-      <c r="G101" s="65"/>
+      <c r="C101" s="99"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="73"/>
       <c r="H101" s="12" t="s">
         <v>49</v>
       </c>
@@ -6357,11 +6144,11 @@
       <c r="B102" s="27">
         <v>82</v>
       </c>
-      <c r="C102" s="85"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="65"/>
+      <c r="C102" s="99"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="73"/>
       <c r="H102" s="12" t="s">
         <v>49</v>
       </c>
@@ -6370,11 +6157,11 @@
       <c r="B103" s="9">
         <v>83</v>
       </c>
-      <c r="C103" s="85"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="64"/>
-      <c r="F103" s="64"/>
-      <c r="G103" s="65"/>
+      <c r="C103" s="99"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="73"/>
       <c r="H103" s="12" t="s">
         <v>49</v>
       </c>
@@ -6383,11 +6170,11 @@
       <c r="B104" s="27">
         <v>84</v>
       </c>
-      <c r="C104" s="85"/>
-      <c r="D104" s="64"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="64"/>
-      <c r="G104" s="65"/>
+      <c r="C104" s="99"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="73"/>
       <c r="H104" s="12" t="s">
         <v>49</v>
       </c>
@@ -6396,11 +6183,11 @@
       <c r="B105" s="9">
         <v>85</v>
       </c>
-      <c r="C105" s="85"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="65"/>
+      <c r="C105" s="99"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="73"/>
       <c r="H105" s="12" t="s">
         <v>49</v>
       </c>
@@ -6409,11 +6196,11 @@
       <c r="B106" s="27">
         <v>86</v>
       </c>
-      <c r="C106" s="85"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="65"/>
+      <c r="C106" s="99"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="73"/>
       <c r="H106" s="12" t="s">
         <v>49</v>
       </c>
@@ -6422,11 +6209,11 @@
       <c r="B107" s="9">
         <v>87</v>
       </c>
-      <c r="C107" s="85"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="65"/>
+      <c r="C107" s="99"/>
+      <c r="D107" s="72"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="73"/>
       <c r="H107" s="12" t="s">
         <v>49</v>
       </c>
@@ -6435,11 +6222,11 @@
       <c r="B108" s="27">
         <v>88</v>
       </c>
-      <c r="C108" s="85"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="64"/>
-      <c r="G108" s="65"/>
+      <c r="C108" s="99"/>
+      <c r="D108" s="72"/>
+      <c r="E108" s="72"/>
+      <c r="F108" s="72"/>
+      <c r="G108" s="73"/>
       <c r="H108" s="12" t="s">
         <v>49</v>
       </c>
@@ -6448,11 +6235,11 @@
       <c r="B109" s="9">
         <v>89</v>
       </c>
-      <c r="C109" s="85"/>
-      <c r="D109" s="64"/>
-      <c r="E109" s="64"/>
-      <c r="F109" s="64"/>
-      <c r="G109" s="65"/>
+      <c r="C109" s="99"/>
+      <c r="D109" s="72"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="72"/>
+      <c r="G109" s="73"/>
       <c r="H109" s="12" t="s">
         <v>49</v>
       </c>
@@ -6461,11 +6248,11 @@
       <c r="B110" s="27">
         <v>90</v>
       </c>
-      <c r="C110" s="85"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="64"/>
-      <c r="G110" s="65"/>
+      <c r="C110" s="99"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="73"/>
       <c r="H110" s="12" t="s">
         <v>49</v>
       </c>
@@ -6474,11 +6261,11 @@
       <c r="B111" s="9">
         <v>91</v>
       </c>
-      <c r="C111" s="85"/>
-      <c r="D111" s="64"/>
-      <c r="E111" s="64"/>
-      <c r="F111" s="64"/>
-      <c r="G111" s="65"/>
+      <c r="C111" s="99"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="73"/>
       <c r="H111" s="12" t="s">
         <v>49</v>
       </c>
@@ -6487,11 +6274,11 @@
       <c r="B112" s="27">
         <v>92</v>
       </c>
-      <c r="C112" s="85"/>
-      <c r="D112" s="64"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="65"/>
+      <c r="C112" s="99"/>
+      <c r="D112" s="72"/>
+      <c r="E112" s="72"/>
+      <c r="F112" s="72"/>
+      <c r="G112" s="73"/>
       <c r="H112" s="12" t="s">
         <v>49</v>
       </c>
@@ -6500,11 +6287,11 @@
       <c r="B113" s="9">
         <v>93</v>
       </c>
-      <c r="C113" s="85"/>
-      <c r="D113" s="64"/>
-      <c r="E113" s="64"/>
-      <c r="F113" s="64"/>
-      <c r="G113" s="65"/>
+      <c r="C113" s="99"/>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="73"/>
       <c r="H113" s="12" t="s">
         <v>49</v>
       </c>
@@ -6513,11 +6300,11 @@
       <c r="B114" s="27">
         <v>94</v>
       </c>
-      <c r="C114" s="85"/>
-      <c r="D114" s="64"/>
-      <c r="E114" s="64"/>
-      <c r="F114" s="64"/>
-      <c r="G114" s="65"/>
+      <c r="C114" s="99"/>
+      <c r="D114" s="72"/>
+      <c r="E114" s="72"/>
+      <c r="F114" s="72"/>
+      <c r="G114" s="73"/>
       <c r="H114" s="12" t="s">
         <v>49</v>
       </c>
@@ -6526,11 +6313,11 @@
       <c r="B115" s="9">
         <v>95</v>
       </c>
-      <c r="C115" s="85"/>
-      <c r="D115" s="64"/>
-      <c r="E115" s="64"/>
-      <c r="F115" s="64"/>
-      <c r="G115" s="65"/>
+      <c r="C115" s="99"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="72"/>
+      <c r="G115" s="73"/>
       <c r="H115" s="12" t="s">
         <v>49</v>
       </c>
@@ -6539,11 +6326,11 @@
       <c r="B116" s="27">
         <v>96</v>
       </c>
-      <c r="C116" s="85"/>
-      <c r="D116" s="64"/>
-      <c r="E116" s="64"/>
-      <c r="F116" s="64"/>
-      <c r="G116" s="65"/>
+      <c r="C116" s="99"/>
+      <c r="D116" s="72"/>
+      <c r="E116" s="72"/>
+      <c r="F116" s="72"/>
+      <c r="G116" s="73"/>
       <c r="H116" s="12" t="s">
         <v>49</v>
       </c>
@@ -6552,11 +6339,11 @@
       <c r="B117" s="9">
         <v>97</v>
       </c>
-      <c r="C117" s="85"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="64"/>
-      <c r="F117" s="64"/>
-      <c r="G117" s="65"/>
+      <c r="C117" s="99"/>
+      <c r="D117" s="72"/>
+      <c r="E117" s="72"/>
+      <c r="F117" s="72"/>
+      <c r="G117" s="73"/>
       <c r="H117" s="12" t="s">
         <v>49</v>
       </c>
@@ -6565,11 +6352,11 @@
       <c r="B118" s="27">
         <v>98</v>
       </c>
-      <c r="C118" s="85"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="64"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="65"/>
+      <c r="C118" s="99"/>
+      <c r="D118" s="72"/>
+      <c r="E118" s="72"/>
+      <c r="F118" s="72"/>
+      <c r="G118" s="73"/>
       <c r="H118" s="12" t="s">
         <v>49</v>
       </c>
@@ -6578,11 +6365,11 @@
       <c r="B119" s="9">
         <v>99</v>
       </c>
-      <c r="C119" s="85"/>
-      <c r="D119" s="64"/>
-      <c r="E119" s="64"/>
-      <c r="F119" s="64"/>
-      <c r="G119" s="65"/>
+      <c r="C119" s="99"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="72"/>
+      <c r="G119" s="73"/>
       <c r="H119" s="12" t="s">
         <v>49</v>
       </c>
@@ -6591,11 +6378,11 @@
       <c r="B120" s="27">
         <v>100</v>
       </c>
-      <c r="C120" s="85"/>
-      <c r="D120" s="64"/>
-      <c r="E120" s="64"/>
-      <c r="F120" s="64"/>
-      <c r="G120" s="65"/>
+      <c r="C120" s="99"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="73"/>
       <c r="H120" s="12" t="s">
         <v>49</v>
       </c>
@@ -8274,50 +8061,53 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
@@ -8342,53 +8132,50 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21:H120" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -8438,85 +8225,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="2">
         <f>Requisitos!C11</f>
         <v>45170</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K65" si="0">K1+1</f>
         <v>45171</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45172</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45173</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45174</v>
@@ -8530,18 +8317,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45176</v>
@@ -8555,16 +8342,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -9935,30 +9722,30 @@
       </c>
     </row>
     <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="100" t="s">
+      <c r="B63" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="65"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="73"/>
       <c r="K63" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
       </c>
     </row>
     <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="101" t="s">
+      <c r="B64" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="7" t="s">
         <v>67</v>
       </c>
@@ -9971,15 +9758,15 @@
       </c>
     </row>
     <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="99" t="str">
+      <c r="B65" s="105" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B10,H$11:H$60)</f>
         <v>0</v>
@@ -9994,15 +9781,15 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="99" t="str">
+      <c r="B66" s="105" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -10017,15 +9804,15 @@
       </c>
     </row>
     <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="99" t="str">
+      <c r="B67" s="105" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="65"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -10040,15 +9827,15 @@
       </c>
     </row>
     <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="99" t="str">
+      <c r="B68" s="105" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Maria Eduarda Amaral</v>
       </c>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -10063,15 +9850,15 @@
       </c>
     </row>
     <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="99" t="str">
+      <c r="B69" s="105" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -10086,15 +9873,15 @@
       </c>
     </row>
     <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="99" t="str">
+      <c r="B70" s="105" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="65"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="73"/>
       <c r="H70" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -11147,42 +10934,42 @@
     <mergeCell ref="B68:G68"/>
   </mergeCells>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="146" priority="3">
+    <cfRule type="expression" dxfId="122" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="145" priority="4">
+    <cfRule type="expression" dxfId="121" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="144" priority="5">
+    <cfRule type="expression" dxfId="120" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="143" priority="6">
+    <cfRule type="expression" dxfId="119" priority="6">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="142" priority="7">
+    <cfRule type="expression" dxfId="118" priority="7">
       <formula>NOT(ISERROR(SEARCH(($B$70),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="containsBlanks" dxfId="141" priority="8">
+    <cfRule type="containsBlanks" dxfId="117" priority="8">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" dxfId="140" priority="1">
+    <cfRule type="expression" dxfId="116" priority="1">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" dxfId="139" priority="2">
+    <cfRule type="expression" dxfId="115" priority="2">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11243,85 +11030,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="2">
         <f>Requisitos!C12</f>
         <v>45191</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45192</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45193</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45194</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45195</v>
@@ -11335,18 +11122,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45197</v>
@@ -11360,16 +11147,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -12735,26 +12522,26 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="100" t="s">
+      <c r="B72" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="65"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="73"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="101" t="s">
+      <c r="B73" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="65"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="73"/>
       <c r="H73" s="7" t="s">
         <v>67</v>
       </c>
@@ -12763,15 +12550,15 @@
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="99" t="str">
+      <c r="B74" s="105" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="65"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -12782,15 +12569,15 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="99" t="str">
+      <c r="B75" s="105" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="73"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -12801,15 +12588,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="99" t="str">
+      <c r="B76" s="105" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -12820,15 +12607,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="99" t="str">
+      <c r="B77" s="105" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="65"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -12839,15 +12626,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="99" t="str">
+      <c r="B78" s="105" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="65"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -13887,157 +13674,157 @@
     <mergeCell ref="B76:G76"/>
   </mergeCells>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="138" priority="7">
+    <cfRule type="expression" dxfId="114" priority="7">
       <formula>NOT(ISERROR(SEARCH(($B$74),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="137" priority="8">
+    <cfRule type="expression" dxfId="113" priority="8">
       <formula>NOT(ISERROR(SEARCH(($B$75),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="136" priority="9">
+    <cfRule type="expression" dxfId="112" priority="9">
       <formula>NOT(ISERROR(SEARCH(($B$76),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="135" priority="10">
+    <cfRule type="expression" dxfId="111" priority="10">
       <formula>NOT(ISERROR(SEARCH(($B$77),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="134" priority="11">
+    <cfRule type="expression" dxfId="110" priority="11">
       <formula>NOT(ISERROR(SEARCH(($B$78),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="containsBlanks" dxfId="133" priority="12">
+    <cfRule type="containsBlanks" dxfId="109" priority="12">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="132" priority="13">
+    <cfRule type="expression" dxfId="108" priority="13">
       <formula>NOT(ISERROR(SEARCH(($B$74),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="131" priority="14">
+    <cfRule type="expression" dxfId="107" priority="14">
       <formula>NOT(ISERROR(SEARCH(($B$75),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="130" priority="15">
+    <cfRule type="expression" dxfId="106" priority="15">
       <formula>NOT(ISERROR(SEARCH(($B$76),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="129" priority="16">
+    <cfRule type="expression" dxfId="105" priority="16">
       <formula>NOT(ISERROR(SEARCH(($B$77),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="128" priority="17">
+    <cfRule type="expression" dxfId="104" priority="17">
       <formula>NOT(ISERROR(SEARCH(($B$78),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="containsBlanks" dxfId="127" priority="18">
+    <cfRule type="containsBlanks" dxfId="103" priority="18">
       <formula>LEN(TRIM(F24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C69">
-    <cfRule type="expression" dxfId="126" priority="19">
+    <cfRule type="expression" dxfId="102" priority="19">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="125" priority="20">
+    <cfRule type="expression" dxfId="101" priority="20">
       <formula>NOT(ISERROR(SEARCH(($B$74),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="124" priority="21">
+    <cfRule type="expression" dxfId="100" priority="21">
       <formula>NOT(ISERROR(SEARCH(($B$75),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="123" priority="22">
+    <cfRule type="expression" dxfId="99" priority="22">
       <formula>NOT(ISERROR(SEARCH(($B$76),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="122" priority="23">
+    <cfRule type="expression" dxfId="98" priority="23">
       <formula>NOT(ISERROR(SEARCH(($B$77),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="121" priority="24">
+    <cfRule type="expression" dxfId="97" priority="24">
       <formula>NOT(ISERROR(SEARCH(($B$78),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="containsBlanks" dxfId="120" priority="25">
+    <cfRule type="containsBlanks" dxfId="96" priority="25">
       <formula>LEN(TRIM(F24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="119" priority="26">
+    <cfRule type="expression" dxfId="95" priority="26">
       <formula>NOT(ISERROR(SEARCH(($B$74),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="118" priority="27">
+    <cfRule type="expression" dxfId="94" priority="27">
       <formula>NOT(ISERROR(SEARCH(($B$75),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="117" priority="28">
+    <cfRule type="expression" dxfId="93" priority="28">
       <formula>NOT(ISERROR(SEARCH(($B$76),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="116" priority="29">
+    <cfRule type="expression" dxfId="92" priority="29">
       <formula>NOT(ISERROR(SEARCH(($B$77),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="115" priority="30">
+    <cfRule type="expression" dxfId="91" priority="30">
       <formula>NOT(ISERROR(SEARCH(($B$78),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="containsBlanks" dxfId="114" priority="31">
+    <cfRule type="containsBlanks" dxfId="90" priority="31">
       <formula>LEN(TRIM(F24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C69">
-    <cfRule type="expression" dxfId="113" priority="32">
+    <cfRule type="expression" dxfId="89" priority="32">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="112" priority="1">
+    <cfRule type="expression" dxfId="88" priority="1">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="111" priority="2">
+    <cfRule type="expression" dxfId="87" priority="2">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="110" priority="3">
+    <cfRule type="expression" dxfId="86" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="109" priority="4">
+    <cfRule type="expression" dxfId="85" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="108" priority="5">
+    <cfRule type="expression" dxfId="84" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$70),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14077,8 +13864,8 @@
   <dimension ref="A1:U1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14098,85 +13885,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="2">
         <f>Requisitos!C13</f>
         <v>45205</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K22" si="0">K1+1</f>
         <v>45206</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45208</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45209</v>
@@ -14190,18 +13977,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45211</v>
@@ -14215,16 +14002,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -14787,7 +14574,9 @@
         <v>18</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12" t="s">
+        <v>151</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="41"/>
@@ -15534,7 +15323,7 @@
       <c r="C72" s="30"/>
       <c r="D72" s="30">
         <f>COUNTIFS(D11:D61, "&lt;&gt;"&amp;"")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E72" s="30"/>
       <c r="F72" s="30"/>
@@ -15545,26 +15334,26 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="100" t="s">
+      <c r="B73" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="65"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="73"/>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="101" t="s">
+      <c r="B74" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="65"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="7" t="s">
         <v>67</v>
       </c>
@@ -15573,15 +15362,15 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="99" t="str">
+      <c r="B75" s="105" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="73"/>
       <c r="H75" s="33">
         <f>SUMIF($F$11:$F$61,'Dados do Projeto'!$B10,H$11:H$61)</f>
         <v>0</v>
@@ -15592,15 +15381,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="99" t="str">
+      <c r="B76" s="105" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B11,H$11:H$61)</f>
         <v>0</v>
@@ -15611,15 +15400,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="99" t="str">
+      <c r="B77" s="105" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="65"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B12,H$11:H$61)</f>
         <v>0</v>
@@ -15630,15 +15419,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="99" t="str">
+      <c r="B78" s="105" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="65"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B14,H$11:H$61)</f>
         <v>0</v>
@@ -15649,15 +15438,15 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="99" t="str">
+      <c r="B79" s="105" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="65"/>
+      <c r="C79" s="72"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="73"/>
       <c r="H79" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B15,H$11:H$61)</f>
         <v>0</v>
@@ -16681,6 +16470,12 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B79:G79"/>
     <mergeCell ref="B9:I9"/>
@@ -16689,15 +16484,9 @@
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
     <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:C70">
-    <cfRule type="expression" dxfId="95" priority="31">
+    <cfRule type="expression" dxfId="83" priority="31">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16854,85 +16643,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="2">
         <f>Requisitos!C14</f>
         <v>45226</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45227</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45229</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45230</v>
@@ -16946,18 +16735,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -16971,16 +16760,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="57" t="s">
         <v>55</v>
       </c>
@@ -18117,26 +17906,26 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="100" t="s">
+      <c r="B72" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="65"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="73"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="101" t="s">
+      <c r="B73" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="65"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="73"/>
       <c r="H73" s="7" t="s">
         <v>67</v>
       </c>
@@ -18145,15 +17934,15 @@
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="99" t="str">
+      <c r="B74" s="105" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="65"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -18164,15 +17953,15 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="99" t="str">
+      <c r="B75" s="105" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="73"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -18183,15 +17972,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="99" t="str">
+      <c r="B76" s="105" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -18202,15 +17991,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="99" t="str">
+      <c r="B77" s="105" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="65"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -18221,15 +18010,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="99" t="str">
+      <c r="B78" s="105" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="65"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -19253,6 +19042,12 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -19261,12 +19056,6 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="63" priority="1">
@@ -19452,85 +19241,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="2">
         <f>Requisitos!C15</f>
         <v>45247</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45248</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45249</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45250</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45251</v>
@@ -19543,18 +19332,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45253</v>
@@ -19567,16 +19356,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="58" t="s">
         <v>55</v>
       </c>
@@ -20537,26 +20326,26 @@
       </c>
     </row>
     <row r="63" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="100" t="s">
+      <c r="B63" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="65"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="73"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="101" t="s">
+      <c r="B64" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="7" t="s">
         <v>67</v>
       </c>
@@ -20565,15 +20354,15 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="99" t="str">
+      <c r="B65" s="105" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -20584,15 +20373,15 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="99" t="str">
+      <c r="B66" s="105" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -20603,15 +20392,15 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="99" t="str">
+      <c r="B67" s="105" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="65"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -20622,15 +20411,15 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="99" t="str">
+      <c r="B68" s="105" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -20641,15 +20430,15 @@
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="99" t="str">
+      <c r="B69" s="105" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -21612,6 +21401,12 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="B9:I9"/>
@@ -21620,12 +21415,6 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F13 F17">
     <cfRule type="containsBlanks" dxfId="37" priority="1">

--- a/Artefatos/sprints/Planejamento_sprints.xlsx
+++ b/Artefatos/sprints/Planejamento_sprints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\repositories\plf-es-2023-2-ti3-6653100-fabrica-do-saber\Artefatos\sprints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorios_github\plf-es-2023-2-ti3-6653100-fabrica-do-saber\Artefatos\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1514BE5-A8C7-4440-886B-82AB15D09CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC6B158-75DA-4205-AA7F-7C6274C80B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Projeto" sheetId="1" r:id="rId1"/>
@@ -1403,35 +1403,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1441,19 +1422,74 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1470,15 +1506,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1487,33 +1514,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1526,22 +1526,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="123">
@@ -2668,7 +2668,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="18"/>
   <c:chart>
@@ -3286,166 +3286,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="76" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="78" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="71"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="78" t="s">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="71"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="78" t="s">
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="78" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="80"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="71"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="78" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="78" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="18"/>
@@ -3547,16 +3547,16 @@
     <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="50"/>
-      <c r="B100" s="82"/>
-      <c r="C100" s="67"/>
-      <c r="D100" s="83" t="s">
+      <c r="B100" s="72"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="67"/>
-      <c r="F100" s="83" t="s">
+      <c r="E100" s="64"/>
+      <c r="F100" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="67"/>
+      <c r="G100" s="64"/>
       <c r="H100" s="51" t="s">
         <v>18</v>
       </c>
@@ -3578,12 +3578,12 @@
     </row>
     <row r="101" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
-      <c r="B101" s="85"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="84" t="s">
+      <c r="B101" s="63"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="67"/>
+      <c r="E101" s="64"/>
       <c r="F101" s="53" t="s">
         <v>24</v>
       </c>
@@ -3616,12 +3616,12 @@
     </row>
     <row r="102" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="50"/>
-      <c r="B102" s="85"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="84" t="s">
+      <c r="B102" s="63"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="67"/>
+      <c r="E102" s="64"/>
       <c r="F102" s="53" t="s">
         <v>29</v>
       </c>
@@ -3655,12 +3655,12 @@
     </row>
     <row r="103" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="50"/>
-      <c r="B103" s="85"/>
-      <c r="C103" s="67"/>
-      <c r="D103" s="84" t="s">
+      <c r="B103" s="63"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="67"/>
+      <c r="E103" s="64"/>
       <c r="F103" s="53"/>
       <c r="G103" s="54" t="s">
         <v>34</v>
@@ -3692,12 +3692,12 @@
     </row>
     <row r="104" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="50"/>
-      <c r="B104" s="85"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="84" t="s">
+      <c r="B104" s="63"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="67"/>
+      <c r="E104" s="64"/>
       <c r="F104" s="53"/>
       <c r="G104" s="54" t="s">
         <v>36</v>
@@ -3727,12 +3727,12 @@
     </row>
     <row r="105" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="50"/>
-      <c r="B105" s="85"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="84" t="s">
+      <c r="B105" s="63"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="67"/>
+      <c r="E105" s="64"/>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="s">
         <v>39</v>
@@ -3757,8 +3757,8 @@
     </row>
     <row r="106" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="50"/>
-      <c r="B106" s="85"/>
-      <c r="C106" s="67"/>
+      <c r="B106" s="63"/>
+      <c r="C106" s="64"/>
       <c r="F106" s="53"/>
       <c r="G106" s="54"/>
       <c r="H106" s="53"/>
@@ -3769,8 +3769,8 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="50"/>
-      <c r="B107" s="85"/>
-      <c r="C107" s="67"/>
+      <c r="B107" s="63"/>
+      <c r="C107" s="64"/>
       <c r="D107" s="55"/>
       <c r="E107" s="53"/>
       <c r="F107" s="53"/>
@@ -4738,12 +4738,24 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="D100:E100"/>
@@ -4755,24 +4767,12 @@
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D105:E105"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="F10:F15" xr:uid="{49EDF03A-7EFB-435C-A992-40D98DE85B41}">
@@ -4815,59 +4815,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -4879,16 +4879,16 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="95" t="str">
+      <c r="B7" s="104" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -4900,15 +4900,15 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
@@ -4920,11 +4920,11 @@
       <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
       <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
@@ -4939,9 +4939,9 @@
       <c r="D11" s="14">
         <v>45190</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4955,9 +4955,9 @@
         <f t="shared" ref="D12" si="0">C12+13</f>
         <v>45204</v>
       </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4971,9 +4971,9 @@
       <c r="D13" s="14">
         <v>45225</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4986,9 +4986,9 @@
       <c r="D14" s="14">
         <v>45246</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5027,13 +5027,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
       <c r="H18" s="22" t="s">
         <v>47</v>
       </c>
@@ -5042,11 +5042,11 @@
       <c r="B19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="75"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
       <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
@@ -5056,11 +5056,11 @@
       <c r="B20" s="27">
         <v>0</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="75"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="28"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -5077,13 +5077,13 @@
       <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="94"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="92"/>
       <c r="H21" s="12" t="s">
         <v>50</v>
       </c>
@@ -5093,13 +5093,13 @@
       <c r="B22" s="27">
         <v>2</v>
       </c>
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="94"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="12" t="s">
         <v>50</v>
       </c>
@@ -5108,13 +5108,13 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="94"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="92"/>
       <c r="H23" s="12" t="s">
         <v>50</v>
       </c>
@@ -5123,13 +5123,13 @@
       <c r="B24" s="27">
         <v>4</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="100"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="95"/>
       <c r="H24" s="12" t="s">
         <v>54</v>
       </c>
@@ -5138,13 +5138,13 @@
       <c r="B25" s="9">
         <v>5</v>
       </c>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89"/>
       <c r="H25" s="12" t="s">
         <v>54</v>
       </c>
@@ -5153,13 +5153,13 @@
       <c r="B26" s="27">
         <v>6</v>
       </c>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
       <c r="H26" s="12" t="s">
         <v>54</v>
       </c>
@@ -5168,13 +5168,13 @@
       <c r="B27" s="9">
         <v>7</v>
       </c>
-      <c r="C27" s="104" t="s">
+      <c r="C27" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="106"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="12" t="s">
         <v>58</v>
       </c>
@@ -5183,13 +5183,13 @@
       <c r="B28" s="27">
         <v>8</v>
       </c>
-      <c r="C28" s="98" t="s">
+      <c r="C28" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="100"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="95"/>
       <c r="H28" s="12" t="s">
         <v>54</v>
       </c>
@@ -5198,13 +5198,13 @@
       <c r="B29" s="9">
         <v>9</v>
       </c>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="106"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="98"/>
       <c r="H29" s="12" t="s">
         <v>58</v>
       </c>
@@ -5213,13 +5213,13 @@
       <c r="B30" s="27">
         <v>10</v>
       </c>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="12" t="s">
         <v>54</v>
       </c>
@@ -5228,13 +5228,13 @@
       <c r="B31" s="9">
         <v>11</v>
       </c>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="89"/>
       <c r="H31" s="12" t="s">
         <v>54</v>
       </c>
@@ -5243,13 +5243,13 @@
       <c r="B32" s="27">
         <v>12</v>
       </c>
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="89"/>
       <c r="H32" s="12" t="s">
         <v>58</v>
       </c>
@@ -5258,13 +5258,13 @@
       <c r="B33" s="9">
         <v>13</v>
       </c>
-      <c r="C33" s="92" t="s">
+      <c r="C33" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="94"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="92"/>
       <c r="H33" s="12" t="s">
         <v>50</v>
       </c>
@@ -5273,11 +5273,11 @@
       <c r="B34" s="27">
         <v>14</v>
       </c>
-      <c r="C34" s="101"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="103"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="89"/>
       <c r="H34" s="12" t="s">
         <v>54</v>
       </c>
@@ -5286,11 +5286,11 @@
       <c r="B35" s="9">
         <v>15</v>
       </c>
-      <c r="C35" s="101"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="103"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="89"/>
       <c r="H35" s="12" t="s">
         <v>54</v>
       </c>
@@ -5299,11 +5299,11 @@
       <c r="B36" s="27">
         <v>16</v>
       </c>
-      <c r="C36" s="101"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="75"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
       <c r="H36" s="12" t="s">
         <v>54</v>
       </c>
@@ -5312,11 +5312,11 @@
       <c r="B37" s="9">
         <v>17</v>
       </c>
-      <c r="C37" s="101"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="75"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
       <c r="H37" s="12" t="s">
         <v>54</v>
       </c>
@@ -5325,11 +5325,11 @@
       <c r="B38" s="27">
         <v>18</v>
       </c>
-      <c r="C38" s="101"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="75"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="67"/>
       <c r="H38" s="12" t="s">
         <v>54</v>
       </c>
@@ -5338,11 +5338,11 @@
       <c r="B39" s="9">
         <v>19</v>
       </c>
-      <c r="C39" s="101"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="75"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
       <c r="H39" s="12" t="s">
         <v>54</v>
       </c>
@@ -5351,11 +5351,11 @@
       <c r="B40" s="27">
         <v>20</v>
       </c>
-      <c r="C40" s="101"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="75"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
       <c r="H40" s="12" t="s">
         <v>54</v>
       </c>
@@ -5364,11 +5364,11 @@
       <c r="B41" s="9">
         <v>21</v>
       </c>
-      <c r="C41" s="101"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="75"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
       <c r="H41" s="12" t="s">
         <v>54</v>
       </c>
@@ -5377,11 +5377,11 @@
       <c r="B42" s="27">
         <v>22</v>
       </c>
-      <c r="C42" s="101"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="75"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
       <c r="H42" s="12" t="s">
         <v>54</v>
       </c>
@@ -5390,11 +5390,11 @@
       <c r="B43" s="9">
         <v>23</v>
       </c>
-      <c r="C43" s="101"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="75"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
       <c r="H43" s="12" t="s">
         <v>54</v>
       </c>
@@ -5403,11 +5403,11 @@
       <c r="B44" s="27">
         <v>24</v>
       </c>
-      <c r="C44" s="101"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="75"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
       <c r="H44" s="12" t="s">
         <v>54</v>
       </c>
@@ -5416,11 +5416,11 @@
       <c r="B45" s="9">
         <v>25</v>
       </c>
-      <c r="C45" s="101"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="75"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
       <c r="H45" s="12" t="s">
         <v>54</v>
       </c>
@@ -5429,11 +5429,11 @@
       <c r="B46" s="27">
         <v>26</v>
       </c>
-      <c r="C46" s="101"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="75"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
       <c r="H46" s="12" t="s">
         <v>54</v>
       </c>
@@ -5442,11 +5442,11 @@
       <c r="B47" s="9">
         <v>27</v>
       </c>
-      <c r="C47" s="101"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="75"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
       <c r="H47" s="12" t="s">
         <v>54</v>
       </c>
@@ -5455,11 +5455,11 @@
       <c r="B48" s="27">
         <v>28</v>
       </c>
-      <c r="C48" s="101"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="75"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
       <c r="H48" s="12" t="s">
         <v>54</v>
       </c>
@@ -5468,11 +5468,11 @@
       <c r="B49" s="9">
         <v>29</v>
       </c>
-      <c r="C49" s="101"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="75"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
       <c r="H49" s="12" t="s">
         <v>54</v>
       </c>
@@ -5481,11 +5481,11 @@
       <c r="B50" s="27">
         <v>30</v>
       </c>
-      <c r="C50" s="101"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="75"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
       <c r="H50" s="12" t="s">
         <v>54</v>
       </c>
@@ -5494,11 +5494,11 @@
       <c r="B51" s="9">
         <v>31</v>
       </c>
-      <c r="C51" s="101"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="75"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
       <c r="H51" s="12" t="s">
         <v>54</v>
       </c>
@@ -5507,11 +5507,11 @@
       <c r="B52" s="27">
         <v>32</v>
       </c>
-      <c r="C52" s="101"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="75"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
       <c r="H52" s="12" t="s">
         <v>54</v>
       </c>
@@ -5520,11 +5520,11 @@
       <c r="B53" s="9">
         <v>33</v>
       </c>
-      <c r="C53" s="101"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="75"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
       <c r="H53" s="12" t="s">
         <v>54</v>
       </c>
@@ -5533,11 +5533,11 @@
       <c r="B54" s="27">
         <v>34</v>
       </c>
-      <c r="C54" s="101"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="75"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
       <c r="H54" s="12" t="s">
         <v>54</v>
       </c>
@@ -5546,11 +5546,11 @@
       <c r="B55" s="9">
         <v>35</v>
       </c>
-      <c r="C55" s="101"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="67"/>
       <c r="H55" s="12" t="s">
         <v>54</v>
       </c>
@@ -5559,11 +5559,11 @@
       <c r="B56" s="27">
         <v>36</v>
       </c>
-      <c r="C56" s="101"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="75"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="67"/>
       <c r="H56" s="12" t="s">
         <v>54</v>
       </c>
@@ -5572,11 +5572,11 @@
       <c r="B57" s="9">
         <v>37</v>
       </c>
-      <c r="C57" s="101"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="75"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="67"/>
       <c r="H57" s="12" t="s">
         <v>54</v>
       </c>
@@ -5585,11 +5585,11 @@
       <c r="B58" s="27">
         <v>38</v>
       </c>
-      <c r="C58" s="101"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="75"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="67"/>
       <c r="H58" s="12" t="s">
         <v>54</v>
       </c>
@@ -5598,11 +5598,11 @@
       <c r="B59" s="9">
         <v>39</v>
       </c>
-      <c r="C59" s="101"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="75"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="67"/>
       <c r="H59" s="12" t="s">
         <v>54</v>
       </c>
@@ -5611,11 +5611,11 @@
       <c r="B60" s="27">
         <v>40</v>
       </c>
-      <c r="C60" s="101"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="75"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="67"/>
       <c r="H60" s="12" t="s">
         <v>54</v>
       </c>
@@ -5624,11 +5624,11 @@
       <c r="B61" s="9">
         <v>41</v>
       </c>
-      <c r="C61" s="101"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="75"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="67"/>
       <c r="H61" s="12" t="s">
         <v>54</v>
       </c>
@@ -5637,11 +5637,11 @@
       <c r="B62" s="27">
         <v>42</v>
       </c>
-      <c r="C62" s="101"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="75"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="67"/>
       <c r="H62" s="12" t="s">
         <v>54</v>
       </c>
@@ -5650,11 +5650,11 @@
       <c r="B63" s="9">
         <v>43</v>
       </c>
-      <c r="C63" s="101"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="75"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="67"/>
       <c r="H63" s="12" t="s">
         <v>54</v>
       </c>
@@ -5663,11 +5663,11 @@
       <c r="B64" s="27">
         <v>44</v>
       </c>
-      <c r="C64" s="101"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="75"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="67"/>
       <c r="H64" s="12" t="s">
         <v>54</v>
       </c>
@@ -5676,11 +5676,11 @@
       <c r="B65" s="9">
         <v>45</v>
       </c>
-      <c r="C65" s="101"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="75"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="67"/>
       <c r="H65" s="12" t="s">
         <v>54</v>
       </c>
@@ -5689,11 +5689,11 @@
       <c r="B66" s="27">
         <v>46</v>
       </c>
-      <c r="C66" s="101"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="75"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="67"/>
       <c r="H66" s="12" t="s">
         <v>54</v>
       </c>
@@ -5702,11 +5702,11 @@
       <c r="B67" s="9">
         <v>47</v>
       </c>
-      <c r="C67" s="101"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="75"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="67"/>
       <c r="H67" s="12" t="s">
         <v>54</v>
       </c>
@@ -5715,11 +5715,11 @@
       <c r="B68" s="27">
         <v>48</v>
       </c>
-      <c r="C68" s="101"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="75"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="67"/>
       <c r="H68" s="12" t="s">
         <v>54</v>
       </c>
@@ -5728,11 +5728,11 @@
       <c r="B69" s="9">
         <v>49</v>
       </c>
-      <c r="C69" s="101"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="75"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="67"/>
       <c r="H69" s="12" t="s">
         <v>54</v>
       </c>
@@ -5741,11 +5741,11 @@
       <c r="B70" s="27">
         <v>50</v>
       </c>
-      <c r="C70" s="101"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74"/>
-      <c r="G70" s="75"/>
+      <c r="C70" s="87"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="67"/>
       <c r="H70" s="12" t="s">
         <v>54</v>
       </c>
@@ -5754,11 +5754,11 @@
       <c r="B71" s="9">
         <v>51</v>
       </c>
-      <c r="C71" s="101"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="75"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="67"/>
       <c r="H71" s="12" t="s">
         <v>54</v>
       </c>
@@ -5767,11 +5767,11 @@
       <c r="B72" s="27">
         <v>52</v>
       </c>
-      <c r="C72" s="101"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="75"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="67"/>
       <c r="H72" s="12" t="s">
         <v>54</v>
       </c>
@@ -5780,11 +5780,11 @@
       <c r="B73" s="9">
         <v>53</v>
       </c>
-      <c r="C73" s="101"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="75"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="67"/>
       <c r="H73" s="12" t="s">
         <v>54</v>
       </c>
@@ -5793,11 +5793,11 @@
       <c r="B74" s="27">
         <v>54</v>
       </c>
-      <c r="C74" s="101"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="75"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="67"/>
       <c r="H74" s="12" t="s">
         <v>54</v>
       </c>
@@ -5806,11 +5806,11 @@
       <c r="B75" s="9">
         <v>55</v>
       </c>
-      <c r="C75" s="101"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="75"/>
+      <c r="C75" s="87"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="67"/>
       <c r="H75" s="12" t="s">
         <v>54</v>
       </c>
@@ -5819,11 +5819,11 @@
       <c r="B76" s="27">
         <v>56</v>
       </c>
-      <c r="C76" s="101"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="75"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="67"/>
       <c r="H76" s="12" t="s">
         <v>54</v>
       </c>
@@ -5832,11 +5832,11 @@
       <c r="B77" s="9">
         <v>57</v>
       </c>
-      <c r="C77" s="101"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="75"/>
+      <c r="C77" s="87"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="67"/>
       <c r="H77" s="12" t="s">
         <v>54</v>
       </c>
@@ -5845,11 +5845,11 @@
       <c r="B78" s="27">
         <v>58</v>
       </c>
-      <c r="C78" s="101"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="75"/>
+      <c r="C78" s="87"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="67"/>
       <c r="H78" s="12" t="s">
         <v>54</v>
       </c>
@@ -5858,11 +5858,11 @@
       <c r="B79" s="9">
         <v>59</v>
       </c>
-      <c r="C79" s="101"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="75"/>
+      <c r="C79" s="87"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="67"/>
       <c r="H79" s="12" t="s">
         <v>54</v>
       </c>
@@ -5871,11 +5871,11 @@
       <c r="B80" s="27">
         <v>60</v>
       </c>
-      <c r="C80" s="101"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="75"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="67"/>
       <c r="H80" s="12" t="s">
         <v>54</v>
       </c>
@@ -5884,11 +5884,11 @@
       <c r="B81" s="9">
         <v>61</v>
       </c>
-      <c r="C81" s="101"/>
-      <c r="D81" s="74"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="74"/>
-      <c r="G81" s="75"/>
+      <c r="C81" s="87"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="67"/>
       <c r="H81" s="12" t="s">
         <v>54</v>
       </c>
@@ -5897,11 +5897,11 @@
       <c r="B82" s="27">
         <v>62</v>
       </c>
-      <c r="C82" s="101"/>
-      <c r="D82" s="74"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="75"/>
+      <c r="C82" s="87"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="67"/>
       <c r="H82" s="12" t="s">
         <v>54</v>
       </c>
@@ -5910,11 +5910,11 @@
       <c r="B83" s="9">
         <v>63</v>
       </c>
-      <c r="C83" s="101"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="75"/>
+      <c r="C83" s="87"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="67"/>
       <c r="H83" s="12" t="s">
         <v>54</v>
       </c>
@@ -5923,11 +5923,11 @@
       <c r="B84" s="27">
         <v>64</v>
       </c>
-      <c r="C84" s="101"/>
-      <c r="D84" s="74"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="74"/>
-      <c r="G84" s="75"/>
+      <c r="C84" s="87"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="67"/>
       <c r="H84" s="12" t="s">
         <v>54</v>
       </c>
@@ -5936,11 +5936,11 @@
       <c r="B85" s="9">
         <v>65</v>
       </c>
-      <c r="C85" s="101"/>
-      <c r="D85" s="74"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="74"/>
-      <c r="G85" s="75"/>
+      <c r="C85" s="87"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="67"/>
       <c r="H85" s="12" t="s">
         <v>54</v>
       </c>
@@ -5949,11 +5949,11 @@
       <c r="B86" s="27">
         <v>66</v>
       </c>
-      <c r="C86" s="101"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="75"/>
+      <c r="C86" s="87"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="67"/>
       <c r="H86" s="12" t="s">
         <v>54</v>
       </c>
@@ -5962,11 +5962,11 @@
       <c r="B87" s="9">
         <v>67</v>
       </c>
-      <c r="C87" s="101"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="74"/>
-      <c r="G87" s="75"/>
+      <c r="C87" s="87"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="67"/>
       <c r="H87" s="12" t="s">
         <v>54</v>
       </c>
@@ -5975,11 +5975,11 @@
       <c r="B88" s="27">
         <v>68</v>
       </c>
-      <c r="C88" s="101"/>
-      <c r="D88" s="74"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="74"/>
-      <c r="G88" s="75"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="67"/>
       <c r="H88" s="12" t="s">
         <v>54</v>
       </c>
@@ -5988,11 +5988,11 @@
       <c r="B89" s="9">
         <v>69</v>
       </c>
-      <c r="C89" s="101"/>
-      <c r="D89" s="74"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="75"/>
+      <c r="C89" s="87"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="67"/>
       <c r="H89" s="12" t="s">
         <v>54</v>
       </c>
@@ -6001,11 +6001,11 @@
       <c r="B90" s="27">
         <v>70</v>
       </c>
-      <c r="C90" s="101"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="75"/>
+      <c r="C90" s="87"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="67"/>
       <c r="H90" s="12" t="s">
         <v>54</v>
       </c>
@@ -6014,11 +6014,11 @@
       <c r="B91" s="9">
         <v>71</v>
       </c>
-      <c r="C91" s="101"/>
-      <c r="D91" s="74"/>
-      <c r="E91" s="74"/>
-      <c r="F91" s="74"/>
-      <c r="G91" s="75"/>
+      <c r="C91" s="87"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="67"/>
       <c r="H91" s="12" t="s">
         <v>54</v>
       </c>
@@ -6027,11 +6027,11 @@
       <c r="B92" s="27">
         <v>72</v>
       </c>
-      <c r="C92" s="101"/>
-      <c r="D92" s="74"/>
-      <c r="E92" s="74"/>
-      <c r="F92" s="74"/>
-      <c r="G92" s="75"/>
+      <c r="C92" s="87"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="67"/>
       <c r="H92" s="12" t="s">
         <v>54</v>
       </c>
@@ -6040,11 +6040,11 @@
       <c r="B93" s="9">
         <v>73</v>
       </c>
-      <c r="C93" s="101"/>
-      <c r="D93" s="74"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="74"/>
-      <c r="G93" s="75"/>
+      <c r="C93" s="87"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="67"/>
       <c r="H93" s="12" t="s">
         <v>54</v>
       </c>
@@ -6053,11 +6053,11 @@
       <c r="B94" s="27">
         <v>74</v>
       </c>
-      <c r="C94" s="101"/>
-      <c r="D94" s="74"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="74"/>
-      <c r="G94" s="75"/>
+      <c r="C94" s="87"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="67"/>
       <c r="H94" s="12" t="s">
         <v>54</v>
       </c>
@@ -6066,11 +6066,11 @@
       <c r="B95" s="9">
         <v>75</v>
       </c>
-      <c r="C95" s="101"/>
-      <c r="D95" s="74"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="75"/>
+      <c r="C95" s="87"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="67"/>
       <c r="H95" s="12" t="s">
         <v>54</v>
       </c>
@@ -6079,11 +6079,11 @@
       <c r="B96" s="27">
         <v>76</v>
       </c>
-      <c r="C96" s="101"/>
-      <c r="D96" s="74"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="75"/>
+      <c r="C96" s="87"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="67"/>
       <c r="H96" s="12" t="s">
         <v>54</v>
       </c>
@@ -6092,11 +6092,11 @@
       <c r="B97" s="9">
         <v>77</v>
       </c>
-      <c r="C97" s="101"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="74"/>
-      <c r="G97" s="75"/>
+      <c r="C97" s="87"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="67"/>
       <c r="H97" s="12" t="s">
         <v>54</v>
       </c>
@@ -6105,11 +6105,11 @@
       <c r="B98" s="27">
         <v>78</v>
       </c>
-      <c r="C98" s="101"/>
-      <c r="D98" s="74"/>
-      <c r="E98" s="74"/>
-      <c r="F98" s="74"/>
-      <c r="G98" s="75"/>
+      <c r="C98" s="87"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="67"/>
       <c r="H98" s="12" t="s">
         <v>54</v>
       </c>
@@ -6118,11 +6118,11 @@
       <c r="B99" s="9">
         <v>79</v>
       </c>
-      <c r="C99" s="101"/>
-      <c r="D99" s="74"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="74"/>
-      <c r="G99" s="75"/>
+      <c r="C99" s="87"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="67"/>
       <c r="H99" s="12" t="s">
         <v>54</v>
       </c>
@@ -6131,11 +6131,11 @@
       <c r="B100" s="27">
         <v>80</v>
       </c>
-      <c r="C100" s="101"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="75"/>
+      <c r="C100" s="87"/>
+      <c r="D100" s="66"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="67"/>
       <c r="H100" s="12" t="s">
         <v>54</v>
       </c>
@@ -6144,11 +6144,11 @@
       <c r="B101" s="9">
         <v>81</v>
       </c>
-      <c r="C101" s="101"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="75"/>
+      <c r="C101" s="87"/>
+      <c r="D101" s="66"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="67"/>
       <c r="H101" s="12" t="s">
         <v>54</v>
       </c>
@@ -6157,11 +6157,11 @@
       <c r="B102" s="27">
         <v>82</v>
       </c>
-      <c r="C102" s="101"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="75"/>
+      <c r="C102" s="87"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="67"/>
       <c r="H102" s="12" t="s">
         <v>54</v>
       </c>
@@ -6170,11 +6170,11 @@
       <c r="B103" s="9">
         <v>83</v>
       </c>
-      <c r="C103" s="101"/>
-      <c r="D103" s="74"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="74"/>
-      <c r="G103" s="75"/>
+      <c r="C103" s="87"/>
+      <c r="D103" s="66"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="67"/>
       <c r="H103" s="12" t="s">
         <v>54</v>
       </c>
@@ -6183,11 +6183,11 @@
       <c r="B104" s="27">
         <v>84</v>
       </c>
-      <c r="C104" s="101"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="75"/>
+      <c r="C104" s="87"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="67"/>
       <c r="H104" s="12" t="s">
         <v>54</v>
       </c>
@@ -6196,11 +6196,11 @@
       <c r="B105" s="9">
         <v>85</v>
       </c>
-      <c r="C105" s="101"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="75"/>
+      <c r="C105" s="87"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="67"/>
       <c r="H105" s="12" t="s">
         <v>54</v>
       </c>
@@ -6209,11 +6209,11 @@
       <c r="B106" s="27">
         <v>86</v>
       </c>
-      <c r="C106" s="101"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="74"/>
-      <c r="G106" s="75"/>
+      <c r="C106" s="87"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="67"/>
       <c r="H106" s="12" t="s">
         <v>54</v>
       </c>
@@ -6222,11 +6222,11 @@
       <c r="B107" s="9">
         <v>87</v>
       </c>
-      <c r="C107" s="101"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="75"/>
+      <c r="C107" s="87"/>
+      <c r="D107" s="66"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="67"/>
       <c r="H107" s="12" t="s">
         <v>54</v>
       </c>
@@ -6235,11 +6235,11 @@
       <c r="B108" s="27">
         <v>88</v>
       </c>
-      <c r="C108" s="101"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="75"/>
+      <c r="C108" s="87"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
+      <c r="G108" s="67"/>
       <c r="H108" s="12" t="s">
         <v>54</v>
       </c>
@@ -6248,11 +6248,11 @@
       <c r="B109" s="9">
         <v>89</v>
       </c>
-      <c r="C109" s="101"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="74"/>
-      <c r="G109" s="75"/>
+      <c r="C109" s="87"/>
+      <c r="D109" s="66"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="67"/>
       <c r="H109" s="12" t="s">
         <v>54</v>
       </c>
@@ -6261,11 +6261,11 @@
       <c r="B110" s="27">
         <v>90</v>
       </c>
-      <c r="C110" s="101"/>
-      <c r="D110" s="74"/>
-      <c r="E110" s="74"/>
-      <c r="F110" s="74"/>
-      <c r="G110" s="75"/>
+      <c r="C110" s="87"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="66"/>
+      <c r="F110" s="66"/>
+      <c r="G110" s="67"/>
       <c r="H110" s="12" t="s">
         <v>54</v>
       </c>
@@ -6274,11 +6274,11 @@
       <c r="B111" s="9">
         <v>91</v>
       </c>
-      <c r="C111" s="101"/>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="74"/>
-      <c r="G111" s="75"/>
+      <c r="C111" s="87"/>
+      <c r="D111" s="66"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="67"/>
       <c r="H111" s="12" t="s">
         <v>54</v>
       </c>
@@ -6287,11 +6287,11 @@
       <c r="B112" s="27">
         <v>92</v>
       </c>
-      <c r="C112" s="101"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="75"/>
+      <c r="C112" s="87"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="66"/>
+      <c r="F112" s="66"/>
+      <c r="G112" s="67"/>
       <c r="H112" s="12" t="s">
         <v>54</v>
       </c>
@@ -6300,11 +6300,11 @@
       <c r="B113" s="9">
         <v>93</v>
       </c>
-      <c r="C113" s="101"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="75"/>
+      <c r="C113" s="87"/>
+      <c r="D113" s="66"/>
+      <c r="E113" s="66"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="67"/>
       <c r="H113" s="12" t="s">
         <v>54</v>
       </c>
@@ -6313,11 +6313,11 @@
       <c r="B114" s="27">
         <v>94</v>
       </c>
-      <c r="C114" s="101"/>
-      <c r="D114" s="74"/>
-      <c r="E114" s="74"/>
-      <c r="F114" s="74"/>
-      <c r="G114" s="75"/>
+      <c r="C114" s="87"/>
+      <c r="D114" s="66"/>
+      <c r="E114" s="66"/>
+      <c r="F114" s="66"/>
+      <c r="G114" s="67"/>
       <c r="H114" s="12" t="s">
         <v>54</v>
       </c>
@@ -6326,11 +6326,11 @@
       <c r="B115" s="9">
         <v>95</v>
       </c>
-      <c r="C115" s="101"/>
-      <c r="D115" s="74"/>
-      <c r="E115" s="74"/>
-      <c r="F115" s="74"/>
-      <c r="G115" s="75"/>
+      <c r="C115" s="87"/>
+      <c r="D115" s="66"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="66"/>
+      <c r="G115" s="67"/>
       <c r="H115" s="12" t="s">
         <v>54</v>
       </c>
@@ -6339,11 +6339,11 @@
       <c r="B116" s="27">
         <v>96</v>
       </c>
-      <c r="C116" s="101"/>
-      <c r="D116" s="74"/>
-      <c r="E116" s="74"/>
-      <c r="F116" s="74"/>
-      <c r="G116" s="75"/>
+      <c r="C116" s="87"/>
+      <c r="D116" s="66"/>
+      <c r="E116" s="66"/>
+      <c r="F116" s="66"/>
+      <c r="G116" s="67"/>
       <c r="H116" s="12" t="s">
         <v>54</v>
       </c>
@@ -6352,11 +6352,11 @@
       <c r="B117" s="9">
         <v>97</v>
       </c>
-      <c r="C117" s="101"/>
-      <c r="D117" s="74"/>
-      <c r="E117" s="74"/>
-      <c r="F117" s="74"/>
-      <c r="G117" s="75"/>
+      <c r="C117" s="87"/>
+      <c r="D117" s="66"/>
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="67"/>
       <c r="H117" s="12" t="s">
         <v>54</v>
       </c>
@@ -6365,11 +6365,11 @@
       <c r="B118" s="27">
         <v>98</v>
       </c>
-      <c r="C118" s="101"/>
-      <c r="D118" s="74"/>
-      <c r="E118" s="74"/>
-      <c r="F118" s="74"/>
-      <c r="G118" s="75"/>
+      <c r="C118" s="87"/>
+      <c r="D118" s="66"/>
+      <c r="E118" s="66"/>
+      <c r="F118" s="66"/>
+      <c r="G118" s="67"/>
       <c r="H118" s="12" t="s">
         <v>54</v>
       </c>
@@ -6378,11 +6378,11 @@
       <c r="B119" s="9">
         <v>99</v>
       </c>
-      <c r="C119" s="101"/>
-      <c r="D119" s="74"/>
-      <c r="E119" s="74"/>
-      <c r="F119" s="74"/>
-      <c r="G119" s="75"/>
+      <c r="C119" s="87"/>
+      <c r="D119" s="66"/>
+      <c r="E119" s="66"/>
+      <c r="F119" s="66"/>
+      <c r="G119" s="67"/>
       <c r="H119" s="12" t="s">
         <v>54</v>
       </c>
@@ -6391,11 +6391,11 @@
       <c r="B120" s="27">
         <v>100</v>
       </c>
-      <c r="C120" s="101"/>
-      <c r="D120" s="74"/>
-      <c r="E120" s="74"/>
-      <c r="F120" s="74"/>
-      <c r="G120" s="75"/>
+      <c r="C120" s="87"/>
+      <c r="D120" s="66"/>
+      <c r="E120" s="66"/>
+      <c r="F120" s="66"/>
+      <c r="G120" s="67"/>
       <c r="H120" s="12" t="s">
         <v>54</v>
       </c>
@@ -8074,53 +8074,50 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
@@ -8145,50 +8142,53 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C95:G95"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21:H120" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -8238,85 +8238,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
+      <c r="B1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
       <c r="K1" s="2">
         <f>Requisitos!C11</f>
         <v>45170</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K65" si="0">K1+1</f>
         <v>45171</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45172</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45173</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45174</v>
@@ -8330,18 +8330,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="77" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="75"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45176</v>
@@ -8358,13 +8358,13 @@
       <c r="B9" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="57" t="s">
         <v>67</v>
       </c>
@@ -9738,13 +9738,13 @@
       <c r="B63" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="74"/>
-      <c r="H63" s="74"/>
-      <c r="I63" s="75"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="67"/>
       <c r="K63" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -9754,11 +9754,11 @@
       <c r="B64" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="74"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="75"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="67"/>
       <c r="H64" s="7" t="s">
         <v>101</v>
       </c>
@@ -9775,11 +9775,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="74"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="75"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="67"/>
       <c r="H65" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B10,H$11:H$60)</f>
         <v>0</v>
@@ -9798,11 +9798,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="75"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="67"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -9821,11 +9821,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="75"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="67"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -9844,11 +9844,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>Maria Eduarda Amaral</v>
       </c>
-      <c r="C68" s="74"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="75"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="67"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -9867,11 +9867,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C69" s="74"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="75"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="67"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -9890,11 +9890,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74"/>
-      <c r="G70" s="75"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="67"/>
       <c r="H70" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -11043,85 +11043,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
+      <c r="B1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
       <c r="K1" s="2">
         <f>Requisitos!C12</f>
         <v>45191</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45192</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45193</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45194</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45195</v>
@@ -11135,18 +11135,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="77" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="75"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45197</v>
@@ -11163,13 +11163,13 @@
       <c r="B9" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="57" t="s">
         <v>67</v>
       </c>
@@ -12538,23 +12538,23 @@
       <c r="B72" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="74"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="75"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="67"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="75"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="67"/>
       <c r="H73" s="7" t="s">
         <v>101</v>
       </c>
@@ -12567,11 +12567,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="74"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="75"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="67"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -12586,11 +12586,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="74"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="75"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="67"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -12605,11 +12605,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="74"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="75"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="67"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -12624,11 +12624,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="75"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="67"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -12643,11 +12643,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="75"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="67"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -13877,8 +13877,8 @@
   <dimension ref="A1:U1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13898,85 +13898,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
+      <c r="B1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
       <c r="K1" s="2">
         <f>Requisitos!C13</f>
         <v>45205</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K22" si="0">K1+1</f>
         <v>45206</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45208</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45209</v>
@@ -13990,18 +13990,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="77" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="75"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45211</v>
@@ -14018,13 +14018,13 @@
       <c r="B9" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="57" t="s">
         <v>67</v>
       </c>
@@ -14125,7 +14125,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H12" s="13">
         <v>0</v>
@@ -14218,7 +14218,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H15" s="13">
         <v>0</v>
@@ -14249,7 +14249,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -14273,7 +14273,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H17" s="13">
         <v>0</v>
@@ -14397,7 +14397,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H21" s="13">
         <v>0</v>
@@ -14574,7 +14574,7 @@
         <v>8</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H27" s="13">
         <v>0</v>
@@ -14602,7 +14602,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H28" s="13">
         <v>0</v>
@@ -15353,7 +15353,7 @@
       <c r="F72" s="30"/>
       <c r="G72" s="30">
         <f>COUNTIFS(G11:G61, "Concluído",D11:D61, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="5"/>
     </row>
@@ -15361,23 +15361,23 @@
       <c r="B73" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="74"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="75"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="67"/>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="74"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="75"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="67"/>
       <c r="H74" s="7" t="s">
         <v>101</v>
       </c>
@@ -15390,11 +15390,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C75" s="74"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="75"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="67"/>
       <c r="H75" s="33">
         <f>SUMIF($F$11:$F$61,'Dados do Projeto'!$B10,H$11:H$61)</f>
         <v>0</v>
@@ -15409,11 +15409,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C76" s="74"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="75"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="67"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B11,H$11:H$61)</f>
         <v>0</v>
@@ -15428,11 +15428,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="75"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="67"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B12,H$11:H$61)</f>
         <v>0</v>
@@ -15447,11 +15447,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="75"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="67"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B14,H$11:H$61)</f>
         <v>0</v>
@@ -15466,11 +15466,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="75"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="67"/>
       <c r="H79" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B15,H$11:H$61)</f>
         <v>0</v>
@@ -16494,12 +16494,6 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B79:G79"/>
     <mergeCell ref="B9:I9"/>
@@ -16508,6 +16502,12 @@
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
     <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:C70">
     <cfRule type="expression" dxfId="83" priority="31">
@@ -16667,85 +16667,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
+      <c r="B1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
       <c r="K1" s="2">
         <f>Requisitos!C14</f>
         <v>45226</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45227</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45229</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45230</v>
@@ -16759,18 +16759,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="77" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="75"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -16787,13 +16787,13 @@
       <c r="B9" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="57" t="s">
         <v>67</v>
       </c>
@@ -17933,23 +17933,23 @@
       <c r="B72" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="74"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="75"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="67"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="75"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="67"/>
       <c r="H73" s="7" t="s">
         <v>101</v>
       </c>
@@ -17962,11 +17962,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="74"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="75"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="67"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -17981,11 +17981,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="74"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="75"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="67"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -18000,11 +18000,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="74"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="75"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="67"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -18019,11 +18019,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="75"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="67"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -18038,11 +18038,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="75"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="67"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -19066,12 +19066,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -19080,6 +19074,12 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="63" priority="1">
@@ -19265,85 +19265,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
+      <c r="B1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
       <c r="K1" s="2">
         <f>Requisitos!C15</f>
         <v>45247</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45248</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45249</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45250</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45251</v>
@@ -19356,18 +19356,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="77" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="75"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45253</v>
@@ -19383,13 +19383,13 @@
       <c r="B9" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="58" t="s">
         <v>67</v>
       </c>
@@ -20353,23 +20353,23 @@
       <c r="B63" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="74"/>
-      <c r="H63" s="74"/>
-      <c r="I63" s="75"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="67"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="74"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="75"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="67"/>
       <c r="H64" s="7" t="s">
         <v>101</v>
       </c>
@@ -20382,11 +20382,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="74"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="75"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="67"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -20401,11 +20401,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="75"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="67"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -20420,11 +20420,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="75"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="67"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -20439,11 +20439,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C68" s="74"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="75"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="67"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -20458,11 +20458,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C69" s="74"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="75"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="67"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -21425,12 +21425,6 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="B9:I9"/>
@@ -21439,6 +21433,12 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F13 F17">
     <cfRule type="containsBlanks" dxfId="37" priority="1">

--- a/Artefatos/sprints/Planejamento_sprints.xlsx
+++ b/Artefatos/sprints/Planejamento_sprints.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorios_github\plf-es-2023-2-ti3-6653100-fabrica-do-saber\Artefatos\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC6B158-75DA-4205-AA7F-7C6274C80B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EEF05C-5262-4B09-A995-E7F5DFD48C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1403,16 +1403,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1422,74 +1441,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1506,6 +1470,15 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1514,6 +1487,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1526,22 +1526,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="123">
@@ -2668,7 +2668,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="1"/>
   <c:style val="18"/>
   <c:chart>
@@ -3286,166 +3286,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="84"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="84"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="75"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="78" t="s">
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="69" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="71"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="69" t="s">
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="71"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="69" t="s">
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="80"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="69" t="s">
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="71"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="69" t="s">
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="71"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="69" t="s">
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="80"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="18"/>
@@ -3547,16 +3547,16 @@
     <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="50"/>
-      <c r="B100" s="72"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="73" t="s">
+      <c r="B100" s="82"/>
+      <c r="C100" s="67"/>
+      <c r="D100" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="64"/>
-      <c r="F100" s="73" t="s">
+      <c r="E100" s="67"/>
+      <c r="F100" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="64"/>
+      <c r="G100" s="67"/>
       <c r="H100" s="51" t="s">
         <v>18</v>
       </c>
@@ -3578,12 +3578,12 @@
     </row>
     <row r="101" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
-      <c r="B101" s="63"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="68" t="s">
+      <c r="B101" s="85"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="64"/>
+      <c r="E101" s="67"/>
       <c r="F101" s="53" t="s">
         <v>24</v>
       </c>
@@ -3616,12 +3616,12 @@
     </row>
     <row r="102" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="50"/>
-      <c r="B102" s="63"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="68" t="s">
+      <c r="B102" s="85"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="64"/>
+      <c r="E102" s="67"/>
       <c r="F102" s="53" t="s">
         <v>29</v>
       </c>
@@ -3655,12 +3655,12 @@
     </row>
     <row r="103" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="50"/>
-      <c r="B103" s="63"/>
-      <c r="C103" s="64"/>
-      <c r="D103" s="68" t="s">
+      <c r="B103" s="85"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="64"/>
+      <c r="E103" s="67"/>
       <c r="F103" s="53"/>
       <c r="G103" s="54" t="s">
         <v>34</v>
@@ -3692,12 +3692,12 @@
     </row>
     <row r="104" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="50"/>
-      <c r="B104" s="63"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="68" t="s">
+      <c r="B104" s="85"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="64"/>
+      <c r="E104" s="67"/>
       <c r="F104" s="53"/>
       <c r="G104" s="54" t="s">
         <v>36</v>
@@ -3727,12 +3727,12 @@
     </row>
     <row r="105" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="50"/>
-      <c r="B105" s="63"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="68" t="s">
+      <c r="B105" s="85"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="64"/>
+      <c r="E105" s="67"/>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="s">
         <v>39</v>
@@ -3757,8 +3757,8 @@
     </row>
     <row r="106" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="50"/>
-      <c r="B106" s="63"/>
-      <c r="C106" s="64"/>
+      <c r="B106" s="85"/>
+      <c r="C106" s="67"/>
       <c r="F106" s="53"/>
       <c r="G106" s="54"/>
       <c r="H106" s="53"/>
@@ -3769,8 +3769,8 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="50"/>
-      <c r="B107" s="63"/>
-      <c r="C107" s="64"/>
+      <c r="B107" s="85"/>
+      <c r="C107" s="67"/>
       <c r="D107" s="55"/>
       <c r="E107" s="53"/>
       <c r="F107" s="53"/>
@@ -4738,24 +4738,12 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D105:E105"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="D100:E100"/>
@@ -4767,12 +4755,24 @@
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="F10:F15" xr:uid="{49EDF03A-7EFB-435C-A992-40D98DE85B41}">
@@ -4815,59 +4815,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="84"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="84"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -4879,16 +4879,16 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="104" t="str">
+      <c r="B7" s="95" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="75"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -4900,15 +4900,15 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
@@ -4920,11 +4920,11 @@
       <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
@@ -4939,9 +4939,9 @@
       <c r="D11" s="14">
         <v>45190</v>
       </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4955,9 +4955,9 @@
         <f t="shared" ref="D12" si="0">C12+13</f>
         <v>45204</v>
       </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4971,9 +4971,9 @@
       <c r="D13" s="14">
         <v>45225</v>
       </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4986,9 +4986,9 @@
       <c r="D14" s="14">
         <v>45246</v>
       </c>
-      <c r="E14" s="100"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5027,13 +5027,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
       <c r="H18" s="22" t="s">
         <v>47</v>
       </c>
@@ -5042,11 +5042,11 @@
       <c r="B19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
       <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
@@ -5056,11 +5056,11 @@
       <c r="B20" s="27">
         <v>0</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="75"/>
       <c r="H20" s="28"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -5077,13 +5077,13 @@
       <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="92"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="94"/>
       <c r="H21" s="12" t="s">
         <v>50</v>
       </c>
@@ -5093,13 +5093,13 @@
       <c r="B22" s="27">
         <v>2</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="92"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="94"/>
       <c r="H22" s="12" t="s">
         <v>50</v>
       </c>
@@ -5108,13 +5108,13 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="92"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="94"/>
       <c r="H23" s="12" t="s">
         <v>50</v>
       </c>
@@ -5123,13 +5123,13 @@
       <c r="B24" s="27">
         <v>4</v>
       </c>
-      <c r="C24" s="93" t="s">
+      <c r="C24" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="95"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="100"/>
       <c r="H24" s="12" t="s">
         <v>54</v>
       </c>
@@ -5138,13 +5138,13 @@
       <c r="B25" s="9">
         <v>5</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="89"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
       <c r="H25" s="12" t="s">
         <v>54</v>
       </c>
@@ -5153,13 +5153,13 @@
       <c r="B26" s="27">
         <v>6</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="C26" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="89"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
       <c r="H26" s="12" t="s">
         <v>54</v>
       </c>
@@ -5168,13 +5168,13 @@
       <c r="B27" s="9">
         <v>7</v>
       </c>
-      <c r="C27" s="96" t="s">
+      <c r="C27" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="98"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="106"/>
       <c r="H27" s="12" t="s">
         <v>58</v>
       </c>
@@ -5183,13 +5183,13 @@
       <c r="B28" s="27">
         <v>8</v>
       </c>
-      <c r="C28" s="93" t="s">
+      <c r="C28" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="95"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="100"/>
       <c r="H28" s="12" t="s">
         <v>54</v>
       </c>
@@ -5198,13 +5198,13 @@
       <c r="B29" s="9">
         <v>9</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="98"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="106"/>
       <c r="H29" s="12" t="s">
         <v>58</v>
       </c>
@@ -5213,13 +5213,13 @@
       <c r="B30" s="27">
         <v>10</v>
       </c>
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="89"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
       <c r="H30" s="12" t="s">
         <v>54</v>
       </c>
@@ -5228,13 +5228,13 @@
       <c r="B31" s="9">
         <v>11</v>
       </c>
-      <c r="C31" s="87" t="s">
+      <c r="C31" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="89"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="103"/>
       <c r="H31" s="12" t="s">
         <v>54</v>
       </c>
@@ -5243,13 +5243,13 @@
       <c r="B32" s="27">
         <v>12</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="89"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="103"/>
       <c r="H32" s="12" t="s">
         <v>58</v>
       </c>
@@ -5258,13 +5258,13 @@
       <c r="B33" s="9">
         <v>13</v>
       </c>
-      <c r="C33" s="90" t="s">
+      <c r="C33" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="92"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="94"/>
       <c r="H33" s="12" t="s">
         <v>50</v>
       </c>
@@ -5273,11 +5273,11 @@
       <c r="B34" s="27">
         <v>14</v>
       </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="89"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="103"/>
       <c r="H34" s="12" t="s">
         <v>54</v>
       </c>
@@ -5286,11 +5286,11 @@
       <c r="B35" s="9">
         <v>15</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="89"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="103"/>
       <c r="H35" s="12" t="s">
         <v>54</v>
       </c>
@@ -5299,11 +5299,11 @@
       <c r="B36" s="27">
         <v>16</v>
       </c>
-      <c r="C36" s="87"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="75"/>
       <c r="H36" s="12" t="s">
         <v>54</v>
       </c>
@@ -5312,11 +5312,11 @@
       <c r="B37" s="9">
         <v>17</v>
       </c>
-      <c r="C37" s="87"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="75"/>
       <c r="H37" s="12" t="s">
         <v>54</v>
       </c>
@@ -5325,11 +5325,11 @@
       <c r="B38" s="27">
         <v>18</v>
       </c>
-      <c r="C38" s="87"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="75"/>
       <c r="H38" s="12" t="s">
         <v>54</v>
       </c>
@@ -5338,11 +5338,11 @@
       <c r="B39" s="9">
         <v>19</v>
       </c>
-      <c r="C39" s="87"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="75"/>
       <c r="H39" s="12" t="s">
         <v>54</v>
       </c>
@@ -5351,11 +5351,11 @@
       <c r="B40" s="27">
         <v>20</v>
       </c>
-      <c r="C40" s="87"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="75"/>
       <c r="H40" s="12" t="s">
         <v>54</v>
       </c>
@@ -5364,11 +5364,11 @@
       <c r="B41" s="9">
         <v>21</v>
       </c>
-      <c r="C41" s="87"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="75"/>
       <c r="H41" s="12" t="s">
         <v>54</v>
       </c>
@@ -5377,11 +5377,11 @@
       <c r="B42" s="27">
         <v>22</v>
       </c>
-      <c r="C42" s="87"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="75"/>
       <c r="H42" s="12" t="s">
         <v>54</v>
       </c>
@@ -5390,11 +5390,11 @@
       <c r="B43" s="9">
         <v>23</v>
       </c>
-      <c r="C43" s="87"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="75"/>
       <c r="H43" s="12" t="s">
         <v>54</v>
       </c>
@@ -5403,11 +5403,11 @@
       <c r="B44" s="27">
         <v>24</v>
       </c>
-      <c r="C44" s="87"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="75"/>
       <c r="H44" s="12" t="s">
         <v>54</v>
       </c>
@@ -5416,11 +5416,11 @@
       <c r="B45" s="9">
         <v>25</v>
       </c>
-      <c r="C45" s="87"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="75"/>
       <c r="H45" s="12" t="s">
         <v>54</v>
       </c>
@@ -5429,11 +5429,11 @@
       <c r="B46" s="27">
         <v>26</v>
       </c>
-      <c r="C46" s="87"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="75"/>
       <c r="H46" s="12" t="s">
         <v>54</v>
       </c>
@@ -5442,11 +5442,11 @@
       <c r="B47" s="9">
         <v>27</v>
       </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="75"/>
       <c r="H47" s="12" t="s">
         <v>54</v>
       </c>
@@ -5455,11 +5455,11 @@
       <c r="B48" s="27">
         <v>28</v>
       </c>
-      <c r="C48" s="87"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="75"/>
       <c r="H48" s="12" t="s">
         <v>54</v>
       </c>
@@ -5468,11 +5468,11 @@
       <c r="B49" s="9">
         <v>29</v>
       </c>
-      <c r="C49" s="87"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="75"/>
       <c r="H49" s="12" t="s">
         <v>54</v>
       </c>
@@ -5481,11 +5481,11 @@
       <c r="B50" s="27">
         <v>30</v>
       </c>
-      <c r="C50" s="87"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="75"/>
       <c r="H50" s="12" t="s">
         <v>54</v>
       </c>
@@ -5494,11 +5494,11 @@
       <c r="B51" s="9">
         <v>31</v>
       </c>
-      <c r="C51" s="87"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="75"/>
       <c r="H51" s="12" t="s">
         <v>54</v>
       </c>
@@ -5507,11 +5507,11 @@
       <c r="B52" s="27">
         <v>32</v>
       </c>
-      <c r="C52" s="87"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="75"/>
       <c r="H52" s="12" t="s">
         <v>54</v>
       </c>
@@ -5520,11 +5520,11 @@
       <c r="B53" s="9">
         <v>33</v>
       </c>
-      <c r="C53" s="87"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="75"/>
       <c r="H53" s="12" t="s">
         <v>54</v>
       </c>
@@ -5533,11 +5533,11 @@
       <c r="B54" s="27">
         <v>34</v>
       </c>
-      <c r="C54" s="87"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="75"/>
       <c r="H54" s="12" t="s">
         <v>54</v>
       </c>
@@ -5546,11 +5546,11 @@
       <c r="B55" s="9">
         <v>35</v>
       </c>
-      <c r="C55" s="87"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="67"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
       <c r="H55" s="12" t="s">
         <v>54</v>
       </c>
@@ -5559,11 +5559,11 @@
       <c r="B56" s="27">
         <v>36</v>
       </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="67"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="75"/>
       <c r="H56" s="12" t="s">
         <v>54</v>
       </c>
@@ -5572,11 +5572,11 @@
       <c r="B57" s="9">
         <v>37</v>
       </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="67"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="75"/>
       <c r="H57" s="12" t="s">
         <v>54</v>
       </c>
@@ -5585,11 +5585,11 @@
       <c r="B58" s="27">
         <v>38</v>
       </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="67"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="75"/>
       <c r="H58" s="12" t="s">
         <v>54</v>
       </c>
@@ -5598,11 +5598,11 @@
       <c r="B59" s="9">
         <v>39</v>
       </c>
-      <c r="C59" s="87"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="67"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="75"/>
       <c r="H59" s="12" t="s">
         <v>54</v>
       </c>
@@ -5611,11 +5611,11 @@
       <c r="B60" s="27">
         <v>40</v>
       </c>
-      <c r="C60" s="87"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="67"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="75"/>
       <c r="H60" s="12" t="s">
         <v>54</v>
       </c>
@@ -5624,11 +5624,11 @@
       <c r="B61" s="9">
         <v>41</v>
       </c>
-      <c r="C61" s="87"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="67"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="75"/>
       <c r="H61" s="12" t="s">
         <v>54</v>
       </c>
@@ -5637,11 +5637,11 @@
       <c r="B62" s="27">
         <v>42</v>
       </c>
-      <c r="C62" s="87"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="67"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="75"/>
       <c r="H62" s="12" t="s">
         <v>54</v>
       </c>
@@ -5650,11 +5650,11 @@
       <c r="B63" s="9">
         <v>43</v>
       </c>
-      <c r="C63" s="87"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="67"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="75"/>
       <c r="H63" s="12" t="s">
         <v>54</v>
       </c>
@@ -5663,11 +5663,11 @@
       <c r="B64" s="27">
         <v>44</v>
       </c>
-      <c r="C64" s="87"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="67"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="75"/>
       <c r="H64" s="12" t="s">
         <v>54</v>
       </c>
@@ -5676,11 +5676,11 @@
       <c r="B65" s="9">
         <v>45</v>
       </c>
-      <c r="C65" s="87"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="67"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="75"/>
       <c r="H65" s="12" t="s">
         <v>54</v>
       </c>
@@ -5689,11 +5689,11 @@
       <c r="B66" s="27">
         <v>46</v>
       </c>
-      <c r="C66" s="87"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="67"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="75"/>
       <c r="H66" s="12" t="s">
         <v>54</v>
       </c>
@@ -5702,11 +5702,11 @@
       <c r="B67" s="9">
         <v>47</v>
       </c>
-      <c r="C67" s="87"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="67"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="75"/>
       <c r="H67" s="12" t="s">
         <v>54</v>
       </c>
@@ -5715,11 +5715,11 @@
       <c r="B68" s="27">
         <v>48</v>
       </c>
-      <c r="C68" s="87"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="67"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="75"/>
       <c r="H68" s="12" t="s">
         <v>54</v>
       </c>
@@ -5728,11 +5728,11 @@
       <c r="B69" s="9">
         <v>49</v>
       </c>
-      <c r="C69" s="87"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="67"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="75"/>
       <c r="H69" s="12" t="s">
         <v>54</v>
       </c>
@@ -5741,11 +5741,11 @@
       <c r="B70" s="27">
         <v>50</v>
       </c>
-      <c r="C70" s="87"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="67"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="75"/>
       <c r="H70" s="12" t="s">
         <v>54</v>
       </c>
@@ -5754,11 +5754,11 @@
       <c r="B71" s="9">
         <v>51</v>
       </c>
-      <c r="C71" s="87"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="67"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="75"/>
       <c r="H71" s="12" t="s">
         <v>54</v>
       </c>
@@ -5767,11 +5767,11 @@
       <c r="B72" s="27">
         <v>52</v>
       </c>
-      <c r="C72" s="87"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="67"/>
+      <c r="C72" s="101"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="75"/>
       <c r="H72" s="12" t="s">
         <v>54</v>
       </c>
@@ -5780,11 +5780,11 @@
       <c r="B73" s="9">
         <v>53</v>
       </c>
-      <c r="C73" s="87"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="67"/>
+      <c r="C73" s="101"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="75"/>
       <c r="H73" s="12" t="s">
         <v>54</v>
       </c>
@@ -5793,11 +5793,11 @@
       <c r="B74" s="27">
         <v>54</v>
       </c>
-      <c r="C74" s="87"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="67"/>
+      <c r="C74" s="101"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="75"/>
       <c r="H74" s="12" t="s">
         <v>54</v>
       </c>
@@ -5806,11 +5806,11 @@
       <c r="B75" s="9">
         <v>55</v>
       </c>
-      <c r="C75" s="87"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="67"/>
+      <c r="C75" s="101"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="75"/>
       <c r="H75" s="12" t="s">
         <v>54</v>
       </c>
@@ -5819,11 +5819,11 @@
       <c r="B76" s="27">
         <v>56</v>
       </c>
-      <c r="C76" s="87"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="67"/>
+      <c r="C76" s="101"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="75"/>
       <c r="H76" s="12" t="s">
         <v>54</v>
       </c>
@@ -5832,11 +5832,11 @@
       <c r="B77" s="9">
         <v>57</v>
       </c>
-      <c r="C77" s="87"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="67"/>
+      <c r="C77" s="101"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="75"/>
       <c r="H77" s="12" t="s">
         <v>54</v>
       </c>
@@ -5845,11 +5845,11 @@
       <c r="B78" s="27">
         <v>58</v>
       </c>
-      <c r="C78" s="87"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="67"/>
+      <c r="C78" s="101"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="75"/>
       <c r="H78" s="12" t="s">
         <v>54</v>
       </c>
@@ -5858,11 +5858,11 @@
       <c r="B79" s="9">
         <v>59</v>
       </c>
-      <c r="C79" s="87"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="67"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="75"/>
       <c r="H79" s="12" t="s">
         <v>54</v>
       </c>
@@ -5871,11 +5871,11 @@
       <c r="B80" s="27">
         <v>60</v>
       </c>
-      <c r="C80" s="87"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="66"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="67"/>
+      <c r="C80" s="101"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="75"/>
       <c r="H80" s="12" t="s">
         <v>54</v>
       </c>
@@ -5884,11 +5884,11 @@
       <c r="B81" s="9">
         <v>61</v>
       </c>
-      <c r="C81" s="87"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="67"/>
+      <c r="C81" s="101"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="75"/>
       <c r="H81" s="12" t="s">
         <v>54</v>
       </c>
@@ -5897,11 +5897,11 @@
       <c r="B82" s="27">
         <v>62</v>
       </c>
-      <c r="C82" s="87"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="67"/>
+      <c r="C82" s="101"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="75"/>
       <c r="H82" s="12" t="s">
         <v>54</v>
       </c>
@@ -5910,11 +5910,11 @@
       <c r="B83" s="9">
         <v>63</v>
       </c>
-      <c r="C83" s="87"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="67"/>
+      <c r="C83" s="101"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="75"/>
       <c r="H83" s="12" t="s">
         <v>54</v>
       </c>
@@ -5923,11 +5923,11 @@
       <c r="B84" s="27">
         <v>64</v>
       </c>
-      <c r="C84" s="87"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="67"/>
+      <c r="C84" s="101"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="75"/>
       <c r="H84" s="12" t="s">
         <v>54</v>
       </c>
@@ -5936,11 +5936,11 @@
       <c r="B85" s="9">
         <v>65</v>
       </c>
-      <c r="C85" s="87"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="67"/>
+      <c r="C85" s="101"/>
+      <c r="D85" s="74"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="74"/>
+      <c r="G85" s="75"/>
       <c r="H85" s="12" t="s">
         <v>54</v>
       </c>
@@ -5949,11 +5949,11 @@
       <c r="B86" s="27">
         <v>66</v>
       </c>
-      <c r="C86" s="87"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="67"/>
+      <c r="C86" s="101"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="75"/>
       <c r="H86" s="12" t="s">
         <v>54</v>
       </c>
@@ -5962,11 +5962,11 @@
       <c r="B87" s="9">
         <v>67</v>
       </c>
-      <c r="C87" s="87"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="67"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="75"/>
       <c r="H87" s="12" t="s">
         <v>54</v>
       </c>
@@ -5975,11 +5975,11 @@
       <c r="B88" s="27">
         <v>68</v>
       </c>
-      <c r="C88" s="87"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="67"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="74"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="75"/>
       <c r="H88" s="12" t="s">
         <v>54</v>
       </c>
@@ -5988,11 +5988,11 @@
       <c r="B89" s="9">
         <v>69</v>
       </c>
-      <c r="C89" s="87"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="67"/>
+      <c r="C89" s="101"/>
+      <c r="D89" s="74"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="75"/>
       <c r="H89" s="12" t="s">
         <v>54</v>
       </c>
@@ -6001,11 +6001,11 @@
       <c r="B90" s="27">
         <v>70</v>
       </c>
-      <c r="C90" s="87"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="67"/>
+      <c r="C90" s="101"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="75"/>
       <c r="H90" s="12" t="s">
         <v>54</v>
       </c>
@@ -6014,11 +6014,11 @@
       <c r="B91" s="9">
         <v>71</v>
       </c>
-      <c r="C91" s="87"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="67"/>
+      <c r="C91" s="101"/>
+      <c r="D91" s="74"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="75"/>
       <c r="H91" s="12" t="s">
         <v>54</v>
       </c>
@@ -6027,11 +6027,11 @@
       <c r="B92" s="27">
         <v>72</v>
       </c>
-      <c r="C92" s="87"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="67"/>
+      <c r="C92" s="101"/>
+      <c r="D92" s="74"/>
+      <c r="E92" s="74"/>
+      <c r="F92" s="74"/>
+      <c r="G92" s="75"/>
       <c r="H92" s="12" t="s">
         <v>54</v>
       </c>
@@ -6040,11 +6040,11 @@
       <c r="B93" s="9">
         <v>73</v>
       </c>
-      <c r="C93" s="87"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="67"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="74"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="74"/>
+      <c r="G93" s="75"/>
       <c r="H93" s="12" t="s">
         <v>54</v>
       </c>
@@ -6053,11 +6053,11 @@
       <c r="B94" s="27">
         <v>74</v>
       </c>
-      <c r="C94" s="87"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="67"/>
+      <c r="C94" s="101"/>
+      <c r="D94" s="74"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="74"/>
+      <c r="G94" s="75"/>
       <c r="H94" s="12" t="s">
         <v>54</v>
       </c>
@@ -6066,11 +6066,11 @@
       <c r="B95" s="9">
         <v>75</v>
       </c>
-      <c r="C95" s="87"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="67"/>
+      <c r="C95" s="101"/>
+      <c r="D95" s="74"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="75"/>
       <c r="H95" s="12" t="s">
         <v>54</v>
       </c>
@@ -6079,11 +6079,11 @@
       <c r="B96" s="27">
         <v>76</v>
       </c>
-      <c r="C96" s="87"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="67"/>
+      <c r="C96" s="101"/>
+      <c r="D96" s="74"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="75"/>
       <c r="H96" s="12" t="s">
         <v>54</v>
       </c>
@@ -6092,11 +6092,11 @@
       <c r="B97" s="9">
         <v>77</v>
       </c>
-      <c r="C97" s="87"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="67"/>
+      <c r="C97" s="101"/>
+      <c r="D97" s="74"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="74"/>
+      <c r="G97" s="75"/>
       <c r="H97" s="12" t="s">
         <v>54</v>
       </c>
@@ -6105,11 +6105,11 @@
       <c r="B98" s="27">
         <v>78</v>
       </c>
-      <c r="C98" s="87"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="67"/>
+      <c r="C98" s="101"/>
+      <c r="D98" s="74"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="74"/>
+      <c r="G98" s="75"/>
       <c r="H98" s="12" t="s">
         <v>54</v>
       </c>
@@ -6118,11 +6118,11 @@
       <c r="B99" s="9">
         <v>79</v>
       </c>
-      <c r="C99" s="87"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="67"/>
+      <c r="C99" s="101"/>
+      <c r="D99" s="74"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="75"/>
       <c r="H99" s="12" t="s">
         <v>54</v>
       </c>
@@ -6131,11 +6131,11 @@
       <c r="B100" s="27">
         <v>80</v>
       </c>
-      <c r="C100" s="87"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="67"/>
+      <c r="C100" s="101"/>
+      <c r="D100" s="74"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="75"/>
       <c r="H100" s="12" t="s">
         <v>54</v>
       </c>
@@ -6144,11 +6144,11 @@
       <c r="B101" s="9">
         <v>81</v>
       </c>
-      <c r="C101" s="87"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="67"/>
+      <c r="C101" s="101"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="74"/>
+      <c r="G101" s="75"/>
       <c r="H101" s="12" t="s">
         <v>54</v>
       </c>
@@ -6157,11 +6157,11 @@
       <c r="B102" s="27">
         <v>82</v>
       </c>
-      <c r="C102" s="87"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="67"/>
+      <c r="C102" s="101"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="75"/>
       <c r="H102" s="12" t="s">
         <v>54</v>
       </c>
@@ -6170,11 +6170,11 @@
       <c r="B103" s="9">
         <v>83</v>
       </c>
-      <c r="C103" s="87"/>
-      <c r="D103" s="66"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="67"/>
+      <c r="C103" s="101"/>
+      <c r="D103" s="74"/>
+      <c r="E103" s="74"/>
+      <c r="F103" s="74"/>
+      <c r="G103" s="75"/>
       <c r="H103" s="12" t="s">
         <v>54</v>
       </c>
@@ -6183,11 +6183,11 @@
       <c r="B104" s="27">
         <v>84</v>
       </c>
-      <c r="C104" s="87"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="66"/>
-      <c r="G104" s="67"/>
+      <c r="C104" s="101"/>
+      <c r="D104" s="74"/>
+      <c r="E104" s="74"/>
+      <c r="F104" s="74"/>
+      <c r="G104" s="75"/>
       <c r="H104" s="12" t="s">
         <v>54</v>
       </c>
@@ -6196,11 +6196,11 @@
       <c r="B105" s="9">
         <v>85</v>
       </c>
-      <c r="C105" s="87"/>
-      <c r="D105" s="66"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="67"/>
+      <c r="C105" s="101"/>
+      <c r="D105" s="74"/>
+      <c r="E105" s="74"/>
+      <c r="F105" s="74"/>
+      <c r="G105" s="75"/>
       <c r="H105" s="12" t="s">
         <v>54</v>
       </c>
@@ -6209,11 +6209,11 @@
       <c r="B106" s="27">
         <v>86</v>
       </c>
-      <c r="C106" s="87"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="67"/>
+      <c r="C106" s="101"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="74"/>
+      <c r="G106" s="75"/>
       <c r="H106" s="12" t="s">
         <v>54</v>
       </c>
@@ -6222,11 +6222,11 @@
       <c r="B107" s="9">
         <v>87</v>
       </c>
-      <c r="C107" s="87"/>
-      <c r="D107" s="66"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="66"/>
-      <c r="G107" s="67"/>
+      <c r="C107" s="101"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="74"/>
+      <c r="G107" s="75"/>
       <c r="H107" s="12" t="s">
         <v>54</v>
       </c>
@@ -6235,11 +6235,11 @@
       <c r="B108" s="27">
         <v>88</v>
       </c>
-      <c r="C108" s="87"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="66"/>
-      <c r="G108" s="67"/>
+      <c r="C108" s="101"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="74"/>
+      <c r="G108" s="75"/>
       <c r="H108" s="12" t="s">
         <v>54</v>
       </c>
@@ -6248,11 +6248,11 @@
       <c r="B109" s="9">
         <v>89</v>
       </c>
-      <c r="C109" s="87"/>
-      <c r="D109" s="66"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="67"/>
+      <c r="C109" s="101"/>
+      <c r="D109" s="74"/>
+      <c r="E109" s="74"/>
+      <c r="F109" s="74"/>
+      <c r="G109" s="75"/>
       <c r="H109" s="12" t="s">
         <v>54</v>
       </c>
@@ -6261,11 +6261,11 @@
       <c r="B110" s="27">
         <v>90</v>
       </c>
-      <c r="C110" s="87"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="66"/>
-      <c r="G110" s="67"/>
+      <c r="C110" s="101"/>
+      <c r="D110" s="74"/>
+      <c r="E110" s="74"/>
+      <c r="F110" s="74"/>
+      <c r="G110" s="75"/>
       <c r="H110" s="12" t="s">
         <v>54</v>
       </c>
@@ -6274,11 +6274,11 @@
       <c r="B111" s="9">
         <v>91</v>
       </c>
-      <c r="C111" s="87"/>
-      <c r="D111" s="66"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="67"/>
+      <c r="C111" s="101"/>
+      <c r="D111" s="74"/>
+      <c r="E111" s="74"/>
+      <c r="F111" s="74"/>
+      <c r="G111" s="75"/>
       <c r="H111" s="12" t="s">
         <v>54</v>
       </c>
@@ -6287,11 +6287,11 @@
       <c r="B112" s="27">
         <v>92</v>
       </c>
-      <c r="C112" s="87"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="66"/>
-      <c r="G112" s="67"/>
+      <c r="C112" s="101"/>
+      <c r="D112" s="74"/>
+      <c r="E112" s="74"/>
+      <c r="F112" s="74"/>
+      <c r="G112" s="75"/>
       <c r="H112" s="12" t="s">
         <v>54</v>
       </c>
@@ -6300,11 +6300,11 @@
       <c r="B113" s="9">
         <v>93</v>
       </c>
-      <c r="C113" s="87"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="67"/>
+      <c r="C113" s="101"/>
+      <c r="D113" s="74"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="74"/>
+      <c r="G113" s="75"/>
       <c r="H113" s="12" t="s">
         <v>54</v>
       </c>
@@ -6313,11 +6313,11 @@
       <c r="B114" s="27">
         <v>94</v>
       </c>
-      <c r="C114" s="87"/>
-      <c r="D114" s="66"/>
-      <c r="E114" s="66"/>
-      <c r="F114" s="66"/>
-      <c r="G114" s="67"/>
+      <c r="C114" s="101"/>
+      <c r="D114" s="74"/>
+      <c r="E114" s="74"/>
+      <c r="F114" s="74"/>
+      <c r="G114" s="75"/>
       <c r="H114" s="12" t="s">
         <v>54</v>
       </c>
@@ -6326,11 +6326,11 @@
       <c r="B115" s="9">
         <v>95</v>
       </c>
-      <c r="C115" s="87"/>
-      <c r="D115" s="66"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="66"/>
-      <c r="G115" s="67"/>
+      <c r="C115" s="101"/>
+      <c r="D115" s="74"/>
+      <c r="E115" s="74"/>
+      <c r="F115" s="74"/>
+      <c r="G115" s="75"/>
       <c r="H115" s="12" t="s">
         <v>54</v>
       </c>
@@ -6339,11 +6339,11 @@
       <c r="B116" s="27">
         <v>96</v>
       </c>
-      <c r="C116" s="87"/>
-      <c r="D116" s="66"/>
-      <c r="E116" s="66"/>
-      <c r="F116" s="66"/>
-      <c r="G116" s="67"/>
+      <c r="C116" s="101"/>
+      <c r="D116" s="74"/>
+      <c r="E116" s="74"/>
+      <c r="F116" s="74"/>
+      <c r="G116" s="75"/>
       <c r="H116" s="12" t="s">
         <v>54</v>
       </c>
@@ -6352,11 +6352,11 @@
       <c r="B117" s="9">
         <v>97</v>
       </c>
-      <c r="C117" s="87"/>
-      <c r="D117" s="66"/>
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="67"/>
+      <c r="C117" s="101"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="74"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="75"/>
       <c r="H117" s="12" t="s">
         <v>54</v>
       </c>
@@ -6365,11 +6365,11 @@
       <c r="B118" s="27">
         <v>98</v>
       </c>
-      <c r="C118" s="87"/>
-      <c r="D118" s="66"/>
-      <c r="E118" s="66"/>
-      <c r="F118" s="66"/>
-      <c r="G118" s="67"/>
+      <c r="C118" s="101"/>
+      <c r="D118" s="74"/>
+      <c r="E118" s="74"/>
+      <c r="F118" s="74"/>
+      <c r="G118" s="75"/>
       <c r="H118" s="12" t="s">
         <v>54</v>
       </c>
@@ -6378,11 +6378,11 @@
       <c r="B119" s="9">
         <v>99</v>
       </c>
-      <c r="C119" s="87"/>
-      <c r="D119" s="66"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="66"/>
-      <c r="G119" s="67"/>
+      <c r="C119" s="101"/>
+      <c r="D119" s="74"/>
+      <c r="E119" s="74"/>
+      <c r="F119" s="74"/>
+      <c r="G119" s="75"/>
       <c r="H119" s="12" t="s">
         <v>54</v>
       </c>
@@ -6391,11 +6391,11 @@
       <c r="B120" s="27">
         <v>100</v>
       </c>
-      <c r="C120" s="87"/>
-      <c r="D120" s="66"/>
-      <c r="E120" s="66"/>
-      <c r="F120" s="66"/>
-      <c r="G120" s="67"/>
+      <c r="C120" s="101"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="75"/>
       <c r="H120" s="12" t="s">
         <v>54</v>
       </c>
@@ -8074,50 +8074,53 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
@@ -8142,53 +8145,50 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21:H120" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -8238,85 +8238,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
       <c r="K1" s="2">
         <f>Requisitos!C11</f>
         <v>45170</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="84"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K65" si="0">K1+1</f>
         <v>45171</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="84"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45172</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45173</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="84"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45174</v>
@@ -8330,18 +8330,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="77" t="str">
+      <c r="B7" s="73" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="75"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45176</v>
@@ -8358,13 +8358,13 @@
       <c r="B9" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="57" t="s">
         <v>67</v>
       </c>
@@ -9738,13 +9738,13 @@
       <c r="B63" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="67"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="75"/>
       <c r="K63" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -9754,11 +9754,11 @@
       <c r="B64" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="67"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="75"/>
       <c r="H64" s="7" t="s">
         <v>101</v>
       </c>
@@ -9775,11 +9775,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="67"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="75"/>
       <c r="H65" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B10,H$11:H$60)</f>
         <v>0</v>
@@ -9798,11 +9798,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="67"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="75"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -9821,11 +9821,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="67"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="75"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -9844,11 +9844,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>Maria Eduarda Amaral</v>
       </c>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="67"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="75"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -9867,11 +9867,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="67"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="75"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -9890,11 +9890,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="67"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="75"/>
       <c r="H70" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -11043,85 +11043,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
       <c r="K1" s="2">
         <f>Requisitos!C12</f>
         <v>45191</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="84"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45192</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="84"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45193</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45194</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="84"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45195</v>
@@ -11135,18 +11135,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="77" t="str">
+      <c r="B7" s="73" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="75"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45197</v>
@@ -11163,13 +11163,13 @@
       <c r="B9" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="57" t="s">
         <v>67</v>
       </c>
@@ -12538,23 +12538,23 @@
       <c r="B72" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="67"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="75"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="67"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="75"/>
       <c r="H73" s="7" t="s">
         <v>101</v>
       </c>
@@ -12567,11 +12567,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="67"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="75"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -12586,11 +12586,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="66"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="67"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="75"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -12605,11 +12605,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="67"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="75"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -12624,11 +12624,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="67"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="75"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -12643,11 +12643,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="67"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="75"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -13877,8 +13877,8 @@
   <dimension ref="A1:U1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13898,85 +13898,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
       <c r="K1" s="2">
         <f>Requisitos!C13</f>
         <v>45205</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="84"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K22" si="0">K1+1</f>
         <v>45206</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="84"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45208</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="84"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45209</v>
@@ -13990,18 +13990,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="77" t="str">
+      <c r="B7" s="73" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="75"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45211</v>
@@ -14018,13 +14018,13 @@
       <c r="B9" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="57" t="s">
         <v>67</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
@@ -14156,7 +14156,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H13" s="13">
         <v>0</v>
@@ -15353,7 +15353,7 @@
       <c r="F72" s="30"/>
       <c r="G72" s="30">
         <f>COUNTIFS(G11:G61, "Concluído",D11:D61, "&lt;&gt;"&amp;"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72" s="5"/>
     </row>
@@ -15361,23 +15361,23 @@
       <c r="B73" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="67"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="75"/>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="67"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="75"/>
       <c r="H74" s="7" t="s">
         <v>101</v>
       </c>
@@ -15390,11 +15390,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C75" s="66"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="67"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="75"/>
       <c r="H75" s="33">
         <f>SUMIF($F$11:$F$61,'Dados do Projeto'!$B10,H$11:H$61)</f>
         <v>0</v>
@@ -15409,11 +15409,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="67"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="75"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B11,H$11:H$61)</f>
         <v>0</v>
@@ -15428,11 +15428,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="67"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="75"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B12,H$11:H$61)</f>
         <v>0</v>
@@ -15447,11 +15447,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="67"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="75"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B14,H$11:H$61)</f>
         <v>0</v>
@@ -15466,11 +15466,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C79" s="66"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="67"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="75"/>
       <c r="H79" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B15,H$11:H$61)</f>
         <v>0</v>
@@ -16494,6 +16494,12 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B79:G79"/>
     <mergeCell ref="B9:I9"/>
@@ -16502,12 +16508,6 @@
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
     <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:C70">
     <cfRule type="expression" dxfId="83" priority="31">
@@ -16667,85 +16667,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
       <c r="K1" s="2">
         <f>Requisitos!C14</f>
         <v>45226</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="84"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45227</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="84"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45229</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="84"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45230</v>
@@ -16759,18 +16759,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="77" t="str">
+      <c r="B7" s="73" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="75"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -16787,13 +16787,13 @@
       <c r="B9" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="57" t="s">
         <v>67</v>
       </c>
@@ -17933,23 +17933,23 @@
       <c r="B72" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="67"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="75"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="67"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="75"/>
       <c r="H73" s="7" t="s">
         <v>101</v>
       </c>
@@ -17962,11 +17962,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="67"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="75"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -17981,11 +17981,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="66"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="67"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="75"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -18000,11 +18000,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="67"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="75"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -18019,11 +18019,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="67"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="75"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -18038,11 +18038,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="67"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="75"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -19066,6 +19066,12 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -19074,12 +19080,6 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="63" priority="1">
@@ -19265,85 +19265,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
       <c r="K1" s="2">
         <f>Requisitos!C15</f>
         <v>45247</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="84"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45248</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="84"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45249</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45250</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="84"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45251</v>
@@ -19356,18 +19356,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="77" t="str">
+      <c r="B7" s="73" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="75"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45253</v>
@@ -19383,13 +19383,13 @@
       <c r="B9" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="58" t="s">
         <v>67</v>
       </c>
@@ -20353,23 +20353,23 @@
       <c r="B63" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="67"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="75"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="67"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="75"/>
       <c r="H64" s="7" t="s">
         <v>101</v>
       </c>
@@ -20382,11 +20382,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="67"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="75"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -20401,11 +20401,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="67"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="75"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -20420,11 +20420,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="67"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="75"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -20439,11 +20439,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="67"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="75"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -20458,11 +20458,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="67"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="75"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -21425,6 +21425,12 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="B9:I9"/>
@@ -21433,12 +21439,6 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F13 F17">
     <cfRule type="containsBlanks" dxfId="37" priority="1">

--- a/Artefatos/sprints/Planejamento_sprints.xlsx
+++ b/Artefatos/sprints/Planejamento_sprints.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorios_github\plf-es-2023-2-ti3-6653100-fabrica-do-saber\Artefatos\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EEF05C-5262-4B09-A995-E7F5DFD48C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756140CC-EDDB-4A66-A4C7-212145E3FA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1005,7 +1005,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1068,14 +1068,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1259,7 +1265,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1403,35 +1409,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1441,19 +1428,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1470,15 +1485,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1489,22 +1495,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1515,33 +1524,36 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="123">
@@ -2668,7 +2680,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="18"/>
   <c:chart>
@@ -3286,166 +3298,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="76" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="78" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="71"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="78" t="s">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="71"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="78" t="s">
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="78" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="80"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="71"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="78" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="78" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="18"/>
@@ -3547,16 +3559,16 @@
     <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="50"/>
-      <c r="B100" s="82"/>
-      <c r="C100" s="67"/>
-      <c r="D100" s="83" t="s">
+      <c r="B100" s="72"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="67"/>
-      <c r="F100" s="83" t="s">
+      <c r="E100" s="64"/>
+      <c r="F100" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="67"/>
+      <c r="G100" s="64"/>
       <c r="H100" s="51" t="s">
         <v>18</v>
       </c>
@@ -3578,12 +3590,12 @@
     </row>
     <row r="101" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
-      <c r="B101" s="85"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="84" t="s">
+      <c r="B101" s="63"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="67"/>
+      <c r="E101" s="64"/>
       <c r="F101" s="53" t="s">
         <v>24</v>
       </c>
@@ -3616,12 +3628,12 @@
     </row>
     <row r="102" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="50"/>
-      <c r="B102" s="85"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="84" t="s">
+      <c r="B102" s="63"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="67"/>
+      <c r="E102" s="64"/>
       <c r="F102" s="53" t="s">
         <v>29</v>
       </c>
@@ -3655,12 +3667,12 @@
     </row>
     <row r="103" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="50"/>
-      <c r="B103" s="85"/>
-      <c r="C103" s="67"/>
-      <c r="D103" s="84" t="s">
+      <c r="B103" s="63"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="67"/>
+      <c r="E103" s="64"/>
       <c r="F103" s="53"/>
       <c r="G103" s="54" t="s">
         <v>34</v>
@@ -3692,12 +3704,12 @@
     </row>
     <row r="104" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="50"/>
-      <c r="B104" s="85"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="84" t="s">
+      <c r="B104" s="63"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="67"/>
+      <c r="E104" s="64"/>
       <c r="F104" s="53"/>
       <c r="G104" s="54" t="s">
         <v>36</v>
@@ -3727,12 +3739,12 @@
     </row>
     <row r="105" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="50"/>
-      <c r="B105" s="85"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="84" t="s">
+      <c r="B105" s="63"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="67"/>
+      <c r="E105" s="64"/>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="s">
         <v>39</v>
@@ -3757,8 +3769,8 @@
     </row>
     <row r="106" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="50"/>
-      <c r="B106" s="85"/>
-      <c r="C106" s="67"/>
+      <c r="B106" s="63"/>
+      <c r="C106" s="64"/>
       <c r="F106" s="53"/>
       <c r="G106" s="54"/>
       <c r="H106" s="53"/>
@@ -3769,8 +3781,8 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="50"/>
-      <c r="B107" s="85"/>
-      <c r="C107" s="67"/>
+      <c r="B107" s="63"/>
+      <c r="C107" s="64"/>
       <c r="D107" s="55"/>
       <c r="E107" s="53"/>
       <c r="F107" s="53"/>
@@ -4738,12 +4750,24 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="D100:E100"/>
@@ -4755,24 +4779,12 @@
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D105:E105"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="F10:F15" xr:uid="{49EDF03A-7EFB-435C-A992-40D98DE85B41}">
@@ -4797,8 +4809,8 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:G32"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H28" sqref="C28:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4815,59 +4827,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -4883,12 +4895,12 @@
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -4903,12 +4915,12 @@
       <c r="B9" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
@@ -4923,8 +4935,8 @@
       <c r="E10" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
       <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
@@ -4939,9 +4951,9 @@
       <c r="D11" s="14">
         <v>45190</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4955,9 +4967,9 @@
         <f t="shared" ref="D12" si="0">C12+13</f>
         <v>45204</v>
       </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4971,9 +4983,9 @@
       <c r="D13" s="14">
         <v>45225</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4986,9 +4998,9 @@
       <c r="D14" s="14">
         <v>45246</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5027,13 +5039,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
       <c r="H18" s="22" t="s">
         <v>47</v>
       </c>
@@ -5042,11 +5054,11 @@
       <c r="B19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="75"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
       <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
@@ -5056,11 +5068,11 @@
       <c r="B20" s="27">
         <v>0</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="75"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="28"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -5077,14 +5089,14 @@
       <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="12" t="s">
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="104" t="s">
         <v>50</v>
       </c>
       <c r="J21" s="48"/>
@@ -5093,14 +5105,14 @@
       <c r="B22" s="27">
         <v>2</v>
       </c>
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="12" t="s">
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="104" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5108,14 +5120,14 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="12" t="s">
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="104" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5123,14 +5135,14 @@
       <c r="B24" s="27">
         <v>4</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="12" t="s">
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="108" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5138,13 +5150,13 @@
       <c r="B25" s="9">
         <v>5</v>
       </c>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89"/>
       <c r="H25" s="12" t="s">
         <v>54</v>
       </c>
@@ -5153,13 +5165,13 @@
       <c r="B26" s="27">
         <v>6</v>
       </c>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
       <c r="H26" s="12" t="s">
         <v>54</v>
       </c>
@@ -5168,29 +5180,29 @@
       <c r="B27" s="9">
         <v>7</v>
       </c>
-      <c r="C27" s="104" t="s">
+      <c r="C27" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="12" t="s">
-        <v>58</v>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="104" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="27">
         <v>8</v>
       </c>
-      <c r="C28" s="98" t="s">
+      <c r="C28" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="12" t="s">
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="108" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5198,14 +5210,14 @@
       <c r="B29" s="9">
         <v>9</v>
       </c>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="12" t="s">
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="104" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5213,14 +5225,14 @@
       <c r="B30" s="27">
         <v>10</v>
       </c>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="12" t="s">
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="108" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5228,14 +5240,14 @@
       <c r="B31" s="9">
         <v>11</v>
       </c>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="12" t="s">
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="108" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5243,13 +5255,13 @@
       <c r="B32" s="27">
         <v>12</v>
       </c>
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="89"/>
       <c r="H32" s="12" t="s">
         <v>58</v>
       </c>
@@ -5258,14 +5270,14 @@
       <c r="B33" s="9">
         <v>13</v>
       </c>
-      <c r="C33" s="92" t="s">
+      <c r="C33" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="12" t="s">
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="104" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5273,11 +5285,11 @@
       <c r="B34" s="27">
         <v>14</v>
       </c>
-      <c r="C34" s="101"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="103"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="89"/>
       <c r="H34" s="12" t="s">
         <v>54</v>
       </c>
@@ -5286,11 +5298,11 @@
       <c r="B35" s="9">
         <v>15</v>
       </c>
-      <c r="C35" s="101"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="103"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="89"/>
       <c r="H35" s="12" t="s">
         <v>54</v>
       </c>
@@ -5299,11 +5311,11 @@
       <c r="B36" s="27">
         <v>16</v>
       </c>
-      <c r="C36" s="101"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="75"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
       <c r="H36" s="12" t="s">
         <v>54</v>
       </c>
@@ -5312,11 +5324,11 @@
       <c r="B37" s="9">
         <v>17</v>
       </c>
-      <c r="C37" s="101"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="75"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
       <c r="H37" s="12" t="s">
         <v>54</v>
       </c>
@@ -5325,11 +5337,11 @@
       <c r="B38" s="27">
         <v>18</v>
       </c>
-      <c r="C38" s="101"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="75"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="67"/>
       <c r="H38" s="12" t="s">
         <v>54</v>
       </c>
@@ -5338,11 +5350,11 @@
       <c r="B39" s="9">
         <v>19</v>
       </c>
-      <c r="C39" s="101"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="75"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
       <c r="H39" s="12" t="s">
         <v>54</v>
       </c>
@@ -5351,11 +5363,11 @@
       <c r="B40" s="27">
         <v>20</v>
       </c>
-      <c r="C40" s="101"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="75"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
       <c r="H40" s="12" t="s">
         <v>54</v>
       </c>
@@ -5364,11 +5376,11 @@
       <c r="B41" s="9">
         <v>21</v>
       </c>
-      <c r="C41" s="101"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="75"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
       <c r="H41" s="12" t="s">
         <v>54</v>
       </c>
@@ -5377,11 +5389,11 @@
       <c r="B42" s="27">
         <v>22</v>
       </c>
-      <c r="C42" s="101"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="75"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
       <c r="H42" s="12" t="s">
         <v>54</v>
       </c>
@@ -5390,11 +5402,11 @@
       <c r="B43" s="9">
         <v>23</v>
       </c>
-      <c r="C43" s="101"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="75"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
       <c r="H43" s="12" t="s">
         <v>54</v>
       </c>
@@ -5403,11 +5415,11 @@
       <c r="B44" s="27">
         <v>24</v>
       </c>
-      <c r="C44" s="101"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="75"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
       <c r="H44" s="12" t="s">
         <v>54</v>
       </c>
@@ -5416,11 +5428,11 @@
       <c r="B45" s="9">
         <v>25</v>
       </c>
-      <c r="C45" s="101"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="75"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
       <c r="H45" s="12" t="s">
         <v>54</v>
       </c>
@@ -5429,11 +5441,11 @@
       <c r="B46" s="27">
         <v>26</v>
       </c>
-      <c r="C46" s="101"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="75"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
       <c r="H46" s="12" t="s">
         <v>54</v>
       </c>
@@ -5442,11 +5454,11 @@
       <c r="B47" s="9">
         <v>27</v>
       </c>
-      <c r="C47" s="101"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="75"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
       <c r="H47" s="12" t="s">
         <v>54</v>
       </c>
@@ -5455,11 +5467,11 @@
       <c r="B48" s="27">
         <v>28</v>
       </c>
-      <c r="C48" s="101"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="75"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
       <c r="H48" s="12" t="s">
         <v>54</v>
       </c>
@@ -5468,11 +5480,11 @@
       <c r="B49" s="9">
         <v>29</v>
       </c>
-      <c r="C49" s="101"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="75"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
       <c r="H49" s="12" t="s">
         <v>54</v>
       </c>
@@ -5481,11 +5493,11 @@
       <c r="B50" s="27">
         <v>30</v>
       </c>
-      <c r="C50" s="101"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="75"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
       <c r="H50" s="12" t="s">
         <v>54</v>
       </c>
@@ -5494,11 +5506,11 @@
       <c r="B51" s="9">
         <v>31</v>
       </c>
-      <c r="C51" s="101"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="75"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
       <c r="H51" s="12" t="s">
         <v>54</v>
       </c>
@@ -5507,11 +5519,11 @@
       <c r="B52" s="27">
         <v>32</v>
       </c>
-      <c r="C52" s="101"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="75"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
       <c r="H52" s="12" t="s">
         <v>54</v>
       </c>
@@ -5520,11 +5532,11 @@
       <c r="B53" s="9">
         <v>33</v>
       </c>
-      <c r="C53" s="101"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="75"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
       <c r="H53" s="12" t="s">
         <v>54</v>
       </c>
@@ -5533,11 +5545,11 @@
       <c r="B54" s="27">
         <v>34</v>
       </c>
-      <c r="C54" s="101"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="75"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
       <c r="H54" s="12" t="s">
         <v>54</v>
       </c>
@@ -5546,11 +5558,11 @@
       <c r="B55" s="9">
         <v>35</v>
       </c>
-      <c r="C55" s="101"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="67"/>
       <c r="H55" s="12" t="s">
         <v>54</v>
       </c>
@@ -5559,11 +5571,11 @@
       <c r="B56" s="27">
         <v>36</v>
       </c>
-      <c r="C56" s="101"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="75"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="67"/>
       <c r="H56" s="12" t="s">
         <v>54</v>
       </c>
@@ -5572,11 +5584,11 @@
       <c r="B57" s="9">
         <v>37</v>
       </c>
-      <c r="C57" s="101"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="75"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="67"/>
       <c r="H57" s="12" t="s">
         <v>54</v>
       </c>
@@ -5585,11 +5597,11 @@
       <c r="B58" s="27">
         <v>38</v>
       </c>
-      <c r="C58" s="101"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="75"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="67"/>
       <c r="H58" s="12" t="s">
         <v>54</v>
       </c>
@@ -5598,11 +5610,11 @@
       <c r="B59" s="9">
         <v>39</v>
       </c>
-      <c r="C59" s="101"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="75"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="67"/>
       <c r="H59" s="12" t="s">
         <v>54</v>
       </c>
@@ -5611,11 +5623,11 @@
       <c r="B60" s="27">
         <v>40</v>
       </c>
-      <c r="C60" s="101"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="75"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="67"/>
       <c r="H60" s="12" t="s">
         <v>54</v>
       </c>
@@ -5624,11 +5636,11 @@
       <c r="B61" s="9">
         <v>41</v>
       </c>
-      <c r="C61" s="101"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="75"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="67"/>
       <c r="H61" s="12" t="s">
         <v>54</v>
       </c>
@@ -5637,11 +5649,11 @@
       <c r="B62" s="27">
         <v>42</v>
       </c>
-      <c r="C62" s="101"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="75"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="67"/>
       <c r="H62" s="12" t="s">
         <v>54</v>
       </c>
@@ -5650,11 +5662,11 @@
       <c r="B63" s="9">
         <v>43</v>
       </c>
-      <c r="C63" s="101"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="75"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="67"/>
       <c r="H63" s="12" t="s">
         <v>54</v>
       </c>
@@ -5663,11 +5675,11 @@
       <c r="B64" s="27">
         <v>44</v>
       </c>
-      <c r="C64" s="101"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="75"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="67"/>
       <c r="H64" s="12" t="s">
         <v>54</v>
       </c>
@@ -5676,11 +5688,11 @@
       <c r="B65" s="9">
         <v>45</v>
       </c>
-      <c r="C65" s="101"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="75"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="67"/>
       <c r="H65" s="12" t="s">
         <v>54</v>
       </c>
@@ -5689,11 +5701,11 @@
       <c r="B66" s="27">
         <v>46</v>
       </c>
-      <c r="C66" s="101"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="75"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="67"/>
       <c r="H66" s="12" t="s">
         <v>54</v>
       </c>
@@ -5702,11 +5714,11 @@
       <c r="B67" s="9">
         <v>47</v>
       </c>
-      <c r="C67" s="101"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="75"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="67"/>
       <c r="H67" s="12" t="s">
         <v>54</v>
       </c>
@@ -5715,11 +5727,11 @@
       <c r="B68" s="27">
         <v>48</v>
       </c>
-      <c r="C68" s="101"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="75"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="67"/>
       <c r="H68" s="12" t="s">
         <v>54</v>
       </c>
@@ -5728,11 +5740,11 @@
       <c r="B69" s="9">
         <v>49</v>
       </c>
-      <c r="C69" s="101"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="75"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="67"/>
       <c r="H69" s="12" t="s">
         <v>54</v>
       </c>
@@ -5741,11 +5753,11 @@
       <c r="B70" s="27">
         <v>50</v>
       </c>
-      <c r="C70" s="101"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74"/>
-      <c r="G70" s="75"/>
+      <c r="C70" s="87"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="67"/>
       <c r="H70" s="12" t="s">
         <v>54</v>
       </c>
@@ -5754,11 +5766,11 @@
       <c r="B71" s="9">
         <v>51</v>
       </c>
-      <c r="C71" s="101"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="75"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="67"/>
       <c r="H71" s="12" t="s">
         <v>54</v>
       </c>
@@ -5767,11 +5779,11 @@
       <c r="B72" s="27">
         <v>52</v>
       </c>
-      <c r="C72" s="101"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="75"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="67"/>
       <c r="H72" s="12" t="s">
         <v>54</v>
       </c>
@@ -5780,11 +5792,11 @@
       <c r="B73" s="9">
         <v>53</v>
       </c>
-      <c r="C73" s="101"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="75"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="67"/>
       <c r="H73" s="12" t="s">
         <v>54</v>
       </c>
@@ -5793,11 +5805,11 @@
       <c r="B74" s="27">
         <v>54</v>
       </c>
-      <c r="C74" s="101"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="75"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="67"/>
       <c r="H74" s="12" t="s">
         <v>54</v>
       </c>
@@ -5806,11 +5818,11 @@
       <c r="B75" s="9">
         <v>55</v>
       </c>
-      <c r="C75" s="101"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="75"/>
+      <c r="C75" s="87"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="67"/>
       <c r="H75" s="12" t="s">
         <v>54</v>
       </c>
@@ -5819,11 +5831,11 @@
       <c r="B76" s="27">
         <v>56</v>
       </c>
-      <c r="C76" s="101"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="75"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="67"/>
       <c r="H76" s="12" t="s">
         <v>54</v>
       </c>
@@ -5832,11 +5844,11 @@
       <c r="B77" s="9">
         <v>57</v>
       </c>
-      <c r="C77" s="101"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="75"/>
+      <c r="C77" s="87"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="67"/>
       <c r="H77" s="12" t="s">
         <v>54</v>
       </c>
@@ -5845,11 +5857,11 @@
       <c r="B78" s="27">
         <v>58</v>
       </c>
-      <c r="C78" s="101"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="75"/>
+      <c r="C78" s="87"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="67"/>
       <c r="H78" s="12" t="s">
         <v>54</v>
       </c>
@@ -5858,11 +5870,11 @@
       <c r="B79" s="9">
         <v>59</v>
       </c>
-      <c r="C79" s="101"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="75"/>
+      <c r="C79" s="87"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="67"/>
       <c r="H79" s="12" t="s">
         <v>54</v>
       </c>
@@ -5871,11 +5883,11 @@
       <c r="B80" s="27">
         <v>60</v>
       </c>
-      <c r="C80" s="101"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="75"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="67"/>
       <c r="H80" s="12" t="s">
         <v>54</v>
       </c>
@@ -5884,11 +5896,11 @@
       <c r="B81" s="9">
         <v>61</v>
       </c>
-      <c r="C81" s="101"/>
-      <c r="D81" s="74"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="74"/>
-      <c r="G81" s="75"/>
+      <c r="C81" s="87"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="67"/>
       <c r="H81" s="12" t="s">
         <v>54</v>
       </c>
@@ -5897,11 +5909,11 @@
       <c r="B82" s="27">
         <v>62</v>
       </c>
-      <c r="C82" s="101"/>
-      <c r="D82" s="74"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="75"/>
+      <c r="C82" s="87"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="67"/>
       <c r="H82" s="12" t="s">
         <v>54</v>
       </c>
@@ -5910,11 +5922,11 @@
       <c r="B83" s="9">
         <v>63</v>
       </c>
-      <c r="C83" s="101"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="75"/>
+      <c r="C83" s="87"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="67"/>
       <c r="H83" s="12" t="s">
         <v>54</v>
       </c>
@@ -5923,11 +5935,11 @@
       <c r="B84" s="27">
         <v>64</v>
       </c>
-      <c r="C84" s="101"/>
-      <c r="D84" s="74"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="74"/>
-      <c r="G84" s="75"/>
+      <c r="C84" s="87"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="67"/>
       <c r="H84" s="12" t="s">
         <v>54</v>
       </c>
@@ -5936,11 +5948,11 @@
       <c r="B85" s="9">
         <v>65</v>
       </c>
-      <c r="C85" s="101"/>
-      <c r="D85" s="74"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="74"/>
-      <c r="G85" s="75"/>
+      <c r="C85" s="87"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="67"/>
       <c r="H85" s="12" t="s">
         <v>54</v>
       </c>
@@ -5949,11 +5961,11 @@
       <c r="B86" s="27">
         <v>66</v>
       </c>
-      <c r="C86" s="101"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="75"/>
+      <c r="C86" s="87"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="67"/>
       <c r="H86" s="12" t="s">
         <v>54</v>
       </c>
@@ -5962,11 +5974,11 @@
       <c r="B87" s="9">
         <v>67</v>
       </c>
-      <c r="C87" s="101"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="74"/>
-      <c r="G87" s="75"/>
+      <c r="C87" s="87"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="67"/>
       <c r="H87" s="12" t="s">
         <v>54</v>
       </c>
@@ -5975,11 +5987,11 @@
       <c r="B88" s="27">
         <v>68</v>
       </c>
-      <c r="C88" s="101"/>
-      <c r="D88" s="74"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="74"/>
-      <c r="G88" s="75"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="67"/>
       <c r="H88" s="12" t="s">
         <v>54</v>
       </c>
@@ -5988,11 +6000,11 @@
       <c r="B89" s="9">
         <v>69</v>
       </c>
-      <c r="C89" s="101"/>
-      <c r="D89" s="74"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="75"/>
+      <c r="C89" s="87"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="67"/>
       <c r="H89" s="12" t="s">
         <v>54</v>
       </c>
@@ -6001,11 +6013,11 @@
       <c r="B90" s="27">
         <v>70</v>
       </c>
-      <c r="C90" s="101"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="75"/>
+      <c r="C90" s="87"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="67"/>
       <c r="H90" s="12" t="s">
         <v>54</v>
       </c>
@@ -6014,11 +6026,11 @@
       <c r="B91" s="9">
         <v>71</v>
       </c>
-      <c r="C91" s="101"/>
-      <c r="D91" s="74"/>
-      <c r="E91" s="74"/>
-      <c r="F91" s="74"/>
-      <c r="G91" s="75"/>
+      <c r="C91" s="87"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="67"/>
       <c r="H91" s="12" t="s">
         <v>54</v>
       </c>
@@ -6027,11 +6039,11 @@
       <c r="B92" s="27">
         <v>72</v>
       </c>
-      <c r="C92" s="101"/>
-      <c r="D92" s="74"/>
-      <c r="E92" s="74"/>
-      <c r="F92" s="74"/>
-      <c r="G92" s="75"/>
+      <c r="C92" s="87"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="67"/>
       <c r="H92" s="12" t="s">
         <v>54</v>
       </c>
@@ -6040,11 +6052,11 @@
       <c r="B93" s="9">
         <v>73</v>
       </c>
-      <c r="C93" s="101"/>
-      <c r="D93" s="74"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="74"/>
-      <c r="G93" s="75"/>
+      <c r="C93" s="87"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="67"/>
       <c r="H93" s="12" t="s">
         <v>54</v>
       </c>
@@ -6053,11 +6065,11 @@
       <c r="B94" s="27">
         <v>74</v>
       </c>
-      <c r="C94" s="101"/>
-      <c r="D94" s="74"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="74"/>
-      <c r="G94" s="75"/>
+      <c r="C94" s="87"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="67"/>
       <c r="H94" s="12" t="s">
         <v>54</v>
       </c>
@@ -6066,11 +6078,11 @@
       <c r="B95" s="9">
         <v>75</v>
       </c>
-      <c r="C95" s="101"/>
-      <c r="D95" s="74"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="75"/>
+      <c r="C95" s="87"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="67"/>
       <c r="H95" s="12" t="s">
         <v>54</v>
       </c>
@@ -6079,11 +6091,11 @@
       <c r="B96" s="27">
         <v>76</v>
       </c>
-      <c r="C96" s="101"/>
-      <c r="D96" s="74"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="75"/>
+      <c r="C96" s="87"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="67"/>
       <c r="H96" s="12" t="s">
         <v>54</v>
       </c>
@@ -6092,11 +6104,11 @@
       <c r="B97" s="9">
         <v>77</v>
       </c>
-      <c r="C97" s="101"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="74"/>
-      <c r="G97" s="75"/>
+      <c r="C97" s="87"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="67"/>
       <c r="H97" s="12" t="s">
         <v>54</v>
       </c>
@@ -6105,11 +6117,11 @@
       <c r="B98" s="27">
         <v>78</v>
       </c>
-      <c r="C98" s="101"/>
-      <c r="D98" s="74"/>
-      <c r="E98" s="74"/>
-      <c r="F98" s="74"/>
-      <c r="G98" s="75"/>
+      <c r="C98" s="87"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="67"/>
       <c r="H98" s="12" t="s">
         <v>54</v>
       </c>
@@ -6118,11 +6130,11 @@
       <c r="B99" s="9">
         <v>79</v>
       </c>
-      <c r="C99" s="101"/>
-      <c r="D99" s="74"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="74"/>
-      <c r="G99" s="75"/>
+      <c r="C99" s="87"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="67"/>
       <c r="H99" s="12" t="s">
         <v>54</v>
       </c>
@@ -6131,11 +6143,11 @@
       <c r="B100" s="27">
         <v>80</v>
       </c>
-      <c r="C100" s="101"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="75"/>
+      <c r="C100" s="87"/>
+      <c r="D100" s="66"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="67"/>
       <c r="H100" s="12" t="s">
         <v>54</v>
       </c>
@@ -6144,11 +6156,11 @@
       <c r="B101" s="9">
         <v>81</v>
       </c>
-      <c r="C101" s="101"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="75"/>
+      <c r="C101" s="87"/>
+      <c r="D101" s="66"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="67"/>
       <c r="H101" s="12" t="s">
         <v>54</v>
       </c>
@@ -6157,11 +6169,11 @@
       <c r="B102" s="27">
         <v>82</v>
       </c>
-      <c r="C102" s="101"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="75"/>
+      <c r="C102" s="87"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="67"/>
       <c r="H102" s="12" t="s">
         <v>54</v>
       </c>
@@ -6170,11 +6182,11 @@
       <c r="B103" s="9">
         <v>83</v>
       </c>
-      <c r="C103" s="101"/>
-      <c r="D103" s="74"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="74"/>
-      <c r="G103" s="75"/>
+      <c r="C103" s="87"/>
+      <c r="D103" s="66"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="67"/>
       <c r="H103" s="12" t="s">
         <v>54</v>
       </c>
@@ -6183,11 +6195,11 @@
       <c r="B104" s="27">
         <v>84</v>
       </c>
-      <c r="C104" s="101"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="75"/>
+      <c r="C104" s="87"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="67"/>
       <c r="H104" s="12" t="s">
         <v>54</v>
       </c>
@@ -6196,11 +6208,11 @@
       <c r="B105" s="9">
         <v>85</v>
       </c>
-      <c r="C105" s="101"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="75"/>
+      <c r="C105" s="87"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="67"/>
       <c r="H105" s="12" t="s">
         <v>54</v>
       </c>
@@ -6209,11 +6221,11 @@
       <c r="B106" s="27">
         <v>86</v>
       </c>
-      <c r="C106" s="101"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="74"/>
-      <c r="G106" s="75"/>
+      <c r="C106" s="87"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="67"/>
       <c r="H106" s="12" t="s">
         <v>54</v>
       </c>
@@ -6222,11 +6234,11 @@
       <c r="B107" s="9">
         <v>87</v>
       </c>
-      <c r="C107" s="101"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="75"/>
+      <c r="C107" s="87"/>
+      <c r="D107" s="66"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="67"/>
       <c r="H107" s="12" t="s">
         <v>54</v>
       </c>
@@ -6235,11 +6247,11 @@
       <c r="B108" s="27">
         <v>88</v>
       </c>
-      <c r="C108" s="101"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="75"/>
+      <c r="C108" s="87"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
+      <c r="G108" s="67"/>
       <c r="H108" s="12" t="s">
         <v>54</v>
       </c>
@@ -6248,11 +6260,11 @@
       <c r="B109" s="9">
         <v>89</v>
       </c>
-      <c r="C109" s="101"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="74"/>
-      <c r="G109" s="75"/>
+      <c r="C109" s="87"/>
+      <c r="D109" s="66"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="67"/>
       <c r="H109" s="12" t="s">
         <v>54</v>
       </c>
@@ -6261,11 +6273,11 @@
       <c r="B110" s="27">
         <v>90</v>
       </c>
-      <c r="C110" s="101"/>
-      <c r="D110" s="74"/>
-      <c r="E110" s="74"/>
-      <c r="F110" s="74"/>
-      <c r="G110" s="75"/>
+      <c r="C110" s="87"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="66"/>
+      <c r="F110" s="66"/>
+      <c r="G110" s="67"/>
       <c r="H110" s="12" t="s">
         <v>54</v>
       </c>
@@ -6274,11 +6286,11 @@
       <c r="B111" s="9">
         <v>91</v>
       </c>
-      <c r="C111" s="101"/>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="74"/>
-      <c r="G111" s="75"/>
+      <c r="C111" s="87"/>
+      <c r="D111" s="66"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="67"/>
       <c r="H111" s="12" t="s">
         <v>54</v>
       </c>
@@ -6287,11 +6299,11 @@
       <c r="B112" s="27">
         <v>92</v>
       </c>
-      <c r="C112" s="101"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="75"/>
+      <c r="C112" s="87"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="66"/>
+      <c r="F112" s="66"/>
+      <c r="G112" s="67"/>
       <c r="H112" s="12" t="s">
         <v>54</v>
       </c>
@@ -6300,11 +6312,11 @@
       <c r="B113" s="9">
         <v>93</v>
       </c>
-      <c r="C113" s="101"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="75"/>
+      <c r="C113" s="87"/>
+      <c r="D113" s="66"/>
+      <c r="E113" s="66"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="67"/>
       <c r="H113" s="12" t="s">
         <v>54</v>
       </c>
@@ -6313,11 +6325,11 @@
       <c r="B114" s="27">
         <v>94</v>
       </c>
-      <c r="C114" s="101"/>
-      <c r="D114" s="74"/>
-      <c r="E114" s="74"/>
-      <c r="F114" s="74"/>
-      <c r="G114" s="75"/>
+      <c r="C114" s="87"/>
+      <c r="D114" s="66"/>
+      <c r="E114" s="66"/>
+      <c r="F114" s="66"/>
+      <c r="G114" s="67"/>
       <c r="H114" s="12" t="s">
         <v>54</v>
       </c>
@@ -6326,11 +6338,11 @@
       <c r="B115" s="9">
         <v>95</v>
       </c>
-      <c r="C115" s="101"/>
-      <c r="D115" s="74"/>
-      <c r="E115" s="74"/>
-      <c r="F115" s="74"/>
-      <c r="G115" s="75"/>
+      <c r="C115" s="87"/>
+      <c r="D115" s="66"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="66"/>
+      <c r="G115" s="67"/>
       <c r="H115" s="12" t="s">
         <v>54</v>
       </c>
@@ -6339,11 +6351,11 @@
       <c r="B116" s="27">
         <v>96</v>
       </c>
-      <c r="C116" s="101"/>
-      <c r="D116" s="74"/>
-      <c r="E116" s="74"/>
-      <c r="F116" s="74"/>
-      <c r="G116" s="75"/>
+      <c r="C116" s="87"/>
+      <c r="D116" s="66"/>
+      <c r="E116" s="66"/>
+      <c r="F116" s="66"/>
+      <c r="G116" s="67"/>
       <c r="H116" s="12" t="s">
         <v>54</v>
       </c>
@@ -6352,11 +6364,11 @@
       <c r="B117" s="9">
         <v>97</v>
       </c>
-      <c r="C117" s="101"/>
-      <c r="D117" s="74"/>
-      <c r="E117" s="74"/>
-      <c r="F117" s="74"/>
-      <c r="G117" s="75"/>
+      <c r="C117" s="87"/>
+      <c r="D117" s="66"/>
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="67"/>
       <c r="H117" s="12" t="s">
         <v>54</v>
       </c>
@@ -6365,11 +6377,11 @@
       <c r="B118" s="27">
         <v>98</v>
       </c>
-      <c r="C118" s="101"/>
-      <c r="D118" s="74"/>
-      <c r="E118" s="74"/>
-      <c r="F118" s="74"/>
-      <c r="G118" s="75"/>
+      <c r="C118" s="87"/>
+      <c r="D118" s="66"/>
+      <c r="E118" s="66"/>
+      <c r="F118" s="66"/>
+      <c r="G118" s="67"/>
       <c r="H118" s="12" t="s">
         <v>54</v>
       </c>
@@ -6378,11 +6390,11 @@
       <c r="B119" s="9">
         <v>99</v>
       </c>
-      <c r="C119" s="101"/>
-      <c r="D119" s="74"/>
-      <c r="E119" s="74"/>
-      <c r="F119" s="74"/>
-      <c r="G119" s="75"/>
+      <c r="C119" s="87"/>
+      <c r="D119" s="66"/>
+      <c r="E119" s="66"/>
+      <c r="F119" s="66"/>
+      <c r="G119" s="67"/>
       <c r="H119" s="12" t="s">
         <v>54</v>
       </c>
@@ -6391,11 +6403,11 @@
       <c r="B120" s="27">
         <v>100</v>
       </c>
-      <c r="C120" s="101"/>
-      <c r="D120" s="74"/>
-      <c r="E120" s="74"/>
-      <c r="F120" s="74"/>
-      <c r="G120" s="75"/>
+      <c r="C120" s="87"/>
+      <c r="D120" s="66"/>
+      <c r="E120" s="66"/>
+      <c r="F120" s="66"/>
+      <c r="G120" s="67"/>
       <c r="H120" s="12" t="s">
         <v>54</v>
       </c>
@@ -8074,53 +8086,50 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
@@ -8145,52 +8154,55 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C95:G95"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21:H120" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$B$212:$B$214</formula1>
     </dataValidation>
@@ -8238,85 +8250,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
+      <c r="B1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
       <c r="K1" s="2">
         <f>Requisitos!C11</f>
         <v>45170</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K65" si="0">K1+1</f>
         <v>45171</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45172</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45173</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45174</v>
@@ -8330,18 +8342,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="77" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="75"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45176</v>
@@ -8355,16 +8367,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="57" t="s">
         <v>67</v>
       </c>
@@ -9735,30 +9747,30 @@
       </c>
     </row>
     <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="108" t="s">
+      <c r="B63" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="74"/>
-      <c r="H63" s="74"/>
-      <c r="I63" s="75"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="67"/>
       <c r="K63" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
       </c>
     </row>
     <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="109" t="s">
+      <c r="B64" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="74"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="75"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="67"/>
       <c r="H64" s="7" t="s">
         <v>101</v>
       </c>
@@ -9771,15 +9783,15 @@
       </c>
     </row>
     <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="107" t="str">
+      <c r="B65" s="98" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="74"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="75"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="67"/>
       <c r="H65" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B10,H$11:H$60)</f>
         <v>0</v>
@@ -9794,15 +9806,15 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="107" t="str">
+      <c r="B66" s="98" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="75"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="67"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -9817,15 +9829,15 @@
       </c>
     </row>
     <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="107" t="str">
+      <c r="B67" s="98" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="75"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="67"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -9840,15 +9852,15 @@
       </c>
     </row>
     <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="107" t="str">
+      <c r="B68" s="98" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Maria Eduarda Amaral</v>
       </c>
-      <c r="C68" s="74"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="75"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="67"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -9863,15 +9875,15 @@
       </c>
     </row>
     <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="107" t="str">
+      <c r="B69" s="98" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C69" s="74"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="75"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="67"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -9886,15 +9898,15 @@
       </c>
     </row>
     <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="107" t="str">
+      <c r="B70" s="98" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74"/>
-      <c r="G70" s="75"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="67"/>
       <c r="H70" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -11022,7 +11034,7 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -11043,85 +11055,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
+      <c r="B1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
       <c r="K1" s="2">
         <f>Requisitos!C12</f>
         <v>45191</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45192</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45193</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45194</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45195</v>
@@ -11135,18 +11147,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="77" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="75"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45197</v>
@@ -11160,16 +11172,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="57" t="s">
         <v>67</v>
       </c>
@@ -12535,26 +12547,26 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="108" t="s">
+      <c r="B72" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="74"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="75"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="67"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="109" t="s">
+      <c r="B73" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="75"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="67"/>
       <c r="H73" s="7" t="s">
         <v>101</v>
       </c>
@@ -12563,15 +12575,15 @@
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="107" t="str">
+      <c r="B74" s="98" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="74"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="75"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="67"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -12582,15 +12594,15 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="107" t="str">
+      <c r="B75" s="98" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="74"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="75"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="67"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -12601,15 +12613,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="107" t="str">
+      <c r="B76" s="98" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="74"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="75"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="67"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -12620,15 +12632,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="107" t="str">
+      <c r="B77" s="98" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="75"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="67"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -12639,15 +12651,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="107" t="str">
+      <c r="B78" s="98" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="75"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="67"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -13878,7 +13890,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13898,85 +13910,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
+      <c r="B1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
       <c r="K1" s="2">
         <f>Requisitos!C13</f>
         <v>45205</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K22" si="0">K1+1</f>
         <v>45206</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45208</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45209</v>
@@ -13990,18 +14002,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="77" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="75"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45211</v>
@@ -14015,16 +14027,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="57" t="s">
         <v>67</v>
       </c>
@@ -14218,7 +14230,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H15" s="13">
         <v>0</v>
@@ -14249,7 +14261,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -14273,7 +14285,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H17" s="13">
         <v>0</v>
@@ -14304,7 +14316,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H18" s="13">
         <v>0</v>
@@ -14335,7 +14347,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H19" s="13">
         <v>0</v>
@@ -14366,7 +14378,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H20" s="13">
         <v>0</v>
@@ -14397,7 +14409,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H21" s="13">
         <v>0</v>
@@ -14428,7 +14440,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H22" s="13">
         <v>0</v>
@@ -14546,7 +14558,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H26" s="13">
         <v>0</v>
@@ -14574,7 +14586,7 @@
         <v>8</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H27" s="13">
         <v>0</v>
@@ -14602,7 +14614,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H28" s="13">
         <v>0</v>
@@ -15353,31 +15365,31 @@
       <c r="F72" s="30"/>
       <c r="G72" s="30">
         <f>COUNTIFS(G11:G61, "Concluído",D11:D61, "&lt;&gt;"&amp;"")</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="108" t="s">
+      <c r="B73" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="74"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="75"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="67"/>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="109" t="s">
+      <c r="B74" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="74"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="75"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="67"/>
       <c r="H74" s="7" t="s">
         <v>101</v>
       </c>
@@ -15386,15 +15398,15 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="107" t="str">
+      <c r="B75" s="98" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C75" s="74"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="75"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="67"/>
       <c r="H75" s="33">
         <f>SUMIF($F$11:$F$61,'Dados do Projeto'!$B10,H$11:H$61)</f>
         <v>0</v>
@@ -15405,15 +15417,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="107" t="str">
+      <c r="B76" s="98" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C76" s="74"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="75"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="67"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B11,H$11:H$61)</f>
         <v>0</v>
@@ -15424,15 +15436,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="107" t="str">
+      <c r="B77" s="98" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="75"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="67"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B12,H$11:H$61)</f>
         <v>0</v>
@@ -15443,15 +15455,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="107" t="str">
+      <c r="B78" s="98" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="75"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="67"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B14,H$11:H$61)</f>
         <v>0</v>
@@ -15462,15 +15474,15 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="107" t="str">
+      <c r="B79" s="98" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="75"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="67"/>
       <c r="H79" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B15,H$11:H$61)</f>
         <v>0</v>
@@ -16494,12 +16506,6 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B79:G79"/>
     <mergeCell ref="B9:I9"/>
@@ -16508,6 +16514,12 @@
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
     <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:C70">
     <cfRule type="expression" dxfId="83" priority="31">
@@ -16645,9 +16657,9 @@
   </sheetPr>
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16667,85 +16679,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
+      <c r="B1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
       <c r="K1" s="2">
         <f>Requisitos!C14</f>
         <v>45226</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45227</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45229</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45230</v>
@@ -16759,18 +16771,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="77" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="75"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -16784,16 +16796,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="57" t="s">
         <v>67</v>
       </c>
@@ -17930,26 +17942,26 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="108" t="s">
+      <c r="B72" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="74"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="75"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="67"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="109" t="s">
+      <c r="B73" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="75"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="67"/>
       <c r="H73" s="7" t="s">
         <v>101</v>
       </c>
@@ -17958,15 +17970,15 @@
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="107" t="str">
+      <c r="B74" s="98" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="74"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="75"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="67"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -17977,15 +17989,15 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="107" t="str">
+      <c r="B75" s="98" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="74"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="75"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="67"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -17996,15 +18008,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="107" t="str">
+      <c r="B76" s="98" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="74"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="75"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="67"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -18015,15 +18027,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="107" t="str">
+      <c r="B77" s="98" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="75"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="67"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -18034,15 +18046,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="107" t="str">
+      <c r="B78" s="98" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="75"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="67"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -19066,12 +19078,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -19080,6 +19086,12 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="63" priority="1">
@@ -19265,85 +19277,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
+      <c r="B1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
       <c r="K1" s="2">
         <f>Requisitos!C15</f>
         <v>45247</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45248</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45249</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45250</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45251</v>
@@ -19356,18 +19368,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="77" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="75"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45253</v>
@@ -19380,16 +19392,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="58" t="s">
         <v>67</v>
       </c>
@@ -20350,26 +20362,26 @@
       </c>
     </row>
     <row r="63" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="108" t="s">
+      <c r="B63" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="74"/>
-      <c r="H63" s="74"/>
-      <c r="I63" s="75"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="67"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="109" t="s">
+      <c r="B64" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="74"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="75"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="67"/>
       <c r="H64" s="7" t="s">
         <v>101</v>
       </c>
@@ -20378,15 +20390,15 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="107" t="str">
+      <c r="B65" s="98" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="74"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="75"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="67"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -20397,15 +20409,15 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="107" t="str">
+      <c r="B66" s="98" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="75"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="67"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -20416,15 +20428,15 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="107" t="str">
+      <c r="B67" s="98" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="75"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="67"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -20435,15 +20447,15 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="107" t="str">
+      <c r="B68" s="98" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C68" s="74"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="75"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="67"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -20454,15 +20466,15 @@
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="107" t="str">
+      <c r="B69" s="98" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C69" s="74"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="75"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="67"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -21425,12 +21437,6 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="B9:I9"/>
@@ -21439,6 +21445,12 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F13 F17">
     <cfRule type="containsBlanks" dxfId="37" priority="1">

--- a/Artefatos/sprints/Planejamento_sprints.xlsx
+++ b/Artefatos/sprints/Planejamento_sprints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorios_github\plf-es-2023-2-ti3-6653100-fabrica-do-saber\Artefatos\sprints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e66f0b7e9f7bd981/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756140CC-EDDB-4A66-A4C7-212145E3FA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{BAC18DD4-3CF5-4C9D-85E8-81C17236ABCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F193CE71-6348-4D65-86B4-6A748F55AA60}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Projeto" sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="177">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -644,9 +644,6 @@
     <t>Autenticacao JWT</t>
   </si>
   <si>
-    <t>Tarefa nao concluida, movida para Sprint 2</t>
-  </si>
-  <si>
     <t>Pagina de cadastro de aluno</t>
   </si>
   <si>
@@ -725,10 +722,6 @@
     <t>Wireframes e style guide</t>
   </si>
   <si>
-    <t>Ajudante: Vitor Lagares
-Tarefa nao concluida, movida para Sprint 3</t>
-  </si>
-  <si>
     <t>Ajudante: Guilherme Lagares</t>
   </si>
   <si>
@@ -801,9 +794,6 @@
     <t>Wireframes e style guide (Sprint 2 e 3)</t>
   </si>
   <si>
-    <t>Tarefa remanescente da sprint 2 + sprint 3</t>
-  </si>
-  <si>
     <t>Refatorar front-end conforme o style guide</t>
   </si>
   <si>
@@ -824,6 +814,88 @@
   <si>
     <t>SPRINT #5</t>
   </si>
+  <si>
+    <t>Diagrama de classes</t>
+  </si>
+  <si>
+    <t>Casos de uso descritivos</t>
+  </si>
+  <si>
+    <t>Planejamento sprint 5</t>
+  </si>
+  <si>
+    <t>4, 8, 10 e 11</t>
+  </si>
+  <si>
+    <t>Creche model</t>
+  </si>
+  <si>
+    <t>Creche service</t>
+  </si>
+  <si>
+    <t>Creche controller</t>
+  </si>
+  <si>
+    <t>Criar funcionalidade de impressao de turma (lista)</t>
+  </si>
+  <si>
+    <t>Criar funcionalidade de impressao de turma (turma específica)</t>
+  </si>
+  <si>
+    <t>Receita/despesa model</t>
+  </si>
+  <si>
+    <t>Receita/despesa service</t>
+  </si>
+  <si>
+    <t>Receita/despesa controller</t>
+  </si>
+  <si>
+    <t>10 e 11</t>
+  </si>
+  <si>
+    <t>Página de cadastro de creche</t>
+  </si>
+  <si>
+    <t>Página de creche específica</t>
+  </si>
+  <si>
+    <t>Página de lista de creches</t>
+  </si>
+  <si>
+    <t>Página de receitas e despesas</t>
+  </si>
+  <si>
+    <t>Página de edição de receitas e despesas</t>
+  </si>
+  <si>
+    <t>Wireframes e style guide (Sprint 2, 3 + 4)</t>
+  </si>
+  <si>
+    <t>Integracao back-end + front-end (Sprint 4)</t>
+  </si>
+  <si>
+    <t>8, 10 e 11</t>
+  </si>
+  <si>
+    <t>Tarefa remanescente da sprint 2 e 3 + sprint 4</t>
+  </si>
+  <si>
+    <t>Tarefa remanescente da sprint 3</t>
+  </si>
+  <si>
+    <t>Tarefa não concluída, movida para sprint 4</t>
+  </si>
+  <si>
+    <t>Tarefa nao concluida, movida para sprint 2</t>
+  </si>
+  <si>
+    <t>Ajudante: Vitor Lagares
+Tarefa nao concluida, movida para sprint 3</t>
+  </si>
+  <si>
+    <t>Tarefa transferida para o Vitor</t>
+  </si>
 </sst>
 </file>
 
@@ -833,7 +905,7 @@
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mmm"/>
     <numFmt numFmtId="165" formatCode="dd&quot;/&quot;mmm&quot;/&quot;yyyy&quot; &quot;"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -999,10 +1071,17 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1265,7 +1344,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1405,10 +1484,61 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1470,6 +1600,33 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1503,39 +1660,8 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
@@ -1556,7 +1682,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="111">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1965,116 +2091,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFA1A1"/>
-          <bgColor rgb="FFFFA1A1"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFE69138"/>
           <bgColor rgb="FFE69138"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFA1A1"/>
-          <bgColor rgb="FFFFA1A1"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
       <alignment wrapText="0" shrinkToFit="0"/>
@@ -3298,166 +3316,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="84"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="84"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="101"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="93"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="78" t="s">
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="69" t="s">
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="71"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="88"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="69" t="s">
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="71"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="88"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="69" t="s">
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="88"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="69" t="s">
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="71"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="69" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="71"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="69" t="s">
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="18"/>
@@ -3559,16 +3577,16 @@
     <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="50"/>
-      <c r="B100" s="72"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="73" t="s">
+      <c r="B100" s="89"/>
+      <c r="C100" s="81"/>
+      <c r="D100" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="64"/>
-      <c r="F100" s="73" t="s">
+      <c r="E100" s="81"/>
+      <c r="F100" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="64"/>
+      <c r="G100" s="81"/>
       <c r="H100" s="51" t="s">
         <v>18</v>
       </c>
@@ -3590,12 +3608,12 @@
     </row>
     <row r="101" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
-      <c r="B101" s="63"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="68" t="s">
+      <c r="B101" s="80"/>
+      <c r="C101" s="81"/>
+      <c r="D101" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="64"/>
+      <c r="E101" s="81"/>
       <c r="F101" s="53" t="s">
         <v>24</v>
       </c>
@@ -3628,12 +3646,12 @@
     </row>
     <row r="102" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="50"/>
-      <c r="B102" s="63"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="68" t="s">
+      <c r="B102" s="80"/>
+      <c r="C102" s="81"/>
+      <c r="D102" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="64"/>
+      <c r="E102" s="81"/>
       <c r="F102" s="53" t="s">
         <v>29</v>
       </c>
@@ -3667,12 +3685,12 @@
     </row>
     <row r="103" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="50"/>
-      <c r="B103" s="63"/>
-      <c r="C103" s="64"/>
-      <c r="D103" s="68" t="s">
+      <c r="B103" s="80"/>
+      <c r="C103" s="81"/>
+      <c r="D103" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="64"/>
+      <c r="E103" s="81"/>
       <c r="F103" s="53"/>
       <c r="G103" s="54" t="s">
         <v>34</v>
@@ -3704,12 +3722,12 @@
     </row>
     <row r="104" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="50"/>
-      <c r="B104" s="63"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="68" t="s">
+      <c r="B104" s="80"/>
+      <c r="C104" s="81"/>
+      <c r="D104" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="64"/>
+      <c r="E104" s="81"/>
       <c r="F104" s="53"/>
       <c r="G104" s="54" t="s">
         <v>36</v>
@@ -3739,12 +3757,12 @@
     </row>
     <row r="105" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="50"/>
-      <c r="B105" s="63"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="68" t="s">
+      <c r="B105" s="80"/>
+      <c r="C105" s="81"/>
+      <c r="D105" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="64"/>
+      <c r="E105" s="81"/>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="s">
         <v>39</v>
@@ -3769,8 +3787,8 @@
     </row>
     <row r="106" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="50"/>
-      <c r="B106" s="63"/>
-      <c r="C106" s="64"/>
+      <c r="B106" s="80"/>
+      <c r="C106" s="81"/>
       <c r="F106" s="53"/>
       <c r="G106" s="54"/>
       <c r="H106" s="53"/>
@@ -3781,8 +3799,8 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="50"/>
-      <c r="B107" s="63"/>
-      <c r="C107" s="64"/>
+      <c r="B107" s="80"/>
+      <c r="C107" s="81"/>
       <c r="D107" s="55"/>
       <c r="E107" s="53"/>
       <c r="F107" s="53"/>
@@ -4810,7 +4828,7 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H28" sqref="C28:H28"/>
+      <selection activeCell="C24" sqref="C24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4827,59 +4845,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="84"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="84"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="101"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="93"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -4891,16 +4909,16 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="95" t="str">
+      <c r="B7" s="121" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -4912,15 +4930,15 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
@@ -4932,11 +4950,11 @@
       <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="84"/>
       <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
@@ -4951,9 +4969,9 @@
       <c r="D11" s="14">
         <v>45190</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="84"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4967,9 +4985,9 @@
         <f t="shared" ref="D12" si="0">C12+13</f>
         <v>45204</v>
       </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4983,9 +5001,9 @@
       <c r="D13" s="14">
         <v>45225</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4998,9 +5016,9 @@
       <c r="D14" s="14">
         <v>45246</v>
       </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5039,13 +5057,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
       <c r="H18" s="22" t="s">
         <v>47</v>
       </c>
@@ -5054,11 +5072,11 @@
       <c r="B19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
@@ -5068,11 +5086,11 @@
       <c r="B20" s="27">
         <v>0</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="84"/>
       <c r="H20" s="28"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -5089,14 +5107,14 @@
       <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="104" t="s">
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="61" t="s">
         <v>50</v>
       </c>
       <c r="J21" s="48"/>
@@ -5105,14 +5123,14 @@
       <c r="B22" s="27">
         <v>2</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="104" t="s">
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="61" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5120,14 +5138,14 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="104" t="s">
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="61" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5135,14 +5153,14 @@
       <c r="B24" s="27">
         <v>4</v>
       </c>
-      <c r="C24" s="109" t="s">
+      <c r="C24" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="108" t="s">
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="62" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5150,13 +5168,13 @@
       <c r="B25" s="9">
         <v>5</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="89"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="106"/>
       <c r="H25" s="12" t="s">
         <v>54</v>
       </c>
@@ -5165,13 +5183,13 @@
       <c r="B26" s="27">
         <v>6</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="C26" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="89"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="106"/>
       <c r="H26" s="12" t="s">
         <v>54</v>
       </c>
@@ -5180,14 +5198,14 @@
       <c r="B27" s="9">
         <v>7</v>
       </c>
-      <c r="C27" s="101" t="s">
+      <c r="C27" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="104" t="s">
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="61" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5195,14 +5213,14 @@
       <c r="B28" s="27">
         <v>8</v>
       </c>
-      <c r="C28" s="109" t="s">
+      <c r="C28" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="108" t="s">
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="62" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5210,14 +5228,14 @@
       <c r="B29" s="9">
         <v>9</v>
       </c>
-      <c r="C29" s="101" t="s">
+      <c r="C29" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="104" t="s">
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5225,14 +5243,14 @@
       <c r="B30" s="27">
         <v>10</v>
       </c>
-      <c r="C30" s="105" t="s">
+      <c r="C30" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="108" t="s">
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="62" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5240,14 +5258,14 @@
       <c r="B31" s="9">
         <v>11</v>
       </c>
-      <c r="C31" s="105" t="s">
+      <c r="C31" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="108" t="s">
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="62" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5255,13 +5273,13 @@
       <c r="B32" s="27">
         <v>12</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="89"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="106"/>
       <c r="H32" s="12" t="s">
         <v>58</v>
       </c>
@@ -5270,14 +5288,14 @@
       <c r="B33" s="9">
         <v>13</v>
       </c>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="104" t="s">
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="61" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5285,11 +5303,11 @@
       <c r="B34" s="27">
         <v>14</v>
       </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="89"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="106"/>
       <c r="H34" s="12" t="s">
         <v>54</v>
       </c>
@@ -5298,11 +5316,11 @@
       <c r="B35" s="9">
         <v>15</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="89"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="106"/>
       <c r="H35" s="12" t="s">
         <v>54</v>
       </c>
@@ -5311,11 +5329,11 @@
       <c r="B36" s="27">
         <v>16</v>
       </c>
-      <c r="C36" s="87"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="84"/>
       <c r="H36" s="12" t="s">
         <v>54</v>
       </c>
@@ -5324,11 +5342,11 @@
       <c r="B37" s="9">
         <v>17</v>
       </c>
-      <c r="C37" s="87"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
       <c r="H37" s="12" t="s">
         <v>54</v>
       </c>
@@ -5337,11 +5355,11 @@
       <c r="B38" s="27">
         <v>18</v>
       </c>
-      <c r="C38" s="87"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="84"/>
       <c r="H38" s="12" t="s">
         <v>54</v>
       </c>
@@ -5350,11 +5368,11 @@
       <c r="B39" s="9">
         <v>19</v>
       </c>
-      <c r="C39" s="87"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="84"/>
       <c r="H39" s="12" t="s">
         <v>54</v>
       </c>
@@ -5363,11 +5381,11 @@
       <c r="B40" s="27">
         <v>20</v>
       </c>
-      <c r="C40" s="87"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="84"/>
       <c r="H40" s="12" t="s">
         <v>54</v>
       </c>
@@ -5376,11 +5394,11 @@
       <c r="B41" s="9">
         <v>21</v>
       </c>
-      <c r="C41" s="87"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="84"/>
       <c r="H41" s="12" t="s">
         <v>54</v>
       </c>
@@ -5389,11 +5407,11 @@
       <c r="B42" s="27">
         <v>22</v>
       </c>
-      <c r="C42" s="87"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="84"/>
       <c r="H42" s="12" t="s">
         <v>54</v>
       </c>
@@ -5402,11 +5420,11 @@
       <c r="B43" s="9">
         <v>23</v>
       </c>
-      <c r="C43" s="87"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="84"/>
       <c r="H43" s="12" t="s">
         <v>54</v>
       </c>
@@ -5415,11 +5433,11 @@
       <c r="B44" s="27">
         <v>24</v>
       </c>
-      <c r="C44" s="87"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="84"/>
       <c r="H44" s="12" t="s">
         <v>54</v>
       </c>
@@ -5428,11 +5446,11 @@
       <c r="B45" s="9">
         <v>25</v>
       </c>
-      <c r="C45" s="87"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="84"/>
       <c r="H45" s="12" t="s">
         <v>54</v>
       </c>
@@ -5441,11 +5459,11 @@
       <c r="B46" s="27">
         <v>26</v>
       </c>
-      <c r="C46" s="87"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="84"/>
       <c r="H46" s="12" t="s">
         <v>54</v>
       </c>
@@ -5454,11 +5472,11 @@
       <c r="B47" s="9">
         <v>27</v>
       </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="84"/>
       <c r="H47" s="12" t="s">
         <v>54</v>
       </c>
@@ -5467,11 +5485,11 @@
       <c r="B48" s="27">
         <v>28</v>
       </c>
-      <c r="C48" s="87"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="84"/>
       <c r="H48" s="12" t="s">
         <v>54</v>
       </c>
@@ -5480,11 +5498,11 @@
       <c r="B49" s="9">
         <v>29</v>
       </c>
-      <c r="C49" s="87"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="84"/>
       <c r="H49" s="12" t="s">
         <v>54</v>
       </c>
@@ -5493,11 +5511,11 @@
       <c r="B50" s="27">
         <v>30</v>
       </c>
-      <c r="C50" s="87"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="84"/>
       <c r="H50" s="12" t="s">
         <v>54</v>
       </c>
@@ -5506,11 +5524,11 @@
       <c r="B51" s="9">
         <v>31</v>
       </c>
-      <c r="C51" s="87"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="84"/>
       <c r="H51" s="12" t="s">
         <v>54</v>
       </c>
@@ -5519,11 +5537,11 @@
       <c r="B52" s="27">
         <v>32</v>
       </c>
-      <c r="C52" s="87"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="84"/>
       <c r="H52" s="12" t="s">
         <v>54</v>
       </c>
@@ -5532,11 +5550,11 @@
       <c r="B53" s="9">
         <v>33</v>
       </c>
-      <c r="C53" s="87"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="84"/>
       <c r="H53" s="12" t="s">
         <v>54</v>
       </c>
@@ -5545,11 +5563,11 @@
       <c r="B54" s="27">
         <v>34</v>
       </c>
-      <c r="C54" s="87"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="84"/>
       <c r="H54" s="12" t="s">
         <v>54</v>
       </c>
@@ -5558,11 +5576,11 @@
       <c r="B55" s="9">
         <v>35</v>
       </c>
-      <c r="C55" s="87"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="67"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="84"/>
       <c r="H55" s="12" t="s">
         <v>54</v>
       </c>
@@ -5571,11 +5589,11 @@
       <c r="B56" s="27">
         <v>36</v>
       </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="67"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="84"/>
       <c r="H56" s="12" t="s">
         <v>54</v>
       </c>
@@ -5584,11 +5602,11 @@
       <c r="B57" s="9">
         <v>37</v>
       </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="67"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="84"/>
       <c r="H57" s="12" t="s">
         <v>54</v>
       </c>
@@ -5597,11 +5615,11 @@
       <c r="B58" s="27">
         <v>38</v>
       </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="67"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="84"/>
       <c r="H58" s="12" t="s">
         <v>54</v>
       </c>
@@ -5610,11 +5628,11 @@
       <c r="B59" s="9">
         <v>39</v>
       </c>
-      <c r="C59" s="87"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="67"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="84"/>
       <c r="H59" s="12" t="s">
         <v>54</v>
       </c>
@@ -5623,11 +5641,11 @@
       <c r="B60" s="27">
         <v>40</v>
       </c>
-      <c r="C60" s="87"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="67"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="84"/>
       <c r="H60" s="12" t="s">
         <v>54</v>
       </c>
@@ -5636,11 +5654,11 @@
       <c r="B61" s="9">
         <v>41</v>
       </c>
-      <c r="C61" s="87"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="67"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="84"/>
       <c r="H61" s="12" t="s">
         <v>54</v>
       </c>
@@ -5649,11 +5667,11 @@
       <c r="B62" s="27">
         <v>42</v>
       </c>
-      <c r="C62" s="87"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="67"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="84"/>
       <c r="H62" s="12" t="s">
         <v>54</v>
       </c>
@@ -5662,11 +5680,11 @@
       <c r="B63" s="9">
         <v>43</v>
       </c>
-      <c r="C63" s="87"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="67"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="84"/>
       <c r="H63" s="12" t="s">
         <v>54</v>
       </c>
@@ -5675,11 +5693,11 @@
       <c r="B64" s="27">
         <v>44</v>
       </c>
-      <c r="C64" s="87"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="67"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="84"/>
       <c r="H64" s="12" t="s">
         <v>54</v>
       </c>
@@ -5688,11 +5706,11 @@
       <c r="B65" s="9">
         <v>45</v>
       </c>
-      <c r="C65" s="87"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="67"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="84"/>
       <c r="H65" s="12" t="s">
         <v>54</v>
       </c>
@@ -5701,11 +5719,11 @@
       <c r="B66" s="27">
         <v>46</v>
       </c>
-      <c r="C66" s="87"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="67"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="84"/>
       <c r="H66" s="12" t="s">
         <v>54</v>
       </c>
@@ -5714,11 +5732,11 @@
       <c r="B67" s="9">
         <v>47</v>
       </c>
-      <c r="C67" s="87"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="67"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="84"/>
       <c r="H67" s="12" t="s">
         <v>54</v>
       </c>
@@ -5727,11 +5745,11 @@
       <c r="B68" s="27">
         <v>48</v>
       </c>
-      <c r="C68" s="87"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="67"/>
+      <c r="C68" s="104"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="84"/>
       <c r="H68" s="12" t="s">
         <v>54</v>
       </c>
@@ -5740,11 +5758,11 @@
       <c r="B69" s="9">
         <v>49</v>
       </c>
-      <c r="C69" s="87"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="67"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="84"/>
       <c r="H69" s="12" t="s">
         <v>54</v>
       </c>
@@ -5753,11 +5771,11 @@
       <c r="B70" s="27">
         <v>50</v>
       </c>
-      <c r="C70" s="87"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="67"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="84"/>
       <c r="H70" s="12" t="s">
         <v>54</v>
       </c>
@@ -5766,11 +5784,11 @@
       <c r="B71" s="9">
         <v>51</v>
       </c>
-      <c r="C71" s="87"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="67"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="84"/>
       <c r="H71" s="12" t="s">
         <v>54</v>
       </c>
@@ -5779,11 +5797,11 @@
       <c r="B72" s="27">
         <v>52</v>
       </c>
-      <c r="C72" s="87"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="67"/>
+      <c r="C72" s="104"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="84"/>
       <c r="H72" s="12" t="s">
         <v>54</v>
       </c>
@@ -5792,11 +5810,11 @@
       <c r="B73" s="9">
         <v>53</v>
       </c>
-      <c r="C73" s="87"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="67"/>
+      <c r="C73" s="104"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="84"/>
       <c r="H73" s="12" t="s">
         <v>54</v>
       </c>
@@ -5805,11 +5823,11 @@
       <c r="B74" s="27">
         <v>54</v>
       </c>
-      <c r="C74" s="87"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="67"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="84"/>
       <c r="H74" s="12" t="s">
         <v>54</v>
       </c>
@@ -5818,11 +5836,11 @@
       <c r="B75" s="9">
         <v>55</v>
       </c>
-      <c r="C75" s="87"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="67"/>
+      <c r="C75" s="104"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="84"/>
       <c r="H75" s="12" t="s">
         <v>54</v>
       </c>
@@ -5831,11 +5849,11 @@
       <c r="B76" s="27">
         <v>56</v>
       </c>
-      <c r="C76" s="87"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="67"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="84"/>
       <c r="H76" s="12" t="s">
         <v>54</v>
       </c>
@@ -5844,11 +5862,11 @@
       <c r="B77" s="9">
         <v>57</v>
       </c>
-      <c r="C77" s="87"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="67"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="84"/>
       <c r="H77" s="12" t="s">
         <v>54</v>
       </c>
@@ -5857,11 +5875,11 @@
       <c r="B78" s="27">
         <v>58</v>
       </c>
-      <c r="C78" s="87"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="67"/>
+      <c r="C78" s="104"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="84"/>
       <c r="H78" s="12" t="s">
         <v>54</v>
       </c>
@@ -5870,11 +5888,11 @@
       <c r="B79" s="9">
         <v>59</v>
       </c>
-      <c r="C79" s="87"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="67"/>
+      <c r="C79" s="104"/>
+      <c r="D79" s="83"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="84"/>
       <c r="H79" s="12" t="s">
         <v>54</v>
       </c>
@@ -5883,11 +5901,11 @@
       <c r="B80" s="27">
         <v>60</v>
       </c>
-      <c r="C80" s="87"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="66"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="67"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="83"/>
+      <c r="F80" s="83"/>
+      <c r="G80" s="84"/>
       <c r="H80" s="12" t="s">
         <v>54</v>
       </c>
@@ -5896,11 +5914,11 @@
       <c r="B81" s="9">
         <v>61</v>
       </c>
-      <c r="C81" s="87"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="67"/>
+      <c r="C81" s="104"/>
+      <c r="D81" s="83"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="84"/>
       <c r="H81" s="12" t="s">
         <v>54</v>
       </c>
@@ -5909,11 +5927,11 @@
       <c r="B82" s="27">
         <v>62</v>
       </c>
-      <c r="C82" s="87"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="67"/>
+      <c r="C82" s="104"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="84"/>
       <c r="H82" s="12" t="s">
         <v>54</v>
       </c>
@@ -5922,11 +5940,11 @@
       <c r="B83" s="9">
         <v>63</v>
       </c>
-      <c r="C83" s="87"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="67"/>
+      <c r="C83" s="104"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="83"/>
+      <c r="F83" s="83"/>
+      <c r="G83" s="84"/>
       <c r="H83" s="12" t="s">
         <v>54</v>
       </c>
@@ -5935,11 +5953,11 @@
       <c r="B84" s="27">
         <v>64</v>
       </c>
-      <c r="C84" s="87"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="67"/>
+      <c r="C84" s="104"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="84"/>
       <c r="H84" s="12" t="s">
         <v>54</v>
       </c>
@@ -5948,11 +5966,11 @@
       <c r="B85" s="9">
         <v>65</v>
       </c>
-      <c r="C85" s="87"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="67"/>
+      <c r="C85" s="104"/>
+      <c r="D85" s="83"/>
+      <c r="E85" s="83"/>
+      <c r="F85" s="83"/>
+      <c r="G85" s="84"/>
       <c r="H85" s="12" t="s">
         <v>54</v>
       </c>
@@ -5961,11 +5979,11 @@
       <c r="B86" s="27">
         <v>66</v>
       </c>
-      <c r="C86" s="87"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="67"/>
+      <c r="C86" s="104"/>
+      <c r="D86" s="83"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="84"/>
       <c r="H86" s="12" t="s">
         <v>54</v>
       </c>
@@ -5974,11 +5992,11 @@
       <c r="B87" s="9">
         <v>67</v>
       </c>
-      <c r="C87" s="87"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="67"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="83"/>
+      <c r="E87" s="83"/>
+      <c r="F87" s="83"/>
+      <c r="G87" s="84"/>
       <c r="H87" s="12" t="s">
         <v>54</v>
       </c>
@@ -5987,11 +6005,11 @@
       <c r="B88" s="27">
         <v>68</v>
       </c>
-      <c r="C88" s="87"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="67"/>
+      <c r="C88" s="104"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="84"/>
       <c r="H88" s="12" t="s">
         <v>54</v>
       </c>
@@ -6000,11 +6018,11 @@
       <c r="B89" s="9">
         <v>69</v>
       </c>
-      <c r="C89" s="87"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="67"/>
+      <c r="C89" s="104"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="84"/>
       <c r="H89" s="12" t="s">
         <v>54</v>
       </c>
@@ -6013,11 +6031,11 @@
       <c r="B90" s="27">
         <v>70</v>
       </c>
-      <c r="C90" s="87"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="67"/>
+      <c r="C90" s="104"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="83"/>
+      <c r="F90" s="83"/>
+      <c r="G90" s="84"/>
       <c r="H90" s="12" t="s">
         <v>54</v>
       </c>
@@ -6026,11 +6044,11 @@
       <c r="B91" s="9">
         <v>71</v>
       </c>
-      <c r="C91" s="87"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="67"/>
+      <c r="C91" s="104"/>
+      <c r="D91" s="83"/>
+      <c r="E91" s="83"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="84"/>
       <c r="H91" s="12" t="s">
         <v>54</v>
       </c>
@@ -6039,11 +6057,11 @@
       <c r="B92" s="27">
         <v>72</v>
       </c>
-      <c r="C92" s="87"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="67"/>
+      <c r="C92" s="104"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="84"/>
       <c r="H92" s="12" t="s">
         <v>54</v>
       </c>
@@ -6052,11 +6070,11 @@
       <c r="B93" s="9">
         <v>73</v>
       </c>
-      <c r="C93" s="87"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="67"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="84"/>
       <c r="H93" s="12" t="s">
         <v>54</v>
       </c>
@@ -6065,11 +6083,11 @@
       <c r="B94" s="27">
         <v>74</v>
       </c>
-      <c r="C94" s="87"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="67"/>
+      <c r="C94" s="104"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="84"/>
       <c r="H94" s="12" t="s">
         <v>54</v>
       </c>
@@ -6078,11 +6096,11 @@
       <c r="B95" s="9">
         <v>75</v>
       </c>
-      <c r="C95" s="87"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="67"/>
+      <c r="C95" s="104"/>
+      <c r="D95" s="83"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="83"/>
+      <c r="G95" s="84"/>
       <c r="H95" s="12" t="s">
         <v>54</v>
       </c>
@@ -6091,11 +6109,11 @@
       <c r="B96" s="27">
         <v>76</v>
       </c>
-      <c r="C96" s="87"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="67"/>
+      <c r="C96" s="104"/>
+      <c r="D96" s="83"/>
+      <c r="E96" s="83"/>
+      <c r="F96" s="83"/>
+      <c r="G96" s="84"/>
       <c r="H96" s="12" t="s">
         <v>54</v>
       </c>
@@ -6104,11 +6122,11 @@
       <c r="B97" s="9">
         <v>77</v>
       </c>
-      <c r="C97" s="87"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="67"/>
+      <c r="C97" s="104"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="84"/>
       <c r="H97" s="12" t="s">
         <v>54</v>
       </c>
@@ -6117,11 +6135,11 @@
       <c r="B98" s="27">
         <v>78</v>
       </c>
-      <c r="C98" s="87"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="67"/>
+      <c r="C98" s="104"/>
+      <c r="D98" s="83"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="84"/>
       <c r="H98" s="12" t="s">
         <v>54</v>
       </c>
@@ -6130,11 +6148,11 @@
       <c r="B99" s="9">
         <v>79</v>
       </c>
-      <c r="C99" s="87"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="67"/>
+      <c r="C99" s="104"/>
+      <c r="D99" s="83"/>
+      <c r="E99" s="83"/>
+      <c r="F99" s="83"/>
+      <c r="G99" s="84"/>
       <c r="H99" s="12" t="s">
         <v>54</v>
       </c>
@@ -6143,11 +6161,11 @@
       <c r="B100" s="27">
         <v>80</v>
       </c>
-      <c r="C100" s="87"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="67"/>
+      <c r="C100" s="104"/>
+      <c r="D100" s="83"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="84"/>
       <c r="H100" s="12" t="s">
         <v>54</v>
       </c>
@@ -6156,11 +6174,11 @@
       <c r="B101" s="9">
         <v>81</v>
       </c>
-      <c r="C101" s="87"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="67"/>
+      <c r="C101" s="104"/>
+      <c r="D101" s="83"/>
+      <c r="E101" s="83"/>
+      <c r="F101" s="83"/>
+      <c r="G101" s="84"/>
       <c r="H101" s="12" t="s">
         <v>54</v>
       </c>
@@ -6169,11 +6187,11 @@
       <c r="B102" s="27">
         <v>82</v>
       </c>
-      <c r="C102" s="87"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="67"/>
+      <c r="C102" s="104"/>
+      <c r="D102" s="83"/>
+      <c r="E102" s="83"/>
+      <c r="F102" s="83"/>
+      <c r="G102" s="84"/>
       <c r="H102" s="12" t="s">
         <v>54</v>
       </c>
@@ -6182,11 +6200,11 @@
       <c r="B103" s="9">
         <v>83</v>
       </c>
-      <c r="C103" s="87"/>
-      <c r="D103" s="66"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="67"/>
+      <c r="C103" s="104"/>
+      <c r="D103" s="83"/>
+      <c r="E103" s="83"/>
+      <c r="F103" s="83"/>
+      <c r="G103" s="84"/>
       <c r="H103" s="12" t="s">
         <v>54</v>
       </c>
@@ -6195,11 +6213,11 @@
       <c r="B104" s="27">
         <v>84</v>
       </c>
-      <c r="C104" s="87"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="66"/>
-      <c r="G104" s="67"/>
+      <c r="C104" s="104"/>
+      <c r="D104" s="83"/>
+      <c r="E104" s="83"/>
+      <c r="F104" s="83"/>
+      <c r="G104" s="84"/>
       <c r="H104" s="12" t="s">
         <v>54</v>
       </c>
@@ -6208,11 +6226,11 @@
       <c r="B105" s="9">
         <v>85</v>
       </c>
-      <c r="C105" s="87"/>
-      <c r="D105" s="66"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="67"/>
+      <c r="C105" s="104"/>
+      <c r="D105" s="83"/>
+      <c r="E105" s="83"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="84"/>
       <c r="H105" s="12" t="s">
         <v>54</v>
       </c>
@@ -6221,11 +6239,11 @@
       <c r="B106" s="27">
         <v>86</v>
       </c>
-      <c r="C106" s="87"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="67"/>
+      <c r="C106" s="104"/>
+      <c r="D106" s="83"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="84"/>
       <c r="H106" s="12" t="s">
         <v>54</v>
       </c>
@@ -6234,11 +6252,11 @@
       <c r="B107" s="9">
         <v>87</v>
       </c>
-      <c r="C107" s="87"/>
-      <c r="D107" s="66"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="66"/>
-      <c r="G107" s="67"/>
+      <c r="C107" s="104"/>
+      <c r="D107" s="83"/>
+      <c r="E107" s="83"/>
+      <c r="F107" s="83"/>
+      <c r="G107" s="84"/>
       <c r="H107" s="12" t="s">
         <v>54</v>
       </c>
@@ -6247,11 +6265,11 @@
       <c r="B108" s="27">
         <v>88</v>
       </c>
-      <c r="C108" s="87"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="66"/>
-      <c r="G108" s="67"/>
+      <c r="C108" s="104"/>
+      <c r="D108" s="83"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="84"/>
       <c r="H108" s="12" t="s">
         <v>54</v>
       </c>
@@ -6260,11 +6278,11 @@
       <c r="B109" s="9">
         <v>89</v>
       </c>
-      <c r="C109" s="87"/>
-      <c r="D109" s="66"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="67"/>
+      <c r="C109" s="104"/>
+      <c r="D109" s="83"/>
+      <c r="E109" s="83"/>
+      <c r="F109" s="83"/>
+      <c r="G109" s="84"/>
       <c r="H109" s="12" t="s">
         <v>54</v>
       </c>
@@ -6273,11 +6291,11 @@
       <c r="B110" s="27">
         <v>90</v>
       </c>
-      <c r="C110" s="87"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="66"/>
-      <c r="G110" s="67"/>
+      <c r="C110" s="104"/>
+      <c r="D110" s="83"/>
+      <c r="E110" s="83"/>
+      <c r="F110" s="83"/>
+      <c r="G110" s="84"/>
       <c r="H110" s="12" t="s">
         <v>54</v>
       </c>
@@ -6286,11 +6304,11 @@
       <c r="B111" s="9">
         <v>91</v>
       </c>
-      <c r="C111" s="87"/>
-      <c r="D111" s="66"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="67"/>
+      <c r="C111" s="104"/>
+      <c r="D111" s="83"/>
+      <c r="E111" s="83"/>
+      <c r="F111" s="83"/>
+      <c r="G111" s="84"/>
       <c r="H111" s="12" t="s">
         <v>54</v>
       </c>
@@ -6299,11 +6317,11 @@
       <c r="B112" s="27">
         <v>92</v>
       </c>
-      <c r="C112" s="87"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="66"/>
-      <c r="G112" s="67"/>
+      <c r="C112" s="104"/>
+      <c r="D112" s="83"/>
+      <c r="E112" s="83"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="84"/>
       <c r="H112" s="12" t="s">
         <v>54</v>
       </c>
@@ -6312,11 +6330,11 @@
       <c r="B113" s="9">
         <v>93</v>
       </c>
-      <c r="C113" s="87"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="67"/>
+      <c r="C113" s="104"/>
+      <c r="D113" s="83"/>
+      <c r="E113" s="83"/>
+      <c r="F113" s="83"/>
+      <c r="G113" s="84"/>
       <c r="H113" s="12" t="s">
         <v>54</v>
       </c>
@@ -6325,11 +6343,11 @@
       <c r="B114" s="27">
         <v>94</v>
       </c>
-      <c r="C114" s="87"/>
-      <c r="D114" s="66"/>
-      <c r="E114" s="66"/>
-      <c r="F114" s="66"/>
-      <c r="G114" s="67"/>
+      <c r="C114" s="104"/>
+      <c r="D114" s="83"/>
+      <c r="E114" s="83"/>
+      <c r="F114" s="83"/>
+      <c r="G114" s="84"/>
       <c r="H114" s="12" t="s">
         <v>54</v>
       </c>
@@ -6338,11 +6356,11 @@
       <c r="B115" s="9">
         <v>95</v>
       </c>
-      <c r="C115" s="87"/>
-      <c r="D115" s="66"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="66"/>
-      <c r="G115" s="67"/>
+      <c r="C115" s="104"/>
+      <c r="D115" s="83"/>
+      <c r="E115" s="83"/>
+      <c r="F115" s="83"/>
+      <c r="G115" s="84"/>
       <c r="H115" s="12" t="s">
         <v>54</v>
       </c>
@@ -6351,11 +6369,11 @@
       <c r="B116" s="27">
         <v>96</v>
       </c>
-      <c r="C116" s="87"/>
-      <c r="D116" s="66"/>
-      <c r="E116" s="66"/>
-      <c r="F116" s="66"/>
-      <c r="G116" s="67"/>
+      <c r="C116" s="104"/>
+      <c r="D116" s="83"/>
+      <c r="E116" s="83"/>
+      <c r="F116" s="83"/>
+      <c r="G116" s="84"/>
       <c r="H116" s="12" t="s">
         <v>54</v>
       </c>
@@ -6364,11 +6382,11 @@
       <c r="B117" s="9">
         <v>97</v>
       </c>
-      <c r="C117" s="87"/>
-      <c r="D117" s="66"/>
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="67"/>
+      <c r="C117" s="104"/>
+      <c r="D117" s="83"/>
+      <c r="E117" s="83"/>
+      <c r="F117" s="83"/>
+      <c r="G117" s="84"/>
       <c r="H117" s="12" t="s">
         <v>54</v>
       </c>
@@ -6377,11 +6395,11 @@
       <c r="B118" s="27">
         <v>98</v>
       </c>
-      <c r="C118" s="87"/>
-      <c r="D118" s="66"/>
-      <c r="E118" s="66"/>
-      <c r="F118" s="66"/>
-      <c r="G118" s="67"/>
+      <c r="C118" s="104"/>
+      <c r="D118" s="83"/>
+      <c r="E118" s="83"/>
+      <c r="F118" s="83"/>
+      <c r="G118" s="84"/>
       <c r="H118" s="12" t="s">
         <v>54</v>
       </c>
@@ -6390,11 +6408,11 @@
       <c r="B119" s="9">
         <v>99</v>
       </c>
-      <c r="C119" s="87"/>
-      <c r="D119" s="66"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="66"/>
-      <c r="G119" s="67"/>
+      <c r="C119" s="104"/>
+      <c r="D119" s="83"/>
+      <c r="E119" s="83"/>
+      <c r="F119" s="83"/>
+      <c r="G119" s="84"/>
       <c r="H119" s="12" t="s">
         <v>54</v>
       </c>
@@ -6403,11 +6421,11 @@
       <c r="B120" s="27">
         <v>100</v>
       </c>
-      <c r="C120" s="87"/>
-      <c r="D120" s="66"/>
-      <c r="E120" s="66"/>
-      <c r="F120" s="66"/>
-      <c r="G120" s="67"/>
+      <c r="C120" s="104"/>
+      <c r="D120" s="83"/>
+      <c r="E120" s="83"/>
+      <c r="F120" s="83"/>
+      <c r="G120" s="84"/>
       <c r="H120" s="12" t="s">
         <v>54</v>
       </c>
@@ -8228,8 +8246,8 @@
   <dimension ref="A1:U1001"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8250,85 +8268,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="B1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="99"/>
       <c r="K1" s="2">
         <f>Requisitos!C11</f>
         <v>45170</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="84"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="101"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K65" si="0">K1+1</f>
         <v>45171</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="84"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="101"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45172</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="93"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45173</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="84"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45174</v>
@@ -8342,18 +8360,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="77" t="str">
+      <c r="B7" s="94" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45176</v>
@@ -8367,16 +8385,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
       <c r="J9" s="57" t="s">
         <v>67</v>
       </c>
@@ -8921,32 +8939,32 @@
       <c r="L25" s="47"/>
     </row>
     <row r="26" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="9">
+      <c r="B26" s="63">
         <v>16</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="64">
         <v>45190</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="65">
         <v>13</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="13">
-        <v>0</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>93</v>
+      <c r="H26" s="68">
+        <v>0</v>
+      </c>
+      <c r="I26" s="68">
+        <v>0</v>
+      </c>
+      <c r="J26" s="65" t="s">
+        <v>174</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="0"/>
@@ -8961,7 +8979,7 @@
         <v>45190</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="11">
         <v>1</v>
@@ -8992,7 +9010,7 @@
         <v>45190</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="11">
         <v>1</v>
@@ -9023,7 +9041,7 @@
         <v>45190</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>77</v>
@@ -9047,32 +9065,32 @@
       </c>
     </row>
     <row r="30" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="9">
+      <c r="B30" s="63">
         <v>20</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="64">
         <v>45190</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="D30" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="13">
-        <v>0</v>
-      </c>
-      <c r="I30" s="13">
-        <v>0</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>93</v>
+      <c r="H30" s="68">
+        <v>0</v>
+      </c>
+      <c r="I30" s="68">
+        <v>0</v>
+      </c>
+      <c r="J30" s="65" t="s">
+        <v>174</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="0"/>
@@ -9711,7 +9729,7 @@
     </row>
     <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G61" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
@@ -9747,32 +9765,32 @@
       </c>
     </row>
     <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="67"/>
+      <c r="B63" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="84"/>
       <c r="K63" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
       </c>
     </row>
     <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="100" t="s">
+      <c r="B64" s="126" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>19</v>
@@ -9783,15 +9801,15 @@
       </c>
     </row>
     <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="98" t="str">
+      <c r="B65" s="124" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="67"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="84"/>
       <c r="H65" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B10,H$11:H$60)</f>
         <v>0</v>
@@ -9806,15 +9824,15 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="98" t="str">
+      <c r="B66" s="124" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="67"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="84"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -9829,15 +9847,15 @@
       </c>
     </row>
     <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="98" t="str">
+      <c r="B67" s="124" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="67"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="84"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -9852,15 +9870,15 @@
       </c>
     </row>
     <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="98" t="str">
+      <c r="B68" s="124" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Maria Eduarda Amaral</v>
       </c>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="67"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="84"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -9875,15 +9893,15 @@
       </c>
     </row>
     <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="98" t="str">
+      <c r="B69" s="124" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="67"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="84"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -9898,15 +9916,15 @@
       </c>
     </row>
     <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="98" t="str">
+      <c r="B70" s="124" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="67"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="84"/>
       <c r="H70" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -10959,42 +10977,42 @@
     <mergeCell ref="B68:G68"/>
   </mergeCells>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="122" priority="3">
+    <cfRule type="expression" dxfId="110" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="121" priority="4">
+    <cfRule type="expression" dxfId="109" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="120" priority="5">
+    <cfRule type="expression" dxfId="108" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="119" priority="6">
+    <cfRule type="expression" dxfId="107" priority="6">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="118" priority="7">
+    <cfRule type="expression" dxfId="106" priority="7">
       <formula>NOT(ISERROR(SEARCH(($B$70),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="containsBlanks" dxfId="117" priority="8">
+    <cfRule type="containsBlanks" dxfId="105" priority="8">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" dxfId="116" priority="1">
+    <cfRule type="expression" dxfId="104" priority="1">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" dxfId="115" priority="2">
+    <cfRule type="expression" dxfId="103" priority="2">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11034,8 +11052,8 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11055,85 +11073,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="B1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="99"/>
       <c r="K1" s="2">
         <f>Requisitos!C12</f>
         <v>45191</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="84"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="101"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45192</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="84"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="101"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45193</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="93"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45194</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="84"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45195</v>
@@ -11147,18 +11165,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="77" t="str">
+      <c r="B7" s="94" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45197</v>
@@ -11172,16 +11190,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="99" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
+      <c r="B9" s="125" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
       <c r="J9" s="57" t="s">
         <v>67</v>
       </c>
@@ -11232,7 +11250,7 @@
         <v>45204</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>77</v>
@@ -11250,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
@@ -11275,10 +11293,10 @@
         <v>45204</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>8</v>
@@ -11306,7 +11324,7 @@
         <v>45204</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="11">
         <v>2</v>
@@ -11337,7 +11355,7 @@
         <v>45204</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="11">
         <v>2</v>
@@ -11368,7 +11386,7 @@
         <v>45204</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="11">
         <v>2</v>
@@ -11396,7 +11414,7 @@
         <v>45204</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="11">
         <v>3</v>
@@ -11424,7 +11442,7 @@
         <v>45204</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="11">
         <v>3</v>
@@ -11452,7 +11470,7 @@
         <v>45204</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="11">
         <v>3</v>
@@ -11480,7 +11498,7 @@
         <v>45204</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="11">
         <v>2</v>
@@ -11508,7 +11526,7 @@
         <v>45204</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E20" s="11">
         <v>2</v>
@@ -11536,7 +11554,7 @@
         <v>45204</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="11">
         <v>3</v>
@@ -11564,7 +11582,7 @@
         <v>45204</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E22" s="11">
         <v>3</v>
@@ -11592,7 +11610,7 @@
         <v>45204</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" s="11">
         <v>2</v>
@@ -11620,7 +11638,7 @@
         <v>45204</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" s="12">
         <v>3</v>
@@ -11641,32 +11659,32 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="9">
+      <c r="B25" s="63">
         <v>15</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="64">
         <v>45197</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="12" t="s">
+      <c r="D25" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>120</v>
+      <c r="H25" s="68">
+        <v>0</v>
+      </c>
+      <c r="I25" s="68">
+        <v>0</v>
+      </c>
+      <c r="J25" s="65" t="s">
+        <v>175</v>
       </c>
       <c r="K25" s="2"/>
     </row>
@@ -11681,7 +11699,7 @@
         <v>76</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>10</v>
@@ -11696,7 +11714,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K26" s="2"/>
     </row>
@@ -11711,10 +11729,10 @@
         <v>78</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G27" s="41" t="s">
         <v>37</v>
@@ -11726,7 +11744,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K27" s="2"/>
     </row>
@@ -11756,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K28" s="2"/>
     </row>
@@ -11768,7 +11786,7 @@
         <v>45204</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E29" s="11">
         <v>2</v>
@@ -11795,7 +11813,7 @@
         <v>45204</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E30" s="11">
         <v>13</v>
@@ -11822,7 +11840,7 @@
         <v>45204</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E31" s="11">
         <v>1</v>
@@ -11849,7 +11867,7 @@
         <v>45204</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E32" s="11">
         <v>1</v>
@@ -11876,7 +11894,7 @@
         <v>45204</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E33" s="11">
         <v>1</v>
@@ -11903,7 +11921,7 @@
         <v>45204</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E34" s="11">
         <v>1</v>
@@ -12519,7 +12537,7 @@
     </row>
     <row r="70" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G70" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H70" s="32">
         <f t="shared" ref="H70:I70" si="1">SUM(H11:H60)</f>
@@ -12547,43 +12565,43 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="99" t="s">
+      <c r="B72" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="83"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
+      <c r="I72" s="84"/>
+    </row>
+    <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="67"/>
-    </row>
-    <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="100" t="s">
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="84"/>
+      <c r="H73" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="98" t="str">
+      <c r="B74" s="124" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="67"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="84"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -12594,15 +12612,15 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="98" t="str">
+      <c r="B75" s="124" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="66"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="67"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="84"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -12613,15 +12631,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="98" t="str">
+      <c r="B76" s="124" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="67"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="84"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -12632,15 +12650,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="98" t="str">
+      <c r="B77" s="124" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="67"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="84"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -12651,15 +12669,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="98" t="str">
+      <c r="B78" s="124" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="67"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="84"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -13699,157 +13717,157 @@
     <mergeCell ref="B76:G76"/>
   </mergeCells>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="114" priority="7">
+    <cfRule type="expression" dxfId="102" priority="7">
       <formula>NOT(ISERROR(SEARCH(($B$74),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="113" priority="8">
+    <cfRule type="expression" dxfId="101" priority="8">
       <formula>NOT(ISERROR(SEARCH(($B$75),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="112" priority="9">
+    <cfRule type="expression" dxfId="100" priority="9">
       <formula>NOT(ISERROR(SEARCH(($B$76),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="111" priority="10">
+    <cfRule type="expression" dxfId="99" priority="10">
       <formula>NOT(ISERROR(SEARCH(($B$77),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="110" priority="11">
+    <cfRule type="expression" dxfId="98" priority="11">
       <formula>NOT(ISERROR(SEARCH(($B$78),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="containsBlanks" dxfId="109" priority="12">
+    <cfRule type="containsBlanks" dxfId="97" priority="12">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="108" priority="13">
+    <cfRule type="expression" dxfId="96" priority="13">
       <formula>NOT(ISERROR(SEARCH(($B$74),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="107" priority="14">
+    <cfRule type="expression" dxfId="95" priority="14">
       <formula>NOT(ISERROR(SEARCH(($B$75),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="106" priority="15">
+    <cfRule type="expression" dxfId="94" priority="15">
       <formula>NOT(ISERROR(SEARCH(($B$76),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="105" priority="16">
+    <cfRule type="expression" dxfId="93" priority="16">
       <formula>NOT(ISERROR(SEARCH(($B$77),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="104" priority="17">
+    <cfRule type="expression" dxfId="92" priority="17">
       <formula>NOT(ISERROR(SEARCH(($B$78),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="containsBlanks" dxfId="103" priority="18">
+    <cfRule type="containsBlanks" dxfId="91" priority="18">
       <formula>LEN(TRIM(F24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C69">
-    <cfRule type="expression" dxfId="102" priority="19">
+    <cfRule type="expression" dxfId="90" priority="19">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="101" priority="20">
+    <cfRule type="expression" dxfId="89" priority="20">
       <formula>NOT(ISERROR(SEARCH(($B$74),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="100" priority="21">
+    <cfRule type="expression" dxfId="88" priority="21">
       <formula>NOT(ISERROR(SEARCH(($B$75),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="99" priority="22">
+    <cfRule type="expression" dxfId="87" priority="22">
       <formula>NOT(ISERROR(SEARCH(($B$76),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="98" priority="23">
+    <cfRule type="expression" dxfId="86" priority="23">
       <formula>NOT(ISERROR(SEARCH(($B$77),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="97" priority="24">
+    <cfRule type="expression" dxfId="85" priority="24">
       <formula>NOT(ISERROR(SEARCH(($B$78),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="containsBlanks" dxfId="96" priority="25">
+    <cfRule type="containsBlanks" dxfId="84" priority="25">
       <formula>LEN(TRIM(F24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="95" priority="26">
+    <cfRule type="expression" dxfId="83" priority="26">
       <formula>NOT(ISERROR(SEARCH(($B$74),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="94" priority="27">
+    <cfRule type="expression" dxfId="82" priority="27">
       <formula>NOT(ISERROR(SEARCH(($B$75),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="93" priority="28">
+    <cfRule type="expression" dxfId="81" priority="28">
       <formula>NOT(ISERROR(SEARCH(($B$76),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="92" priority="29">
+    <cfRule type="expression" dxfId="80" priority="29">
       <formula>NOT(ISERROR(SEARCH(($B$77),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="expression" dxfId="91" priority="30">
+    <cfRule type="expression" dxfId="79" priority="30">
       <formula>NOT(ISERROR(SEARCH(($B$78),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F69">
-    <cfRule type="containsBlanks" dxfId="90" priority="31">
+    <cfRule type="containsBlanks" dxfId="78" priority="31">
       <formula>LEN(TRIM(F24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C69">
-    <cfRule type="expression" dxfId="89" priority="32">
+    <cfRule type="expression" dxfId="77" priority="32">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="88" priority="1">
+    <cfRule type="expression" dxfId="76" priority="1">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="87" priority="2">
+    <cfRule type="expression" dxfId="75" priority="2">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="86" priority="3">
+    <cfRule type="expression" dxfId="74" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="85" priority="4">
+    <cfRule type="expression" dxfId="73" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="84" priority="5">
+    <cfRule type="expression" dxfId="72" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$70),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13888,9 +13906,9 @@
   </sheetPr>
   <dimension ref="A1:U1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13910,85 +13928,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="B1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="99"/>
       <c r="K1" s="2">
         <f>Requisitos!C13</f>
         <v>45205</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="84"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="101"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K22" si="0">K1+1</f>
         <v>45206</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="84"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="101"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="93"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45208</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="84"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45209</v>
@@ -14002,18 +14020,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="77" t="str">
+      <c r="B7" s="94" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45211</v>
@@ -14027,16 +14045,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="99" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
+      <c r="B9" s="125" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
       <c r="J9" s="57" t="s">
         <v>67</v>
       </c>
@@ -14087,10 +14105,10 @@
         <v>45217</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>10</v>
@@ -14128,10 +14146,10 @@
         <v>45217</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>11</v>
@@ -14159,10 +14177,10 @@
         <v>45217</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>13</v>
@@ -14190,16 +14208,16 @@
         <v>45224</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H14" s="13">
         <v>0</v>
@@ -14221,7 +14239,7 @@
         <v>45224</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E15" s="11">
         <v>7</v>
@@ -14252,7 +14270,7 @@
         <v>45224</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E16" s="11">
         <v>9</v>
@@ -14276,7 +14294,7 @@
         <v>45224</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E17" s="11">
         <v>7</v>
@@ -14307,7 +14325,7 @@
         <v>45224</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E18" s="12">
         <v>7</v>
@@ -14338,7 +14356,7 @@
         <v>45224</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E19" s="12">
         <v>9</v>
@@ -14369,7 +14387,7 @@
         <v>45224</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E20" s="12">
         <v>9</v>
@@ -14400,7 +14418,7 @@
         <v>45224</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E21" s="12">
         <v>7</v>
@@ -14431,7 +14449,7 @@
         <v>45224</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E22" s="12">
         <v>9</v>
@@ -14455,63 +14473,65 @@
       </c>
     </row>
     <row r="23" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="9">
+      <c r="B23" s="63">
         <v>13</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="64">
         <v>45224</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="12" t="s">
+      <c r="D23" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>145</v>
+      <c r="H23" s="68">
+        <v>0</v>
+      </c>
+      <c r="I23" s="68">
+        <v>0</v>
+      </c>
+      <c r="J23" s="65" t="s">
+        <v>173</v>
       </c>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="9">
+    <row r="24" spans="2:15" s="74" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="63">
         <v>14</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="64">
         <v>45224</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="12" t="s">
+      <c r="D24" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24" s="13">
-        <v>0</v>
-      </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="2"/>
-      <c r="O24" s="62"/>
+      <c r="G24" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="68">
+        <v>0</v>
+      </c>
+      <c r="I24" s="68">
+        <v>0</v>
+      </c>
+      <c r="J24" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" s="127"/>
+      <c r="O24" s="128"/>
     </row>
     <row r="25" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="9">
@@ -14521,16 +14541,16 @@
         <v>45224</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H25" s="13">
         <v>0</v>
@@ -14542,31 +14562,33 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="9">
+      <c r="B26" s="63">
         <v>16</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="64">
         <v>45224</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="D26" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="13">
-        <v>0</v>
-      </c>
-      <c r="J26" s="11"/>
+      <c r="H26" s="68">
+        <v>0</v>
+      </c>
+      <c r="I26" s="68">
+        <v>0</v>
+      </c>
+      <c r="J26" s="65" t="s">
+        <v>173</v>
+      </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14577,10 +14599,10 @@
         <v>45224</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>8</v>
@@ -14605,10 +14627,10 @@
         <v>45224</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>11</v>
@@ -15342,7 +15364,7 @@
     </row>
     <row r="71" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G71" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H71" s="32">
         <f t="shared" ref="H71:I71" si="1">SUM(H11:H61)</f>
@@ -15365,48 +15387,48 @@
       <c r="F72" s="30"/>
       <c r="G72" s="30">
         <f>COUNTIFS(G11:G61, "Concluído",D11:D61, "&lt;&gt;"&amp;"")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="99" t="s">
+      <c r="B73" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="84"/>
+    </row>
+    <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="67"/>
-    </row>
-    <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="100" t="s">
+      <c r="C74" s="83"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="84"/>
+      <c r="H74" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="98" t="str">
+      <c r="B75" s="124" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C75" s="66"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="67"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="84"/>
       <c r="H75" s="33">
         <f>SUMIF($F$11:$F$61,'Dados do Projeto'!$B10,H$11:H$61)</f>
         <v>0</v>
@@ -15417,15 +15439,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="98" t="str">
+      <c r="B76" s="124" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="67"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="84"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B11,H$11:H$61)</f>
         <v>0</v>
@@ -15436,15 +15458,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="98" t="str">
+      <c r="B77" s="124" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="67"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="84"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B12,H$11:H$61)</f>
         <v>0</v>
@@ -15455,15 +15477,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="98" t="str">
+      <c r="B78" s="124" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="67"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="84"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B14,H$11:H$61)</f>
         <v>0</v>
@@ -15474,15 +15496,15 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="98" t="str">
+      <c r="B79" s="124" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C79" s="66"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="67"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="83"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="84"/>
       <c r="H79" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B15,H$11:H$61)</f>
         <v>0</v>
@@ -16522,102 +16544,102 @@
     <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:C70">
-    <cfRule type="expression" dxfId="83" priority="31">
+    <cfRule type="expression" dxfId="71" priority="31">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C70">
-    <cfRule type="expression" dxfId="82" priority="44">
+    <cfRule type="expression" dxfId="70" priority="44">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F70">
-    <cfRule type="containsBlanks" dxfId="81" priority="6">
+    <cfRule type="containsBlanks" dxfId="69" priority="6">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F70">
-    <cfRule type="expression" dxfId="80" priority="7">
+    <cfRule type="expression" dxfId="68" priority="7">
       <formula>NOT(ISERROR(SEARCH(($B$75),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F70">
-    <cfRule type="expression" dxfId="79" priority="8">
+    <cfRule type="expression" dxfId="67" priority="8">
       <formula>NOT(ISERROR(SEARCH(($B$76),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F70">
-    <cfRule type="expression" dxfId="78" priority="9">
+    <cfRule type="expression" dxfId="66" priority="9">
       <formula>NOT(ISERROR(SEARCH(($B$77),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F70">
-    <cfRule type="expression" dxfId="77" priority="10">
+    <cfRule type="expression" dxfId="65" priority="10">
       <formula>NOT(ISERROR(SEARCH(($B$78),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F70">
-    <cfRule type="expression" dxfId="76" priority="11">
+    <cfRule type="expression" dxfId="64" priority="11">
       <formula>NOT(ISERROR(SEARCH(($B$79),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F70">
-    <cfRule type="containsBlanks" dxfId="75" priority="12">
+    <cfRule type="containsBlanks" dxfId="63" priority="12">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F70">
-    <cfRule type="expression" dxfId="74" priority="13">
+    <cfRule type="expression" dxfId="62" priority="13">
       <formula>NOT(ISERROR(SEARCH(($B$75),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F70">
-    <cfRule type="expression" dxfId="73" priority="14">
+    <cfRule type="expression" dxfId="61" priority="14">
       <formula>NOT(ISERROR(SEARCH(($B$76),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F70">
-    <cfRule type="expression" dxfId="72" priority="15">
+    <cfRule type="expression" dxfId="60" priority="15">
       <formula>NOT(ISERROR(SEARCH(($B$77),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F70">
-    <cfRule type="expression" dxfId="71" priority="16">
+    <cfRule type="expression" dxfId="59" priority="16">
       <formula>NOT(ISERROR(SEARCH(($B$78),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F70">
-    <cfRule type="expression" dxfId="70" priority="17">
+    <cfRule type="expression" dxfId="58" priority="17">
       <formula>NOT(ISERROR(SEARCH(($B$79),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F70">
-    <cfRule type="containsBlanks" dxfId="69" priority="18">
+    <cfRule type="containsBlanks" dxfId="57" priority="18">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F70">
-    <cfRule type="expression" dxfId="68" priority="1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F70">
-    <cfRule type="expression" dxfId="67" priority="2">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F70">
-    <cfRule type="expression" dxfId="66" priority="3">
+    <cfRule type="expression" dxfId="54" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F70">
-    <cfRule type="expression" dxfId="65" priority="4">
+    <cfRule type="expression" dxfId="53" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$70),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F70">
-    <cfRule type="expression" dxfId="64" priority="5">
+    <cfRule type="expression" dxfId="52" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$71),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16657,9 +16679,9 @@
   </sheetPr>
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16667,7 +16689,8 @@
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="5" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
@@ -16679,85 +16702,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="B1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="99"/>
       <c r="K1" s="2">
         <f>Requisitos!C14</f>
         <v>45226</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="84"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="101"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45227</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="84"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="101"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="93"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45229</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="84"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45230</v>
@@ -16771,18 +16794,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="77" t="str">
+      <c r="B7" s="94" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -16796,16 +16819,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
+      <c r="B9" s="125" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
       <c r="J9" s="57" t="s">
         <v>67</v>
       </c>
@@ -16824,7 +16847,7 @@
       <c r="D10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="72" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -16852,11 +16875,21 @@
       <c r="B11" s="9">
         <v>1</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="41"/>
+      <c r="C11" s="10">
+        <v>45239</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="13">
         <v>0</v>
       </c>
@@ -16883,11 +16916,21 @@
       <c r="B12" s="9">
         <v>2</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="41"/>
+      <c r="C12" s="10">
+        <v>45239</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="13">
         <v>0</v>
       </c>
@@ -16904,11 +16947,21 @@
       <c r="B13" s="9">
         <v>3</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="41"/>
+      <c r="C13" s="10">
+        <v>45239</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H13" s="13">
         <v>0</v>
       </c>
@@ -16925,11 +16978,21 @@
       <c r="B14" s="9">
         <v>4</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="10">
+        <v>45239</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="13">
         <v>0</v>
       </c>
@@ -16946,11 +17009,21 @@
       <c r="B15" s="9">
         <v>5</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="41"/>
+      <c r="C15" s="10">
+        <v>45246</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="13">
         <v>0</v>
       </c>
@@ -16967,11 +17040,21 @@
       <c r="B16" s="9">
         <v>6</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="10">
+        <v>45246</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="11">
+        <v>4</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H16" s="13">
         <v>0</v>
       </c>
@@ -16988,11 +17071,21 @@
       <c r="B17" s="9">
         <v>7</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="41"/>
+      <c r="C17" s="10">
+        <v>45246</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="12">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H17" s="13">
         <v>0</v>
       </c>
@@ -17009,11 +17102,21 @@
       <c r="B18" s="9">
         <v>8</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="41"/>
+      <c r="C18" s="10">
+        <v>45246</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="13">
         <v>0</v>
       </c>
@@ -17030,11 +17133,21 @@
       <c r="B19" s="9">
         <v>9</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="41"/>
+      <c r="C19" s="10">
+        <v>45246</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="12">
+        <v>8</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H19" s="13">
         <v>0</v>
       </c>
@@ -17051,11 +17164,21 @@
       <c r="B20" s="9">
         <v>10</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="41"/>
+      <c r="C20" s="10">
+        <v>45246</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="12">
+        <v>8</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H20" s="13">
         <v>0</v>
       </c>
@@ -17072,11 +17195,21 @@
       <c r="B21" s="9">
         <v>11</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="41"/>
+      <c r="C21" s="10">
+        <v>45246</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="13">
         <v>0</v>
       </c>
@@ -17093,11 +17226,21 @@
       <c r="B22" s="9">
         <v>12</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="41"/>
+      <c r="C22" s="10">
+        <v>45246</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H22" s="13">
         <v>0</v>
       </c>
@@ -17111,11 +17254,21 @@
       <c r="B23" s="9">
         <v>13</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="41"/>
+      <c r="C23" s="10">
+        <v>45246</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H23" s="13">
         <v>0</v>
       </c>
@@ -17129,11 +17282,21 @@
       <c r="B24" s="9">
         <v>14</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="41"/>
+      <c r="C24" s="10">
+        <v>45246</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="12">
+        <v>4</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H24" s="13">
         <v>0</v>
       </c>
@@ -17147,11 +17310,21 @@
       <c r="B25" s="9">
         <v>15</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="41"/>
+      <c r="C25" s="10">
+        <v>45246</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="12">
+        <v>4</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H25" s="13">
         <v>0</v>
       </c>
@@ -17165,11 +17338,21 @@
       <c r="B26" s="9">
         <v>16</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="41"/>
+      <c r="C26" s="10">
+        <v>45246</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="12">
+        <v>4</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H26" s="13">
         <v>0</v>
       </c>
@@ -17183,11 +17366,21 @@
       <c r="B27" s="9">
         <v>17</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="41"/>
+      <c r="C27" s="10">
+        <v>45246</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H27" s="13">
         <v>0</v>
       </c>
@@ -17201,11 +17394,21 @@
       <c r="B28" s="9">
         <v>18</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="41"/>
+      <c r="C28" s="10">
+        <v>45246</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H28" s="13">
         <v>0</v>
       </c>
@@ -17215,73 +17418,119 @@
       <c r="J28" s="11"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="9">
+    <row r="29" spans="2:11" s="74" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="75">
         <v>19</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="I29" s="13">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="9">
+      <c r="C29" s="76">
+        <v>45246</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="79">
+        <v>0</v>
+      </c>
+      <c r="I29" s="79">
+        <v>0</v>
+      </c>
+      <c r="J29" s="71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" s="74" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="75">
         <v>20</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="13">
-        <v>0</v>
-      </c>
-      <c r="I30" s="13">
-        <v>0</v>
-      </c>
-      <c r="J30" s="11"/>
+      <c r="C30" s="76">
+        <v>45246</v>
+      </c>
+      <c r="D30" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="79">
+        <v>0</v>
+      </c>
+      <c r="I30" s="79">
+        <v>0</v>
+      </c>
+      <c r="J30" s="71" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="31" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="9">
+      <c r="B31" s="75">
         <v>21</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="13">
-        <v>0</v>
-      </c>
-      <c r="I31" s="13">
-        <v>0</v>
-      </c>
-      <c r="J31" s="11"/>
+      <c r="C31" s="76">
+        <v>45246</v>
+      </c>
+      <c r="D31" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="79">
+        <v>0</v>
+      </c>
+      <c r="I31" s="79">
+        <v>0</v>
+      </c>
+      <c r="J31" s="71"/>
     </row>
     <row r="32" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="9">
         <v>22</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="41"/>
+      <c r="C32" s="76">
+        <v>45246</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="H32" s="13">
         <v>0</v>
       </c>
       <c r="I32" s="13">
         <v>0</v>
       </c>
-      <c r="J32" s="11"/>
+      <c r="J32" s="11" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="33" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
@@ -17289,7 +17538,7 @@
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="12"/>
       <c r="G33" s="41"/>
       <c r="H33" s="13">
@@ -17306,7 +17555,7 @@
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="12"/>
       <c r="G34" s="41"/>
       <c r="H34" s="13">
@@ -17323,7 +17572,7 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="12"/>
       <c r="G35" s="41"/>
       <c r="H35" s="13">
@@ -17340,7 +17589,7 @@
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="12"/>
       <c r="G36" s="41"/>
       <c r="H36" s="13">
@@ -17357,7 +17606,7 @@
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="12"/>
       <c r="G37" s="41"/>
       <c r="H37" s="13">
@@ -17374,7 +17623,7 @@
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="12"/>
       <c r="G38" s="41"/>
       <c r="H38" s="13">
@@ -17391,7 +17640,7 @@
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="12"/>
       <c r="G39" s="41"/>
       <c r="H39" s="13">
@@ -17408,7 +17657,7 @@
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="12"/>
       <c r="G40" s="41"/>
       <c r="H40" s="13">
@@ -17425,7 +17674,7 @@
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="12"/>
       <c r="G41" s="41"/>
       <c r="H41" s="13">
@@ -17442,7 +17691,7 @@
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="12"/>
       <c r="G42" s="41"/>
       <c r="H42" s="13">
@@ -17459,7 +17708,7 @@
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="12"/>
       <c r="G43" s="41"/>
       <c r="H43" s="13">
@@ -17476,7 +17725,7 @@
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="12"/>
       <c r="G44" s="41"/>
       <c r="H44" s="13">
@@ -17493,7 +17742,7 @@
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="12"/>
       <c r="G45" s="41"/>
       <c r="H45" s="13">
@@ -17510,7 +17759,7 @@
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="12"/>
       <c r="G46" s="41"/>
       <c r="H46" s="13">
@@ -17527,7 +17776,7 @@
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="12"/>
       <c r="G47" s="41"/>
       <c r="H47" s="13">
@@ -17544,7 +17793,7 @@
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="12"/>
       <c r="G48" s="41"/>
       <c r="H48" s="13">
@@ -17561,7 +17810,7 @@
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="12"/>
       <c r="G49" s="41"/>
       <c r="H49" s="13">
@@ -17578,7 +17827,7 @@
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="12"/>
       <c r="G50" s="41"/>
       <c r="H50" s="13">
@@ -17595,7 +17844,7 @@
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="12"/>
       <c r="G51" s="41"/>
       <c r="H51" s="13">
@@ -17612,7 +17861,7 @@
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="12"/>
       <c r="G52" s="41"/>
       <c r="H52" s="13">
@@ -17629,7 +17878,7 @@
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
+      <c r="E53" s="11"/>
       <c r="F53" s="12"/>
       <c r="G53" s="41"/>
       <c r="H53" s="13">
@@ -17646,7 +17895,7 @@
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="12"/>
       <c r="G54" s="41"/>
       <c r="H54" s="13">
@@ -17663,7 +17912,7 @@
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
+      <c r="E55" s="11"/>
       <c r="F55" s="12"/>
       <c r="G55" s="41"/>
       <c r="H55" s="13">
@@ -17680,7 +17929,7 @@
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="12"/>
       <c r="G56" s="41"/>
       <c r="H56" s="13">
@@ -17697,7 +17946,7 @@
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="12"/>
       <c r="G57" s="41"/>
       <c r="H57" s="13">
@@ -17714,7 +17963,7 @@
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="12"/>
       <c r="G58" s="41"/>
       <c r="H58" s="13">
@@ -17731,7 +17980,7 @@
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="12"/>
       <c r="G59" s="41"/>
       <c r="H59" s="13">
@@ -17748,7 +17997,7 @@
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
+      <c r="E60" s="11"/>
       <c r="F60" s="12"/>
       <c r="G60" s="41"/>
       <c r="H60" s="13">
@@ -17765,7 +18014,7 @@
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
+      <c r="E61" s="11"/>
       <c r="F61" s="12"/>
       <c r="G61" s="41"/>
       <c r="H61" s="13">
@@ -17782,7 +18031,7 @@
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
+      <c r="E62" s="11"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="13">
@@ -17799,7 +18048,7 @@
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
+      <c r="E63" s="11"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="13">
@@ -17816,7 +18065,7 @@
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
+      <c r="E64" s="11"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="13">
@@ -17833,7 +18082,7 @@
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="13">
@@ -17850,7 +18099,7 @@
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="13">
@@ -17867,7 +18116,7 @@
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="13">
@@ -17884,7 +18133,7 @@
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
+      <c r="E68" s="11"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="13">
@@ -17901,7 +18150,7 @@
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
+      <c r="E69" s="11"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="13">
@@ -17914,7 +18163,7 @@
     </row>
     <row r="70" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G70" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H70" s="32">
         <f t="shared" ref="H70:I70" si="1">SUM(H11:H60)</f>
@@ -17931,9 +18180,9 @@
       <c r="C71" s="30"/>
       <c r="D71" s="30">
         <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="E71" s="30"/>
+        <v>22</v>
+      </c>
+      <c r="E71" s="73"/>
       <c r="F71" s="30"/>
       <c r="G71" s="30">
         <f>COUNTIFS(G11:G60, "Concluído",D11:D60, "&lt;&gt;"&amp;"")</f>
@@ -17942,43 +18191,43 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="99" t="s">
+      <c r="B72" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="83"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
+      <c r="I72" s="84"/>
+    </row>
+    <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="67"/>
-    </row>
-    <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="100" t="s">
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="84"/>
+      <c r="H73" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="98" t="str">
+      <c r="B74" s="124" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="67"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="84"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -17989,15 +18238,15 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="98" t="str">
+      <c r="B75" s="124" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="66"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="67"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="84"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -18008,15 +18257,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="98" t="str">
+      <c r="B76" s="124" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="67"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="84"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -18027,15 +18276,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="98" t="str">
+      <c r="B77" s="124" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="67"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="84"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -18046,15 +18295,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="98" t="str">
+      <c r="B78" s="124" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="67"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="84"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -18159,31 +18408,31 @@
     </row>
     <row r="110" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
+      <c r="E110" s="24"/>
       <c r="G110" s="19"/>
       <c r="J110" s="5"/>
     </row>
     <row r="111" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
+      <c r="E111" s="24"/>
       <c r="G111" s="19"/>
       <c r="J111" s="5"/>
     </row>
     <row r="112" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
+      <c r="E112" s="24"/>
       <c r="G112" s="19"/>
       <c r="J112" s="5"/>
     </row>
     <row r="113" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
+      <c r="E113" s="24"/>
       <c r="G113" s="19"/>
       <c r="J113" s="5"/>
     </row>
     <row r="114" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
+      <c r="E114" s="24"/>
       <c r="J114" s="5"/>
     </row>
     <row r="115" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19093,139 +19342,82 @@
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B5:J5"/>
   </mergeCells>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="63" priority="1">
-      <formula>NOT(ISERROR(SEARCH(($B$74),(F20))))</formula>
+  <conditionalFormatting sqref="F33:F69">
+    <cfRule type="expression" dxfId="51" priority="25">
+      <formula>NOT(ISERROR(SEARCH(($B$74),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="62" priority="2">
-      <formula>NOT(ISERROR(SEARCH(($B$75),(F20))))</formula>
+  <conditionalFormatting sqref="F33:F69">
+    <cfRule type="expression" dxfId="50" priority="26">
+      <formula>NOT(ISERROR(SEARCH(($B$75),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="61" priority="3">
-      <formula>NOT(ISERROR(SEARCH(($B$76),(F20))))</formula>
+  <conditionalFormatting sqref="F33:F69">
+    <cfRule type="expression" dxfId="49" priority="27">
+      <formula>NOT(ISERROR(SEARCH(($B$76),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="60" priority="4">
-      <formula>NOT(ISERROR(SEARCH(($B$77),(F20))))</formula>
+  <conditionalFormatting sqref="F33:F69">
+    <cfRule type="expression" dxfId="48" priority="28">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="59" priority="5">
-      <formula>NOT(ISERROR(SEARCH(($B$78),(F20))))</formula>
+  <conditionalFormatting sqref="F33:F69">
+    <cfRule type="expression" dxfId="47" priority="29">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="containsBlanks" dxfId="58" priority="6">
-      <formula>LEN(TRIM(F20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="57" priority="7">
-      <formula>NOT(ISERROR(SEARCH(($B$74),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="56" priority="8">
-      <formula>NOT(ISERROR(SEARCH(($B$75),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="55" priority="9">
-      <formula>NOT(ISERROR(SEARCH(($B$76),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="54" priority="10">
-      <formula>NOT(ISERROR(SEARCH(($B$77),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="53" priority="11">
-      <formula>NOT(ISERROR(SEARCH(($B$78),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="containsBlanks" dxfId="52" priority="12">
-      <formula>LEN(TRIM(F11))=0</formula>
+  <conditionalFormatting sqref="F33:F69">
+    <cfRule type="containsBlanks" dxfId="46" priority="30">
+      <formula>LEN(TRIM(F33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C69">
-    <cfRule type="expression" dxfId="51" priority="13">
+    <cfRule type="expression" dxfId="45" priority="31">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="50" priority="14">
-      <formula>NOT(ISERROR(SEARCH(($B$74),(F20))))</formula>
+  <conditionalFormatting sqref="F33:F69">
+    <cfRule type="expression" dxfId="44" priority="38">
+      <formula>NOT(ISERROR(SEARCH(($B$74),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="49" priority="15">
-      <formula>NOT(ISERROR(SEARCH(($B$75),(F20))))</formula>
+  <conditionalFormatting sqref="F33:F69">
+    <cfRule type="expression" dxfId="43" priority="39">
+      <formula>NOT(ISERROR(SEARCH(($B$75),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="48" priority="16">
-      <formula>NOT(ISERROR(SEARCH(($B$76),(F20))))</formula>
+  <conditionalFormatting sqref="F33:F69">
+    <cfRule type="expression" dxfId="42" priority="40">
+      <formula>NOT(ISERROR(SEARCH(($B$76),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="47" priority="17">
-      <formula>NOT(ISERROR(SEARCH(($B$77),(F20))))</formula>
+  <conditionalFormatting sqref="F33:F69">
+    <cfRule type="expression" dxfId="41" priority="41">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" dxfId="46" priority="18">
-      <formula>NOT(ISERROR(SEARCH(($B$78),(F20))))</formula>
+  <conditionalFormatting sqref="F33:F69">
+    <cfRule type="expression" dxfId="40" priority="42">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="containsBlanks" dxfId="45" priority="19">
-      <formula>LEN(TRIM(F20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="44" priority="20">
-      <formula>NOT(ISERROR(SEARCH(($B$74),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="43" priority="21">
-      <formula>NOT(ISERROR(SEARCH(($B$75),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="42" priority="22">
-      <formula>NOT(ISERROR(SEARCH(($B$76),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="41" priority="23">
-      <formula>NOT(ISERROR(SEARCH(($B$77),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" dxfId="40" priority="24">
-      <formula>NOT(ISERROR(SEARCH(($B$78),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F69">
-    <cfRule type="containsBlanks" dxfId="39" priority="25">
-      <formula>LEN(TRIM(F11))=0</formula>
+  <conditionalFormatting sqref="F33:F69">
+    <cfRule type="containsBlanks" dxfId="39" priority="43">
+      <formula>LEN(TRIM(F33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C69">
-    <cfRule type="expression" dxfId="38" priority="26">
+    <cfRule type="expression" dxfId="38" priority="44">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11:C69" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$K$1:$K$28</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F32" xr:uid="{1040B484-86BE-438A-B495-D171195E4A5C}">
+      <formula1>"Guilherme Lage, João Gabriel Perez, Lucas Soares, Marlene Moraes, Vitor Stahlberg, Maria Eduarda Amaral"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -19256,8 +19448,8 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19277,85 +19469,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="B1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="99"/>
       <c r="K1" s="2">
         <f>Requisitos!C15</f>
         <v>45247</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="84"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="101"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45248</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="84"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="101"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45249</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="93"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45250</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="84"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45251</v>
@@ -19368,18 +19560,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="77" t="str">
+      <c r="B7" s="94" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45253</v>
@@ -19392,16 +19584,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="99" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
+      <c r="B9" s="125" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
       <c r="J9" s="58" t="s">
         <v>67</v>
       </c>
@@ -20336,7 +20528,7 @@
     </row>
     <row r="61" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G61" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
@@ -20362,43 +20554,43 @@
       </c>
     </row>
     <row r="63" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="99" t="s">
+      <c r="B63" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="84"/>
+    </row>
+    <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="67"/>
-    </row>
-    <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="100" t="s">
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="98" t="str">
+      <c r="B65" s="124" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="67"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="84"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -20409,15 +20601,15 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="98" t="str">
+      <c r="B66" s="124" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="67"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="84"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -20428,15 +20620,15 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="98" t="str">
+      <c r="B67" s="124" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="67"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="84"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -20447,15 +20639,15 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="98" t="str">
+      <c r="B68" s="124" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="67"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="84"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -20466,15 +20658,15 @@
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="98" t="str">
+      <c r="B69" s="124" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="67"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="84"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>

--- a/Artefatos/sprints/Planejamento_sprints.xlsx
+++ b/Artefatos/sprints/Planejamento_sprints.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e66f0b7e9f7bd981/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorios_github\plf-es-2023-2-ti3-6653100-fabrica-do-saber\Artefatos\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{BAC18DD4-3CF5-4C9D-85E8-81C17236ABCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F193CE71-6348-4D65-86B4-6A748F55AA60}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA4D14D-67C8-470B-A0EA-B28875E8B502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="175">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -552,9 +552,6 @@
   </si>
   <si>
     <t>O administrador cadastra receitas.</t>
-  </si>
-  <si>
-    <t>O administrador emite boletos.</t>
   </si>
   <si>
     <t>O administrador pode logar no sistema</t>
@@ -824,9 +821,6 @@
     <t>Planejamento sprint 5</t>
   </si>
   <si>
-    <t>4, 8, 10 e 11</t>
-  </si>
-  <si>
     <t>Creche model</t>
   </si>
   <si>
@@ -842,18 +836,6 @@
     <t>Criar funcionalidade de impressao de turma (turma específica)</t>
   </si>
   <si>
-    <t>Receita/despesa model</t>
-  </si>
-  <si>
-    <t>Receita/despesa service</t>
-  </si>
-  <si>
-    <t>Receita/despesa controller</t>
-  </si>
-  <si>
-    <t>10 e 11</t>
-  </si>
-  <si>
     <t>Página de cadastro de creche</t>
   </si>
   <si>
@@ -863,19 +845,10 @@
     <t>Página de lista de creches</t>
   </si>
   <si>
-    <t>Página de receitas e despesas</t>
-  </si>
-  <si>
-    <t>Página de edição de receitas e despesas</t>
-  </si>
-  <si>
     <t>Wireframes e style guide (Sprint 2, 3 + 4)</t>
   </si>
   <si>
     <t>Integracao back-end + front-end (Sprint 4)</t>
-  </si>
-  <si>
-    <t>8, 10 e 11</t>
   </si>
   <si>
     <t>Tarefa remanescente da sprint 2 e 3 + sprint 4</t>
@@ -895,6 +868,27 @@
   </si>
   <si>
     <t>Tarefa transferida para o Vitor</t>
+  </si>
+  <si>
+    <t>Receita model</t>
+  </si>
+  <si>
+    <t>Receita service</t>
+  </si>
+  <si>
+    <t>Receita controller</t>
+  </si>
+  <si>
+    <t>Página de receitas</t>
+  </si>
+  <si>
+    <t>Página de edição de receitas</t>
+  </si>
+  <si>
+    <t>4, 8, 11</t>
+  </si>
+  <si>
+    <t>8 e 11</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1078,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1161,6 +1155,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -1344,7 +1344,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1539,16 +1539,37 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1558,74 +1579,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1642,6 +1608,15 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1650,6 +1625,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1660,8 +1653,21 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
@@ -3316,166 +3322,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
+      <c r="B1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="101"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="101"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="91"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="93"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B9" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="86" t="s">
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="99"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="86" t="s">
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="88"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="86" t="s">
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="88"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="99"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="86" t="s">
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="88"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="99"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="86" t="s">
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="88"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="99"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="86" t="s">
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="88"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="99"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="18"/>
@@ -3577,16 +3583,16 @@
     <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="50"/>
-      <c r="B100" s="89"/>
-      <c r="C100" s="81"/>
-      <c r="D100" s="90" t="s">
+      <c r="B100" s="101"/>
+      <c r="C100" s="86"/>
+      <c r="D100" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="81"/>
-      <c r="F100" s="90" t="s">
+      <c r="E100" s="86"/>
+      <c r="F100" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="81"/>
+      <c r="G100" s="86"/>
       <c r="H100" s="51" t="s">
         <v>18</v>
       </c>
@@ -3608,12 +3614,12 @@
     </row>
     <row r="101" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
-      <c r="B101" s="80"/>
-      <c r="C101" s="81"/>
-      <c r="D101" s="85" t="s">
+      <c r="B101" s="104"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="81"/>
+      <c r="E101" s="86"/>
       <c r="F101" s="53" t="s">
         <v>24</v>
       </c>
@@ -3646,12 +3652,12 @@
     </row>
     <row r="102" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="50"/>
-      <c r="B102" s="80"/>
-      <c r="C102" s="81"/>
-      <c r="D102" s="85" t="s">
+      <c r="B102" s="104"/>
+      <c r="C102" s="86"/>
+      <c r="D102" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="81"/>
+      <c r="E102" s="86"/>
       <c r="F102" s="53" t="s">
         <v>29</v>
       </c>
@@ -3685,12 +3691,12 @@
     </row>
     <row r="103" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="50"/>
-      <c r="B103" s="80"/>
-      <c r="C103" s="81"/>
-      <c r="D103" s="85" t="s">
+      <c r="B103" s="104"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="81"/>
+      <c r="E103" s="86"/>
       <c r="F103" s="53"/>
       <c r="G103" s="54" t="s">
         <v>34</v>
@@ -3722,12 +3728,12 @@
     </row>
     <row r="104" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="50"/>
-      <c r="B104" s="80"/>
-      <c r="C104" s="81"/>
-      <c r="D104" s="85" t="s">
+      <c r="B104" s="104"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="81"/>
+      <c r="E104" s="86"/>
       <c r="F104" s="53"/>
       <c r="G104" s="54" t="s">
         <v>36</v>
@@ -3757,12 +3763,12 @@
     </row>
     <row r="105" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="50"/>
-      <c r="B105" s="80"/>
-      <c r="C105" s="81"/>
-      <c r="D105" s="85" t="s">
+      <c r="B105" s="104"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="81"/>
+      <c r="E105" s="86"/>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="s">
         <v>39</v>
@@ -3787,8 +3793,8 @@
     </row>
     <row r="106" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="50"/>
-      <c r="B106" s="80"/>
-      <c r="C106" s="81"/>
+      <c r="B106" s="104"/>
+      <c r="C106" s="86"/>
       <c r="F106" s="53"/>
       <c r="G106" s="54"/>
       <c r="H106" s="53"/>
@@ -3799,8 +3805,8 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="50"/>
-      <c r="B107" s="80"/>
-      <c r="C107" s="81"/>
+      <c r="B107" s="104"/>
+      <c r="C107" s="86"/>
       <c r="D107" s="55"/>
       <c r="E107" s="53"/>
       <c r="F107" s="53"/>
@@ -4768,24 +4774,12 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D105:E105"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="D100:E100"/>
@@ -4797,12 +4791,24 @@
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="F10:F15" xr:uid="{49EDF03A-7EFB-435C-A992-40D98DE85B41}">
@@ -4828,7 +4834,7 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:G24"/>
+      <selection activeCell="L32" sqref="L32:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4845,59 +4851,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
+      <c r="B1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="101"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="101"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="91"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="93"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -4909,16 +4915,16 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="121" t="str">
+      <c r="B7" s="114" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -4930,15 +4936,15 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
@@ -4950,11 +4956,11 @@
       <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="E10" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="83"/>
-      <c r="G10" s="84"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
       <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
@@ -4969,9 +4975,9 @@
       <c r="D11" s="14">
         <v>45190</v>
       </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="84"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="94"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4985,9 +4991,9 @@
         <f t="shared" ref="D12" si="0">C12+13</f>
         <v>45204</v>
       </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5001,9 +5007,9 @@
       <c r="D13" s="14">
         <v>45225</v>
       </c>
-      <c r="E13" s="116"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="84"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5016,9 +5022,9 @@
       <c r="D14" s="14">
         <v>45246</v>
       </c>
-      <c r="E14" s="117"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5057,13 +5063,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
       <c r="H18" s="22" t="s">
         <v>47</v>
       </c>
@@ -5072,11 +5078,11 @@
       <c r="B19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="84"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="94"/>
       <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
@@ -5086,11 +5092,11 @@
       <c r="B20" s="27">
         <v>0</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="84"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="94"/>
       <c r="H20" s="28"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -5107,13 +5113,13 @@
       <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="113"/>
       <c r="H21" s="61" t="s">
         <v>50</v>
       </c>
@@ -5123,13 +5129,13 @@
       <c r="B22" s="27">
         <v>2</v>
       </c>
-      <c r="C22" s="107" t="s">
+      <c r="C22" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="109"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="113"/>
       <c r="H22" s="61" t="s">
         <v>50</v>
       </c>
@@ -5138,13 +5144,13 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="107" t="s">
+      <c r="C23" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="109"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="61" t="s">
         <v>50</v>
       </c>
@@ -5153,13 +5159,13 @@
       <c r="B24" s="27">
         <v>4</v>
       </c>
-      <c r="C24" s="110" t="s">
+      <c r="C24" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="112"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="119"/>
       <c r="H24" s="62" t="s">
         <v>54</v>
       </c>
@@ -5168,13 +5174,13 @@
       <c r="B25" s="9">
         <v>5</v>
       </c>
-      <c r="C25" s="104" t="s">
+      <c r="C25" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="106"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="122"/>
       <c r="H25" s="12" t="s">
         <v>54</v>
       </c>
@@ -5183,13 +5189,13 @@
       <c r="B26" s="27">
         <v>6</v>
       </c>
-      <c r="C26" s="104" t="s">
+      <c r="C26" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="106"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="122"/>
       <c r="H26" s="12" t="s">
         <v>54</v>
       </c>
@@ -5198,13 +5204,13 @@
       <c r="B27" s="9">
         <v>7</v>
       </c>
-      <c r="C27" s="107" t="s">
+      <c r="C27" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="109"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="113"/>
       <c r="H27" s="61" t="s">
         <v>50</v>
       </c>
@@ -5213,13 +5219,13 @@
       <c r="B28" s="27">
         <v>8</v>
       </c>
-      <c r="C28" s="110" t="s">
+      <c r="C28" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="112"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="119"/>
       <c r="H28" s="62" t="s">
         <v>54</v>
       </c>
@@ -5228,13 +5234,13 @@
       <c r="B29" s="9">
         <v>9</v>
       </c>
-      <c r="C29" s="107" t="s">
+      <c r="C29" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="109"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
       <c r="H29" s="61" t="s">
         <v>58</v>
       </c>
@@ -5243,14 +5249,14 @@
       <c r="B30" s="27">
         <v>10</v>
       </c>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="62" t="s">
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="130" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5258,14 +5264,14 @@
       <c r="B31" s="9">
         <v>11</v>
       </c>
-      <c r="C31" s="113" t="s">
+      <c r="C31" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="62" t="s">
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="126" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5273,41 +5279,39 @@
       <c r="B32" s="27">
         <v>12</v>
       </c>
-      <c r="C32" s="104" t="s">
+      <c r="C32" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="12" t="s">
-        <v>58</v>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="61" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
         <v>13</v>
       </c>
-      <c r="C33" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="61" t="s">
-        <v>50</v>
+      <c r="C33" s="120"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="27">
         <v>14</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="106"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="122"/>
       <c r="H34" s="12" t="s">
         <v>54</v>
       </c>
@@ -5316,11 +5320,11 @@
       <c r="B35" s="9">
         <v>15</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="106"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="122"/>
       <c r="H35" s="12" t="s">
         <v>54</v>
       </c>
@@ -5329,11 +5333,11 @@
       <c r="B36" s="27">
         <v>16</v>
       </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="84"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="94"/>
       <c r="H36" s="12" t="s">
         <v>54</v>
       </c>
@@ -5342,11 +5346,11 @@
       <c r="B37" s="9">
         <v>17</v>
       </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="84"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="94"/>
       <c r="H37" s="12" t="s">
         <v>54</v>
       </c>
@@ -5355,11 +5359,11 @@
       <c r="B38" s="27">
         <v>18</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="84"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="94"/>
       <c r="H38" s="12" t="s">
         <v>54</v>
       </c>
@@ -5368,11 +5372,11 @@
       <c r="B39" s="9">
         <v>19</v>
       </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="84"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="94"/>
       <c r="H39" s="12" t="s">
         <v>54</v>
       </c>
@@ -5381,11 +5385,11 @@
       <c r="B40" s="27">
         <v>20</v>
       </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="84"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="94"/>
       <c r="H40" s="12" t="s">
         <v>54</v>
       </c>
@@ -5394,11 +5398,11 @@
       <c r="B41" s="9">
         <v>21</v>
       </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="84"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="94"/>
       <c r="H41" s="12" t="s">
         <v>54</v>
       </c>
@@ -5407,11 +5411,11 @@
       <c r="B42" s="27">
         <v>22</v>
       </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="84"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="94"/>
       <c r="H42" s="12" t="s">
         <v>54</v>
       </c>
@@ -5420,11 +5424,11 @@
       <c r="B43" s="9">
         <v>23</v>
       </c>
-      <c r="C43" s="104"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="84"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="94"/>
       <c r="H43" s="12" t="s">
         <v>54</v>
       </c>
@@ -5433,11 +5437,11 @@
       <c r="B44" s="27">
         <v>24</v>
       </c>
-      <c r="C44" s="104"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="84"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="94"/>
       <c r="H44" s="12" t="s">
         <v>54</v>
       </c>
@@ -5446,11 +5450,11 @@
       <c r="B45" s="9">
         <v>25</v>
       </c>
-      <c r="C45" s="104"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="84"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="94"/>
       <c r="H45" s="12" t="s">
         <v>54</v>
       </c>
@@ -5459,11 +5463,11 @@
       <c r="B46" s="27">
         <v>26</v>
       </c>
-      <c r="C46" s="104"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="84"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="94"/>
       <c r="H46" s="12" t="s">
         <v>54</v>
       </c>
@@ -5472,11 +5476,11 @@
       <c r="B47" s="9">
         <v>27</v>
       </c>
-      <c r="C47" s="104"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="84"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="94"/>
       <c r="H47" s="12" t="s">
         <v>54</v>
       </c>
@@ -5485,11 +5489,11 @@
       <c r="B48" s="27">
         <v>28</v>
       </c>
-      <c r="C48" s="104"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="84"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="94"/>
       <c r="H48" s="12" t="s">
         <v>54</v>
       </c>
@@ -5498,11 +5502,11 @@
       <c r="B49" s="9">
         <v>29</v>
       </c>
-      <c r="C49" s="104"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="84"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="94"/>
       <c r="H49" s="12" t="s">
         <v>54</v>
       </c>
@@ -5511,11 +5515,11 @@
       <c r="B50" s="27">
         <v>30</v>
       </c>
-      <c r="C50" s="104"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="84"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="94"/>
       <c r="H50" s="12" t="s">
         <v>54</v>
       </c>
@@ -5524,11 +5528,11 @@
       <c r="B51" s="9">
         <v>31</v>
       </c>
-      <c r="C51" s="104"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="84"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="94"/>
       <c r="H51" s="12" t="s">
         <v>54</v>
       </c>
@@ -5537,11 +5541,11 @@
       <c r="B52" s="27">
         <v>32</v>
       </c>
-      <c r="C52" s="104"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="84"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="94"/>
       <c r="H52" s="12" t="s">
         <v>54</v>
       </c>
@@ -5550,11 +5554,11 @@
       <c r="B53" s="9">
         <v>33</v>
       </c>
-      <c r="C53" s="104"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="84"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="94"/>
       <c r="H53" s="12" t="s">
         <v>54</v>
       </c>
@@ -5563,11 +5567,11 @@
       <c r="B54" s="27">
         <v>34</v>
       </c>
-      <c r="C54" s="104"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="84"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="94"/>
       <c r="H54" s="12" t="s">
         <v>54</v>
       </c>
@@ -5576,11 +5580,11 @@
       <c r="B55" s="9">
         <v>35</v>
       </c>
-      <c r="C55" s="104"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="84"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="94"/>
       <c r="H55" s="12" t="s">
         <v>54</v>
       </c>
@@ -5589,11 +5593,11 @@
       <c r="B56" s="27">
         <v>36</v>
       </c>
-      <c r="C56" s="104"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="84"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="94"/>
       <c r="H56" s="12" t="s">
         <v>54</v>
       </c>
@@ -5602,11 +5606,11 @@
       <c r="B57" s="9">
         <v>37</v>
       </c>
-      <c r="C57" s="104"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="84"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="93"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="94"/>
       <c r="H57" s="12" t="s">
         <v>54</v>
       </c>
@@ -5615,11 +5619,11 @@
       <c r="B58" s="27">
         <v>38</v>
       </c>
-      <c r="C58" s="104"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="84"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="93"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="94"/>
       <c r="H58" s="12" t="s">
         <v>54</v>
       </c>
@@ -5628,11 +5632,11 @@
       <c r="B59" s="9">
         <v>39</v>
       </c>
-      <c r="C59" s="104"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="84"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="94"/>
       <c r="H59" s="12" t="s">
         <v>54</v>
       </c>
@@ -5641,11 +5645,11 @@
       <c r="B60" s="27">
         <v>40</v>
       </c>
-      <c r="C60" s="104"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="84"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="94"/>
       <c r="H60" s="12" t="s">
         <v>54</v>
       </c>
@@ -5654,11 +5658,11 @@
       <c r="B61" s="9">
         <v>41</v>
       </c>
-      <c r="C61" s="104"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="84"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="94"/>
       <c r="H61" s="12" t="s">
         <v>54</v>
       </c>
@@ -5667,11 +5671,11 @@
       <c r="B62" s="27">
         <v>42</v>
       </c>
-      <c r="C62" s="104"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="84"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="94"/>
       <c r="H62" s="12" t="s">
         <v>54</v>
       </c>
@@ -5680,11 +5684,11 @@
       <c r="B63" s="9">
         <v>43</v>
       </c>
-      <c r="C63" s="104"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="84"/>
+      <c r="C63" s="120"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="94"/>
       <c r="H63" s="12" t="s">
         <v>54</v>
       </c>
@@ -5693,11 +5697,11 @@
       <c r="B64" s="27">
         <v>44</v>
       </c>
-      <c r="C64" s="104"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="84"/>
+      <c r="C64" s="120"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="94"/>
       <c r="H64" s="12" t="s">
         <v>54</v>
       </c>
@@ -5706,11 +5710,11 @@
       <c r="B65" s="9">
         <v>45</v>
       </c>
-      <c r="C65" s="104"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="84"/>
+      <c r="C65" s="120"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="94"/>
       <c r="H65" s="12" t="s">
         <v>54</v>
       </c>
@@ -5719,11 +5723,11 @@
       <c r="B66" s="27">
         <v>46</v>
       </c>
-      <c r="C66" s="104"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="84"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="94"/>
       <c r="H66" s="12" t="s">
         <v>54</v>
       </c>
@@ -5732,11 +5736,11 @@
       <c r="B67" s="9">
         <v>47</v>
       </c>
-      <c r="C67" s="104"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="84"/>
+      <c r="C67" s="120"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="94"/>
       <c r="H67" s="12" t="s">
         <v>54</v>
       </c>
@@ -5745,11 +5749,11 @@
       <c r="B68" s="27">
         <v>48</v>
       </c>
-      <c r="C68" s="104"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="84"/>
+      <c r="C68" s="120"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="94"/>
       <c r="H68" s="12" t="s">
         <v>54</v>
       </c>
@@ -5758,11 +5762,11 @@
       <c r="B69" s="9">
         <v>49</v>
       </c>
-      <c r="C69" s="104"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="83"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="84"/>
+      <c r="C69" s="120"/>
+      <c r="D69" s="93"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="94"/>
       <c r="H69" s="12" t="s">
         <v>54</v>
       </c>
@@ -5771,11 +5775,11 @@
       <c r="B70" s="27">
         <v>50</v>
       </c>
-      <c r="C70" s="104"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="84"/>
+      <c r="C70" s="120"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="93"/>
+      <c r="G70" s="94"/>
       <c r="H70" s="12" t="s">
         <v>54</v>
       </c>
@@ -5784,11 +5788,11 @@
       <c r="B71" s="9">
         <v>51</v>
       </c>
-      <c r="C71" s="104"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="84"/>
+      <c r="C71" s="120"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="94"/>
       <c r="H71" s="12" t="s">
         <v>54</v>
       </c>
@@ -5797,11 +5801,11 @@
       <c r="B72" s="27">
         <v>52</v>
       </c>
-      <c r="C72" s="104"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="84"/>
+      <c r="C72" s="120"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="94"/>
       <c r="H72" s="12" t="s">
         <v>54</v>
       </c>
@@ -5810,11 +5814,11 @@
       <c r="B73" s="9">
         <v>53</v>
       </c>
-      <c r="C73" s="104"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="84"/>
+      <c r="C73" s="120"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="94"/>
       <c r="H73" s="12" t="s">
         <v>54</v>
       </c>
@@ -5823,11 +5827,11 @@
       <c r="B74" s="27">
         <v>54</v>
       </c>
-      <c r="C74" s="104"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="84"/>
+      <c r="C74" s="120"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="93"/>
+      <c r="G74" s="94"/>
       <c r="H74" s="12" t="s">
         <v>54</v>
       </c>
@@ -5836,11 +5840,11 @@
       <c r="B75" s="9">
         <v>55</v>
       </c>
-      <c r="C75" s="104"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="83"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="84"/>
+      <c r="C75" s="120"/>
+      <c r="D75" s="93"/>
+      <c r="E75" s="93"/>
+      <c r="F75" s="93"/>
+      <c r="G75" s="94"/>
       <c r="H75" s="12" t="s">
         <v>54</v>
       </c>
@@ -5849,11 +5853,11 @@
       <c r="B76" s="27">
         <v>56</v>
       </c>
-      <c r="C76" s="104"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="84"/>
+      <c r="C76" s="120"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="94"/>
       <c r="H76" s="12" t="s">
         <v>54</v>
       </c>
@@ -5862,11 +5866,11 @@
       <c r="B77" s="9">
         <v>57</v>
       </c>
-      <c r="C77" s="104"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="84"/>
+      <c r="C77" s="120"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="94"/>
       <c r="H77" s="12" t="s">
         <v>54</v>
       </c>
@@ -5875,11 +5879,11 @@
       <c r="B78" s="27">
         <v>58</v>
       </c>
-      <c r="C78" s="104"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="84"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="93"/>
+      <c r="E78" s="93"/>
+      <c r="F78" s="93"/>
+      <c r="G78" s="94"/>
       <c r="H78" s="12" t="s">
         <v>54</v>
       </c>
@@ -5888,11 +5892,11 @@
       <c r="B79" s="9">
         <v>59</v>
       </c>
-      <c r="C79" s="104"/>
-      <c r="D79" s="83"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="84"/>
+      <c r="C79" s="120"/>
+      <c r="D79" s="93"/>
+      <c r="E79" s="93"/>
+      <c r="F79" s="93"/>
+      <c r="G79" s="94"/>
       <c r="H79" s="12" t="s">
         <v>54</v>
       </c>
@@ -5901,11 +5905,11 @@
       <c r="B80" s="27">
         <v>60</v>
       </c>
-      <c r="C80" s="104"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="83"/>
-      <c r="F80" s="83"/>
-      <c r="G80" s="84"/>
+      <c r="C80" s="120"/>
+      <c r="D80" s="93"/>
+      <c r="E80" s="93"/>
+      <c r="F80" s="93"/>
+      <c r="G80" s="94"/>
       <c r="H80" s="12" t="s">
         <v>54</v>
       </c>
@@ -5914,11 +5918,11 @@
       <c r="B81" s="9">
         <v>61</v>
       </c>
-      <c r="C81" s="104"/>
-      <c r="D81" s="83"/>
-      <c r="E81" s="83"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="84"/>
+      <c r="C81" s="120"/>
+      <c r="D81" s="93"/>
+      <c r="E81" s="93"/>
+      <c r="F81" s="93"/>
+      <c r="G81" s="94"/>
       <c r="H81" s="12" t="s">
         <v>54</v>
       </c>
@@ -5927,11 +5931,11 @@
       <c r="B82" s="27">
         <v>62</v>
       </c>
-      <c r="C82" s="104"/>
-      <c r="D82" s="83"/>
-      <c r="E82" s="83"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="84"/>
+      <c r="C82" s="120"/>
+      <c r="D82" s="93"/>
+      <c r="E82" s="93"/>
+      <c r="F82" s="93"/>
+      <c r="G82" s="94"/>
       <c r="H82" s="12" t="s">
         <v>54</v>
       </c>
@@ -5940,11 +5944,11 @@
       <c r="B83" s="9">
         <v>63</v>
       </c>
-      <c r="C83" s="104"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="83"/>
-      <c r="G83" s="84"/>
+      <c r="C83" s="120"/>
+      <c r="D83" s="93"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="94"/>
       <c r="H83" s="12" t="s">
         <v>54</v>
       </c>
@@ -5953,11 +5957,11 @@
       <c r="B84" s="27">
         <v>64</v>
       </c>
-      <c r="C84" s="104"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="84"/>
+      <c r="C84" s="120"/>
+      <c r="D84" s="93"/>
+      <c r="E84" s="93"/>
+      <c r="F84" s="93"/>
+      <c r="G84" s="94"/>
       <c r="H84" s="12" t="s">
         <v>54</v>
       </c>
@@ -5966,11 +5970,11 @@
       <c r="B85" s="9">
         <v>65</v>
       </c>
-      <c r="C85" s="104"/>
-      <c r="D85" s="83"/>
-      <c r="E85" s="83"/>
-      <c r="F85" s="83"/>
-      <c r="G85" s="84"/>
+      <c r="C85" s="120"/>
+      <c r="D85" s="93"/>
+      <c r="E85" s="93"/>
+      <c r="F85" s="93"/>
+      <c r="G85" s="94"/>
       <c r="H85" s="12" t="s">
         <v>54</v>
       </c>
@@ -5979,11 +5983,11 @@
       <c r="B86" s="27">
         <v>66</v>
       </c>
-      <c r="C86" s="104"/>
-      <c r="D86" s="83"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="84"/>
+      <c r="C86" s="120"/>
+      <c r="D86" s="93"/>
+      <c r="E86" s="93"/>
+      <c r="F86" s="93"/>
+      <c r="G86" s="94"/>
       <c r="H86" s="12" t="s">
         <v>54</v>
       </c>
@@ -5992,11 +5996,11 @@
       <c r="B87" s="9">
         <v>67</v>
       </c>
-      <c r="C87" s="104"/>
-      <c r="D87" s="83"/>
-      <c r="E87" s="83"/>
-      <c r="F87" s="83"/>
-      <c r="G87" s="84"/>
+      <c r="C87" s="120"/>
+      <c r="D87" s="93"/>
+      <c r="E87" s="93"/>
+      <c r="F87" s="93"/>
+      <c r="G87" s="94"/>
       <c r="H87" s="12" t="s">
         <v>54</v>
       </c>
@@ -6005,11 +6009,11 @@
       <c r="B88" s="27">
         <v>68</v>
       </c>
-      <c r="C88" s="104"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="84"/>
+      <c r="C88" s="120"/>
+      <c r="D88" s="93"/>
+      <c r="E88" s="93"/>
+      <c r="F88" s="93"/>
+      <c r="G88" s="94"/>
       <c r="H88" s="12" t="s">
         <v>54</v>
       </c>
@@ -6018,11 +6022,11 @@
       <c r="B89" s="9">
         <v>69</v>
       </c>
-      <c r="C89" s="104"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="83"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="84"/>
+      <c r="C89" s="120"/>
+      <c r="D89" s="93"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="93"/>
+      <c r="G89" s="94"/>
       <c r="H89" s="12" t="s">
         <v>54</v>
       </c>
@@ -6031,11 +6035,11 @@
       <c r="B90" s="27">
         <v>70</v>
       </c>
-      <c r="C90" s="104"/>
-      <c r="D90" s="83"/>
-      <c r="E90" s="83"/>
-      <c r="F90" s="83"/>
-      <c r="G90" s="84"/>
+      <c r="C90" s="120"/>
+      <c r="D90" s="93"/>
+      <c r="E90" s="93"/>
+      <c r="F90" s="93"/>
+      <c r="G90" s="94"/>
       <c r="H90" s="12" t="s">
         <v>54</v>
       </c>
@@ -6044,11 +6048,11 @@
       <c r="B91" s="9">
         <v>71</v>
       </c>
-      <c r="C91" s="104"/>
-      <c r="D91" s="83"/>
-      <c r="E91" s="83"/>
-      <c r="F91" s="83"/>
-      <c r="G91" s="84"/>
+      <c r="C91" s="120"/>
+      <c r="D91" s="93"/>
+      <c r="E91" s="93"/>
+      <c r="F91" s="93"/>
+      <c r="G91" s="94"/>
       <c r="H91" s="12" t="s">
         <v>54</v>
       </c>
@@ -6057,11 +6061,11 @@
       <c r="B92" s="27">
         <v>72</v>
       </c>
-      <c r="C92" s="104"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="84"/>
+      <c r="C92" s="120"/>
+      <c r="D92" s="93"/>
+      <c r="E92" s="93"/>
+      <c r="F92" s="93"/>
+      <c r="G92" s="94"/>
       <c r="H92" s="12" t="s">
         <v>54</v>
       </c>
@@ -6070,11 +6074,11 @@
       <c r="B93" s="9">
         <v>73</v>
       </c>
-      <c r="C93" s="104"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="84"/>
+      <c r="C93" s="120"/>
+      <c r="D93" s="93"/>
+      <c r="E93" s="93"/>
+      <c r="F93" s="93"/>
+      <c r="G93" s="94"/>
       <c r="H93" s="12" t="s">
         <v>54</v>
       </c>
@@ -6083,11 +6087,11 @@
       <c r="B94" s="27">
         <v>74</v>
       </c>
-      <c r="C94" s="104"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="84"/>
+      <c r="C94" s="120"/>
+      <c r="D94" s="93"/>
+      <c r="E94" s="93"/>
+      <c r="F94" s="93"/>
+      <c r="G94" s="94"/>
       <c r="H94" s="12" t="s">
         <v>54</v>
       </c>
@@ -6096,11 +6100,11 @@
       <c r="B95" s="9">
         <v>75</v>
       </c>
-      <c r="C95" s="104"/>
-      <c r="D95" s="83"/>
-      <c r="E95" s="83"/>
-      <c r="F95" s="83"/>
-      <c r="G95" s="84"/>
+      <c r="C95" s="120"/>
+      <c r="D95" s="93"/>
+      <c r="E95" s="93"/>
+      <c r="F95" s="93"/>
+      <c r="G95" s="94"/>
       <c r="H95" s="12" t="s">
         <v>54</v>
       </c>
@@ -6109,11 +6113,11 @@
       <c r="B96" s="27">
         <v>76</v>
       </c>
-      <c r="C96" s="104"/>
-      <c r="D96" s="83"/>
-      <c r="E96" s="83"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="84"/>
+      <c r="C96" s="120"/>
+      <c r="D96" s="93"/>
+      <c r="E96" s="93"/>
+      <c r="F96" s="93"/>
+      <c r="G96" s="94"/>
       <c r="H96" s="12" t="s">
         <v>54</v>
       </c>
@@ -6122,11 +6126,11 @@
       <c r="B97" s="9">
         <v>77</v>
       </c>
-      <c r="C97" s="104"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="84"/>
+      <c r="C97" s="120"/>
+      <c r="D97" s="93"/>
+      <c r="E97" s="93"/>
+      <c r="F97" s="93"/>
+      <c r="G97" s="94"/>
       <c r="H97" s="12" t="s">
         <v>54</v>
       </c>
@@ -6135,11 +6139,11 @@
       <c r="B98" s="27">
         <v>78</v>
       </c>
-      <c r="C98" s="104"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="84"/>
+      <c r="C98" s="120"/>
+      <c r="D98" s="93"/>
+      <c r="E98" s="93"/>
+      <c r="F98" s="93"/>
+      <c r="G98" s="94"/>
       <c r="H98" s="12" t="s">
         <v>54</v>
       </c>
@@ -6148,11 +6152,11 @@
       <c r="B99" s="9">
         <v>79</v>
       </c>
-      <c r="C99" s="104"/>
-      <c r="D99" s="83"/>
-      <c r="E99" s="83"/>
-      <c r="F99" s="83"/>
-      <c r="G99" s="84"/>
+      <c r="C99" s="120"/>
+      <c r="D99" s="93"/>
+      <c r="E99" s="93"/>
+      <c r="F99" s="93"/>
+      <c r="G99" s="94"/>
       <c r="H99" s="12" t="s">
         <v>54</v>
       </c>
@@ -6161,11 +6165,11 @@
       <c r="B100" s="27">
         <v>80</v>
       </c>
-      <c r="C100" s="104"/>
-      <c r="D100" s="83"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="84"/>
+      <c r="C100" s="120"/>
+      <c r="D100" s="93"/>
+      <c r="E100" s="93"/>
+      <c r="F100" s="93"/>
+      <c r="G100" s="94"/>
       <c r="H100" s="12" t="s">
         <v>54</v>
       </c>
@@ -6174,11 +6178,11 @@
       <c r="B101" s="9">
         <v>81</v>
       </c>
-      <c r="C101" s="104"/>
-      <c r="D101" s="83"/>
-      <c r="E101" s="83"/>
-      <c r="F101" s="83"/>
-      <c r="G101" s="84"/>
+      <c r="C101" s="120"/>
+      <c r="D101" s="93"/>
+      <c r="E101" s="93"/>
+      <c r="F101" s="93"/>
+      <c r="G101" s="94"/>
       <c r="H101" s="12" t="s">
         <v>54</v>
       </c>
@@ -6187,11 +6191,11 @@
       <c r="B102" s="27">
         <v>82</v>
       </c>
-      <c r="C102" s="104"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="83"/>
-      <c r="F102" s="83"/>
-      <c r="G102" s="84"/>
+      <c r="C102" s="120"/>
+      <c r="D102" s="93"/>
+      <c r="E102" s="93"/>
+      <c r="F102" s="93"/>
+      <c r="G102" s="94"/>
       <c r="H102" s="12" t="s">
         <v>54</v>
       </c>
@@ -6200,11 +6204,11 @@
       <c r="B103" s="9">
         <v>83</v>
       </c>
-      <c r="C103" s="104"/>
-      <c r="D103" s="83"/>
-      <c r="E103" s="83"/>
-      <c r="F103" s="83"/>
-      <c r="G103" s="84"/>
+      <c r="C103" s="120"/>
+      <c r="D103" s="93"/>
+      <c r="E103" s="93"/>
+      <c r="F103" s="93"/>
+      <c r="G103" s="94"/>
       <c r="H103" s="12" t="s">
         <v>54</v>
       </c>
@@ -6213,11 +6217,11 @@
       <c r="B104" s="27">
         <v>84</v>
       </c>
-      <c r="C104" s="104"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="83"/>
-      <c r="G104" s="84"/>
+      <c r="C104" s="120"/>
+      <c r="D104" s="93"/>
+      <c r="E104" s="93"/>
+      <c r="F104" s="93"/>
+      <c r="G104" s="94"/>
       <c r="H104" s="12" t="s">
         <v>54</v>
       </c>
@@ -6226,11 +6230,11 @@
       <c r="B105" s="9">
         <v>85</v>
       </c>
-      <c r="C105" s="104"/>
-      <c r="D105" s="83"/>
-      <c r="E105" s="83"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="84"/>
+      <c r="C105" s="120"/>
+      <c r="D105" s="93"/>
+      <c r="E105" s="93"/>
+      <c r="F105" s="93"/>
+      <c r="G105" s="94"/>
       <c r="H105" s="12" t="s">
         <v>54</v>
       </c>
@@ -6239,11 +6243,11 @@
       <c r="B106" s="27">
         <v>86</v>
       </c>
-      <c r="C106" s="104"/>
-      <c r="D106" s="83"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="84"/>
+      <c r="C106" s="120"/>
+      <c r="D106" s="93"/>
+      <c r="E106" s="93"/>
+      <c r="F106" s="93"/>
+      <c r="G106" s="94"/>
       <c r="H106" s="12" t="s">
         <v>54</v>
       </c>
@@ -6252,11 +6256,11 @@
       <c r="B107" s="9">
         <v>87</v>
       </c>
-      <c r="C107" s="104"/>
-      <c r="D107" s="83"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="83"/>
-      <c r="G107" s="84"/>
+      <c r="C107" s="120"/>
+      <c r="D107" s="93"/>
+      <c r="E107" s="93"/>
+      <c r="F107" s="93"/>
+      <c r="G107" s="94"/>
       <c r="H107" s="12" t="s">
         <v>54</v>
       </c>
@@ -6265,11 +6269,11 @@
       <c r="B108" s="27">
         <v>88</v>
       </c>
-      <c r="C108" s="104"/>
-      <c r="D108" s="83"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="84"/>
+      <c r="C108" s="120"/>
+      <c r="D108" s="93"/>
+      <c r="E108" s="93"/>
+      <c r="F108" s="93"/>
+      <c r="G108" s="94"/>
       <c r="H108" s="12" t="s">
         <v>54</v>
       </c>
@@ -6278,11 +6282,11 @@
       <c r="B109" s="9">
         <v>89</v>
       </c>
-      <c r="C109" s="104"/>
-      <c r="D109" s="83"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="83"/>
-      <c r="G109" s="84"/>
+      <c r="C109" s="120"/>
+      <c r="D109" s="93"/>
+      <c r="E109" s="93"/>
+      <c r="F109" s="93"/>
+      <c r="G109" s="94"/>
       <c r="H109" s="12" t="s">
         <v>54</v>
       </c>
@@ -6291,11 +6295,11 @@
       <c r="B110" s="27">
         <v>90</v>
       </c>
-      <c r="C110" s="104"/>
-      <c r="D110" s="83"/>
-      <c r="E110" s="83"/>
-      <c r="F110" s="83"/>
-      <c r="G110" s="84"/>
+      <c r="C110" s="120"/>
+      <c r="D110" s="93"/>
+      <c r="E110" s="93"/>
+      <c r="F110" s="93"/>
+      <c r="G110" s="94"/>
       <c r="H110" s="12" t="s">
         <v>54</v>
       </c>
@@ -6304,11 +6308,11 @@
       <c r="B111" s="9">
         <v>91</v>
       </c>
-      <c r="C111" s="104"/>
-      <c r="D111" s="83"/>
-      <c r="E111" s="83"/>
-      <c r="F111" s="83"/>
-      <c r="G111" s="84"/>
+      <c r="C111" s="120"/>
+      <c r="D111" s="93"/>
+      <c r="E111" s="93"/>
+      <c r="F111" s="93"/>
+      <c r="G111" s="94"/>
       <c r="H111" s="12" t="s">
         <v>54</v>
       </c>
@@ -6317,11 +6321,11 @@
       <c r="B112" s="27">
         <v>92</v>
       </c>
-      <c r="C112" s="104"/>
-      <c r="D112" s="83"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="84"/>
+      <c r="C112" s="120"/>
+      <c r="D112" s="93"/>
+      <c r="E112" s="93"/>
+      <c r="F112" s="93"/>
+      <c r="G112" s="94"/>
       <c r="H112" s="12" t="s">
         <v>54</v>
       </c>
@@ -6330,11 +6334,11 @@
       <c r="B113" s="9">
         <v>93</v>
       </c>
-      <c r="C113" s="104"/>
-      <c r="D113" s="83"/>
-      <c r="E113" s="83"/>
-      <c r="F113" s="83"/>
-      <c r="G113" s="84"/>
+      <c r="C113" s="120"/>
+      <c r="D113" s="93"/>
+      <c r="E113" s="93"/>
+      <c r="F113" s="93"/>
+      <c r="G113" s="94"/>
       <c r="H113" s="12" t="s">
         <v>54</v>
       </c>
@@ -6343,11 +6347,11 @@
       <c r="B114" s="27">
         <v>94</v>
       </c>
-      <c r="C114" s="104"/>
-      <c r="D114" s="83"/>
-      <c r="E114" s="83"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="84"/>
+      <c r="C114" s="120"/>
+      <c r="D114" s="93"/>
+      <c r="E114" s="93"/>
+      <c r="F114" s="93"/>
+      <c r="G114" s="94"/>
       <c r="H114" s="12" t="s">
         <v>54</v>
       </c>
@@ -6356,11 +6360,11 @@
       <c r="B115" s="9">
         <v>95</v>
       </c>
-      <c r="C115" s="104"/>
-      <c r="D115" s="83"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="83"/>
-      <c r="G115" s="84"/>
+      <c r="C115" s="120"/>
+      <c r="D115" s="93"/>
+      <c r="E115" s="93"/>
+      <c r="F115" s="93"/>
+      <c r="G115" s="94"/>
       <c r="H115" s="12" t="s">
         <v>54</v>
       </c>
@@ -6369,11 +6373,11 @@
       <c r="B116" s="27">
         <v>96</v>
       </c>
-      <c r="C116" s="104"/>
-      <c r="D116" s="83"/>
-      <c r="E116" s="83"/>
-      <c r="F116" s="83"/>
-      <c r="G116" s="84"/>
+      <c r="C116" s="120"/>
+      <c r="D116" s="93"/>
+      <c r="E116" s="93"/>
+      <c r="F116" s="93"/>
+      <c r="G116" s="94"/>
       <c r="H116" s="12" t="s">
         <v>54</v>
       </c>
@@ -6382,11 +6386,11 @@
       <c r="B117" s="9">
         <v>97</v>
       </c>
-      <c r="C117" s="104"/>
-      <c r="D117" s="83"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="83"/>
-      <c r="G117" s="84"/>
+      <c r="C117" s="120"/>
+      <c r="D117" s="93"/>
+      <c r="E117" s="93"/>
+      <c r="F117" s="93"/>
+      <c r="G117" s="94"/>
       <c r="H117" s="12" t="s">
         <v>54</v>
       </c>
@@ -6395,11 +6399,11 @@
       <c r="B118" s="27">
         <v>98</v>
       </c>
-      <c r="C118" s="104"/>
-      <c r="D118" s="83"/>
-      <c r="E118" s="83"/>
-      <c r="F118" s="83"/>
-      <c r="G118" s="84"/>
+      <c r="C118" s="120"/>
+      <c r="D118" s="93"/>
+      <c r="E118" s="93"/>
+      <c r="F118" s="93"/>
+      <c r="G118" s="94"/>
       <c r="H118" s="12" t="s">
         <v>54</v>
       </c>
@@ -6408,11 +6412,11 @@
       <c r="B119" s="9">
         <v>99</v>
       </c>
-      <c r="C119" s="104"/>
-      <c r="D119" s="83"/>
-      <c r="E119" s="83"/>
-      <c r="F119" s="83"/>
-      <c r="G119" s="84"/>
+      <c r="C119" s="120"/>
+      <c r="D119" s="93"/>
+      <c r="E119" s="93"/>
+      <c r="F119" s="93"/>
+      <c r="G119" s="94"/>
       <c r="H119" s="12" t="s">
         <v>54</v>
       </c>
@@ -6421,11 +6425,11 @@
       <c r="B120" s="27">
         <v>100</v>
       </c>
-      <c r="C120" s="104"/>
-      <c r="D120" s="83"/>
-      <c r="E120" s="83"/>
-      <c r="F120" s="83"/>
-      <c r="G120" s="84"/>
+      <c r="C120" s="120"/>
+      <c r="D120" s="93"/>
+      <c r="E120" s="93"/>
+      <c r="F120" s="93"/>
+      <c r="G120" s="94"/>
       <c r="H120" s="12" t="s">
         <v>54</v>
       </c>
@@ -7246,7 +7250,7 @@
       </c>
       <c r="C211" s="34"/>
       <c r="D211" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
@@ -8104,50 +8108,53 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
@@ -8172,53 +8179,50 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21:H120" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -8268,85 +8272,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="99"/>
+      <c r="B1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
       <c r="K1" s="2">
         <f>Requisitos!C11</f>
         <v>45170</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="101"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K65" si="0">K1+1</f>
         <v>45171</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="101"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45172</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45173</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="101"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45174</v>
@@ -8360,18 +8364,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="94" t="str">
+      <c r="B7" s="92" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="94"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45176</v>
@@ -8385,18 +8389,18 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="124" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="57" t="s">
         <v>66</v>
-      </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="57" t="s">
-        <v>67</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
@@ -8408,28 +8412,28 @@
         <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="H10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
@@ -8445,10 +8449,10 @@
         <v>45190</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>8</v>
@@ -8486,10 +8490,10 @@
         <v>45190</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>11</v>
@@ -8519,10 +8523,10 @@
         <v>45190</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>14</v>
@@ -8550,7 +8554,7 @@
         <v>45190</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="11">
         <v>13</v>
@@ -8582,7 +8586,7 @@
         <v>45190</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="11">
         <v>13</v>
@@ -8614,7 +8618,7 @@
         <v>45190</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="11">
         <v>13</v>
@@ -8646,7 +8650,7 @@
         <v>45190</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
@@ -8681,7 +8685,7 @@
         <v>45190</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="11">
         <v>1</v>
@@ -8715,7 +8719,7 @@
         <v>45190</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
@@ -8749,7 +8753,7 @@
         <v>45190</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="11">
         <v>1</v>
@@ -8782,7 +8786,7 @@
         <v>45190</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="11">
         <v>1</v>
@@ -8815,7 +8819,7 @@
         <v>45190</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22" s="11">
         <v>1</v>
@@ -8848,7 +8852,7 @@
         <v>45190</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="11">
         <v>13</v>
@@ -8881,7 +8885,7 @@
         <v>45190</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="11">
         <v>1</v>
@@ -8914,7 +8918,7 @@
         <v>45190</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" s="11">
         <v>1</v>
@@ -8946,7 +8950,7 @@
         <v>45190</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="65">
         <v>13</v>
@@ -8964,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="65" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="0"/>
@@ -8979,7 +8983,7 @@
         <v>45190</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" s="11">
         <v>1</v>
@@ -9010,7 +9014,7 @@
         <v>45190</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="11">
         <v>1</v>
@@ -9041,10 +9045,10 @@
         <v>45190</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>14</v>
@@ -9072,10 +9076,10 @@
         <v>45190</v>
       </c>
       <c r="D30" s="69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F30" s="66" t="s">
         <v>8</v>
@@ -9090,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="65" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="0"/>
@@ -9729,7 +9733,7 @@
     </row>
     <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G61" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
@@ -9765,32 +9769,32 @@
       </c>
     </row>
     <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="125" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="83"/>
-      <c r="H63" s="83"/>
-      <c r="I63" s="84"/>
+      <c r="B63" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="93"/>
+      <c r="I63" s="94"/>
       <c r="K63" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
       </c>
     </row>
     <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="126" t="s">
+      <c r="B64" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="93"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="94"/>
+      <c r="H64" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="84"/>
-      <c r="H64" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>19</v>
@@ -9801,15 +9805,15 @@
       </c>
     </row>
     <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="124" t="str">
+      <c r="B65" s="123" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="84"/>
+      <c r="C65" s="93"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="94"/>
       <c r="H65" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B10,H$11:H$60)</f>
         <v>0</v>
@@ -9824,15 +9828,15 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="124" t="str">
+      <c r="B66" s="123" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="84"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="94"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -9847,15 +9851,15 @@
       </c>
     </row>
     <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="124" t="str">
+      <c r="B67" s="123" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="84"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="94"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -9870,15 +9874,15 @@
       </c>
     </row>
     <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="124" t="str">
+      <c r="B68" s="123" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Maria Eduarda Amaral</v>
       </c>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="84"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="94"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -9893,15 +9897,15 @@
       </c>
     </row>
     <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="124" t="str">
+      <c r="B69" s="123" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C69" s="83"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="83"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="84"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="93"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="94"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -9916,15 +9920,15 @@
       </c>
     </row>
     <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="124" t="str">
+      <c r="B70" s="123" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C70" s="83"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="84"/>
+      <c r="C70" s="93"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="93"/>
+      <c r="G70" s="94"/>
       <c r="H70" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -11073,85 +11077,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="99"/>
+      <c r="B1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
       <c r="K1" s="2">
         <f>Requisitos!C12</f>
         <v>45191</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="101"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45192</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="101"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45193</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45194</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="101"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45195</v>
@@ -11165,18 +11169,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="94" t="str">
+      <c r="B7" s="92" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="94"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45197</v>
@@ -11190,18 +11194,18 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="125" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
+      <c r="B9" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="94"/>
       <c r="J9" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
@@ -11213,28 +11217,28 @@
         <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
@@ -11250,10 +11254,10 @@
         <v>45204</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>8</v>
@@ -11268,7 +11272,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
@@ -11293,10 +11297,10 @@
         <v>45204</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>8</v>
@@ -11324,7 +11328,7 @@
         <v>45204</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="11">
         <v>2</v>
@@ -11355,7 +11359,7 @@
         <v>45204</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="11">
         <v>2</v>
@@ -11386,7 +11390,7 @@
         <v>45204</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="11">
         <v>2</v>
@@ -11414,7 +11418,7 @@
         <v>45204</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="11">
         <v>3</v>
@@ -11442,7 +11446,7 @@
         <v>45204</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" s="11">
         <v>3</v>
@@ -11470,7 +11474,7 @@
         <v>45204</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="11">
         <v>3</v>
@@ -11498,7 +11502,7 @@
         <v>45204</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" s="11">
         <v>2</v>
@@ -11526,7 +11530,7 @@
         <v>45204</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" s="11">
         <v>2</v>
@@ -11554,7 +11558,7 @@
         <v>45204</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21" s="11">
         <v>3</v>
@@ -11582,7 +11586,7 @@
         <v>45204</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" s="11">
         <v>3</v>
@@ -11610,7 +11614,7 @@
         <v>45204</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23" s="11">
         <v>2</v>
@@ -11638,7 +11642,7 @@
         <v>45204</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24" s="12">
         <v>3</v>
@@ -11666,10 +11670,10 @@
         <v>45197</v>
       </c>
       <c r="D25" s="66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" s="66" t="s">
         <v>13</v>
@@ -11684,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="65" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K25" s="2"/>
     </row>
@@ -11696,10 +11700,10 @@
         <v>45197</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>10</v>
@@ -11714,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K26" s="2"/>
     </row>
@@ -11726,13 +11730,13 @@
         <v>45197</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G27" s="41" t="s">
         <v>37</v>
@@ -11744,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K27" s="2"/>
     </row>
@@ -11756,7 +11760,7 @@
         <v>45204</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" s="12">
         <v>13</v>
@@ -11774,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K28" s="2"/>
     </row>
@@ -11786,7 +11790,7 @@
         <v>45204</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" s="11">
         <v>2</v>
@@ -11813,7 +11817,7 @@
         <v>45204</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" s="11">
         <v>13</v>
@@ -11840,7 +11844,7 @@
         <v>45204</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E31" s="11">
         <v>1</v>
@@ -11867,7 +11871,7 @@
         <v>45204</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" s="11">
         <v>1</v>
@@ -11894,7 +11898,7 @@
         <v>45204</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" s="11">
         <v>1</v>
@@ -11921,7 +11925,7 @@
         <v>45204</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="11">
         <v>1</v>
@@ -12537,7 +12541,7 @@
     </row>
     <row r="70" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G70" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H70" s="32">
         <f t="shared" ref="H70:I70" si="1">SUM(H11:H60)</f>
@@ -12565,43 +12569,43 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="125" t="s">
+      <c r="B72" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="93"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="93"/>
+      <c r="I72" s="94"/>
+    </row>
+    <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="83"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="83"/>
-      <c r="I72" s="84"/>
-    </row>
-    <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="126" t="s">
+      <c r="C73" s="93"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="84"/>
-      <c r="H73" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="124" t="str">
+      <c r="B74" s="123" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="84"/>
+      <c r="C74" s="93"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="93"/>
+      <c r="G74" s="94"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -12612,15 +12616,15 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="124" t="str">
+      <c r="B75" s="123" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="83"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="83"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="84"/>
+      <c r="C75" s="93"/>
+      <c r="D75" s="93"/>
+      <c r="E75" s="93"/>
+      <c r="F75" s="93"/>
+      <c r="G75" s="94"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -12631,15 +12635,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="124" t="str">
+      <c r="B76" s="123" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="83"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="84"/>
+      <c r="C76" s="93"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="94"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -12650,15 +12654,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="124" t="str">
+      <c r="B77" s="123" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="84"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="94"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -12669,15 +12673,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="124" t="str">
+      <c r="B78" s="123" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="83"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="84"/>
+      <c r="C78" s="93"/>
+      <c r="D78" s="93"/>
+      <c r="E78" s="93"/>
+      <c r="F78" s="93"/>
+      <c r="G78" s="94"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -13928,85 +13932,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="99"/>
+      <c r="B1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
       <c r="K1" s="2">
         <f>Requisitos!C13</f>
         <v>45205</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="101"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K22" si="0">K1+1</f>
         <v>45206</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="101"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45208</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="101"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45209</v>
@@ -14020,18 +14024,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="94" t="str">
+      <c r="B7" s="92" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="94"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45211</v>
@@ -14045,18 +14049,18 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="125" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
+      <c r="B9" s="124" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="94"/>
       <c r="J9" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
@@ -14068,28 +14072,28 @@
         <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
@@ -14105,10 +14109,10 @@
         <v>45217</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>10</v>
@@ -14146,10 +14150,10 @@
         <v>45217</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>11</v>
@@ -14177,10 +14181,10 @@
         <v>45217</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>13</v>
@@ -14208,10 +14212,10 @@
         <v>45224</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>12</v>
@@ -14239,7 +14243,7 @@
         <v>45224</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15" s="11">
         <v>7</v>
@@ -14270,7 +14274,7 @@
         <v>45224</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E16" s="11">
         <v>9</v>
@@ -14294,7 +14298,7 @@
         <v>45224</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" s="11">
         <v>7</v>
@@ -14325,7 +14329,7 @@
         <v>45224</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" s="12">
         <v>7</v>
@@ -14356,7 +14360,7 @@
         <v>45224</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" s="12">
         <v>9</v>
@@ -14387,7 +14391,7 @@
         <v>45224</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="12">
         <v>9</v>
@@ -14418,7 +14422,7 @@
         <v>45224</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E21" s="12">
         <v>7</v>
@@ -14449,7 +14453,7 @@
         <v>45224</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" s="12">
         <v>9</v>
@@ -14480,10 +14484,10 @@
         <v>45224</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E23" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F23" s="66" t="s">
         <v>13</v>
@@ -14498,7 +14502,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="65" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K23" s="2"/>
     </row>
@@ -14510,10 +14514,10 @@
         <v>45224</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E24" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" s="66" t="s">
         <v>13</v>
@@ -14528,10 +14532,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="K24" s="127"/>
-      <c r="O24" s="128"/>
+        <v>164</v>
+      </c>
+      <c r="K24" s="80"/>
+      <c r="O24" s="81"/>
     </row>
     <row r="25" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="9">
@@ -14541,10 +14545,10 @@
         <v>45224</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>11</v>
@@ -14569,10 +14573,10 @@
         <v>45224</v>
       </c>
       <c r="D26" s="66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F26" s="66" t="s">
         <v>10</v>
@@ -14587,7 +14591,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="65" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K26" s="2"/>
     </row>
@@ -14599,10 +14603,10 @@
         <v>45224</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>8</v>
@@ -14627,10 +14631,10 @@
         <v>45224</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>11</v>
@@ -15364,7 +15368,7 @@
     </row>
     <row r="71" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G71" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H71" s="32">
         <f t="shared" ref="H71:I71" si="1">SUM(H11:H61)</f>
@@ -15392,43 +15396,43 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="125" t="s">
+      <c r="B73" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="93"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="93"/>
+      <c r="I73" s="94"/>
+    </row>
+    <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="84"/>
-    </row>
-    <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="126" t="s">
+      <c r="C74" s="93"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="93"/>
+      <c r="G74" s="94"/>
+      <c r="H74" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="84"/>
-      <c r="H74" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="124" t="str">
+      <c r="B75" s="123" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C75" s="83"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="83"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="84"/>
+      <c r="C75" s="93"/>
+      <c r="D75" s="93"/>
+      <c r="E75" s="93"/>
+      <c r="F75" s="93"/>
+      <c r="G75" s="94"/>
       <c r="H75" s="33">
         <f>SUMIF($F$11:$F$61,'Dados do Projeto'!$B10,H$11:H$61)</f>
         <v>0</v>
@@ -15439,15 +15443,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="124" t="str">
+      <c r="B76" s="123" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C76" s="83"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="84"/>
+      <c r="C76" s="93"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="94"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B11,H$11:H$61)</f>
         <v>0</v>
@@ -15458,15 +15462,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="124" t="str">
+      <c r="B77" s="123" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="84"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="94"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B12,H$11:H$61)</f>
         <v>0</v>
@@ -15477,15 +15481,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="124" t="str">
+      <c r="B78" s="123" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C78" s="83"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="84"/>
+      <c r="C78" s="93"/>
+      <c r="D78" s="93"/>
+      <c r="E78" s="93"/>
+      <c r="F78" s="93"/>
+      <c r="G78" s="94"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B14,H$11:H$61)</f>
         <v>0</v>
@@ -15496,15 +15500,15 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="124" t="str">
+      <c r="B79" s="123" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C79" s="83"/>
-      <c r="D79" s="83"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="84"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="93"/>
+      <c r="E79" s="93"/>
+      <c r="F79" s="93"/>
+      <c r="G79" s="94"/>
       <c r="H79" s="33">
         <f>SUMIF(F$11:F$61,'Dados do Projeto'!B15,H$11:H$61)</f>
         <v>0</v>
@@ -16528,6 +16532,12 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B79:G79"/>
     <mergeCell ref="B9:I9"/>
@@ -16536,12 +16546,6 @@
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
     <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:C70">
     <cfRule type="expression" dxfId="71" priority="31">
@@ -16680,8 +16684,8 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16702,85 +16706,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="99"/>
+      <c r="B1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
       <c r="K1" s="2">
         <f>Requisitos!C14</f>
         <v>45226</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="101"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45227</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="101"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45229</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="101"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45230</v>
@@ -16794,18 +16798,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="94" t="str">
+      <c r="B7" s="92" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="94"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -16819,18 +16823,18 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="125" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
+      <c r="B9" s="124" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="94"/>
       <c r="J9" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
@@ -16842,28 +16846,28 @@
         <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="F10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
@@ -16879,10 +16883,10 @@
         <v>45239</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>8</v>
@@ -16920,10 +16924,10 @@
         <v>45239</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>11</v>
@@ -16951,10 +16955,10 @@
         <v>45239</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>11</v>
@@ -16982,10 +16986,10 @@
         <v>45239</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>12</v>
@@ -17013,10 +17017,10 @@
         <v>45246</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>8</v>
@@ -17044,7 +17048,7 @@
         <v>45246</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E16" s="11">
         <v>4</v>
@@ -17075,7 +17079,7 @@
         <v>45246</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E17" s="12">
         <v>4</v>
@@ -17106,7 +17110,7 @@
         <v>45246</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E18" s="12">
         <v>4</v>
@@ -17137,7 +17141,7 @@
         <v>45246</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E19" s="12">
         <v>8</v>
@@ -17168,7 +17172,7 @@
         <v>45246</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E20" s="12">
         <v>8</v>
@@ -17199,10 +17203,10 @@
         <v>45246</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>162</v>
+        <v>168</v>
+      </c>
+      <c r="E21" s="12">
+        <v>11</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>11</v>
@@ -17230,10 +17234,10 @@
         <v>45246</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="E22" s="12">
+        <v>11</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>11</v>
@@ -17258,10 +17262,10 @@
         <v>45246</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>162</v>
+        <v>170</v>
+      </c>
+      <c r="E23" s="12">
+        <v>11</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>11</v>
@@ -17286,7 +17290,7 @@
         <v>45246</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E24" s="12">
         <v>4</v>
@@ -17314,7 +17318,7 @@
         <v>45246</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E25" s="12">
         <v>4</v>
@@ -17342,7 +17346,7 @@
         <v>45246</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E26" s="12">
         <v>4</v>
@@ -17370,10 +17374,10 @@
         <v>45246</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>162</v>
+        <v>171</v>
+      </c>
+      <c r="E27" s="12">
+        <v>11</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>8</v>
@@ -17398,10 +17402,10 @@
         <v>45246</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>162</v>
+        <v>172</v>
+      </c>
+      <c r="E28" s="12">
+        <v>11</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>8</v>
@@ -17426,10 +17430,10 @@
         <v>45246</v>
       </c>
       <c r="D29" s="71" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E29" s="71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F29" s="77" t="s">
         <v>13</v>
@@ -17444,7 +17448,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="71" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="2:11" s="74" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17455,10 +17459,10 @@
         <v>45246</v>
       </c>
       <c r="D30" s="77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E30" s="71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F30" s="77" t="s">
         <v>10</v>
@@ -17473,7 +17477,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="71" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17484,10 +17488,10 @@
         <v>45246</v>
       </c>
       <c r="D31" s="71" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E31" s="71" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F31" s="77" t="s">
         <v>8</v>
@@ -17511,10 +17515,10 @@
         <v>45246</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>14</v>
@@ -17529,7 +17533,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -18163,7 +18167,7 @@
     </row>
     <row r="70" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G70" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H70" s="32">
         <f t="shared" ref="H70:I70" si="1">SUM(H11:H60)</f>
@@ -18191,43 +18195,43 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="125" t="s">
+      <c r="B72" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="93"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="93"/>
+      <c r="I72" s="94"/>
+    </row>
+    <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="83"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="83"/>
-      <c r="I72" s="84"/>
-    </row>
-    <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="126" t="s">
+      <c r="C73" s="93"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="84"/>
-      <c r="H73" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="124" t="str">
+      <c r="B74" s="123" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="84"/>
+      <c r="C74" s="93"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="93"/>
+      <c r="G74" s="94"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -18238,15 +18242,15 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="124" t="str">
+      <c r="B75" s="123" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="83"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="83"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="84"/>
+      <c r="C75" s="93"/>
+      <c r="D75" s="93"/>
+      <c r="E75" s="93"/>
+      <c r="F75" s="93"/>
+      <c r="G75" s="94"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -18257,15 +18261,15 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="124" t="str">
+      <c r="B76" s="123" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="83"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="84"/>
+      <c r="C76" s="93"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="94"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -18276,15 +18280,15 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="124" t="str">
+      <c r="B77" s="123" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="84"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="94"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -18295,15 +18299,15 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="124" t="str">
+      <c r="B78" s="123" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="83"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="84"/>
+      <c r="C78" s="93"/>
+      <c r="D78" s="93"/>
+      <c r="E78" s="93"/>
+      <c r="F78" s="93"/>
+      <c r="G78" s="94"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -19327,6 +19331,12 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -19335,12 +19345,6 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F33:F69">
     <cfRule type="expression" dxfId="51" priority="25">
@@ -19469,85 +19473,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="99"/>
+      <c r="B1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
       <c r="K1" s="2">
         <f>Requisitos!C15</f>
         <v>45247</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="101"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45248</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="101"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45249</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45250</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="101"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45251</v>
@@ -19560,18 +19564,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="94" t="str">
+      <c r="B7" s="92" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="94"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45253</v>
@@ -19584,18 +19588,18 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="125" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
+      <c r="B9" s="124" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="94"/>
       <c r="J9" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
@@ -19607,28 +19611,28 @@
         <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="35" t="s">
         <v>74</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>75</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
@@ -20528,7 +20532,7 @@
     </row>
     <row r="61" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G61" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
@@ -20554,43 +20558,43 @@
       </c>
     </row>
     <row r="63" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="125" t="s">
+      <c r="B63" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="93"/>
+      <c r="I63" s="94"/>
+    </row>
+    <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="83"/>
-      <c r="H63" s="83"/>
-      <c r="I63" s="84"/>
-    </row>
-    <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="126" t="s">
+      <c r="C64" s="93"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="94"/>
+      <c r="H64" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="84"/>
-      <c r="H64" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="124" t="str">
+      <c r="B65" s="123" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="84"/>
+      <c r="C65" s="93"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="94"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -20601,15 +20605,15 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="124" t="str">
+      <c r="B66" s="123" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="84"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="94"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -20620,15 +20624,15 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="124" t="str">
+      <c r="B67" s="123" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="84"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="94"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -20639,15 +20643,15 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="124" t="str">
+      <c r="B68" s="123" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="84"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="94"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -20658,15 +20662,15 @@
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="124" t="str">
+      <c r="B69" s="123" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C69" s="83"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="83"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="84"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="93"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="94"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -21629,6 +21633,12 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="B9:I9"/>
@@ -21637,12 +21647,6 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F13 F17">
     <cfRule type="containsBlanks" dxfId="37" priority="1">

--- a/Artefatos/sprints/Planejamento_sprints.xlsx
+++ b/Artefatos/sprints/Planejamento_sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorios_github\plf-es-2023-2-ti3-6653100-fabrica-do-saber\Artefatos\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA4D14D-67C8-470B-A0EA-B28875E8B502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80B27C7-78EB-471A-BE14-D6AC8380A759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="174">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -865,9 +865,6 @@
   <si>
     <t>Ajudante: Vitor Lagares
 Tarefa nao concluida, movida para sprint 3</t>
-  </si>
-  <si>
-    <t>Tarefa transferida para o Vitor</t>
   </si>
   <si>
     <t>Receita model</t>
@@ -1541,35 +1538,22 @@
     </xf>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1579,19 +1563,74 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1608,15 +1647,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1626,24 +1656,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1652,21 +1664,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -3322,166 +3319,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="103"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="105"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="105"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="97"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="97"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="97" t="s">
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="92"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="97" t="s">
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="97" t="s">
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="99"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="92"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="97" t="s">
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="98"/>
-      <c r="H13" s="99"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="97" t="s">
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="97" t="s">
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="18"/>
@@ -3583,16 +3580,16 @@
     <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="50"/>
-      <c r="B100" s="101"/>
-      <c r="C100" s="86"/>
-      <c r="D100" s="102" t="s">
+      <c r="B100" s="93"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="86"/>
-      <c r="F100" s="102" t="s">
+      <c r="E100" s="85"/>
+      <c r="F100" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="86"/>
+      <c r="G100" s="85"/>
       <c r="H100" s="51" t="s">
         <v>18</v>
       </c>
@@ -3614,12 +3611,12 @@
     </row>
     <row r="101" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
-      <c r="B101" s="104"/>
-      <c r="C101" s="86"/>
-      <c r="D101" s="103" t="s">
+      <c r="B101" s="84"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="86"/>
+      <c r="E101" s="85"/>
       <c r="F101" s="53" t="s">
         <v>24</v>
       </c>
@@ -3652,12 +3649,12 @@
     </row>
     <row r="102" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="50"/>
-      <c r="B102" s="104"/>
-      <c r="C102" s="86"/>
-      <c r="D102" s="103" t="s">
+      <c r="B102" s="84"/>
+      <c r="C102" s="85"/>
+      <c r="D102" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="86"/>
+      <c r="E102" s="85"/>
       <c r="F102" s="53" t="s">
         <v>29</v>
       </c>
@@ -3691,12 +3688,12 @@
     </row>
     <row r="103" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="50"/>
-      <c r="B103" s="104"/>
-      <c r="C103" s="86"/>
-      <c r="D103" s="103" t="s">
+      <c r="B103" s="84"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="86"/>
+      <c r="E103" s="85"/>
       <c r="F103" s="53"/>
       <c r="G103" s="54" t="s">
         <v>34</v>
@@ -3728,12 +3725,12 @@
     </row>
     <row r="104" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="50"/>
-      <c r="B104" s="104"/>
-      <c r="C104" s="86"/>
-      <c r="D104" s="103" t="s">
+      <c r="B104" s="84"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="86"/>
+      <c r="E104" s="85"/>
       <c r="F104" s="53"/>
       <c r="G104" s="54" t="s">
         <v>36</v>
@@ -3763,12 +3760,12 @@
     </row>
     <row r="105" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="50"/>
-      <c r="B105" s="104"/>
-      <c r="C105" s="86"/>
-      <c r="D105" s="103" t="s">
+      <c r="B105" s="84"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="86"/>
+      <c r="E105" s="85"/>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="s">
         <v>39</v>
@@ -3793,8 +3790,8 @@
     </row>
     <row r="106" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="50"/>
-      <c r="B106" s="104"/>
-      <c r="C106" s="86"/>
+      <c r="B106" s="84"/>
+      <c r="C106" s="85"/>
       <c r="F106" s="53"/>
       <c r="G106" s="54"/>
       <c r="H106" s="53"/>
@@ -3805,8 +3802,8 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="50"/>
-      <c r="B107" s="104"/>
-      <c r="C107" s="86"/>
+      <c r="B107" s="84"/>
+      <c r="C107" s="85"/>
       <c r="D107" s="55"/>
       <c r="E107" s="53"/>
       <c r="F107" s="53"/>
@@ -4774,12 +4771,24 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="D100:E100"/>
@@ -4791,24 +4800,12 @@
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D105:E105"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="F10:F15" xr:uid="{49EDF03A-7EFB-435C-A992-40D98DE85B41}">
@@ -4834,7 +4831,7 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32:L33"/>
+      <selection activeCell="C31" sqref="C31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4851,59 +4848,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="103"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="105"/>
     </row>
     <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="105"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="97"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="97"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -4915,16 +4912,16 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="114" t="str">
+      <c r="B7" s="125" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -4936,15 +4933,15 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
@@ -4956,11 +4953,11 @@
       <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="116" t="s">
+      <c r="E10" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="88"/>
       <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
@@ -4975,9 +4972,9 @@
       <c r="D11" s="14">
         <v>45190</v>
       </c>
-      <c r="E11" s="106"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="94"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="88"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4991,9 +4988,9 @@
         <f t="shared" ref="D12" si="0">C12+13</f>
         <v>45204</v>
       </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5007,9 +5004,9 @@
       <c r="D13" s="14">
         <v>45225</v>
       </c>
-      <c r="E13" s="106"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="88"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5022,9 +5019,9 @@
       <c r="D14" s="14">
         <v>45246</v>
       </c>
-      <c r="E14" s="107"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5063,13 +5060,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
       <c r="H18" s="22" t="s">
         <v>47</v>
       </c>
@@ -5078,11 +5075,11 @@
       <c r="B19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="94"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="88"/>
       <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
@@ -5092,11 +5089,11 @@
       <c r="B20" s="27">
         <v>0</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="94"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="88"/>
       <c r="H20" s="28"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -5113,13 +5110,13 @@
       <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="113"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="111"/>
       <c r="H21" s="61" t="s">
         <v>50</v>
       </c>
@@ -5129,13 +5126,13 @@
       <c r="B22" s="27">
         <v>2</v>
       </c>
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="113"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="111"/>
       <c r="H22" s="61" t="s">
         <v>50</v>
       </c>
@@ -5144,13 +5141,13 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="111" t="s">
+      <c r="C23" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="111"/>
       <c r="H23" s="61" t="s">
         <v>50</v>
       </c>
@@ -5159,13 +5156,13 @@
       <c r="B24" s="27">
         <v>4</v>
       </c>
-      <c r="C24" s="117" t="s">
+      <c r="C24" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="119"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="116"/>
       <c r="H24" s="62" t="s">
         <v>54</v>
       </c>
@@ -5174,13 +5171,13 @@
       <c r="B25" s="9">
         <v>5</v>
       </c>
-      <c r="C25" s="120" t="s">
+      <c r="C25" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="122"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="113"/>
       <c r="H25" s="12" t="s">
         <v>54</v>
       </c>
@@ -5189,13 +5186,13 @@
       <c r="B26" s="27">
         <v>6</v>
       </c>
-      <c r="C26" s="120" t="s">
+      <c r="C26" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="122"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="113"/>
       <c r="H26" s="12" t="s">
         <v>54</v>
       </c>
@@ -5204,13 +5201,13 @@
       <c r="B27" s="9">
         <v>7</v>
       </c>
-      <c r="C27" s="111" t="s">
+      <c r="C27" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="113"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="111"/>
       <c r="H27" s="61" t="s">
         <v>50</v>
       </c>
@@ -5219,13 +5216,13 @@
       <c r="B28" s="27">
         <v>8</v>
       </c>
-      <c r="C28" s="117" t="s">
+      <c r="C28" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="119"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="116"/>
       <c r="H28" s="62" t="s">
         <v>54</v>
       </c>
@@ -5234,13 +5231,13 @@
       <c r="B29" s="9">
         <v>9</v>
       </c>
-      <c r="C29" s="111" t="s">
+      <c r="C29" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="111"/>
       <c r="H29" s="61" t="s">
         <v>58</v>
       </c>
@@ -5249,14 +5246,14 @@
       <c r="B30" s="27">
         <v>10</v>
       </c>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="130" t="s">
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="83" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5264,14 +5261,14 @@
       <c r="B31" s="9">
         <v>11</v>
       </c>
-      <c r="C31" s="117" t="s">
+      <c r="C31" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="126" t="s">
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="82" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5279,13 +5276,13 @@
       <c r="B32" s="27">
         <v>12</v>
       </c>
-      <c r="C32" s="111" t="s">
+      <c r="C32" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="113"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="111"/>
       <c r="H32" s="61" t="s">
         <v>50</v>
       </c>
@@ -5294,11 +5291,11 @@
       <c r="B33" s="9">
         <v>13</v>
       </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="122"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="113"/>
       <c r="H33" s="12" t="s">
         <v>54</v>
       </c>
@@ -5307,11 +5304,11 @@
       <c r="B34" s="27">
         <v>14</v>
       </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="122"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="113"/>
       <c r="H34" s="12" t="s">
         <v>54</v>
       </c>
@@ -5320,11 +5317,11 @@
       <c r="B35" s="9">
         <v>15</v>
       </c>
-      <c r="C35" s="120"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="122"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="113"/>
       <c r="H35" s="12" t="s">
         <v>54</v>
       </c>
@@ -5333,11 +5330,11 @@
       <c r="B36" s="27">
         <v>16</v>
       </c>
-      <c r="C36" s="120"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="94"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="88"/>
       <c r="H36" s="12" t="s">
         <v>54</v>
       </c>
@@ -5346,11 +5343,11 @@
       <c r="B37" s="9">
         <v>17</v>
       </c>
-      <c r="C37" s="120"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="94"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="88"/>
       <c r="H37" s="12" t="s">
         <v>54</v>
       </c>
@@ -5359,11 +5356,11 @@
       <c r="B38" s="27">
         <v>18</v>
       </c>
-      <c r="C38" s="120"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="94"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="88"/>
       <c r="H38" s="12" t="s">
         <v>54</v>
       </c>
@@ -5372,11 +5369,11 @@
       <c r="B39" s="9">
         <v>19</v>
       </c>
-      <c r="C39" s="120"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="94"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="88"/>
       <c r="H39" s="12" t="s">
         <v>54</v>
       </c>
@@ -5385,11 +5382,11 @@
       <c r="B40" s="27">
         <v>20</v>
       </c>
-      <c r="C40" s="120"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="94"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="88"/>
       <c r="H40" s="12" t="s">
         <v>54</v>
       </c>
@@ -5398,11 +5395,11 @@
       <c r="B41" s="9">
         <v>21</v>
       </c>
-      <c r="C41" s="120"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="94"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="88"/>
       <c r="H41" s="12" t="s">
         <v>54</v>
       </c>
@@ -5411,11 +5408,11 @@
       <c r="B42" s="27">
         <v>22</v>
       </c>
-      <c r="C42" s="120"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="94"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="88"/>
       <c r="H42" s="12" t="s">
         <v>54</v>
       </c>
@@ -5424,11 +5421,11 @@
       <c r="B43" s="9">
         <v>23</v>
       </c>
-      <c r="C43" s="120"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="94"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="88"/>
       <c r="H43" s="12" t="s">
         <v>54</v>
       </c>
@@ -5437,11 +5434,11 @@
       <c r="B44" s="27">
         <v>24</v>
       </c>
-      <c r="C44" s="120"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="94"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="88"/>
       <c r="H44" s="12" t="s">
         <v>54</v>
       </c>
@@ -5450,11 +5447,11 @@
       <c r="B45" s="9">
         <v>25</v>
       </c>
-      <c r="C45" s="120"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="94"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="88"/>
       <c r="H45" s="12" t="s">
         <v>54</v>
       </c>
@@ -5463,11 +5460,11 @@
       <c r="B46" s="27">
         <v>26</v>
       </c>
-      <c r="C46" s="120"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="94"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="88"/>
       <c r="H46" s="12" t="s">
         <v>54</v>
       </c>
@@ -5476,11 +5473,11 @@
       <c r="B47" s="9">
         <v>27</v>
       </c>
-      <c r="C47" s="120"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="94"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="88"/>
       <c r="H47" s="12" t="s">
         <v>54</v>
       </c>
@@ -5489,11 +5486,11 @@
       <c r="B48" s="27">
         <v>28</v>
       </c>
-      <c r="C48" s="120"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="94"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="88"/>
       <c r="H48" s="12" t="s">
         <v>54</v>
       </c>
@@ -5502,11 +5499,11 @@
       <c r="B49" s="9">
         <v>29</v>
       </c>
-      <c r="C49" s="120"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="94"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="88"/>
       <c r="H49" s="12" t="s">
         <v>54</v>
       </c>
@@ -5515,11 +5512,11 @@
       <c r="B50" s="27">
         <v>30</v>
       </c>
-      <c r="C50" s="120"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="94"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="88"/>
       <c r="H50" s="12" t="s">
         <v>54</v>
       </c>
@@ -5528,11 +5525,11 @@
       <c r="B51" s="9">
         <v>31</v>
       </c>
-      <c r="C51" s="120"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="94"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="88"/>
       <c r="H51" s="12" t="s">
         <v>54</v>
       </c>
@@ -5541,11 +5538,11 @@
       <c r="B52" s="27">
         <v>32</v>
       </c>
-      <c r="C52" s="120"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="94"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="88"/>
       <c r="H52" s="12" t="s">
         <v>54</v>
       </c>
@@ -5554,11 +5551,11 @@
       <c r="B53" s="9">
         <v>33</v>
       </c>
-      <c r="C53" s="120"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="94"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="88"/>
       <c r="H53" s="12" t="s">
         <v>54</v>
       </c>
@@ -5567,11 +5564,11 @@
       <c r="B54" s="27">
         <v>34</v>
       </c>
-      <c r="C54" s="120"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
-      <c r="G54" s="94"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="88"/>
       <c r="H54" s="12" t="s">
         <v>54</v>
       </c>
@@ -5580,11 +5577,11 @@
       <c r="B55" s="9">
         <v>35</v>
       </c>
-      <c r="C55" s="120"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="93"/>
-      <c r="G55" s="94"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="88"/>
       <c r="H55" s="12" t="s">
         <v>54</v>
       </c>
@@ -5593,11 +5590,11 @@
       <c r="B56" s="27">
         <v>36</v>
       </c>
-      <c r="C56" s="120"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="93"/>
-      <c r="G56" s="94"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="88"/>
       <c r="H56" s="12" t="s">
         <v>54</v>
       </c>
@@ -5606,11 +5603,11 @@
       <c r="B57" s="9">
         <v>37</v>
       </c>
-      <c r="C57" s="120"/>
-      <c r="D57" s="93"/>
-      <c r="E57" s="93"/>
-      <c r="F57" s="93"/>
-      <c r="G57" s="94"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="88"/>
       <c r="H57" s="12" t="s">
         <v>54</v>
       </c>
@@ -5619,11 +5616,11 @@
       <c r="B58" s="27">
         <v>38</v>
       </c>
-      <c r="C58" s="120"/>
-      <c r="D58" s="93"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="94"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="88"/>
       <c r="H58" s="12" t="s">
         <v>54</v>
       </c>
@@ -5632,11 +5629,11 @@
       <c r="B59" s="9">
         <v>39</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="93"/>
-      <c r="G59" s="94"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="88"/>
       <c r="H59" s="12" t="s">
         <v>54</v>
       </c>
@@ -5645,11 +5642,11 @@
       <c r="B60" s="27">
         <v>40</v>
       </c>
-      <c r="C60" s="120"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="93"/>
-      <c r="F60" s="93"/>
-      <c r="G60" s="94"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="88"/>
       <c r="H60" s="12" t="s">
         <v>54</v>
       </c>
@@ -5658,11 +5655,11 @@
       <c r="B61" s="9">
         <v>41</v>
       </c>
-      <c r="C61" s="120"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="93"/>
-      <c r="F61" s="93"/>
-      <c r="G61" s="94"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="88"/>
       <c r="H61" s="12" t="s">
         <v>54</v>
       </c>
@@ -5671,11 +5668,11 @@
       <c r="B62" s="27">
         <v>42</v>
       </c>
-      <c r="C62" s="120"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="93"/>
-      <c r="G62" s="94"/>
+      <c r="C62" s="108"/>
+      <c r="D62" s="87"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="88"/>
       <c r="H62" s="12" t="s">
         <v>54</v>
       </c>
@@ -5684,11 +5681,11 @@
       <c r="B63" s="9">
         <v>43</v>
       </c>
-      <c r="C63" s="120"/>
-      <c r="D63" s="93"/>
-      <c r="E63" s="93"/>
-      <c r="F63" s="93"/>
-      <c r="G63" s="94"/>
+      <c r="C63" s="108"/>
+      <c r="D63" s="87"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="87"/>
+      <c r="G63" s="88"/>
       <c r="H63" s="12" t="s">
         <v>54</v>
       </c>
@@ -5697,11 +5694,11 @@
       <c r="B64" s="27">
         <v>44</v>
       </c>
-      <c r="C64" s="120"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="94"/>
+      <c r="C64" s="108"/>
+      <c r="D64" s="87"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="88"/>
       <c r="H64" s="12" t="s">
         <v>54</v>
       </c>
@@ -5710,11 +5707,11 @@
       <c r="B65" s="9">
         <v>45</v>
       </c>
-      <c r="C65" s="120"/>
-      <c r="D65" s="93"/>
-      <c r="E65" s="93"/>
-      <c r="F65" s="93"/>
-      <c r="G65" s="94"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="87"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="87"/>
+      <c r="G65" s="88"/>
       <c r="H65" s="12" t="s">
         <v>54</v>
       </c>
@@ -5723,11 +5720,11 @@
       <c r="B66" s="27">
         <v>46</v>
       </c>
-      <c r="C66" s="120"/>
-      <c r="D66" s="93"/>
-      <c r="E66" s="93"/>
-      <c r="F66" s="93"/>
-      <c r="G66" s="94"/>
+      <c r="C66" s="108"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="87"/>
+      <c r="G66" s="88"/>
       <c r="H66" s="12" t="s">
         <v>54</v>
       </c>
@@ -5736,11 +5733,11 @@
       <c r="B67" s="9">
         <v>47</v>
       </c>
-      <c r="C67" s="120"/>
-      <c r="D67" s="93"/>
-      <c r="E67" s="93"/>
-      <c r="F67" s="93"/>
-      <c r="G67" s="94"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
+      <c r="G67" s="88"/>
       <c r="H67" s="12" t="s">
         <v>54</v>
       </c>
@@ -5749,11 +5746,11 @@
       <c r="B68" s="27">
         <v>48</v>
       </c>
-      <c r="C68" s="120"/>
-      <c r="D68" s="93"/>
-      <c r="E68" s="93"/>
-      <c r="F68" s="93"/>
-      <c r="G68" s="94"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="87"/>
+      <c r="G68" s="88"/>
       <c r="H68" s="12" t="s">
         <v>54</v>
       </c>
@@ -5762,11 +5759,11 @@
       <c r="B69" s="9">
         <v>49</v>
       </c>
-      <c r="C69" s="120"/>
-      <c r="D69" s="93"/>
-      <c r="E69" s="93"/>
-      <c r="F69" s="93"/>
-      <c r="G69" s="94"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="87"/>
+      <c r="G69" s="88"/>
       <c r="H69" s="12" t="s">
         <v>54</v>
       </c>
@@ -5775,11 +5772,11 @@
       <c r="B70" s="27">
         <v>50</v>
       </c>
-      <c r="C70" s="120"/>
-      <c r="D70" s="93"/>
-      <c r="E70" s="93"/>
-      <c r="F70" s="93"/>
-      <c r="G70" s="94"/>
+      <c r="C70" s="108"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="87"/>
+      <c r="G70" s="88"/>
       <c r="H70" s="12" t="s">
         <v>54</v>
       </c>
@@ -5788,11 +5785,11 @@
       <c r="B71" s="9">
         <v>51</v>
       </c>
-      <c r="C71" s="120"/>
-      <c r="D71" s="93"/>
-      <c r="E71" s="93"/>
-      <c r="F71" s="93"/>
-      <c r="G71" s="94"/>
+      <c r="C71" s="108"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="88"/>
       <c r="H71" s="12" t="s">
         <v>54</v>
       </c>
@@ -5801,11 +5798,11 @@
       <c r="B72" s="27">
         <v>52</v>
       </c>
-      <c r="C72" s="120"/>
-      <c r="D72" s="93"/>
-      <c r="E72" s="93"/>
-      <c r="F72" s="93"/>
-      <c r="G72" s="94"/>
+      <c r="C72" s="108"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="88"/>
       <c r="H72" s="12" t="s">
         <v>54</v>
       </c>
@@ -5814,11 +5811,11 @@
       <c r="B73" s="9">
         <v>53</v>
       </c>
-      <c r="C73" s="120"/>
-      <c r="D73" s="93"/>
-      <c r="E73" s="93"/>
-      <c r="F73" s="93"/>
-      <c r="G73" s="94"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="87"/>
+      <c r="F73" s="87"/>
+      <c r="G73" s="88"/>
       <c r="H73" s="12" t="s">
         <v>54</v>
       </c>
@@ -5827,11 +5824,11 @@
       <c r="B74" s="27">
         <v>54</v>
       </c>
-      <c r="C74" s="120"/>
-      <c r="D74" s="93"/>
-      <c r="E74" s="93"/>
-      <c r="F74" s="93"/>
-      <c r="G74" s="94"/>
+      <c r="C74" s="108"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="88"/>
       <c r="H74" s="12" t="s">
         <v>54</v>
       </c>
@@ -5840,11 +5837,11 @@
       <c r="B75" s="9">
         <v>55</v>
       </c>
-      <c r="C75" s="120"/>
-      <c r="D75" s="93"/>
-      <c r="E75" s="93"/>
-      <c r="F75" s="93"/>
-      <c r="G75" s="94"/>
+      <c r="C75" s="108"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="87"/>
+      <c r="G75" s="88"/>
       <c r="H75" s="12" t="s">
         <v>54</v>
       </c>
@@ -5853,11 +5850,11 @@
       <c r="B76" s="27">
         <v>56</v>
       </c>
-      <c r="C76" s="120"/>
-      <c r="D76" s="93"/>
-      <c r="E76" s="93"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="94"/>
+      <c r="C76" s="108"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="87"/>
+      <c r="G76" s="88"/>
       <c r="H76" s="12" t="s">
         <v>54</v>
       </c>
@@ -5866,11 +5863,11 @@
       <c r="B77" s="9">
         <v>57</v>
       </c>
-      <c r="C77" s="120"/>
-      <c r="D77" s="93"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="93"/>
-      <c r="G77" s="94"/>
+      <c r="C77" s="108"/>
+      <c r="D77" s="87"/>
+      <c r="E77" s="87"/>
+      <c r="F77" s="87"/>
+      <c r="G77" s="88"/>
       <c r="H77" s="12" t="s">
         <v>54</v>
       </c>
@@ -5879,11 +5876,11 @@
       <c r="B78" s="27">
         <v>58</v>
       </c>
-      <c r="C78" s="120"/>
-      <c r="D78" s="93"/>
-      <c r="E78" s="93"/>
-      <c r="F78" s="93"/>
-      <c r="G78" s="94"/>
+      <c r="C78" s="108"/>
+      <c r="D78" s="87"/>
+      <c r="E78" s="87"/>
+      <c r="F78" s="87"/>
+      <c r="G78" s="88"/>
       <c r="H78" s="12" t="s">
         <v>54</v>
       </c>
@@ -5892,11 +5889,11 @@
       <c r="B79" s="9">
         <v>59</v>
       </c>
-      <c r="C79" s="120"/>
-      <c r="D79" s="93"/>
-      <c r="E79" s="93"/>
-      <c r="F79" s="93"/>
-      <c r="G79" s="94"/>
+      <c r="C79" s="108"/>
+      <c r="D79" s="87"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="87"/>
+      <c r="G79" s="88"/>
       <c r="H79" s="12" t="s">
         <v>54</v>
       </c>
@@ -5905,11 +5902,11 @@
       <c r="B80" s="27">
         <v>60</v>
       </c>
-      <c r="C80" s="120"/>
-      <c r="D80" s="93"/>
-      <c r="E80" s="93"/>
-      <c r="F80" s="93"/>
-      <c r="G80" s="94"/>
+      <c r="C80" s="108"/>
+      <c r="D80" s="87"/>
+      <c r="E80" s="87"/>
+      <c r="F80" s="87"/>
+      <c r="G80" s="88"/>
       <c r="H80" s="12" t="s">
         <v>54</v>
       </c>
@@ -5918,11 +5915,11 @@
       <c r="B81" s="9">
         <v>61</v>
       </c>
-      <c r="C81" s="120"/>
-      <c r="D81" s="93"/>
-      <c r="E81" s="93"/>
-      <c r="F81" s="93"/>
-      <c r="G81" s="94"/>
+      <c r="C81" s="108"/>
+      <c r="D81" s="87"/>
+      <c r="E81" s="87"/>
+      <c r="F81" s="87"/>
+      <c r="G81" s="88"/>
       <c r="H81" s="12" t="s">
         <v>54</v>
       </c>
@@ -5931,11 +5928,11 @@
       <c r="B82" s="27">
         <v>62</v>
       </c>
-      <c r="C82" s="120"/>
-      <c r="D82" s="93"/>
-      <c r="E82" s="93"/>
-      <c r="F82" s="93"/>
-      <c r="G82" s="94"/>
+      <c r="C82" s="108"/>
+      <c r="D82" s="87"/>
+      <c r="E82" s="87"/>
+      <c r="F82" s="87"/>
+      <c r="G82" s="88"/>
       <c r="H82" s="12" t="s">
         <v>54</v>
       </c>
@@ -5944,11 +5941,11 @@
       <c r="B83" s="9">
         <v>63</v>
       </c>
-      <c r="C83" s="120"/>
-      <c r="D83" s="93"/>
-      <c r="E83" s="93"/>
-      <c r="F83" s="93"/>
-      <c r="G83" s="94"/>
+      <c r="C83" s="108"/>
+      <c r="D83" s="87"/>
+      <c r="E83" s="87"/>
+      <c r="F83" s="87"/>
+      <c r="G83" s="88"/>
       <c r="H83" s="12" t="s">
         <v>54</v>
       </c>
@@ -5957,11 +5954,11 @@
       <c r="B84" s="27">
         <v>64</v>
       </c>
-      <c r="C84" s="120"/>
-      <c r="D84" s="93"/>
-      <c r="E84" s="93"/>
-      <c r="F84" s="93"/>
-      <c r="G84" s="94"/>
+      <c r="C84" s="108"/>
+      <c r="D84" s="87"/>
+      <c r="E84" s="87"/>
+      <c r="F84" s="87"/>
+      <c r="G84" s="88"/>
       <c r="H84" s="12" t="s">
         <v>54</v>
       </c>
@@ -5970,11 +5967,11 @@
       <c r="B85" s="9">
         <v>65</v>
       </c>
-      <c r="C85" s="120"/>
-      <c r="D85" s="93"/>
-      <c r="E85" s="93"/>
-      <c r="F85" s="93"/>
-      <c r="G85" s="94"/>
+      <c r="C85" s="108"/>
+      <c r="D85" s="87"/>
+      <c r="E85" s="87"/>
+      <c r="F85" s="87"/>
+      <c r="G85" s="88"/>
       <c r="H85" s="12" t="s">
         <v>54</v>
       </c>
@@ -5983,11 +5980,11 @@
       <c r="B86" s="27">
         <v>66</v>
       </c>
-      <c r="C86" s="120"/>
-      <c r="D86" s="93"/>
-      <c r="E86" s="93"/>
-      <c r="F86" s="93"/>
-      <c r="G86" s="94"/>
+      <c r="C86" s="108"/>
+      <c r="D86" s="87"/>
+      <c r="E86" s="87"/>
+      <c r="F86" s="87"/>
+      <c r="G86" s="88"/>
       <c r="H86" s="12" t="s">
         <v>54</v>
       </c>
@@ -5996,11 +5993,11 @@
       <c r="B87" s="9">
         <v>67</v>
       </c>
-      <c r="C87" s="120"/>
-      <c r="D87" s="93"/>
-      <c r="E87" s="93"/>
-      <c r="F87" s="93"/>
-      <c r="G87" s="94"/>
+      <c r="C87" s="108"/>
+      <c r="D87" s="87"/>
+      <c r="E87" s="87"/>
+      <c r="F87" s="87"/>
+      <c r="G87" s="88"/>
       <c r="H87" s="12" t="s">
         <v>54</v>
       </c>
@@ -6009,11 +6006,11 @@
       <c r="B88" s="27">
         <v>68</v>
       </c>
-      <c r="C88" s="120"/>
-      <c r="D88" s="93"/>
-      <c r="E88" s="93"/>
-      <c r="F88" s="93"/>
-      <c r="G88" s="94"/>
+      <c r="C88" s="108"/>
+      <c r="D88" s="87"/>
+      <c r="E88" s="87"/>
+      <c r="F88" s="87"/>
+      <c r="G88" s="88"/>
       <c r="H88" s="12" t="s">
         <v>54</v>
       </c>
@@ -6022,11 +6019,11 @@
       <c r="B89" s="9">
         <v>69</v>
       </c>
-      <c r="C89" s="120"/>
-      <c r="D89" s="93"/>
-      <c r="E89" s="93"/>
-      <c r="F89" s="93"/>
-      <c r="G89" s="94"/>
+      <c r="C89" s="108"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="87"/>
+      <c r="F89" s="87"/>
+      <c r="G89" s="88"/>
       <c r="H89" s="12" t="s">
         <v>54</v>
       </c>
@@ -6035,11 +6032,11 @@
       <c r="B90" s="27">
         <v>70</v>
       </c>
-      <c r="C90" s="120"/>
-      <c r="D90" s="93"/>
-      <c r="E90" s="93"/>
-      <c r="F90" s="93"/>
-      <c r="G90" s="94"/>
+      <c r="C90" s="108"/>
+      <c r="D90" s="87"/>
+      <c r="E90" s="87"/>
+      <c r="F90" s="87"/>
+      <c r="G90" s="88"/>
       <c r="H90" s="12" t="s">
         <v>54</v>
       </c>
@@ -6048,11 +6045,11 @@
       <c r="B91" s="9">
         <v>71</v>
       </c>
-      <c r="C91" s="120"/>
-      <c r="D91" s="93"/>
-      <c r="E91" s="93"/>
-      <c r="F91" s="93"/>
-      <c r="G91" s="94"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="87"/>
+      <c r="E91" s="87"/>
+      <c r="F91" s="87"/>
+      <c r="G91" s="88"/>
       <c r="H91" s="12" t="s">
         <v>54</v>
       </c>
@@ -6061,11 +6058,11 @@
       <c r="B92" s="27">
         <v>72</v>
       </c>
-      <c r="C92" s="120"/>
-      <c r="D92" s="93"/>
-      <c r="E92" s="93"/>
-      <c r="F92" s="93"/>
-      <c r="G92" s="94"/>
+      <c r="C92" s="108"/>
+      <c r="D92" s="87"/>
+      <c r="E92" s="87"/>
+      <c r="F92" s="87"/>
+      <c r="G92" s="88"/>
       <c r="H92" s="12" t="s">
         <v>54</v>
       </c>
@@ -6074,11 +6071,11 @@
       <c r="B93" s="9">
         <v>73</v>
       </c>
-      <c r="C93" s="120"/>
-      <c r="D93" s="93"/>
-      <c r="E93" s="93"/>
-      <c r="F93" s="93"/>
-      <c r="G93" s="94"/>
+      <c r="C93" s="108"/>
+      <c r="D93" s="87"/>
+      <c r="E93" s="87"/>
+      <c r="F93" s="87"/>
+      <c r="G93" s="88"/>
       <c r="H93" s="12" t="s">
         <v>54</v>
       </c>
@@ -6087,11 +6084,11 @@
       <c r="B94" s="27">
         <v>74</v>
       </c>
-      <c r="C94" s="120"/>
-      <c r="D94" s="93"/>
-      <c r="E94" s="93"/>
-      <c r="F94" s="93"/>
-      <c r="G94" s="94"/>
+      <c r="C94" s="108"/>
+      <c r="D94" s="87"/>
+      <c r="E94" s="87"/>
+      <c r="F94" s="87"/>
+      <c r="G94" s="88"/>
       <c r="H94" s="12" t="s">
         <v>54</v>
       </c>
@@ -6100,11 +6097,11 @@
       <c r="B95" s="9">
         <v>75</v>
       </c>
-      <c r="C95" s="120"/>
-      <c r="D95" s="93"/>
-      <c r="E95" s="93"/>
-      <c r="F95" s="93"/>
-      <c r="G95" s="94"/>
+      <c r="C95" s="108"/>
+      <c r="D95" s="87"/>
+      <c r="E95" s="87"/>
+      <c r="F95" s="87"/>
+      <c r="G95" s="88"/>
       <c r="H95" s="12" t="s">
         <v>54</v>
       </c>
@@ -6113,11 +6110,11 @@
       <c r="B96" s="27">
         <v>76</v>
       </c>
-      <c r="C96" s="120"/>
-      <c r="D96" s="93"/>
-      <c r="E96" s="93"/>
-      <c r="F96" s="93"/>
-      <c r="G96" s="94"/>
+      <c r="C96" s="108"/>
+      <c r="D96" s="87"/>
+      <c r="E96" s="87"/>
+      <c r="F96" s="87"/>
+      <c r="G96" s="88"/>
       <c r="H96" s="12" t="s">
         <v>54</v>
       </c>
@@ -6126,11 +6123,11 @@
       <c r="B97" s="9">
         <v>77</v>
       </c>
-      <c r="C97" s="120"/>
-      <c r="D97" s="93"/>
-      <c r="E97" s="93"/>
-      <c r="F97" s="93"/>
-      <c r="G97" s="94"/>
+      <c r="C97" s="108"/>
+      <c r="D97" s="87"/>
+      <c r="E97" s="87"/>
+      <c r="F97" s="87"/>
+      <c r="G97" s="88"/>
       <c r="H97" s="12" t="s">
         <v>54</v>
       </c>
@@ -6139,11 +6136,11 @@
       <c r="B98" s="27">
         <v>78</v>
       </c>
-      <c r="C98" s="120"/>
-      <c r="D98" s="93"/>
-      <c r="E98" s="93"/>
-      <c r="F98" s="93"/>
-      <c r="G98" s="94"/>
+      <c r="C98" s="108"/>
+      <c r="D98" s="87"/>
+      <c r="E98" s="87"/>
+      <c r="F98" s="87"/>
+      <c r="G98" s="88"/>
       <c r="H98" s="12" t="s">
         <v>54</v>
       </c>
@@ -6152,11 +6149,11 @@
       <c r="B99" s="9">
         <v>79</v>
       </c>
-      <c r="C99" s="120"/>
-      <c r="D99" s="93"/>
-      <c r="E99" s="93"/>
-      <c r="F99" s="93"/>
-      <c r="G99" s="94"/>
+      <c r="C99" s="108"/>
+      <c r="D99" s="87"/>
+      <c r="E99" s="87"/>
+      <c r="F99" s="87"/>
+      <c r="G99" s="88"/>
       <c r="H99" s="12" t="s">
         <v>54</v>
       </c>
@@ -6165,11 +6162,11 @@
       <c r="B100" s="27">
         <v>80</v>
       </c>
-      <c r="C100" s="120"/>
-      <c r="D100" s="93"/>
-      <c r="E100" s="93"/>
-      <c r="F100" s="93"/>
-      <c r="G100" s="94"/>
+      <c r="C100" s="108"/>
+      <c r="D100" s="87"/>
+      <c r="E100" s="87"/>
+      <c r="F100" s="87"/>
+      <c r="G100" s="88"/>
       <c r="H100" s="12" t="s">
         <v>54</v>
       </c>
@@ -6178,11 +6175,11 @@
       <c r="B101" s="9">
         <v>81</v>
       </c>
-      <c r="C101" s="120"/>
-      <c r="D101" s="93"/>
-      <c r="E101" s="93"/>
-      <c r="F101" s="93"/>
-      <c r="G101" s="94"/>
+      <c r="C101" s="108"/>
+      <c r="D101" s="87"/>
+      <c r="E101" s="87"/>
+      <c r="F101" s="87"/>
+      <c r="G101" s="88"/>
       <c r="H101" s="12" t="s">
         <v>54</v>
       </c>
@@ -6191,11 +6188,11 @@
       <c r="B102" s="27">
         <v>82</v>
       </c>
-      <c r="C102" s="120"/>
-      <c r="D102" s="93"/>
-      <c r="E102" s="93"/>
-      <c r="F102" s="93"/>
-      <c r="G102" s="94"/>
+      <c r="C102" s="108"/>
+      <c r="D102" s="87"/>
+      <c r="E102" s="87"/>
+      <c r="F102" s="87"/>
+      <c r="G102" s="88"/>
       <c r="H102" s="12" t="s">
         <v>54</v>
       </c>
@@ -6204,11 +6201,11 @@
       <c r="B103" s="9">
         <v>83</v>
       </c>
-      <c r="C103" s="120"/>
-      <c r="D103" s="93"/>
-      <c r="E103" s="93"/>
-      <c r="F103" s="93"/>
-      <c r="G103" s="94"/>
+      <c r="C103" s="108"/>
+      <c r="D103" s="87"/>
+      <c r="E103" s="87"/>
+      <c r="F103" s="87"/>
+      <c r="G103" s="88"/>
       <c r="H103" s="12" t="s">
         <v>54</v>
       </c>
@@ -6217,11 +6214,11 @@
       <c r="B104" s="27">
         <v>84</v>
       </c>
-      <c r="C104" s="120"/>
-      <c r="D104" s="93"/>
-      <c r="E104" s="93"/>
-      <c r="F104" s="93"/>
-      <c r="G104" s="94"/>
+      <c r="C104" s="108"/>
+      <c r="D104" s="87"/>
+      <c r="E104" s="87"/>
+      <c r="F104" s="87"/>
+      <c r="G104" s="88"/>
       <c r="H104" s="12" t="s">
         <v>54</v>
       </c>
@@ -6230,11 +6227,11 @@
       <c r="B105" s="9">
         <v>85</v>
       </c>
-      <c r="C105" s="120"/>
-      <c r="D105" s="93"/>
-      <c r="E105" s="93"/>
-      <c r="F105" s="93"/>
-      <c r="G105" s="94"/>
+      <c r="C105" s="108"/>
+      <c r="D105" s="87"/>
+      <c r="E105" s="87"/>
+      <c r="F105" s="87"/>
+      <c r="G105" s="88"/>
       <c r="H105" s="12" t="s">
         <v>54</v>
       </c>
@@ -6243,11 +6240,11 @@
       <c r="B106" s="27">
         <v>86</v>
       </c>
-      <c r="C106" s="120"/>
-      <c r="D106" s="93"/>
-      <c r="E106" s="93"/>
-      <c r="F106" s="93"/>
-      <c r="G106" s="94"/>
+      <c r="C106" s="108"/>
+      <c r="D106" s="87"/>
+      <c r="E106" s="87"/>
+      <c r="F106" s="87"/>
+      <c r="G106" s="88"/>
       <c r="H106" s="12" t="s">
         <v>54</v>
       </c>
@@ -6256,11 +6253,11 @@
       <c r="B107" s="9">
         <v>87</v>
       </c>
-      <c r="C107" s="120"/>
-      <c r="D107" s="93"/>
-      <c r="E107" s="93"/>
-      <c r="F107" s="93"/>
-      <c r="G107" s="94"/>
+      <c r="C107" s="108"/>
+      <c r="D107" s="87"/>
+      <c r="E107" s="87"/>
+      <c r="F107" s="87"/>
+      <c r="G107" s="88"/>
       <c r="H107" s="12" t="s">
         <v>54</v>
       </c>
@@ -6269,11 +6266,11 @@
       <c r="B108" s="27">
         <v>88</v>
       </c>
-      <c r="C108" s="120"/>
-      <c r="D108" s="93"/>
-      <c r="E108" s="93"/>
-      <c r="F108" s="93"/>
-      <c r="G108" s="94"/>
+      <c r="C108" s="108"/>
+      <c r="D108" s="87"/>
+      <c r="E108" s="87"/>
+      <c r="F108" s="87"/>
+      <c r="G108" s="88"/>
       <c r="H108" s="12" t="s">
         <v>54</v>
       </c>
@@ -6282,11 +6279,11 @@
       <c r="B109" s="9">
         <v>89</v>
       </c>
-      <c r="C109" s="120"/>
-      <c r="D109" s="93"/>
-      <c r="E109" s="93"/>
-      <c r="F109" s="93"/>
-      <c r="G109" s="94"/>
+      <c r="C109" s="108"/>
+      <c r="D109" s="87"/>
+      <c r="E109" s="87"/>
+      <c r="F109" s="87"/>
+      <c r="G109" s="88"/>
       <c r="H109" s="12" t="s">
         <v>54</v>
       </c>
@@ -6295,11 +6292,11 @@
       <c r="B110" s="27">
         <v>90</v>
       </c>
-      <c r="C110" s="120"/>
-      <c r="D110" s="93"/>
-      <c r="E110" s="93"/>
-      <c r="F110" s="93"/>
-      <c r="G110" s="94"/>
+      <c r="C110" s="108"/>
+      <c r="D110" s="87"/>
+      <c r="E110" s="87"/>
+      <c r="F110" s="87"/>
+      <c r="G110" s="88"/>
       <c r="H110" s="12" t="s">
         <v>54</v>
       </c>
@@ -6308,11 +6305,11 @@
       <c r="B111" s="9">
         <v>91</v>
       </c>
-      <c r="C111" s="120"/>
-      <c r="D111" s="93"/>
-      <c r="E111" s="93"/>
-      <c r="F111" s="93"/>
-      <c r="G111" s="94"/>
+      <c r="C111" s="108"/>
+      <c r="D111" s="87"/>
+      <c r="E111" s="87"/>
+      <c r="F111" s="87"/>
+      <c r="G111" s="88"/>
       <c r="H111" s="12" t="s">
         <v>54</v>
       </c>
@@ -6321,11 +6318,11 @@
       <c r="B112" s="27">
         <v>92</v>
       </c>
-      <c r="C112" s="120"/>
-      <c r="D112" s="93"/>
-      <c r="E112" s="93"/>
-      <c r="F112" s="93"/>
-      <c r="G112" s="94"/>
+      <c r="C112" s="108"/>
+      <c r="D112" s="87"/>
+      <c r="E112" s="87"/>
+      <c r="F112" s="87"/>
+      <c r="G112" s="88"/>
       <c r="H112" s="12" t="s">
         <v>54</v>
       </c>
@@ -6334,11 +6331,11 @@
       <c r="B113" s="9">
         <v>93</v>
       </c>
-      <c r="C113" s="120"/>
-      <c r="D113" s="93"/>
-      <c r="E113" s="93"/>
-      <c r="F113" s="93"/>
-      <c r="G113" s="94"/>
+      <c r="C113" s="108"/>
+      <c r="D113" s="87"/>
+      <c r="E113" s="87"/>
+      <c r="F113" s="87"/>
+      <c r="G113" s="88"/>
       <c r="H113" s="12" t="s">
         <v>54</v>
       </c>
@@ -6347,11 +6344,11 @@
       <c r="B114" s="27">
         <v>94</v>
       </c>
-      <c r="C114" s="120"/>
-      <c r="D114" s="93"/>
-      <c r="E114" s="93"/>
-      <c r="F114" s="93"/>
-      <c r="G114" s="94"/>
+      <c r="C114" s="108"/>
+      <c r="D114" s="87"/>
+      <c r="E114" s="87"/>
+      <c r="F114" s="87"/>
+      <c r="G114" s="88"/>
       <c r="H114" s="12" t="s">
         <v>54</v>
       </c>
@@ -6360,11 +6357,11 @@
       <c r="B115" s="9">
         <v>95</v>
       </c>
-      <c r="C115" s="120"/>
-      <c r="D115" s="93"/>
-      <c r="E115" s="93"/>
-      <c r="F115" s="93"/>
-      <c r="G115" s="94"/>
+      <c r="C115" s="108"/>
+      <c r="D115" s="87"/>
+      <c r="E115" s="87"/>
+      <c r="F115" s="87"/>
+      <c r="G115" s="88"/>
       <c r="H115" s="12" t="s">
         <v>54</v>
       </c>
@@ -6373,11 +6370,11 @@
       <c r="B116" s="27">
         <v>96</v>
       </c>
-      <c r="C116" s="120"/>
-      <c r="D116" s="93"/>
-      <c r="E116" s="93"/>
-      <c r="F116" s="93"/>
-      <c r="G116" s="94"/>
+      <c r="C116" s="108"/>
+      <c r="D116" s="87"/>
+      <c r="E116" s="87"/>
+      <c r="F116" s="87"/>
+      <c r="G116" s="88"/>
       <c r="H116" s="12" t="s">
         <v>54</v>
       </c>
@@ -6386,11 +6383,11 @@
       <c r="B117" s="9">
         <v>97</v>
       </c>
-      <c r="C117" s="120"/>
-      <c r="D117" s="93"/>
-      <c r="E117" s="93"/>
-      <c r="F117" s="93"/>
-      <c r="G117" s="94"/>
+      <c r="C117" s="108"/>
+      <c r="D117" s="87"/>
+      <c r="E117" s="87"/>
+      <c r="F117" s="87"/>
+      <c r="G117" s="88"/>
       <c r="H117" s="12" t="s">
         <v>54</v>
       </c>
@@ -6399,11 +6396,11 @@
       <c r="B118" s="27">
         <v>98</v>
       </c>
-      <c r="C118" s="120"/>
-      <c r="D118" s="93"/>
-      <c r="E118" s="93"/>
-      <c r="F118" s="93"/>
-      <c r="G118" s="94"/>
+      <c r="C118" s="108"/>
+      <c r="D118" s="87"/>
+      <c r="E118" s="87"/>
+      <c r="F118" s="87"/>
+      <c r="G118" s="88"/>
       <c r="H118" s="12" t="s">
         <v>54</v>
       </c>
@@ -6412,11 +6409,11 @@
       <c r="B119" s="9">
         <v>99</v>
       </c>
-      <c r="C119" s="120"/>
-      <c r="D119" s="93"/>
-      <c r="E119" s="93"/>
-      <c r="F119" s="93"/>
-      <c r="G119" s="94"/>
+      <c r="C119" s="108"/>
+      <c r="D119" s="87"/>
+      <c r="E119" s="87"/>
+      <c r="F119" s="87"/>
+      <c r="G119" s="88"/>
       <c r="H119" s="12" t="s">
         <v>54</v>
       </c>
@@ -6425,11 +6422,11 @@
       <c r="B120" s="27">
         <v>100</v>
       </c>
-      <c r="C120" s="120"/>
-      <c r="D120" s="93"/>
-      <c r="E120" s="93"/>
-      <c r="F120" s="93"/>
-      <c r="G120" s="94"/>
+      <c r="C120" s="108"/>
+      <c r="D120" s="87"/>
+      <c r="E120" s="87"/>
+      <c r="F120" s="87"/>
+      <c r="G120" s="88"/>
       <c r="H120" s="12" t="s">
         <v>54</v>
       </c>
@@ -8108,53 +8105,50 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
@@ -8179,50 +8173,53 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C95:G95"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21:H120" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -8272,85 +8269,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="84"/>
+      <c r="B1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="103"/>
       <c r="K1" s="2">
         <f>Requisitos!C11</f>
         <v>45170</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="87"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="105"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K65" si="0">K1+1</f>
         <v>45171</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="105"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45172</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="91"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <